--- a/output/questionnaires/2024-10-20_aargau.xlsx
+++ b/output/questionnaires/2024-10-20_aargau.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$93:$M$97</definedName>
-    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$800:$M$822</definedName>
-    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$830:$M$1021</definedName>
-    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1027:$M$1029</definedName>
+    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$800:$M$820</definedName>
+    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$828:$M$1019</definedName>
+    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1025:$M$1027</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$103:$M$113</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$117:$M$247</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$251:$M$378</definedName>
@@ -23,7 +23,7 @@
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$590:$M$639</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$645:$M$675</definedName>
     <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$681:$M$794</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1034</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1032</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1373">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Wahltermin vom 20. Oktober 2024</t>
   </si>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">Teilnehmende vergangene kantonale Verhältniswahl: All jene Respondenten, welche die Frage zur Teilnahme an den vergangenen kantonalen Wahlen (participation_past_cantonal_elections) mit teilgenommen (1) beantwortet haben.</t>
   </si>
   <si>
-    <t xml:space="preserve">Erwerbstätige: All jene Respondenten, welche entweder die Frage zur Beschäftigungssituation (employment_situation) mit einer der ersten vier Antwortoptionen (1–4) beantwortet haben oder die Zusatzfrage zum Teilzeiterwerb (employment_situation_routing) mit ja (1) beantwortet haben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nichterwerbstätige Online-Respondenten: All jene Online-Respondenten (questionnaire_channel = 1), welche entweder die Frage zur Beschäftigungssituation (employment_situation) mit einer der letzten sechs Antwortoptionen (5–10) beantwortet haben oder die Zusatzfrage zum Teilzeiterwerb (employment_situation_routing) mit nein (2) beantwortet haben.</t>
+    <t xml:space="preserve">Erwerbstätige: All jene Respondenten, welche die Frage zur Beschäftigungssituation (employment_situation) mit einer der ersten vier Antwortoptionen (1–4) beantwortet haben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nichterwerbstätige Online-Respondenten: All jene Online-Respondenten (questionnaire_channel = 1), welche die Frage zur Beschäftigungssituation (employment_situation) mit einer der letzten sechs Antwortoptionen (5–10) beantwortet haben.</t>
   </si>
   <si>
     <t xml:space="preserve">Angestellte: All jene Respondenten, welche die Frage zur Beschäftigungssituation (employment_situation) mit Angestellte:r (3) beantwortet haben.</t>
@@ -3329,28 +3329,10 @@
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusatzfrage zum Teilzeiterwerb für Schüler-, Studenten- und Rentner:innen (Dummy)</t>
+    <t xml:space="preserve">Browser</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Respondenten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sind Sie daneben Teilzeit erwerbstätig?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment_situation_routing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy value indicating whether or not respondent is working (additional routing question for students and pensioners; only online respondents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes (working)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no (not working)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser</t>
   </si>
   <si>
     <t xml:space="preserve">web_browser</t>
@@ -5111,7 +5093,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1034"/>
+  <dimension ref="A1:M1032"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -22307,73 +22289,93 @@
       <c r="M813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="8" t="n">
+      <c r="A814" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="B814" s="8" t="s">
+      <c r="B814" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="C814" s="8" t="s">
+      <c r="C814" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="D814" s="8" t="s">
+      <c r="D814" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E814" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F814" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="E814" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F814" s="8" t="s">
+      <c r="G814" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H814" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="G814" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H814" s="8" t="s">
+      <c r="I814" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="I814" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J814" s="4" t="n">
-        <v>1</v>
+      <c r="J814" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="K814" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L814" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M814" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B815" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="L814" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M814" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="8"/>
-      <c r="B815" s="8"/>
-      <c r="C815" s="8"/>
-      <c r="D815" s="8"/>
-      <c r="E815" s="8"/>
-      <c r="F815" s="8"/>
-      <c r="G815" s="8"/>
-      <c r="H815" s="8"/>
-      <c r="I815" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J815" s="4" t="n">
-        <v>2</v>
+      <c r="C815" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E815" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F815" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G815" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H815" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I815" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J815" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="K815" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L815" s="8"/>
-      <c r="M815" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L815" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M815" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C816" s="4" t="s">
         <v>1010</v>
@@ -22385,16 +22387,16 @@
         <v>58</v>
       </c>
       <c r="F816" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G816" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H816" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I816" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J816" s="4" t="s">
         <v>57</v>
@@ -22411,10 +22413,10 @@
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C817" s="4" t="s">
         <v>1010</v>
@@ -22426,16 +22428,16 @@
         <v>58</v>
       </c>
       <c r="F817" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G817" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H817" s="4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I817" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J817" s="4" t="s">
         <v>57</v>
@@ -22452,10 +22454,10 @@
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C818" s="4" t="s">
         <v>1010</v>
@@ -22467,16 +22469,16 @@
         <v>58</v>
       </c>
       <c r="F818" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G818" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H818" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I818" s="7" t="s">
-        <v>1026</v>
+        <v>898</v>
       </c>
       <c r="J818" s="4" t="s">
         <v>57</v>
@@ -22493,7 +22495,7 @@
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B819" s="4" t="s">
         <v>1027</v>
@@ -22511,13 +22513,13 @@
         <v>1028</v>
       </c>
       <c r="G819" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H819" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="I819" s="7" t="s">
-        <v>1026</v>
+        <v>898</v>
       </c>
       <c r="J819" s="4" t="s">
         <v>57</v>
@@ -22534,10 +22536,10 @@
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C820" s="4" t="s">
         <v>1010</v>
@@ -22549,13 +22551,13 @@
         <v>58</v>
       </c>
       <c r="F820" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G820" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H820" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="I820" s="7" t="s">
         <v>898</v>
@@ -22573,94 +22575,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="4" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B821" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C821" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E821" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F821" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G821" s="4" t="s">
+    <row r="821" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="1"/>
+    </row>
+    <row r="822" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="H821" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I821" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L821" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M821" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="4" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B822" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C822" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E822" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F822" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G822" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H822" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I822" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L822" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M822" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1"/>
     </row>
-    <row r="824" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="2" t="s">
-        <v>1041</v>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="4" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22668,142 +22596,172 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="4" t="s">
+      <c r="A828" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C828" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D828" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E828" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F828" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G828" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H828" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I828" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J828" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K828" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L828" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M828" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="4" t="n">
+        <v>3001</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C829" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E829" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F829" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G829" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H829" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I829" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="J829" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K829" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L829" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M829" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="8" t="n">
+        <v>3002</v>
+      </c>
+      <c r="B830" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C830" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D830" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E830" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F830" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G830" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H830" s="8" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="829" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B830" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C830" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D830" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E830" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F830" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G830" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H830" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I830" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J830" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K830" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L830" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M830" s="6" t="s">
-        <v>54</v>
+      <c r="I830" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J830" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K830" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L830" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M830" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="4" t="n">
-        <v>3001</v>
-      </c>
-      <c r="B831" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C831" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D831" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E831" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F831" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G831" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H831" s="4" t="s">
+      <c r="A831" s="8"/>
+      <c r="B831" s="8"/>
+      <c r="C831" s="8"/>
+      <c r="D831" s="8"/>
+      <c r="E831" s="8"/>
+      <c r="F831" s="8"/>
+      <c r="G831" s="8"/>
+      <c r="H831" s="8"/>
+      <c r="I831" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="I831" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J831" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="J831" s="8"/>
       <c r="K831" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L831" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M831" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="L831" s="8"/>
+      <c r="M831" s="8"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="8" t="n">
-        <v>3002</v>
-      </c>
-      <c r="B832" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C832" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D832" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E832" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F832" s="8" t="s">
+      <c r="A832" s="8"/>
+      <c r="B832" s="8"/>
+      <c r="C832" s="8"/>
+      <c r="D832" s="8"/>
+      <c r="E832" s="8"/>
+      <c r="F832" s="8"/>
+      <c r="G832" s="8"/>
+      <c r="H832" s="8"/>
+      <c r="I832" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="G832" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H832" s="8" t="s">
+      <c r="J832" s="8"/>
+      <c r="K832" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="I832" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J832" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K832" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L832" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M832" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L832" s="8"/>
+      <c r="M832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="8"/>
@@ -22815,11 +22773,11 @@
       <c r="G833" s="8"/>
       <c r="H833" s="8"/>
       <c r="I833" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J833" s="8"/>
       <c r="K833" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="L833" s="8"/>
       <c r="M833" s="8"/>
@@ -22834,11 +22792,11 @@
       <c r="G834" s="8"/>
       <c r="H834" s="8"/>
       <c r="I834" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J834" s="8"/>
       <c r="K834" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L834" s="8"/>
       <c r="M834" s="8"/>
@@ -22853,33 +22811,55 @@
       <c r="G835" s="8"/>
       <c r="H835" s="8"/>
       <c r="I835" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J835" s="8"/>
       <c r="K835" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L835" s="8"/>
       <c r="M835" s="8"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="8"/>
-      <c r="B836" s="8"/>
-      <c r="C836" s="8"/>
-      <c r="D836" s="8"/>
-      <c r="E836" s="8"/>
-      <c r="F836" s="8"/>
-      <c r="G836" s="8"/>
-      <c r="H836" s="8"/>
+      <c r="A836" s="8" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B836" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C836" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D836" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E836" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F836" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G836" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H836" s="8" t="s">
+        <v>1059</v>
+      </c>
       <c r="I836" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J836" s="8"/>
+        <v>730</v>
+      </c>
+      <c r="J836" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K836" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L836" s="8"/>
-      <c r="M836" s="8"/>
+        <v>731</v>
+      </c>
+      <c r="L836" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M836" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="8"/>
@@ -22901,45 +22881,23 @@
       <c r="M837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="8" t="n">
-        <v>3003</v>
-      </c>
-      <c r="B838" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C838" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D838" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E838" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F838" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G838" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H838" s="8" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A838" s="8"/>
+      <c r="B838" s="8"/>
+      <c r="C838" s="8"/>
+      <c r="D838" s="8"/>
+      <c r="E838" s="8"/>
+      <c r="F838" s="8"/>
+      <c r="G838" s="8"/>
+      <c r="H838" s="8"/>
       <c r="I838" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="J838" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="J838" s="8"/>
       <c r="K838" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="L838" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M838" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="L838" s="8"/>
+      <c r="M838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="8"/>
@@ -22951,33 +22909,55 @@
       <c r="G839" s="8"/>
       <c r="H839" s="8"/>
       <c r="I839" s="4" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="J839" s="8"/>
       <c r="K839" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="L839" s="8"/>
       <c r="M839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="8"/>
-      <c r="B840" s="8"/>
-      <c r="C840" s="8"/>
-      <c r="D840" s="8"/>
-      <c r="E840" s="8"/>
-      <c r="F840" s="8"/>
-      <c r="G840" s="8"/>
-      <c r="H840" s="8"/>
+      <c r="A840" s="8" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B840" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C840" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D840" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E840" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F840" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G840" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H840" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="I840" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="J840" s="8"/>
+        <v>746</v>
+      </c>
+      <c r="J840" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K840" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="L840" s="8"/>
-      <c r="M840" s="8"/>
+        <v>747</v>
+      </c>
+      <c r="L840" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M840" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="8"/>
@@ -22989,55 +22969,33 @@
       <c r="G841" s="8"/>
       <c r="H841" s="8"/>
       <c r="I841" s="4" t="s">
-        <v>1068</v>
+        <v>748</v>
       </c>
       <c r="J841" s="8"/>
       <c r="K841" s="4" t="s">
-        <v>1069</v>
+        <v>749</v>
       </c>
       <c r="L841" s="8"/>
       <c r="M841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="8" t="n">
-        <v>3004</v>
-      </c>
-      <c r="B842" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C842" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D842" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="E842" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F842" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G842" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H842" s="8" t="s">
-        <v>1073</v>
-      </c>
+      <c r="A842" s="8"/>
+      <c r="B842" s="8"/>
+      <c r="C842" s="8"/>
+      <c r="D842" s="8"/>
+      <c r="E842" s="8"/>
+      <c r="F842" s="8"/>
+      <c r="G842" s="8"/>
+      <c r="H842" s="8"/>
       <c r="I842" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="J842" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="J842" s="8"/>
       <c r="K842" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="L842" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M842" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="L842" s="8"/>
+      <c r="M842" s="8"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="8"/>
@@ -23049,33 +23007,55 @@
       <c r="G843" s="8"/>
       <c r="H843" s="8"/>
       <c r="I843" s="4" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="J843" s="8"/>
       <c r="K843" s="4" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="L843" s="8"/>
       <c r="M843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="8"/>
-      <c r="B844" s="8"/>
-      <c r="C844" s="8"/>
-      <c r="D844" s="8"/>
-      <c r="E844" s="8"/>
-      <c r="F844" s="8"/>
-      <c r="G844" s="8"/>
-      <c r="H844" s="8"/>
+      <c r="A844" s="8" t="n">
+        <v>3005</v>
+      </c>
+      <c r="B844" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D844" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="E844" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F844" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G844" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H844" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="I844" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="J844" s="8"/>
+        <v>1072</v>
+      </c>
+      <c r="J844" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K844" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="L844" s="8"/>
-      <c r="M844" s="8"/>
+        <v>1073</v>
+      </c>
+      <c r="L844" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M844" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="8"/>
@@ -23087,55 +23067,33 @@
       <c r="G845" s="8"/>
       <c r="H845" s="8"/>
       <c r="I845" s="4" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="J845" s="8"/>
       <c r="K845" s="4" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="L845" s="8"/>
       <c r="M845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="8" t="n">
-        <v>3005</v>
-      </c>
-      <c r="B846" s="8" t="s">
+      <c r="A846" s="8"/>
+      <c r="B846" s="8"/>
+      <c r="C846" s="8"/>
+      <c r="D846" s="8"/>
+      <c r="E846" s="8"/>
+      <c r="F846" s="8"/>
+      <c r="G846" s="8"/>
+      <c r="H846" s="8"/>
+      <c r="I846" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C846" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D846" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="E846" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F846" s="8" t="s">
+      <c r="J846" s="8"/>
+      <c r="K846" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="G846" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H846" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I846" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J846" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K846" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L846" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M846" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L846" s="8"/>
+      <c r="M846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8"/>
@@ -23147,33 +23105,55 @@
       <c r="G847" s="8"/>
       <c r="H847" s="8"/>
       <c r="I847" s="4" t="s">
-        <v>766</v>
+        <v>1076</v>
       </c>
       <c r="J847" s="8"/>
       <c r="K847" s="4" t="s">
-        <v>767</v>
+        <v>1077</v>
       </c>
       <c r="L847" s="8"/>
       <c r="M847" s="8"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="8"/>
-      <c r="B848" s="8"/>
-      <c r="C848" s="8"/>
-      <c r="D848" s="8"/>
-      <c r="E848" s="8"/>
-      <c r="F848" s="8"/>
-      <c r="G848" s="8"/>
-      <c r="H848" s="8"/>
+      <c r="A848" s="8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B848" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C848" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D848" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E848" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F848" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G848" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H848" s="8" t="s">
+        <v>1081</v>
+      </c>
       <c r="I848" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J848" s="8"/>
+        <v>780</v>
+      </c>
+      <c r="J848" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K848" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L848" s="8"/>
-      <c r="M848" s="8"/>
+        <v>781</v>
+      </c>
+      <c r="L848" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M848" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="8"/>
@@ -23185,55 +23165,33 @@
       <c r="G849" s="8"/>
       <c r="H849" s="8"/>
       <c r="I849" s="4" t="s">
-        <v>1082</v>
+        <v>784</v>
       </c>
       <c r="J849" s="8"/>
       <c r="K849" s="4" t="s">
-        <v>1083</v>
+        <v>785</v>
       </c>
       <c r="L849" s="8"/>
       <c r="M849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="8" t="n">
-        <v>3006</v>
-      </c>
-      <c r="B850" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C850" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D850" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="E850" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F850" s="8" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G850" s="8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H850" s="8" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A850" s="8"/>
+      <c r="B850" s="8"/>
+      <c r="C850" s="8"/>
+      <c r="D850" s="8"/>
+      <c r="E850" s="8"/>
+      <c r="F850" s="8"/>
+      <c r="G850" s="8"/>
+      <c r="H850" s="8"/>
       <c r="I850" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="J850" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="J850" s="8"/>
       <c r="K850" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="L850" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M850" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="L850" s="8"/>
+      <c r="M850" s="8"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="8"/>
@@ -23245,11 +23203,11 @@
       <c r="G851" s="8"/>
       <c r="H851" s="8"/>
       <c r="I851" s="4" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="J851" s="8"/>
       <c r="K851" s="4" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="L851" s="8"/>
       <c r="M851" s="8"/>
@@ -23264,11 +23222,11 @@
       <c r="G852" s="8"/>
       <c r="H852" s="8"/>
       <c r="I852" s="4" t="s">
-        <v>1088</v>
+        <v>792</v>
       </c>
       <c r="J852" s="8"/>
       <c r="K852" s="4" t="s">
-        <v>1089</v>
+        <v>793</v>
       </c>
       <c r="L852" s="8"/>
       <c r="M852" s="8"/>
@@ -23283,11 +23241,11 @@
       <c r="G853" s="8"/>
       <c r="H853" s="8"/>
       <c r="I853" s="4" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="J853" s="8"/>
       <c r="K853" s="4" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="L853" s="8"/>
       <c r="M853" s="8"/>
@@ -23302,33 +23260,55 @@
       <c r="G854" s="8"/>
       <c r="H854" s="8"/>
       <c r="I854" s="4" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="J854" s="8"/>
       <c r="K854" s="4" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="L854" s="8"/>
       <c r="M854" s="8"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="8"/>
-      <c r="B855" s="8"/>
-      <c r="C855" s="8"/>
-      <c r="D855" s="8"/>
-      <c r="E855" s="8"/>
-      <c r="F855" s="8"/>
-      <c r="G855" s="8"/>
-      <c r="H855" s="8"/>
+      <c r="A855" s="8" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B855" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C855" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D855" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E855" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F855" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G855" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H855" s="8" t="s">
+        <v>1087</v>
+      </c>
       <c r="I855" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="J855" s="8"/>
+        <v>780</v>
+      </c>
+      <c r="J855" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K855" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="L855" s="8"/>
-      <c r="M855" s="8"/>
+        <v>781</v>
+      </c>
+      <c r="L855" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M855" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="8"/>
@@ -23340,55 +23320,33 @@
       <c r="G856" s="8"/>
       <c r="H856" s="8"/>
       <c r="I856" s="4" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="J856" s="8"/>
       <c r="K856" s="4" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="L856" s="8"/>
       <c r="M856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="8" t="n">
-        <v>3007</v>
-      </c>
-      <c r="B857" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C857" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D857" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E857" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F857" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G857" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H857" s="8" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
+      <c r="C857" s="8"/>
+      <c r="D857" s="8"/>
+      <c r="E857" s="8"/>
+      <c r="F857" s="8"/>
+      <c r="G857" s="8"/>
+      <c r="H857" s="8"/>
       <c r="I857" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="J857" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="J857" s="8"/>
       <c r="K857" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="L857" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M857" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="L857" s="8"/>
+      <c r="M857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="8"/>
@@ -23400,11 +23358,11 @@
       <c r="G858" s="8"/>
       <c r="H858" s="8"/>
       <c r="I858" s="4" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="J858" s="8"/>
       <c r="K858" s="4" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="L858" s="8"/>
       <c r="M858" s="8"/>
@@ -23419,11 +23377,11 @@
       <c r="G859" s="8"/>
       <c r="H859" s="8"/>
       <c r="I859" s="4" t="s">
-        <v>1088</v>
+        <v>792</v>
       </c>
       <c r="J859" s="8"/>
       <c r="K859" s="4" t="s">
-        <v>1089</v>
+        <v>793</v>
       </c>
       <c r="L859" s="8"/>
       <c r="M859" s="8"/>
@@ -23438,11 +23396,11 @@
       <c r="G860" s="8"/>
       <c r="H860" s="8"/>
       <c r="I860" s="4" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="J860" s="8"/>
       <c r="K860" s="4" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="L860" s="8"/>
       <c r="M860" s="8"/>
@@ -23457,134 +23415,134 @@
       <c r="G861" s="8"/>
       <c r="H861" s="8"/>
       <c r="I861" s="4" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="J861" s="8"/>
       <c r="K861" s="4" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="L861" s="8"/>
       <c r="M861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="8"/>
-      <c r="B862" s="8"/>
-      <c r="C862" s="8"/>
-      <c r="D862" s="8"/>
-      <c r="E862" s="8"/>
-      <c r="F862" s="8"/>
-      <c r="G862" s="8"/>
-      <c r="H862" s="8"/>
-      <c r="I862" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="J862" s="8"/>
+      <c r="A862" s="4" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C862" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D862" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E862" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F862" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G862" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H862" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I862" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J862" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K862" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="L862" s="8"/>
-      <c r="M862" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L862" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M862" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="8"/>
-      <c r="B863" s="8"/>
-      <c r="C863" s="8"/>
-      <c r="D863" s="8"/>
-      <c r="E863" s="8"/>
-      <c r="F863" s="8"/>
-      <c r="G863" s="8"/>
-      <c r="H863" s="8"/>
+      <c r="A863" s="8" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B863" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C863" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D863" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E863" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F863" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G863" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H863" s="8" t="s">
+        <v>1096</v>
+      </c>
       <c r="I863" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="J863" s="8"/>
+        <v>1097</v>
+      </c>
+      <c r="J863" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K863" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="L863" s="8"/>
-      <c r="M863" s="8"/>
+        <v>1098</v>
+      </c>
+      <c r="L863" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M863" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="4" t="n">
-        <v>3008</v>
-      </c>
-      <c r="B864" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C864" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D864" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E864" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F864" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G864" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H864" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I864" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J864" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A864" s="8"/>
+      <c r="B864" s="8"/>
+      <c r="C864" s="8"/>
+      <c r="D864" s="8"/>
+      <c r="E864" s="8"/>
+      <c r="F864" s="8"/>
+      <c r="G864" s="8"/>
+      <c r="H864" s="8"/>
+      <c r="I864" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J864" s="8"/>
       <c r="K864" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L864" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M864" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="L864" s="8"/>
+      <c r="M864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="8" t="n">
-        <v>3009</v>
-      </c>
-      <c r="B865" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C865" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D865" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E865" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F865" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G865" s="8" t="s">
+      <c r="A865" s="8"/>
+      <c r="B865" s="8"/>
+      <c r="C865" s="8"/>
+      <c r="D865" s="8"/>
+      <c r="E865" s="8"/>
+      <c r="F865" s="8"/>
+      <c r="G865" s="8"/>
+      <c r="H865" s="8"/>
+      <c r="I865" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="H865" s="8" t="s">
+      <c r="J865" s="8"/>
+      <c r="K865" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="I865" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J865" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K865" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="L865" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M865" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L865" s="8"/>
+      <c r="M865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="8"/>
@@ -23596,33 +23554,55 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J866" s="8"/>
       <c r="K866" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="L866" s="8"/>
       <c r="M866" s="8"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="8"/>
-      <c r="B867" s="8"/>
-      <c r="C867" s="8"/>
-      <c r="D867" s="8"/>
-      <c r="E867" s="8"/>
-      <c r="F867" s="8"/>
-      <c r="G867" s="8"/>
-      <c r="H867" s="8"/>
+      <c r="A867" s="8" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B867" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C867" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E867" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F867" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G867" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H867" s="8" t="s">
+        <v>1107</v>
+      </c>
       <c r="I867" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J867" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="J867" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K867" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="L867" s="8"/>
-      <c r="M867" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="L867" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M867" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="8"/>
@@ -23634,55 +23614,33 @@
       <c r="G868" s="8"/>
       <c r="H868" s="8"/>
       <c r="I868" s="4" t="s">
-        <v>1109</v>
+        <v>182</v>
       </c>
       <c r="J868" s="8"/>
       <c r="K868" s="4" t="s">
-        <v>1110</v>
+        <v>182</v>
       </c>
       <c r="L868" s="8"/>
       <c r="M868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="8" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B869" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C869" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D869" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E869" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F869" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G869" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H869" s="8" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A869" s="8"/>
+      <c r="B869" s="8"/>
+      <c r="C869" s="8"/>
+      <c r="D869" s="8"/>
+      <c r="E869" s="8"/>
+      <c r="F869" s="8"/>
+      <c r="G869" s="8"/>
+      <c r="H869" s="8"/>
       <c r="I869" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J869" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J869" s="8"/>
       <c r="K869" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L869" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M869" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L869" s="8"/>
+      <c r="M869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="8"/>
@@ -23694,11 +23652,11 @@
       <c r="G870" s="8"/>
       <c r="H870" s="8"/>
       <c r="I870" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J870" s="8"/>
       <c r="K870" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L870" s="8"/>
       <c r="M870" s="8"/>
@@ -23713,11 +23671,11 @@
       <c r="G871" s="8"/>
       <c r="H871" s="8"/>
       <c r="I871" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J871" s="8"/>
       <c r="K871" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L871" s="8"/>
       <c r="M871" s="8"/>
@@ -23732,11 +23690,11 @@
       <c r="G872" s="8"/>
       <c r="H872" s="8"/>
       <c r="I872" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J872" s="8"/>
       <c r="K872" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L872" s="8"/>
       <c r="M872" s="8"/>
@@ -23751,11 +23709,11 @@
       <c r="G873" s="8"/>
       <c r="H873" s="8"/>
       <c r="I873" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J873" s="8"/>
       <c r="K873" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L873" s="8"/>
       <c r="M873" s="8"/>
@@ -23770,11 +23728,11 @@
       <c r="G874" s="8"/>
       <c r="H874" s="8"/>
       <c r="I874" s="4" t="s">
-        <v>191</v>
+        <v>756</v>
       </c>
       <c r="J874" s="8"/>
       <c r="K874" s="4" t="s">
-        <v>191</v>
+        <v>757</v>
       </c>
       <c r="L874" s="8"/>
       <c r="M874" s="8"/>
@@ -23789,11 +23747,11 @@
       <c r="G875" s="8"/>
       <c r="H875" s="8"/>
       <c r="I875" s="4" t="s">
-        <v>193</v>
+        <v>1108</v>
       </c>
       <c r="J875" s="8"/>
       <c r="K875" s="4" t="s">
-        <v>193</v>
+        <v>1109</v>
       </c>
       <c r="L875" s="8"/>
       <c r="M875" s="8"/>
@@ -23808,11 +23766,11 @@
       <c r="G876" s="8"/>
       <c r="H876" s="8"/>
       <c r="I876" s="4" t="s">
-        <v>756</v>
+        <v>1110</v>
       </c>
       <c r="J876" s="8"/>
       <c r="K876" s="4" t="s">
-        <v>757</v>
+        <v>1111</v>
       </c>
       <c r="L876" s="8"/>
       <c r="M876" s="8"/>
@@ -23827,11 +23785,11 @@
       <c r="G877" s="8"/>
       <c r="H877" s="8"/>
       <c r="I877" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J877" s="8"/>
       <c r="K877" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
@@ -23846,11 +23804,11 @@
       <c r="G878" s="8"/>
       <c r="H878" s="8"/>
       <c r="I878" s="4" t="s">
-        <v>1116</v>
+        <v>306</v>
       </c>
       <c r="J878" s="8"/>
       <c r="K878" s="4" t="s">
-        <v>1117</v>
+        <v>307</v>
       </c>
       <c r="L878" s="8"/>
       <c r="M878" s="8"/>
@@ -23865,33 +23823,55 @@
       <c r="G879" s="8"/>
       <c r="H879" s="8"/>
       <c r="I879" s="4" t="s">
-        <v>1118</v>
+        <v>98</v>
       </c>
       <c r="J879" s="8"/>
       <c r="K879" s="4" t="s">
-        <v>1119</v>
+        <v>99</v>
       </c>
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="8"/>
-      <c r="B880" s="8"/>
-      <c r="C880" s="8"/>
-      <c r="D880" s="8"/>
-      <c r="E880" s="8"/>
-      <c r="F880" s="8"/>
-      <c r="G880" s="8"/>
-      <c r="H880" s="8"/>
+      <c r="A880" s="8" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B880" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C880" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D880" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E880" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F880" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G880" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H880" s="8" t="s">
+        <v>1117</v>
+      </c>
       <c r="I880" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J880" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="J880" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K880" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L880" s="8"/>
-      <c r="M880" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="L880" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M880" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="8"/>
@@ -23903,55 +23883,33 @@
       <c r="G881" s="8"/>
       <c r="H881" s="8"/>
       <c r="I881" s="4" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="J881" s="8"/>
       <c r="K881" s="4" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="L881" s="8"/>
       <c r="M881" s="8"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="8" t="n">
-        <v>3011</v>
-      </c>
-      <c r="B882" s="8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C882" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D882" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E882" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F882" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G882" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H882" s="8" t="s">
-        <v>1123</v>
-      </c>
+      <c r="A882" s="8"/>
+      <c r="B882" s="8"/>
+      <c r="C882" s="8"/>
+      <c r="D882" s="8"/>
+      <c r="E882" s="8"/>
+      <c r="F882" s="8"/>
+      <c r="G882" s="8"/>
+      <c r="H882" s="8"/>
       <c r="I882" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J882" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="J882" s="8"/>
       <c r="K882" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L882" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M882" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="L882" s="8"/>
+      <c r="M882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="8"/>
@@ -23963,11 +23921,11 @@
       <c r="G883" s="8"/>
       <c r="H883" s="8"/>
       <c r="I883" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J883" s="8"/>
       <c r="K883" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L883" s="8"/>
       <c r="M883" s="8"/>
@@ -23982,11 +23940,11 @@
       <c r="G884" s="8"/>
       <c r="H884" s="8"/>
       <c r="I884" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J884" s="8"/>
       <c r="K884" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L884" s="8"/>
       <c r="M884" s="8"/>
@@ -24001,11 +23959,11 @@
       <c r="G885" s="8"/>
       <c r="H885" s="8"/>
       <c r="I885" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J885" s="8"/>
       <c r="K885" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L885" s="8"/>
       <c r="M885" s="8"/>
@@ -24020,11 +23978,11 @@
       <c r="G886" s="8"/>
       <c r="H886" s="8"/>
       <c r="I886" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J886" s="8"/>
       <c r="K886" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L886" s="8"/>
       <c r="M886" s="8"/>
@@ -24039,11 +23997,11 @@
       <c r="G887" s="8"/>
       <c r="H887" s="8"/>
       <c r="I887" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J887" s="8"/>
       <c r="K887" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L887" s="8"/>
       <c r="M887" s="8"/>
@@ -24058,11 +24016,11 @@
       <c r="G888" s="8"/>
       <c r="H888" s="8"/>
       <c r="I888" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J888" s="8"/>
       <c r="K888" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L888" s="8"/>
       <c r="M888" s="8"/>
@@ -24077,11 +24035,11 @@
       <c r="G889" s="8"/>
       <c r="H889" s="8"/>
       <c r="I889" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J889" s="8"/>
       <c r="K889" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L889" s="8"/>
       <c r="M889" s="8"/>
@@ -24096,11 +24054,11 @@
       <c r="G890" s="8"/>
       <c r="H890" s="8"/>
       <c r="I890" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J890" s="8"/>
       <c r="K890" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L890" s="8"/>
       <c r="M890" s="8"/>
@@ -24115,11 +24073,11 @@
       <c r="G891" s="8"/>
       <c r="H891" s="8"/>
       <c r="I891" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J891" s="8"/>
       <c r="K891" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L891" s="8"/>
       <c r="M891" s="8"/>
@@ -24134,11 +24092,11 @@
       <c r="G892" s="8"/>
       <c r="H892" s="8"/>
       <c r="I892" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J892" s="8"/>
       <c r="K892" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L892" s="8"/>
       <c r="M892" s="8"/>
@@ -24153,11 +24111,11 @@
       <c r="G893" s="8"/>
       <c r="H893" s="8"/>
       <c r="I893" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J893" s="8"/>
       <c r="K893" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L893" s="8"/>
       <c r="M893" s="8"/>
@@ -24172,11 +24130,11 @@
       <c r="G894" s="8"/>
       <c r="H894" s="8"/>
       <c r="I894" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J894" s="8"/>
       <c r="K894" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L894" s="8"/>
       <c r="M894" s="8"/>
@@ -24191,11 +24149,11 @@
       <c r="G895" s="8"/>
       <c r="H895" s="8"/>
       <c r="I895" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J895" s="8"/>
       <c r="K895" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L895" s="8"/>
       <c r="M895" s="8"/>
@@ -24210,11 +24168,11 @@
       <c r="G896" s="8"/>
       <c r="H896" s="8"/>
       <c r="I896" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J896" s="8"/>
       <c r="K896" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L896" s="8"/>
       <c r="M896" s="8"/>
@@ -24229,11 +24187,11 @@
       <c r="G897" s="8"/>
       <c r="H897" s="8"/>
       <c r="I897" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J897" s="8"/>
       <c r="K897" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L897" s="8"/>
       <c r="M897" s="8"/>
@@ -24248,11 +24206,11 @@
       <c r="G898" s="8"/>
       <c r="H898" s="8"/>
       <c r="I898" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J898" s="8"/>
       <c r="K898" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L898" s="8"/>
       <c r="M898" s="8"/>
@@ -24267,11 +24225,11 @@
       <c r="G899" s="8"/>
       <c r="H899" s="8"/>
       <c r="I899" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J899" s="8"/>
       <c r="K899" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L899" s="8"/>
       <c r="M899" s="8"/>
@@ -24286,11 +24244,11 @@
       <c r="G900" s="8"/>
       <c r="H900" s="8"/>
       <c r="I900" s="4" t="s">
-        <v>294</v>
+        <v>1118</v>
       </c>
       <c r="J900" s="8"/>
       <c r="K900" s="4" t="s">
-        <v>295</v>
+        <v>1119</v>
       </c>
       <c r="L900" s="8"/>
       <c r="M900" s="8"/>
@@ -24305,11 +24263,11 @@
       <c r="G901" s="8"/>
       <c r="H901" s="8"/>
       <c r="I901" s="4" t="s">
-        <v>296</v>
+        <v>1120</v>
       </c>
       <c r="J901" s="8"/>
       <c r="K901" s="4" t="s">
-        <v>297</v>
+        <v>757</v>
       </c>
       <c r="L901" s="8"/>
       <c r="M901" s="8"/>
@@ -24324,33 +24282,55 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="4" t="s">
-        <v>1124</v>
+        <v>98</v>
       </c>
       <c r="J902" s="8"/>
       <c r="K902" s="4" t="s">
-        <v>1125</v>
+        <v>99</v>
       </c>
       <c r="L902" s="8"/>
       <c r="M902" s="8"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="8"/>
-      <c r="B903" s="8"/>
-      <c r="C903" s="8"/>
-      <c r="D903" s="8"/>
-      <c r="E903" s="8"/>
-      <c r="F903" s="8"/>
-      <c r="G903" s="8"/>
-      <c r="H903" s="8"/>
+      <c r="A903" s="8" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B903" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C903" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D903" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E903" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F903" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G903" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H903" s="8" t="s">
+        <v>1124</v>
+      </c>
       <c r="I903" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J903" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K903" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="J903" s="8"/>
-      <c r="K903" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="L903" s="8"/>
-      <c r="M903" s="8"/>
+      <c r="L903" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M903" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="8"/>
@@ -24362,55 +24342,33 @@
       <c r="G904" s="8"/>
       <c r="H904" s="8"/>
       <c r="I904" s="4" t="s">
-        <v>98</v>
+        <v>1127</v>
       </c>
       <c r="J904" s="8"/>
       <c r="K904" s="4" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="L904" s="8"/>
       <c r="M904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="8" t="n">
-        <v>3012</v>
-      </c>
-      <c r="B905" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C905" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D905" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E905" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F905" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G905" s="8" t="s">
+      <c r="A905" s="8"/>
+      <c r="B905" s="8"/>
+      <c r="C905" s="8"/>
+      <c r="D905" s="8"/>
+      <c r="E905" s="8"/>
+      <c r="F905" s="8"/>
+      <c r="G905" s="8"/>
+      <c r="H905" s="8"/>
+      <c r="I905" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="H905" s="8" t="s">
+      <c r="J905" s="8"/>
+      <c r="K905" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="I905" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J905" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K905" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L905" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M905" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L905" s="8"/>
+      <c r="M905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="8"/>
@@ -24422,11 +24380,11 @@
       <c r="G906" s="8"/>
       <c r="H906" s="8"/>
       <c r="I906" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="J906" s="8"/>
       <c r="K906" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L906" s="8"/>
       <c r="M906" s="8"/>
@@ -24441,11 +24399,11 @@
       <c r="G907" s="8"/>
       <c r="H907" s="8"/>
       <c r="I907" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J907" s="8"/>
       <c r="K907" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="L907" s="8"/>
       <c r="M907" s="8"/>
@@ -24460,33 +24418,55 @@
       <c r="G908" s="8"/>
       <c r="H908" s="8"/>
       <c r="I908" s="4" t="s">
-        <v>1137</v>
+        <v>98</v>
       </c>
       <c r="J908" s="8"/>
       <c r="K908" s="4" t="s">
-        <v>1138</v>
+        <v>99</v>
       </c>
       <c r="L908" s="8"/>
       <c r="M908" s="8"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="8"/>
-      <c r="B909" s="8"/>
-      <c r="C909" s="8"/>
-      <c r="D909" s="8"/>
-      <c r="E909" s="8"/>
-      <c r="F909" s="8"/>
-      <c r="G909" s="8"/>
-      <c r="H909" s="8"/>
+      <c r="A909" s="8" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B909" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C909" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D909" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E909" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F909" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G909" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H909" s="8" t="s">
+        <v>1138</v>
+      </c>
       <c r="I909" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="J909" s="8"/>
+      <c r="J909" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K909" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="L909" s="8"/>
-      <c r="M909" s="8"/>
+      <c r="L909" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M909" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="8"/>
@@ -24498,55 +24478,33 @@
       <c r="G910" s="8"/>
       <c r="H910" s="8"/>
       <c r="I910" s="4" t="s">
-        <v>98</v>
+        <v>1141</v>
       </c>
       <c r="J910" s="8"/>
       <c r="K910" s="4" t="s">
-        <v>99</v>
+        <v>1142</v>
       </c>
       <c r="L910" s="8"/>
       <c r="M910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="8" t="n">
-        <v>3013</v>
-      </c>
-      <c r="B911" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C911" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D911" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E911" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F911" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G911" s="8" t="s">
+      <c r="A911" s="8"/>
+      <c r="B911" s="8"/>
+      <c r="C911" s="8"/>
+      <c r="D911" s="8"/>
+      <c r="E911" s="8"/>
+      <c r="F911" s="8"/>
+      <c r="G911" s="8"/>
+      <c r="H911" s="8"/>
+      <c r="I911" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="H911" s="8" t="s">
+      <c r="J911" s="8"/>
+      <c r="K911" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="I911" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J911" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K911" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L911" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M911" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L911" s="8"/>
+      <c r="M911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="8"/>
@@ -24558,11 +24516,11 @@
       <c r="G912" s="8"/>
       <c r="H912" s="8"/>
       <c r="I912" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J912" s="8"/>
       <c r="K912" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L912" s="8"/>
       <c r="M912" s="8"/>
@@ -24577,11 +24535,11 @@
       <c r="G913" s="8"/>
       <c r="H913" s="8"/>
       <c r="I913" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J913" s="8"/>
       <c r="K913" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L913" s="8"/>
       <c r="M913" s="8"/>
@@ -24596,33 +24554,55 @@
       <c r="G914" s="8"/>
       <c r="H914" s="8"/>
       <c r="I914" s="4" t="s">
-        <v>1151</v>
+        <v>98</v>
       </c>
       <c r="J914" s="8"/>
       <c r="K914" s="4" t="s">
-        <v>1152</v>
+        <v>99</v>
       </c>
       <c r="L914" s="8"/>
       <c r="M914" s="8"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="8"/>
-      <c r="B915" s="8"/>
-      <c r="C915" s="8"/>
-      <c r="D915" s="8"/>
-      <c r="E915" s="8"/>
-      <c r="F915" s="8"/>
-      <c r="G915" s="8"/>
-      <c r="H915" s="8"/>
+      <c r="A915" s="8" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B915" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C915" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D915" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E915" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F915" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G915" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H915" s="8" t="s">
+        <v>1152</v>
+      </c>
       <c r="I915" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J915" s="8"/>
+        <v>1139</v>
+      </c>
+      <c r="J915" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K915" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L915" s="8"/>
-      <c r="M915" s="8"/>
+        <v>1140</v>
+      </c>
+      <c r="L915" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M915" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="8"/>
@@ -24634,55 +24614,33 @@
       <c r="G916" s="8"/>
       <c r="H916" s="8"/>
       <c r="I916" s="4" t="s">
-        <v>98</v>
+        <v>1141</v>
       </c>
       <c r="J916" s="8"/>
       <c r="K916" s="4" t="s">
-        <v>99</v>
+        <v>1142</v>
       </c>
       <c r="L916" s="8"/>
       <c r="M916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="8" t="n">
-        <v>3014</v>
-      </c>
-      <c r="B917" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C917" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D917" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="E917" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F917" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G917" s="8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H917" s="8" t="s">
-        <v>1158</v>
-      </c>
+      <c r="A917" s="8"/>
+      <c r="B917" s="8"/>
+      <c r="C917" s="8"/>
+      <c r="D917" s="8"/>
+      <c r="E917" s="8"/>
+      <c r="F917" s="8"/>
+      <c r="G917" s="8"/>
+      <c r="H917" s="8"/>
       <c r="I917" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J917" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="J917" s="8"/>
       <c r="K917" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L917" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M917" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="L917" s="8"/>
+      <c r="M917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="8"/>
@@ -24694,11 +24652,11 @@
       <c r="G918" s="8"/>
       <c r="H918" s="8"/>
       <c r="I918" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J918" s="8"/>
       <c r="K918" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L918" s="8"/>
       <c r="M918" s="8"/>
@@ -24713,11 +24671,11 @@
       <c r="G919" s="8"/>
       <c r="H919" s="8"/>
       <c r="I919" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J919" s="8"/>
       <c r="K919" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L919" s="8"/>
       <c r="M919" s="8"/>
@@ -24732,33 +24690,55 @@
       <c r="G920" s="8"/>
       <c r="H920" s="8"/>
       <c r="I920" s="4" t="s">
-        <v>1151</v>
+        <v>98</v>
       </c>
       <c r="J920" s="8"/>
       <c r="K920" s="4" t="s">
-        <v>1152</v>
+        <v>99</v>
       </c>
       <c r="L920" s="8"/>
       <c r="M920" s="8"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="8"/>
-      <c r="B921" s="8"/>
-      <c r="C921" s="8"/>
-      <c r="D921" s="8"/>
-      <c r="E921" s="8"/>
-      <c r="F921" s="8"/>
-      <c r="G921" s="8"/>
-      <c r="H921" s="8"/>
+      <c r="A921" s="8" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B921" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C921" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D921" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E921" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F921" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G921" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H921" s="8" t="s">
+        <v>1156</v>
+      </c>
       <c r="I921" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J921" s="8"/>
+        <v>1139</v>
+      </c>
+      <c r="J921" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K921" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L921" s="8"/>
-      <c r="M921" s="8"/>
+        <v>1140</v>
+      </c>
+      <c r="L921" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M921" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="8"/>
@@ -24770,55 +24750,33 @@
       <c r="G922" s="8"/>
       <c r="H922" s="8"/>
       <c r="I922" s="4" t="s">
-        <v>98</v>
+        <v>1141</v>
       </c>
       <c r="J922" s="8"/>
       <c r="K922" s="4" t="s">
-        <v>99</v>
+        <v>1142</v>
       </c>
       <c r="L922" s="8"/>
       <c r="M922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="8" t="n">
-        <v>3015</v>
-      </c>
-      <c r="B923" s="8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C923" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D923" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E923" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F923" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G923" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H923" s="8" t="s">
-        <v>1162</v>
-      </c>
+      <c r="A923" s="8"/>
+      <c r="B923" s="8"/>
+      <c r="C923" s="8"/>
+      <c r="D923" s="8"/>
+      <c r="E923" s="8"/>
+      <c r="F923" s="8"/>
+      <c r="G923" s="8"/>
+      <c r="H923" s="8"/>
       <c r="I923" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J923" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="J923" s="8"/>
       <c r="K923" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L923" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M923" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="L923" s="8"/>
+      <c r="M923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="8"/>
@@ -24830,11 +24788,11 @@
       <c r="G924" s="8"/>
       <c r="H924" s="8"/>
       <c r="I924" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J924" s="8"/>
       <c r="K924" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L924" s="8"/>
       <c r="M924" s="8"/>
@@ -24849,11 +24807,11 @@
       <c r="G925" s="8"/>
       <c r="H925" s="8"/>
       <c r="I925" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J925" s="8"/>
       <c r="K925" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L925" s="8"/>
       <c r="M925" s="8"/>
@@ -24868,33 +24826,55 @@
       <c r="G926" s="8"/>
       <c r="H926" s="8"/>
       <c r="I926" s="4" t="s">
-        <v>1151</v>
+        <v>98</v>
       </c>
       <c r="J926" s="8"/>
       <c r="K926" s="4" t="s">
-        <v>1152</v>
+        <v>99</v>
       </c>
       <c r="L926" s="8"/>
       <c r="M926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="8"/>
-      <c r="B927" s="8"/>
-      <c r="C927" s="8"/>
-      <c r="D927" s="8"/>
-      <c r="E927" s="8"/>
-      <c r="F927" s="8"/>
-      <c r="G927" s="8"/>
-      <c r="H927" s="8"/>
+      <c r="A927" s="8" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B927" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C927" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D927" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E927" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F927" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G927" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H927" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="I927" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J927" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J927" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K927" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L927" s="8"/>
-      <c r="M927" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L927" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M927" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="8"/>
@@ -24906,21 +24886,21 @@
       <c r="G928" s="8"/>
       <c r="H928" s="8"/>
       <c r="I928" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="J928" s="8"/>
       <c r="K928" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L928" s="8"/>
       <c r="M928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="8" t="n">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C929" s="8" t="s">
         <v>56</v>
@@ -24932,13 +24912,13 @@
         <v>58</v>
       </c>
       <c r="F929" s="8" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G929" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H929" s="8" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="I929" s="4" t="s">
         <v>118</v>
@@ -24977,10 +24957,10 @@
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="8" t="n">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C931" s="8" t="s">
         <v>56</v>
@@ -24992,13 +24972,13 @@
         <v>58</v>
       </c>
       <c r="F931" s="8" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="G931" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H931" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I931" s="4" t="s">
         <v>118</v>
@@ -25037,37 +25017,37 @@
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="8" t="n">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C933" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D933" s="8" t="s">
-        <v>57</v>
+      <c r="D933" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="E933" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F933" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G933" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H933" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="G933" s="8" t="s">
+      <c r="I933" s="4" t="s">
         <v>1172</v>
-      </c>
-      <c r="H933" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I933" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J933" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K933" s="4" t="s">
-        <v>119</v>
+        <v>1173</v>
       </c>
       <c r="L933" s="8" t="s">
         <v>58</v>
@@ -25086,48 +25066,48 @@
       <c r="G934" s="8"/>
       <c r="H934" s="8"/>
       <c r="I934" s="4" t="s">
-        <v>120</v>
+        <v>1174</v>
       </c>
       <c r="J934" s="8"/>
       <c r="K934" s="4" t="s">
-        <v>121</v>
+        <v>1175</v>
       </c>
       <c r="L934" s="8"/>
       <c r="M934" s="8"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="8" t="n">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C935" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D935" s="9" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E935" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F935" s="8" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G935" s="8" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H935" s="8" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I935" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="J935" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K935" s="4" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="L935" s="8" t="s">
         <v>58</v>
@@ -25146,48 +25126,48 @@
       <c r="G936" s="8"/>
       <c r="H936" s="8"/>
       <c r="I936" s="4" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="J936" s="8"/>
       <c r="K936" s="4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="L936" s="8"/>
       <c r="M936" s="8"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="8" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C937" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D937" s="9" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="E937" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F937" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G937" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H937" s="8" t="s">
         <v>1183</v>
       </c>
-      <c r="G937" s="8" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H937" s="8" t="s">
-        <v>1185</v>
-      </c>
       <c r="I937" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="J937" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K937" s="4" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="L937" s="8" t="s">
         <v>58</v>
@@ -25206,156 +25186,134 @@
       <c r="G938" s="8"/>
       <c r="H938" s="8"/>
       <c r="I938" s="4" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="J938" s="8"/>
       <c r="K938" s="4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="L938" s="8"/>
       <c r="M938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="8" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B939" s="8" t="s">
+      <c r="A939" s="4" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C939" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D939" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E939" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F939" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G939" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="C939" s="8" t="s">
+      <c r="H939" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I939" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J939" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K939" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L939" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M939" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="8" t="n">
+        <v>3023</v>
+      </c>
+      <c r="B940" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C940" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D939" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E939" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F939" s="8" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G939" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H939" s="8" t="s">
+      <c r="D940" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E940" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F940" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="I939" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J939" s="8" t="s">
+      <c r="G940" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H940" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I940" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J940" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K939" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="L939" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M939" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="8"/>
-      <c r="B940" s="8"/>
-      <c r="C940" s="8"/>
-      <c r="D940" s="8"/>
-      <c r="E940" s="8"/>
-      <c r="F940" s="8"/>
-      <c r="G940" s="8"/>
-      <c r="H940" s="8"/>
-      <c r="I940" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J940" s="8"/>
       <c r="K940" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L940" s="8"/>
-      <c r="M940" s="8"/>
+        <v>1193</v>
+      </c>
+      <c r="L940" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M940" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="4" t="n">
-        <v>3022</v>
-      </c>
-      <c r="B941" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C941" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D941" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E941" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F941" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G941" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H941" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I941" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J941" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A941" s="8"/>
+      <c r="B941" s="8"/>
+      <c r="C941" s="8"/>
+      <c r="D941" s="8"/>
+      <c r="E941" s="8"/>
+      <c r="F941" s="8"/>
+      <c r="G941" s="8"/>
+      <c r="H941" s="8"/>
+      <c r="I941" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J941" s="8"/>
       <c r="K941" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L941" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M941" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1195</v>
+      </c>
+      <c r="L941" s="8"/>
+      <c r="M941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="8" t="n">
-        <v>3023</v>
-      </c>
-      <c r="B942" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C942" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D942" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E942" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F942" s="8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G942" s="8" t="s">
+      <c r="A942" s="8"/>
+      <c r="B942" s="8"/>
+      <c r="C942" s="8"/>
+      <c r="D942" s="8"/>
+      <c r="E942" s="8"/>
+      <c r="F942" s="8"/>
+      <c r="G942" s="8"/>
+      <c r="H942" s="8"/>
+      <c r="I942" s="4" t="s">
         <v>1196</v>
       </c>
-      <c r="H942" s="8" t="s">
+      <c r="J942" s="8"/>
+      <c r="K942" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="I942" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J942" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K942" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L942" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M942" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L942" s="8"/>
+      <c r="M942" s="8"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="8"/>
@@ -25367,11 +25325,11 @@
       <c r="G943" s="8"/>
       <c r="H943" s="8"/>
       <c r="I943" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J943" s="8"/>
       <c r="K943" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="L943" s="8"/>
       <c r="M943" s="8"/>
@@ -25386,134 +25344,134 @@
       <c r="G944" s="8"/>
       <c r="H944" s="8"/>
       <c r="I944" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J944" s="8"/>
       <c r="K944" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L944" s="8"/>
       <c r="M944" s="8"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="8"/>
-      <c r="B945" s="8"/>
-      <c r="C945" s="8"/>
-      <c r="D945" s="8"/>
-      <c r="E945" s="8"/>
-      <c r="F945" s="8"/>
-      <c r="G945" s="8"/>
-      <c r="H945" s="8"/>
-      <c r="I945" s="4" t="s">
+      <c r="A945" s="4" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C945" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E945" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F945" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G945" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H945" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="J945" s="8"/>
+      <c r="I945" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J945" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K945" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L945" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M945" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="8" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B946" s="8" t="s">
         <v>1205</v>
       </c>
-      <c r="L945" s="8"/>
-      <c r="M945" s="8"/>
-    </row>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="8"/>
-      <c r="B946" s="8"/>
-      <c r="C946" s="8"/>
-      <c r="D946" s="8"/>
-      <c r="E946" s="8"/>
-      <c r="F946" s="8"/>
-      <c r="G946" s="8"/>
-      <c r="H946" s="8"/>
+      <c r="C946" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D946" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E946" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F946" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G946" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H946" s="8" t="s">
+        <v>1207</v>
+      </c>
       <c r="I946" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J946" s="8"/>
+        <v>1192</v>
+      </c>
+      <c r="J946" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K946" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="L946" s="8"/>
-      <c r="M946" s="8"/>
+        <v>1193</v>
+      </c>
+      <c r="L946" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M946" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="4" t="n">
-        <v>3024</v>
-      </c>
-      <c r="B947" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C947" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D947" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E947" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F947" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G947" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H947" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I947" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J947" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A947" s="8"/>
+      <c r="B947" s="8"/>
+      <c r="C947" s="8"/>
+      <c r="D947" s="8"/>
+      <c r="E947" s="8"/>
+      <c r="F947" s="8"/>
+      <c r="G947" s="8"/>
+      <c r="H947" s="8"/>
+      <c r="I947" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J947" s="8"/>
       <c r="K947" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L947" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M947" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1195</v>
+      </c>
+      <c r="L947" s="8"/>
+      <c r="M947" s="8"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="8" t="n">
-        <v>3025</v>
-      </c>
-      <c r="B948" s="8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C948" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D948" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E948" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F948" s="8" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G948" s="8" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H948" s="8" t="s">
-        <v>1213</v>
-      </c>
+      <c r="A948" s="8"/>
+      <c r="B948" s="8"/>
+      <c r="C948" s="8"/>
+      <c r="D948" s="8"/>
+      <c r="E948" s="8"/>
+      <c r="F948" s="8"/>
+      <c r="G948" s="8"/>
+      <c r="H948" s="8"/>
       <c r="I948" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J948" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="J948" s="8"/>
       <c r="K948" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L948" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M948" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1197</v>
+      </c>
+      <c r="L948" s="8"/>
+      <c r="M948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8"/>
@@ -25525,11 +25483,11 @@
       <c r="G949" s="8"/>
       <c r="H949" s="8"/>
       <c r="I949" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J949" s="8"/>
       <c r="K949" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="L949" s="8"/>
       <c r="M949" s="8"/>
@@ -25544,33 +25502,55 @@
       <c r="G950" s="8"/>
       <c r="H950" s="8"/>
       <c r="I950" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J950" s="8"/>
       <c r="K950" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L950" s="8"/>
       <c r="M950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="8"/>
-      <c r="B951" s="8"/>
-      <c r="C951" s="8"/>
-      <c r="D951" s="8"/>
-      <c r="E951" s="8"/>
-      <c r="F951" s="8"/>
-      <c r="G951" s="8"/>
-      <c r="H951" s="8"/>
+      <c r="A951" s="8" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B951" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C951" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D951" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E951" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F951" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G951" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H951" s="8" t="s">
+        <v>1211</v>
+      </c>
       <c r="I951" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J951" s="8"/>
+        <v>1212</v>
+      </c>
+      <c r="J951" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K951" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="L951" s="8"/>
-      <c r="M951" s="8"/>
+        <v>1213</v>
+      </c>
+      <c r="L951" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M951" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="8"/>
@@ -25582,21 +25562,21 @@
       <c r="G952" s="8"/>
       <c r="H952" s="8"/>
       <c r="I952" s="4" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="J952" s="8"/>
       <c r="K952" s="4" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="L952" s="8"/>
       <c r="M952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="8" t="n">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C953" s="8" t="s">
         <v>372</v>
@@ -25608,22 +25588,22 @@
         <v>58</v>
       </c>
       <c r="F953" s="8" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="G953" s="8" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="H953" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I953" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J953" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K953" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L953" s="8" t="s">
         <v>58</v>
@@ -25642,21 +25622,21 @@
       <c r="G954" s="8"/>
       <c r="H954" s="8"/>
       <c r="I954" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J954" s="8"/>
       <c r="K954" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L954" s="8"/>
       <c r="M954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="8" t="n">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="B955" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C955" s="8" t="s">
         <v>372</v>
@@ -25668,22 +25648,22 @@
         <v>58</v>
       </c>
       <c r="F955" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G955" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H955" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="G955" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H955" s="8" t="s">
-        <v>1225</v>
-      </c>
       <c r="I955" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J955" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K955" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L955" s="8" t="s">
         <v>58</v>
@@ -25702,21 +25682,21 @@
       <c r="G956" s="8"/>
       <c r="H956" s="8"/>
       <c r="I956" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J956" s="8"/>
       <c r="K956" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L956" s="8"/>
       <c r="M956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="8" t="n">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="B957" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C957" s="8" t="s">
         <v>372</v>
@@ -25728,22 +25708,22 @@
         <v>58</v>
       </c>
       <c r="F957" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G957" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H957" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="G957" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H957" s="8" t="s">
-        <v>1229</v>
-      </c>
       <c r="I957" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J957" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K957" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L957" s="8" t="s">
         <v>58</v>
@@ -25762,21 +25742,21 @@
       <c r="G958" s="8"/>
       <c r="H958" s="8"/>
       <c r="I958" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J958" s="8"/>
       <c r="K958" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L958" s="8"/>
       <c r="M958" s="8"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="8" t="n">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C959" s="8" t="s">
         <v>372</v>
@@ -25788,22 +25768,22 @@
         <v>58</v>
       </c>
       <c r="F959" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G959" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H959" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="G959" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H959" s="8" t="s">
-        <v>1233</v>
-      </c>
       <c r="I959" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J959" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K959" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L959" s="8" t="s">
         <v>58</v>
@@ -25822,21 +25802,21 @@
       <c r="G960" s="8"/>
       <c r="H960" s="8"/>
       <c r="I960" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J960" s="8"/>
       <c r="K960" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L960" s="8"/>
       <c r="M960" s="8"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="8" t="n">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C961" s="8" t="s">
         <v>372</v>
@@ -25848,22 +25828,22 @@
         <v>58</v>
       </c>
       <c r="F961" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G961" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H961" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="G961" s="8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H961" s="8" t="s">
-        <v>1237</v>
-      </c>
       <c r="I961" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J961" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K961" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L961" s="8" t="s">
         <v>58</v>
@@ -25882,21 +25862,21 @@
       <c r="G962" s="8"/>
       <c r="H962" s="8"/>
       <c r="I962" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J962" s="8"/>
       <c r="K962" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L962" s="8"/>
       <c r="M962" s="8"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="8" t="n">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C963" s="8" t="s">
         <v>372</v>
@@ -25908,22 +25888,22 @@
         <v>58</v>
       </c>
       <c r="F963" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G963" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H963" s="8" t="s">
         <v>1239</v>
       </c>
-      <c r="G963" s="8" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H963" s="8" t="s">
-        <v>1241</v>
-      </c>
       <c r="I963" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J963" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K963" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L963" s="8" t="s">
         <v>58</v>
@@ -25942,21 +25922,21 @@
       <c r="G964" s="8"/>
       <c r="H964" s="8"/>
       <c r="I964" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J964" s="8"/>
       <c r="K964" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L964" s="8"/>
       <c r="M964" s="8"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="8" t="n">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C965" s="8" t="s">
         <v>372</v>
@@ -25968,22 +25948,22 @@
         <v>58</v>
       </c>
       <c r="F965" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G965" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H965" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="G965" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H965" s="8" t="s">
-        <v>1245</v>
-      </c>
       <c r="I965" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J965" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K965" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L965" s="8" t="s">
         <v>58</v>
@@ -26002,21 +25982,21 @@
       <c r="G966" s="8"/>
       <c r="H966" s="8"/>
       <c r="I966" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J966" s="8"/>
       <c r="K966" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L966" s="8"/>
       <c r="M966" s="8"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="8" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C967" s="8" t="s">
         <v>372</v>
@@ -26028,22 +26008,22 @@
         <v>58</v>
       </c>
       <c r="F967" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G967" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H967" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="G967" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H967" s="8" t="s">
-        <v>1249</v>
-      </c>
       <c r="I967" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J967" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K967" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L967" s="8" t="s">
         <v>58</v>
@@ -26062,21 +26042,21 @@
       <c r="G968" s="8"/>
       <c r="H968" s="8"/>
       <c r="I968" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J968" s="8"/>
       <c r="K968" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L968" s="8"/>
       <c r="M968" s="8"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="8" t="n">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C969" s="8" t="s">
         <v>372</v>
@@ -26088,22 +26068,22 @@
         <v>58</v>
       </c>
       <c r="F969" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G969" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H969" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="G969" s="8" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H969" s="8" t="s">
-        <v>1253</v>
-      </c>
       <c r="I969" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J969" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K969" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L969" s="8" t="s">
         <v>58</v>
@@ -26122,21 +26102,21 @@
       <c r="G970" s="8"/>
       <c r="H970" s="8"/>
       <c r="I970" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J970" s="8"/>
       <c r="K970" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L970" s="8"/>
       <c r="M970" s="8"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="8" t="n">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C971" s="8" t="s">
         <v>372</v>
@@ -26148,22 +26128,22 @@
         <v>58</v>
       </c>
       <c r="F971" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G971" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H971" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="G971" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H971" s="8" t="s">
-        <v>1257</v>
-      </c>
       <c r="I971" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J971" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K971" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L971" s="8" t="s">
         <v>58</v>
@@ -26182,21 +26162,21 @@
       <c r="G972" s="8"/>
       <c r="H972" s="8"/>
       <c r="I972" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J972" s="8"/>
       <c r="K972" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L972" s="8"/>
       <c r="M972" s="8"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="8" t="n">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C973" s="8" t="s">
         <v>372</v>
@@ -26208,22 +26188,22 @@
         <v>58</v>
       </c>
       <c r="F973" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G973" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H973" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="G973" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H973" s="8" t="s">
-        <v>1261</v>
-      </c>
       <c r="I973" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J973" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K973" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L973" s="8" t="s">
         <v>58</v>
@@ -26242,21 +26222,21 @@
       <c r="G974" s="8"/>
       <c r="H974" s="8"/>
       <c r="I974" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J974" s="8"/>
       <c r="K974" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L974" s="8"/>
       <c r="M974" s="8"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="8" t="n">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C975" s="8" t="s">
         <v>372</v>
@@ -26268,22 +26248,22 @@
         <v>58</v>
       </c>
       <c r="F975" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G975" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H975" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="G975" s="8" t="s">
-        <v>1264</v>
-      </c>
-      <c r="H975" s="8" t="s">
-        <v>1265</v>
-      </c>
       <c r="I975" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J975" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K975" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L975" s="8" t="s">
         <v>58</v>
@@ -26302,21 +26282,21 @@
       <c r="G976" s="8"/>
       <c r="H976" s="8"/>
       <c r="I976" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J976" s="8"/>
       <c r="K976" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L976" s="8"/>
       <c r="M976" s="8"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="8" t="n">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="B977" s="8" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C977" s="8" t="s">
         <v>372</v>
@@ -26328,22 +26308,22 @@
         <v>58</v>
       </c>
       <c r="F977" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G977" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H977" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="G977" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H977" s="8" t="s">
-        <v>1269</v>
-      </c>
       <c r="I977" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J977" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K977" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L977" s="8" t="s">
         <v>58</v>
@@ -26362,21 +26342,21 @@
       <c r="G978" s="8"/>
       <c r="H978" s="8"/>
       <c r="I978" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J978" s="8"/>
       <c r="K978" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L978" s="8"/>
       <c r="M978" s="8"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="8" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C979" s="8" t="s">
         <v>372</v>
@@ -26388,22 +26368,22 @@
         <v>58</v>
       </c>
       <c r="F979" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G979" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H979" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="G979" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="H979" s="8" t="s">
-        <v>1273</v>
-      </c>
       <c r="I979" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J979" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K979" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L979" s="8" t="s">
         <v>58</v>
@@ -26422,24 +26402,24 @@
       <c r="G980" s="8"/>
       <c r="H980" s="8"/>
       <c r="I980" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J980" s="8"/>
       <c r="K980" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L980" s="8"/>
       <c r="M980" s="8"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="8" t="n">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C981" s="8" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="D981" s="8" t="s">
         <v>57</v>
@@ -26448,22 +26428,22 @@
         <v>58</v>
       </c>
       <c r="F981" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G981" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H981" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="G981" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H981" s="8" t="s">
-        <v>1277</v>
-      </c>
       <c r="I981" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J981" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K981" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L981" s="8" t="s">
         <v>58</v>
@@ -26482,21 +26462,21 @@
       <c r="G982" s="8"/>
       <c r="H982" s="8"/>
       <c r="I982" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J982" s="8"/>
       <c r="K982" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L982" s="8"/>
       <c r="M982" s="8"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="8" t="n">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C983" s="8" t="s">
         <v>174</v>
@@ -26508,22 +26488,22 @@
         <v>58</v>
       </c>
       <c r="F983" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G983" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H983" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="G983" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H983" s="8" t="s">
-        <v>1281</v>
-      </c>
       <c r="I983" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J983" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K983" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L983" s="8" t="s">
         <v>58</v>
@@ -26542,21 +26522,21 @@
       <c r="G984" s="8"/>
       <c r="H984" s="8"/>
       <c r="I984" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J984" s="8"/>
       <c r="K984" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L984" s="8"/>
       <c r="M984" s="8"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="8" t="n">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="B985" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C985" s="8" t="s">
         <v>174</v>
@@ -26568,22 +26548,22 @@
         <v>58</v>
       </c>
       <c r="F985" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G985" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H985" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="G985" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H985" s="8" t="s">
-        <v>1285</v>
-      </c>
       <c r="I985" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J985" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K985" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L985" s="8" t="s">
         <v>58</v>
@@ -26602,21 +26582,21 @@
       <c r="G986" s="8"/>
       <c r="H986" s="8"/>
       <c r="I986" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J986" s="8"/>
       <c r="K986" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L986" s="8"/>
       <c r="M986" s="8"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="8" t="n">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C987" s="8" t="s">
         <v>174</v>
@@ -26628,22 +26608,22 @@
         <v>58</v>
       </c>
       <c r="F987" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G987" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H987" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="G987" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H987" s="8" t="s">
-        <v>1289</v>
-      </c>
       <c r="I987" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J987" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K987" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L987" s="8" t="s">
         <v>58</v>
@@ -26662,21 +26642,21 @@
       <c r="G988" s="8"/>
       <c r="H988" s="8"/>
       <c r="I988" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J988" s="8"/>
       <c r="K988" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L988" s="8"/>
       <c r="M988" s="8"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="8" t="n">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C989" s="8" t="s">
         <v>174</v>
@@ -26688,22 +26668,22 @@
         <v>58</v>
       </c>
       <c r="F989" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G989" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H989" s="8" t="s">
         <v>1291</v>
       </c>
-      <c r="G989" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H989" s="8" t="s">
-        <v>1293</v>
-      </c>
       <c r="I989" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J989" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K989" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L989" s="8" t="s">
         <v>58</v>
@@ -26722,21 +26702,21 @@
       <c r="G990" s="8"/>
       <c r="H990" s="8"/>
       <c r="I990" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J990" s="8"/>
       <c r="K990" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L990" s="8"/>
       <c r="M990" s="8"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="8" t="n">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C991" s="8" t="s">
         <v>174</v>
@@ -26748,22 +26728,22 @@
         <v>58</v>
       </c>
       <c r="F991" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G991" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H991" s="8" t="s">
         <v>1295</v>
       </c>
-      <c r="G991" s="8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H991" s="8" t="s">
-        <v>1297</v>
-      </c>
       <c r="I991" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J991" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K991" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L991" s="8" t="s">
         <v>58</v>
@@ -26782,21 +26762,21 @@
       <c r="G992" s="8"/>
       <c r="H992" s="8"/>
       <c r="I992" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J992" s="8"/>
       <c r="K992" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L992" s="8"/>
       <c r="M992" s="8"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="8" t="n">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C993" s="8" t="s">
         <v>174</v>
@@ -26808,22 +26788,22 @@
         <v>58</v>
       </c>
       <c r="F993" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G993" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H993" s="8" t="s">
         <v>1299</v>
       </c>
-      <c r="G993" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H993" s="8" t="s">
-        <v>1301</v>
-      </c>
       <c r="I993" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J993" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K993" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L993" s="8" t="s">
         <v>58</v>
@@ -26842,21 +26822,21 @@
       <c r="G994" s="8"/>
       <c r="H994" s="8"/>
       <c r="I994" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J994" s="8"/>
       <c r="K994" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L994" s="8"/>
       <c r="M994" s="8"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="8" t="n">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="B995" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C995" s="8" t="s">
         <v>174</v>
@@ -26868,22 +26848,22 @@
         <v>58</v>
       </c>
       <c r="F995" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G995" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H995" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="G995" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H995" s="8" t="s">
-        <v>1305</v>
-      </c>
       <c r="I995" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J995" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K995" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L995" s="8" t="s">
         <v>58</v>
@@ -26902,21 +26882,21 @@
       <c r="G996" s="8"/>
       <c r="H996" s="8"/>
       <c r="I996" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J996" s="8"/>
       <c r="K996" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L996" s="8"/>
       <c r="M996" s="8"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="8" t="n">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B997" s="8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C997" s="8" t="s">
         <v>174</v>
@@ -26928,22 +26908,22 @@
         <v>58</v>
       </c>
       <c r="F997" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G997" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H997" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="G997" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H997" s="8" t="s">
-        <v>1309</v>
-      </c>
       <c r="I997" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J997" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K997" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L997" s="8" t="s">
         <v>58</v>
@@ -26962,21 +26942,21 @@
       <c r="G998" s="8"/>
       <c r="H998" s="8"/>
       <c r="I998" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J998" s="8"/>
       <c r="K998" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L998" s="8"/>
       <c r="M998" s="8"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="8" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B999" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C999" s="8" t="s">
         <v>174</v>
@@ -26988,22 +26968,22 @@
         <v>58</v>
       </c>
       <c r="F999" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G999" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H999" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="G999" s="8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H999" s="8" t="s">
-        <v>1313</v>
-      </c>
       <c r="I999" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J999" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K999" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L999" s="8" t="s">
         <v>58</v>
@@ -27022,21 +27002,21 @@
       <c r="G1000" s="8"/>
       <c r="H1000" s="8"/>
       <c r="I1000" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1000" s="8"/>
       <c r="K1000" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1000" s="8"/>
       <c r="M1000" s="8"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="8" t="n">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="B1001" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C1001" s="8" t="s">
         <v>174</v>
@@ -27048,22 +27028,22 @@
         <v>58</v>
       </c>
       <c r="F1001" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G1001" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H1001" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="G1001" s="8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H1001" s="8" t="s">
-        <v>1317</v>
-      </c>
       <c r="I1001" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J1001" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1001" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L1001" s="8" t="s">
         <v>58</v>
@@ -27082,21 +27062,21 @@
       <c r="G1002" s="8"/>
       <c r="H1002" s="8"/>
       <c r="I1002" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1002" s="8"/>
       <c r="K1002" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1002" s="8"/>
       <c r="M1002" s="8"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="8" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="B1003" s="8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C1003" s="8" t="s">
         <v>174</v>
@@ -27108,22 +27088,22 @@
         <v>58</v>
       </c>
       <c r="F1003" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G1003" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H1003" s="8" t="s">
         <v>1319</v>
       </c>
-      <c r="G1003" s="8" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H1003" s="8" t="s">
-        <v>1321</v>
-      </c>
       <c r="I1003" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J1003" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1003" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L1003" s="8" t="s">
         <v>58</v>
@@ -27142,21 +27122,21 @@
       <c r="G1004" s="8"/>
       <c r="H1004" s="8"/>
       <c r="I1004" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1004" s="8"/>
       <c r="K1004" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1004" s="8"/>
       <c r="M1004" s="8"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="8" t="n">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B1005" s="8" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C1005" s="8" t="s">
         <v>174</v>
@@ -27168,22 +27148,22 @@
         <v>58</v>
       </c>
       <c r="F1005" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G1005" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H1005" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="G1005" s="8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H1005" s="8" t="s">
-        <v>1325</v>
-      </c>
       <c r="I1005" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J1005" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1005" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L1005" s="8" t="s">
         <v>58</v>
@@ -27202,21 +27182,21 @@
       <c r="G1006" s="8"/>
       <c r="H1006" s="8"/>
       <c r="I1006" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1006" s="8"/>
       <c r="K1006" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1006" s="8"/>
       <c r="M1006" s="8"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="8" t="n">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B1007" s="8" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C1007" s="8" t="s">
         <v>174</v>
@@ -27228,22 +27208,22 @@
         <v>58</v>
       </c>
       <c r="F1007" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G1007" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H1007" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="G1007" s="8" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H1007" s="8" t="s">
-        <v>1329</v>
-      </c>
       <c r="I1007" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J1007" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1007" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L1007" s="8" t="s">
         <v>58</v>
@@ -27262,21 +27242,21 @@
       <c r="G1008" s="8"/>
       <c r="H1008" s="8"/>
       <c r="I1008" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1008" s="8"/>
       <c r="K1008" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1008" s="8"/>
       <c r="M1008" s="8"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="8" t="n">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="B1009" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C1009" s="8" t="s">
         <v>174</v>
@@ -27288,22 +27268,22 @@
         <v>58</v>
       </c>
       <c r="F1009" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G1009" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1009" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="G1009" s="8" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H1009" s="8" t="s">
-        <v>1333</v>
-      </c>
       <c r="I1009" s="4" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="J1009" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1009" s="4" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="L1009" s="8" t="s">
         <v>58</v>
@@ -27322,24 +27302,24 @@
       <c r="G1010" s="8"/>
       <c r="H1010" s="8"/>
       <c r="I1010" s="4" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="J1010" s="8"/>
       <c r="K1010" s="4" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L1010" s="8"/>
       <c r="M1010" s="8"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="8" t="n">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="B1011" s="8" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C1011" s="8" t="s">
-        <v>174</v>
+        <v>1010</v>
       </c>
       <c r="D1011" s="8" t="s">
         <v>57</v>
@@ -27348,22 +27328,22 @@
         <v>58</v>
       </c>
       <c r="F1011" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G1011" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H1011" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I1011" s="4" t="s">
         <v>1335</v>
-      </c>
-      <c r="G1011" s="8" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H1011" s="8" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I1011" s="4" t="s">
-        <v>1218</v>
       </c>
       <c r="J1011" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K1011" s="4" t="s">
-        <v>1219</v>
+        <v>1336</v>
       </c>
       <c r="L1011" s="8" t="s">
         <v>58</v>
@@ -27382,84 +27362,106 @@
       <c r="G1012" s="8"/>
       <c r="H1012" s="8"/>
       <c r="I1012" s="4" t="s">
-        <v>1220</v>
+        <v>1337</v>
       </c>
       <c r="J1012" s="8"/>
       <c r="K1012" s="4" t="s">
-        <v>1221</v>
+        <v>1338</v>
       </c>
       <c r="L1012" s="8"/>
       <c r="M1012" s="8"/>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="8" t="n">
-        <v>3056</v>
-      </c>
-      <c r="B1013" s="8" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1013" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D1013" s="8" t="s">
+      <c r="A1013" s="4" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1013" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1013" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1013" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G1013" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H1013" s="8" t="s">
+      <c r="E1013" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1013" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="I1013" s="4" t="s">
+      <c r="G1013" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="J1013" s="8" t="s">
+      <c r="H1013" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I1013" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J1013" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K1013" s="4" t="s">
-        <v>1342</v>
-      </c>
-      <c r="L1013" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1013" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1013" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1013" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="8"/>
-      <c r="B1014" s="8"/>
-      <c r="C1014" s="8"/>
-      <c r="D1014" s="8"/>
-      <c r="E1014" s="8"/>
-      <c r="F1014" s="8"/>
-      <c r="G1014" s="8"/>
-      <c r="H1014" s="8"/>
-      <c r="I1014" s="4" t="s">
+      <c r="A1014" s="4" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B1014" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="J1014" s="8"/>
+      <c r="C1014" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1014" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1014" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G1014" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H1014" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I1014" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J1014" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K1014" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L1014" s="8"/>
-      <c r="M1014" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L1014" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1014" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="4" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="B1015" s="4" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="D1015" s="4" t="s">
         <v>57</v>
@@ -27468,16 +27470,16 @@
         <v>58</v>
       </c>
       <c r="F1015" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G1015" s="4" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="H1015" s="4" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="I1015" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J1015" s="4" t="s">
         <v>57</v>
@@ -27494,10 +27496,10 @@
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="4" t="n">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="B1016" s="4" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C1016" s="4" t="s">
         <v>372</v>
@@ -27509,16 +27511,16 @@
         <v>58</v>
       </c>
       <c r="F1016" s="4" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G1016" s="4" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="H1016" s="4" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="I1016" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J1016" s="4" t="s">
         <v>57</v>
@@ -27535,10 +27537,10 @@
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="4" t="n">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="B1017" s="4" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C1017" s="4" t="s">
         <v>372</v>
@@ -27550,16 +27552,16 @@
         <v>58</v>
       </c>
       <c r="F1017" s="4" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G1017" s="4" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H1017" s="4" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="I1017" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J1017" s="4" t="s">
         <v>57</v>
@@ -27576,10 +27578,10 @@
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="4" t="n">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="B1018" s="4" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C1018" s="4" t="s">
         <v>372</v>
@@ -27591,16 +27593,16 @@
         <v>58</v>
       </c>
       <c r="F1018" s="4" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G1018" s="4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H1018" s="4" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="I1018" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J1018" s="4" t="s">
         <v>57</v>
@@ -27617,10 +27619,10 @@
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="4" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="B1019" s="4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C1019" s="4" t="s">
         <v>372</v>
@@ -27632,16 +27634,16 @@
         <v>58</v>
       </c>
       <c r="F1019" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G1019" s="4" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H1019" s="4" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="I1019" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="J1019" s="4" t="s">
         <v>57</v>
@@ -27656,229 +27658,147 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="4" t="n">
-        <v>3062</v>
-      </c>
-      <c r="B1020" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C1020" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1020" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1020" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G1020" s="4" t="s">
+    <row r="1020" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1"/>
+    </row>
+    <row r="1021" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="H1020" s="4" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I1020" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1020" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1020" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="4" t="n">
-        <v>3063</v>
-      </c>
-      <c r="B1021" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C1021" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1021" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1021" s="4" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G1021" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H1021" s="4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="I1021" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1021" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1021" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1"/>
     </row>
-    <row r="1023" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="2" t="s">
-        <v>1373</v>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="4" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1"/>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="4" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1026" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="1"/>
+      <c r="A1025" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1025" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1025" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1025" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1025" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1025" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1025" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1025" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1025" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1025" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1025" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1025" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="8" t="n">
+        <v>4001</v>
+      </c>
+      <c r="B1026" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1026" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1026" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1026" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1026" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1026" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H1026" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I1026" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1026" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1026" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1026" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1026" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1027" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1027" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1027" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1027" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1027" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1027" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1027" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1027" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1027" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1027" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1027" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1027" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A1027" s="8"/>
+      <c r="B1027" s="8"/>
+      <c r="C1027" s="8"/>
+      <c r="D1027" s="8"/>
+      <c r="E1027" s="8"/>
+      <c r="F1027" s="8"/>
+      <c r="G1027" s="8"/>
+      <c r="H1027" s="8"/>
+      <c r="I1027" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1027" s="8"/>
+      <c r="K1027" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1027" s="8"/>
+      <c r="M1027" s="8"/>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="8" t="n">
-        <v>4001</v>
-      </c>
-      <c r="B1028" s="8" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C1028" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1028" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1028" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1028" s="8" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G1028" s="8" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H1028" s="8" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I1028" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1028" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1028" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1028" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1028" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="8"/>
-      <c r="B1029" s="8"/>
-      <c r="C1029" s="8"/>
-      <c r="D1029" s="8"/>
-      <c r="E1029" s="8"/>
-      <c r="F1029" s="8"/>
-      <c r="G1029" s="8"/>
-      <c r="H1029" s="8"/>
-      <c r="I1029" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1029" s="8"/>
-      <c r="K1029" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1029" s="8"/>
-      <c r="M1029" s="8"/>
+      <c r="A1028" s="4"/>
+    </row>
+    <row r="1029" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1"/>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="4"/>
+      <c r="A1030" s="4" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="1031" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1"/>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="4" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1033" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="1"/>
-    </row>
-    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="4" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1572">
+  <mergeCells count="1562">
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="B95:B97"/>
     <mergeCell ref="C95:C97"/>
@@ -28858,159 +28778,160 @@
     <mergeCell ref="H812:H813"/>
     <mergeCell ref="L812:L813"/>
     <mergeCell ref="M812:M813"/>
-    <mergeCell ref="A814:A815"/>
-    <mergeCell ref="B814:B815"/>
-    <mergeCell ref="C814:C815"/>
-    <mergeCell ref="D814:D815"/>
-    <mergeCell ref="E814:E815"/>
-    <mergeCell ref="F814:F815"/>
-    <mergeCell ref="G814:G815"/>
-    <mergeCell ref="H814:H815"/>
-    <mergeCell ref="L814:L815"/>
-    <mergeCell ref="M814:M815"/>
-    <mergeCell ref="A832:A837"/>
-    <mergeCell ref="B832:B837"/>
-    <mergeCell ref="C832:C837"/>
-    <mergeCell ref="D832:D837"/>
-    <mergeCell ref="E832:E837"/>
-    <mergeCell ref="F832:F837"/>
-    <mergeCell ref="G832:G837"/>
-    <mergeCell ref="H832:H837"/>
-    <mergeCell ref="J832:J837"/>
-    <mergeCell ref="L832:L837"/>
-    <mergeCell ref="M832:M837"/>
-    <mergeCell ref="A838:A841"/>
-    <mergeCell ref="B838:B841"/>
-    <mergeCell ref="C838:C841"/>
-    <mergeCell ref="D838:D841"/>
-    <mergeCell ref="E838:E841"/>
-    <mergeCell ref="F838:F841"/>
-    <mergeCell ref="G838:G841"/>
-    <mergeCell ref="H838:H841"/>
-    <mergeCell ref="J838:J841"/>
-    <mergeCell ref="L838:L841"/>
-    <mergeCell ref="M838:M841"/>
-    <mergeCell ref="A842:A845"/>
-    <mergeCell ref="B842:B845"/>
-    <mergeCell ref="C842:C845"/>
-    <mergeCell ref="D842:D845"/>
-    <mergeCell ref="E842:E845"/>
-    <mergeCell ref="F842:F845"/>
-    <mergeCell ref="G842:G845"/>
-    <mergeCell ref="H842:H845"/>
-    <mergeCell ref="J842:J845"/>
-    <mergeCell ref="L842:L845"/>
-    <mergeCell ref="M842:M845"/>
-    <mergeCell ref="A846:A849"/>
-    <mergeCell ref="B846:B849"/>
-    <mergeCell ref="C846:C849"/>
-    <mergeCell ref="D846:D849"/>
-    <mergeCell ref="E846:E849"/>
-    <mergeCell ref="F846:F849"/>
-    <mergeCell ref="G846:G849"/>
-    <mergeCell ref="H846:H849"/>
-    <mergeCell ref="J846:J849"/>
-    <mergeCell ref="L846:L849"/>
-    <mergeCell ref="M846:M849"/>
-    <mergeCell ref="A850:A856"/>
-    <mergeCell ref="B850:B856"/>
-    <mergeCell ref="C850:C856"/>
-    <mergeCell ref="D850:D856"/>
-    <mergeCell ref="E850:E856"/>
-    <mergeCell ref="F850:F856"/>
-    <mergeCell ref="G850:G856"/>
-    <mergeCell ref="H850:H856"/>
-    <mergeCell ref="J850:J856"/>
-    <mergeCell ref="L850:L856"/>
-    <mergeCell ref="M850:M856"/>
-    <mergeCell ref="A857:A863"/>
-    <mergeCell ref="B857:B863"/>
-    <mergeCell ref="C857:C863"/>
-    <mergeCell ref="D857:D863"/>
-    <mergeCell ref="E857:E863"/>
-    <mergeCell ref="F857:F863"/>
-    <mergeCell ref="G857:G863"/>
-    <mergeCell ref="H857:H863"/>
-    <mergeCell ref="J857:J863"/>
-    <mergeCell ref="L857:L863"/>
-    <mergeCell ref="M857:M863"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="B865:B868"/>
-    <mergeCell ref="C865:C868"/>
-    <mergeCell ref="D865:D868"/>
-    <mergeCell ref="E865:E868"/>
-    <mergeCell ref="F865:F868"/>
-    <mergeCell ref="G865:G868"/>
-    <mergeCell ref="H865:H868"/>
-    <mergeCell ref="J865:J868"/>
-    <mergeCell ref="L865:L868"/>
-    <mergeCell ref="M865:M868"/>
-    <mergeCell ref="A869:A881"/>
-    <mergeCell ref="B869:B881"/>
-    <mergeCell ref="C869:C881"/>
-    <mergeCell ref="D869:D881"/>
-    <mergeCell ref="E869:E881"/>
-    <mergeCell ref="F869:F881"/>
-    <mergeCell ref="G869:G881"/>
-    <mergeCell ref="H869:H881"/>
-    <mergeCell ref="J869:J881"/>
-    <mergeCell ref="L869:L881"/>
-    <mergeCell ref="M869:M881"/>
-    <mergeCell ref="A882:A904"/>
-    <mergeCell ref="B882:B904"/>
-    <mergeCell ref="C882:C904"/>
-    <mergeCell ref="D882:D904"/>
-    <mergeCell ref="E882:E904"/>
-    <mergeCell ref="F882:F904"/>
-    <mergeCell ref="G882:G904"/>
-    <mergeCell ref="H882:H904"/>
-    <mergeCell ref="J882:J904"/>
-    <mergeCell ref="L882:L904"/>
-    <mergeCell ref="M882:M904"/>
-    <mergeCell ref="A905:A910"/>
-    <mergeCell ref="B905:B910"/>
-    <mergeCell ref="C905:C910"/>
-    <mergeCell ref="D905:D910"/>
-    <mergeCell ref="E905:E910"/>
-    <mergeCell ref="F905:F910"/>
-    <mergeCell ref="G905:G910"/>
-    <mergeCell ref="H905:H910"/>
-    <mergeCell ref="J905:J910"/>
-    <mergeCell ref="L905:L910"/>
-    <mergeCell ref="M905:M910"/>
-    <mergeCell ref="A911:A916"/>
-    <mergeCell ref="B911:B916"/>
-    <mergeCell ref="C911:C916"/>
-    <mergeCell ref="D911:D916"/>
-    <mergeCell ref="E911:E916"/>
-    <mergeCell ref="F911:F916"/>
-    <mergeCell ref="G911:G916"/>
-    <mergeCell ref="H911:H916"/>
-    <mergeCell ref="J911:J916"/>
-    <mergeCell ref="L911:L916"/>
-    <mergeCell ref="M911:M916"/>
-    <mergeCell ref="A917:A922"/>
-    <mergeCell ref="B917:B922"/>
-    <mergeCell ref="C917:C922"/>
-    <mergeCell ref="D917:D922"/>
-    <mergeCell ref="E917:E922"/>
-    <mergeCell ref="F917:F922"/>
-    <mergeCell ref="G917:G922"/>
-    <mergeCell ref="H917:H922"/>
-    <mergeCell ref="J917:J922"/>
-    <mergeCell ref="L917:L922"/>
-    <mergeCell ref="M917:M922"/>
-    <mergeCell ref="A923:A928"/>
-    <mergeCell ref="B923:B928"/>
-    <mergeCell ref="C923:C928"/>
-    <mergeCell ref="D923:D928"/>
-    <mergeCell ref="E923:E928"/>
-    <mergeCell ref="F923:F928"/>
-    <mergeCell ref="G923:G928"/>
-    <mergeCell ref="H923:H928"/>
-    <mergeCell ref="J923:J928"/>
-    <mergeCell ref="L923:L928"/>
-    <mergeCell ref="M923:M928"/>
+    <mergeCell ref="A830:A835"/>
+    <mergeCell ref="B830:B835"/>
+    <mergeCell ref="C830:C835"/>
+    <mergeCell ref="D830:D835"/>
+    <mergeCell ref="E830:E835"/>
+    <mergeCell ref="F830:F835"/>
+    <mergeCell ref="G830:G835"/>
+    <mergeCell ref="H830:H835"/>
+    <mergeCell ref="J830:J835"/>
+    <mergeCell ref="L830:L835"/>
+    <mergeCell ref="M830:M835"/>
+    <mergeCell ref="A836:A839"/>
+    <mergeCell ref="B836:B839"/>
+    <mergeCell ref="C836:C839"/>
+    <mergeCell ref="D836:D839"/>
+    <mergeCell ref="E836:E839"/>
+    <mergeCell ref="F836:F839"/>
+    <mergeCell ref="G836:G839"/>
+    <mergeCell ref="H836:H839"/>
+    <mergeCell ref="J836:J839"/>
+    <mergeCell ref="L836:L839"/>
+    <mergeCell ref="M836:M839"/>
+    <mergeCell ref="A840:A843"/>
+    <mergeCell ref="B840:B843"/>
+    <mergeCell ref="C840:C843"/>
+    <mergeCell ref="D840:D843"/>
+    <mergeCell ref="E840:E843"/>
+    <mergeCell ref="F840:F843"/>
+    <mergeCell ref="G840:G843"/>
+    <mergeCell ref="H840:H843"/>
+    <mergeCell ref="J840:J843"/>
+    <mergeCell ref="L840:L843"/>
+    <mergeCell ref="M840:M843"/>
+    <mergeCell ref="A844:A847"/>
+    <mergeCell ref="B844:B847"/>
+    <mergeCell ref="C844:C847"/>
+    <mergeCell ref="D844:D847"/>
+    <mergeCell ref="E844:E847"/>
+    <mergeCell ref="F844:F847"/>
+    <mergeCell ref="G844:G847"/>
+    <mergeCell ref="H844:H847"/>
+    <mergeCell ref="J844:J847"/>
+    <mergeCell ref="L844:L847"/>
+    <mergeCell ref="M844:M847"/>
+    <mergeCell ref="A848:A854"/>
+    <mergeCell ref="B848:B854"/>
+    <mergeCell ref="C848:C854"/>
+    <mergeCell ref="D848:D854"/>
+    <mergeCell ref="E848:E854"/>
+    <mergeCell ref="F848:F854"/>
+    <mergeCell ref="G848:G854"/>
+    <mergeCell ref="H848:H854"/>
+    <mergeCell ref="J848:J854"/>
+    <mergeCell ref="L848:L854"/>
+    <mergeCell ref="M848:M854"/>
+    <mergeCell ref="A855:A861"/>
+    <mergeCell ref="B855:B861"/>
+    <mergeCell ref="C855:C861"/>
+    <mergeCell ref="D855:D861"/>
+    <mergeCell ref="E855:E861"/>
+    <mergeCell ref="F855:F861"/>
+    <mergeCell ref="G855:G861"/>
+    <mergeCell ref="H855:H861"/>
+    <mergeCell ref="J855:J861"/>
+    <mergeCell ref="L855:L861"/>
+    <mergeCell ref="M855:M861"/>
+    <mergeCell ref="A863:A866"/>
+    <mergeCell ref="B863:B866"/>
+    <mergeCell ref="C863:C866"/>
+    <mergeCell ref="D863:D866"/>
+    <mergeCell ref="E863:E866"/>
+    <mergeCell ref="F863:F866"/>
+    <mergeCell ref="G863:G866"/>
+    <mergeCell ref="H863:H866"/>
+    <mergeCell ref="J863:J866"/>
+    <mergeCell ref="L863:L866"/>
+    <mergeCell ref="M863:M866"/>
+    <mergeCell ref="A867:A879"/>
+    <mergeCell ref="B867:B879"/>
+    <mergeCell ref="C867:C879"/>
+    <mergeCell ref="D867:D879"/>
+    <mergeCell ref="E867:E879"/>
+    <mergeCell ref="F867:F879"/>
+    <mergeCell ref="G867:G879"/>
+    <mergeCell ref="H867:H879"/>
+    <mergeCell ref="J867:J879"/>
+    <mergeCell ref="L867:L879"/>
+    <mergeCell ref="M867:M879"/>
+    <mergeCell ref="A880:A902"/>
+    <mergeCell ref="B880:B902"/>
+    <mergeCell ref="C880:C902"/>
+    <mergeCell ref="D880:D902"/>
+    <mergeCell ref="E880:E902"/>
+    <mergeCell ref="F880:F902"/>
+    <mergeCell ref="G880:G902"/>
+    <mergeCell ref="H880:H902"/>
+    <mergeCell ref="J880:J902"/>
+    <mergeCell ref="L880:L902"/>
+    <mergeCell ref="M880:M902"/>
+    <mergeCell ref="A903:A908"/>
+    <mergeCell ref="B903:B908"/>
+    <mergeCell ref="C903:C908"/>
+    <mergeCell ref="D903:D908"/>
+    <mergeCell ref="E903:E908"/>
+    <mergeCell ref="F903:F908"/>
+    <mergeCell ref="G903:G908"/>
+    <mergeCell ref="H903:H908"/>
+    <mergeCell ref="J903:J908"/>
+    <mergeCell ref="L903:L908"/>
+    <mergeCell ref="M903:M908"/>
+    <mergeCell ref="A909:A914"/>
+    <mergeCell ref="B909:B914"/>
+    <mergeCell ref="C909:C914"/>
+    <mergeCell ref="D909:D914"/>
+    <mergeCell ref="E909:E914"/>
+    <mergeCell ref="F909:F914"/>
+    <mergeCell ref="G909:G914"/>
+    <mergeCell ref="H909:H914"/>
+    <mergeCell ref="J909:J914"/>
+    <mergeCell ref="L909:L914"/>
+    <mergeCell ref="M909:M914"/>
+    <mergeCell ref="A915:A920"/>
+    <mergeCell ref="B915:B920"/>
+    <mergeCell ref="C915:C920"/>
+    <mergeCell ref="D915:D920"/>
+    <mergeCell ref="E915:E920"/>
+    <mergeCell ref="F915:F920"/>
+    <mergeCell ref="G915:G920"/>
+    <mergeCell ref="H915:H920"/>
+    <mergeCell ref="J915:J920"/>
+    <mergeCell ref="L915:L920"/>
+    <mergeCell ref="M915:M920"/>
+    <mergeCell ref="A921:A926"/>
+    <mergeCell ref="B921:B926"/>
+    <mergeCell ref="C921:C926"/>
+    <mergeCell ref="D921:D926"/>
+    <mergeCell ref="E921:E926"/>
+    <mergeCell ref="F921:F926"/>
+    <mergeCell ref="G921:G926"/>
+    <mergeCell ref="H921:H926"/>
+    <mergeCell ref="J921:J926"/>
+    <mergeCell ref="L921:L926"/>
+    <mergeCell ref="M921:M926"/>
+    <mergeCell ref="A927:A928"/>
+    <mergeCell ref="B927:B928"/>
+    <mergeCell ref="C927:C928"/>
+    <mergeCell ref="D927:D928"/>
+    <mergeCell ref="E927:E928"/>
+    <mergeCell ref="F927:F928"/>
+    <mergeCell ref="G927:G928"/>
+    <mergeCell ref="H927:H928"/>
+    <mergeCell ref="J927:J928"/>
+    <mergeCell ref="L927:L928"/>
+    <mergeCell ref="M927:M928"/>
     <mergeCell ref="A929:A930"/>
     <mergeCell ref="B929:B930"/>
     <mergeCell ref="C929:C930"/>
@@ -29066,39 +28987,39 @@
     <mergeCell ref="J937:J938"/>
     <mergeCell ref="L937:L938"/>
     <mergeCell ref="M937:M938"/>
-    <mergeCell ref="A939:A940"/>
-    <mergeCell ref="B939:B940"/>
-    <mergeCell ref="C939:C940"/>
-    <mergeCell ref="D939:D940"/>
-    <mergeCell ref="E939:E940"/>
-    <mergeCell ref="F939:F940"/>
-    <mergeCell ref="G939:G940"/>
-    <mergeCell ref="H939:H940"/>
-    <mergeCell ref="J939:J940"/>
-    <mergeCell ref="L939:L940"/>
-    <mergeCell ref="M939:M940"/>
-    <mergeCell ref="A942:A946"/>
-    <mergeCell ref="B942:B946"/>
-    <mergeCell ref="C942:C946"/>
-    <mergeCell ref="D942:D946"/>
-    <mergeCell ref="E942:E946"/>
-    <mergeCell ref="F942:F946"/>
-    <mergeCell ref="G942:G946"/>
-    <mergeCell ref="H942:H946"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="L942:L946"/>
-    <mergeCell ref="M942:M946"/>
-    <mergeCell ref="A948:A952"/>
-    <mergeCell ref="B948:B952"/>
-    <mergeCell ref="C948:C952"/>
-    <mergeCell ref="D948:D952"/>
-    <mergeCell ref="E948:E952"/>
-    <mergeCell ref="F948:F952"/>
-    <mergeCell ref="G948:G952"/>
-    <mergeCell ref="H948:H952"/>
-    <mergeCell ref="J948:J952"/>
-    <mergeCell ref="L948:L952"/>
-    <mergeCell ref="M948:M952"/>
+    <mergeCell ref="A940:A944"/>
+    <mergeCell ref="B940:B944"/>
+    <mergeCell ref="C940:C944"/>
+    <mergeCell ref="D940:D944"/>
+    <mergeCell ref="E940:E944"/>
+    <mergeCell ref="F940:F944"/>
+    <mergeCell ref="G940:G944"/>
+    <mergeCell ref="H940:H944"/>
+    <mergeCell ref="J940:J944"/>
+    <mergeCell ref="L940:L944"/>
+    <mergeCell ref="M940:M944"/>
+    <mergeCell ref="A946:A950"/>
+    <mergeCell ref="B946:B950"/>
+    <mergeCell ref="C946:C950"/>
+    <mergeCell ref="D946:D950"/>
+    <mergeCell ref="E946:E950"/>
+    <mergeCell ref="F946:F950"/>
+    <mergeCell ref="G946:G950"/>
+    <mergeCell ref="H946:H950"/>
+    <mergeCell ref="J946:J950"/>
+    <mergeCell ref="L946:L950"/>
+    <mergeCell ref="M946:M950"/>
+    <mergeCell ref="A951:A952"/>
+    <mergeCell ref="B951:B952"/>
+    <mergeCell ref="C951:C952"/>
+    <mergeCell ref="D951:D952"/>
+    <mergeCell ref="E951:E952"/>
+    <mergeCell ref="F951:F952"/>
+    <mergeCell ref="G951:G952"/>
+    <mergeCell ref="H951:H952"/>
+    <mergeCell ref="J951:J952"/>
+    <mergeCell ref="L951:L952"/>
+    <mergeCell ref="M951:M952"/>
     <mergeCell ref="A953:A954"/>
     <mergeCell ref="B953:B954"/>
     <mergeCell ref="C953:C954"/>
@@ -29429,28 +29350,17 @@
     <mergeCell ref="J1011:J1012"/>
     <mergeCell ref="L1011:L1012"/>
     <mergeCell ref="M1011:M1012"/>
-    <mergeCell ref="A1013:A1014"/>
-    <mergeCell ref="B1013:B1014"/>
-    <mergeCell ref="C1013:C1014"/>
-    <mergeCell ref="D1013:D1014"/>
-    <mergeCell ref="E1013:E1014"/>
-    <mergeCell ref="F1013:F1014"/>
-    <mergeCell ref="G1013:G1014"/>
-    <mergeCell ref="H1013:H1014"/>
-    <mergeCell ref="J1013:J1014"/>
-    <mergeCell ref="L1013:L1014"/>
-    <mergeCell ref="M1013:M1014"/>
-    <mergeCell ref="A1028:A1029"/>
-    <mergeCell ref="B1028:B1029"/>
-    <mergeCell ref="C1028:C1029"/>
-    <mergeCell ref="D1028:D1029"/>
-    <mergeCell ref="E1028:E1029"/>
-    <mergeCell ref="F1028:F1029"/>
-    <mergeCell ref="G1028:G1029"/>
-    <mergeCell ref="H1028:H1029"/>
-    <mergeCell ref="J1028:J1029"/>
-    <mergeCell ref="L1028:L1029"/>
-    <mergeCell ref="M1028:M1029"/>
+    <mergeCell ref="A1026:A1027"/>
+    <mergeCell ref="B1026:B1027"/>
+    <mergeCell ref="C1026:C1027"/>
+    <mergeCell ref="D1026:D1027"/>
+    <mergeCell ref="E1026:E1027"/>
+    <mergeCell ref="F1026:F1027"/>
+    <mergeCell ref="G1026:G1027"/>
+    <mergeCell ref="H1026:H1027"/>
+    <mergeCell ref="J1026:J1027"/>
+    <mergeCell ref="L1026:L1027"/>
+    <mergeCell ref="M1026:M1027"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A53" location="freitextfelder" display="Freitextfeld"/>
@@ -29461,18 +29371,18 @@
     <hyperlink ref="B343" r:id="rId4" display="Telegram"/>
     <hyperlink ref="H343" r:id="rId5" display="Telegram"/>
     <hyperlink ref="B355" r:id="rId6" display="easyvote-Wahlbroschüre"/>
-    <hyperlink ref="I818" r:id="rId7" display="ISO 8601"/>
-    <hyperlink ref="I819" r:id="rId8" display="ISO 8601"/>
-    <hyperlink ref="A828" r:id="rId9" display="factor"/>
-    <hyperlink ref="B864" r:id="rId10" display="OECD-Quadratwurzel-Skala"/>
-    <hyperlink ref="H882" r:id="rId11" display="“Credit Suisse Sorgenbarometer”"/>
-    <hyperlink ref="H1015" r:id="rId12" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1016" r:id="rId13" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1017" r:id="rId14" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1018" r:id="rId15" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1019" r:id="rId16" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1020" r:id="rId17" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1021" r:id="rId18" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="I816" r:id="rId7" display="ISO 8601"/>
+    <hyperlink ref="I817" r:id="rId8" display="ISO 8601"/>
+    <hyperlink ref="A826" r:id="rId9" display="factor"/>
+    <hyperlink ref="B862" r:id="rId10" display="OECD-Quadratwurzel-Skala"/>
+    <hyperlink ref="H880" r:id="rId11" display="“Credit Suisse Sorgenbarometer”"/>
+    <hyperlink ref="H1013" r:id="rId12" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1014" r:id="rId13" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1015" r:id="rId14" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1016" r:id="rId15" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1017" r:id="rId16" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1018" r:id="rId17" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1019" r:id="rId18" display="iterative proportional fitting procedure"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/output/questionnaires/2024-10-20_aargau.xlsx
+++ b/output/questionnaires/2024-10-20_aargau.xlsx
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">Stimmentscheid Sitz 1 kantonale Mehrheitswahl 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Welche fünf Kandidat:innen haben Sie in den kantonalen Regierungsrat gewählt?</t>
+    <t xml:space="preserve">Welche Kandidat:innen haben Sie in den kantonalen Regierungsrat gewählt (max. fünf)?</t>
   </si>
   <si>
     <t xml:space="preserve">voting_decision_cantonal_majoritarian_election_1_seat_1</t>

--- a/output/questionnaires/2024-10-20_aargau.xlsx
+++ b/output/questionnaires/2024-10-20_aargau.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$93:$M$97</definedName>
-    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$802:$M$822</definedName>
-    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$830:$M$1022</definedName>
-    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1028:$M$1030</definedName>
+    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$802:$M$815</definedName>
+    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$823:$M$1015</definedName>
+    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1021:$M$1023</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$103:$M$113</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$117:$M$247</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$251:$M$378</definedName>
@@ -23,7 +23,7 @@
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$591:$M$640</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$646:$M$676</definedName>
     <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$682:$M$796</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1035</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1028</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1348">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Wahltermin vom 20. Oktober 2024</t>
   </si>
@@ -3308,52 +3308,10 @@
     <t xml:space="preserve">received reminder</t>
   </si>
   <si>
-    <t xml:space="preserve">Plausibilitätskontrolle Umfrageinstitut (Dummy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passes_plausibility_check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy value indicating whether or not the respondent’s answer behavior passes basic plausibility checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicht bestanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser</t>
+    <t xml:space="preserve">Interviewstartzeitpunkt</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Respondenten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web_browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the User-Agent string of the respondent’s web browser (only online respondents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP-Referrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http_referrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the HTTP referrer the respondent’s web browser sent when accessing the questionnaire (only online respondents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewstartzeitpunkt</t>
   </si>
   <si>
     <t xml:space="preserve">start_date_time</t>
@@ -3392,15 +3350,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Letzter Fragebogenzugriffszeitpunkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_access_date_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date and time when the respondent last accessed the questionnaire (only online respondents)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gesamte Interviewdauer</t>
   </si>
   <si>
@@ -3408,30 +3357,6 @@
   </si>
   <si>
     <t xml:space="preserve">time in seconds it took the respondent to complete the whole questionnaire (only online respondents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verweildauer Einstiegsseite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time in seconds the respondent spent on the survey introduction page (only online respondents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewdauer Thema/Themen XYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time in seconds it took the respondent to complete the variable(s) xyz (only online respondents)</t>
   </si>
   <si>
     <t xml:space="preserve">Block Y: Vom ZDA generierte Zusatzvariablen</t>
@@ -5093,10 +5018,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1035"/>
+  <dimension ref="A1:M1028"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22269,503 +22194,391 @@
       <c r="M813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="8" t="n">
+      <c r="A814" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="B814" s="8" t="s">
+      <c r="B814" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="C814" s="8" t="s">
+      <c r="C814" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E814" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F814" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G814" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H814" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I814" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J814" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K814" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L814" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M814" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C815" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E815" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F815" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G815" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H815" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I815" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="J815" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K815" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L815" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M815" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="1"/>
+    </row>
+    <row r="817" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="1"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="1"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="1"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C823" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D823" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E823" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F823" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G823" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H823" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I823" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J823" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K823" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L823" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M823" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="4" t="n">
+        <v>3001</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C824" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D814" s="8" t="s">
+      <c r="D824" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E814" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F814" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G814" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H814" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I814" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J814" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K814" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L814" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M814" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="8"/>
-      <c r="B815" s="8"/>
-      <c r="C815" s="8"/>
-      <c r="D815" s="8"/>
-      <c r="E815" s="8"/>
-      <c r="F815" s="8"/>
-      <c r="G815" s="8"/>
-      <c r="H815" s="8"/>
-      <c r="I815" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J815" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K815" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L815" s="8"/>
-      <c r="M815" s="8"/>
-    </row>
-    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="4" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B816" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C816" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D816" s="4" t="s">
+      <c r="E824" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F824" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G824" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H824" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I824" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="J824" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E816" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F816" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G816" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H816" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I816" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J816" s="4" t="s">
+      <c r="K824" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K816" s="4" t="s">
+      <c r="L824" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M824" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="8" t="n">
+        <v>3002</v>
+      </c>
+      <c r="B825" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C825" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D825" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L816" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M816" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="4" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B817" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C817" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D817" s="4" t="s">
+      <c r="E825" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F825" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G825" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H825" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I825" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J825" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E817" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F817" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G817" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H817" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I817" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J817" s="4" t="s">
+      <c r="K825" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L825" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M825" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="8"/>
+      <c r="B826" s="8"/>
+      <c r="C826" s="8"/>
+      <c r="D826" s="8"/>
+      <c r="E826" s="8"/>
+      <c r="F826" s="8"/>
+      <c r="G826" s="8"/>
+      <c r="H826" s="8"/>
+      <c r="I826" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J826" s="8"/>
+      <c r="K826" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L826" s="8"/>
+      <c r="M826" s="8"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="8"/>
+      <c r="B827" s="8"/>
+      <c r="C827" s="8"/>
+      <c r="D827" s="8"/>
+      <c r="E827" s="8"/>
+      <c r="F827" s="8"/>
+      <c r="G827" s="8"/>
+      <c r="H827" s="8"/>
+      <c r="I827" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J827" s="8"/>
+      <c r="K827" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L827" s="8"/>
+      <c r="M827" s="8"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="8"/>
+      <c r="B828" s="8"/>
+      <c r="C828" s="8"/>
+      <c r="D828" s="8"/>
+      <c r="E828" s="8"/>
+      <c r="F828" s="8"/>
+      <c r="G828" s="8"/>
+      <c r="H828" s="8"/>
+      <c r="I828" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J828" s="8"/>
+      <c r="K828" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L828" s="8"/>
+      <c r="M828" s="8"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="8"/>
+      <c r="B829" s="8"/>
+      <c r="C829" s="8"/>
+      <c r="D829" s="8"/>
+      <c r="E829" s="8"/>
+      <c r="F829" s="8"/>
+      <c r="G829" s="8"/>
+      <c r="H829" s="8"/>
+      <c r="I829" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J829" s="8"/>
+      <c r="K829" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L829" s="8"/>
+      <c r="M829" s="8"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="8"/>
+      <c r="B830" s="8"/>
+      <c r="C830" s="8"/>
+      <c r="D830" s="8"/>
+      <c r="E830" s="8"/>
+      <c r="F830" s="8"/>
+      <c r="G830" s="8"/>
+      <c r="H830" s="8"/>
+      <c r="I830" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J830" s="8"/>
+      <c r="K830" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L830" s="8"/>
+      <c r="M830" s="8"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="8" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B831" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C831" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D831" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E831" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F831" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G831" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H831" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I831" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="J831" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K817" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L817" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M817" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="4" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B818" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C818" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D818" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E818" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F818" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G818" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H818" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I818" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J818" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K818" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L818" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M818" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="4" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B819" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C819" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D819" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E819" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F819" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G819" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H819" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I819" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J819" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K819" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L819" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M819" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B820" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C820" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D820" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E820" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F820" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G820" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H820" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I820" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J820" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K820" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L820" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M820" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="4" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B821" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C821" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E821" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F821" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G821" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H821" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I821" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K821" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L821" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M821" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="4" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B822" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C822" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E822" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F822" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G822" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H822" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I822" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K822" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L822" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M822" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="823" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="1"/>
-    </row>
-    <row r="824" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="2" t="s">
+      <c r="K831" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="L831" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M831" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="8"/>
+      <c r="B832" s="8"/>
+      <c r="C832" s="8"/>
+      <c r="D832" s="8"/>
+      <c r="E832" s="8"/>
+      <c r="F832" s="8"/>
+      <c r="G832" s="8"/>
+      <c r="H832" s="8"/>
+      <c r="I832" s="4" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="825" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="1"/>
-    </row>
-    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="4" t="s">
+      <c r="J832" s="8"/>
+      <c r="K832" s="4" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="827" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="1"/>
-    </row>
-    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="4" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="829" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B830" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C830" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D830" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E830" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F830" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G830" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H830" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I830" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J830" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K830" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L830" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M830" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="4" t="n">
-        <v>3001</v>
-      </c>
-      <c r="B831" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C831" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D831" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E831" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F831" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G831" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H831" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I831" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="J831" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K831" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L831" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M831" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="8" t="n">
-        <v>3002</v>
-      </c>
-      <c r="B832" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C832" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D832" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E832" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F832" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G832" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H832" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I832" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J832" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K832" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L832" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M832" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L832" s="8"/>
+      <c r="M832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="8"/>
@@ -22777,11 +22590,11 @@
       <c r="G833" s="8"/>
       <c r="H833" s="8"/>
       <c r="I833" s="4" t="s">
-        <v>1046</v>
+        <v>734</v>
       </c>
       <c r="J833" s="8"/>
       <c r="K833" s="4" t="s">
-        <v>1047</v>
+        <v>735</v>
       </c>
       <c r="L833" s="8"/>
       <c r="M833" s="8"/>
@@ -22796,33 +22609,55 @@
       <c r="G834" s="8"/>
       <c r="H834" s="8"/>
       <c r="I834" s="4" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="J834" s="8"/>
       <c r="K834" s="4" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="L834" s="8"/>
       <c r="M834" s="8"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="8"/>
-      <c r="B835" s="8"/>
-      <c r="C835" s="8"/>
-      <c r="D835" s="8"/>
-      <c r="E835" s="8"/>
-      <c r="F835" s="8"/>
-      <c r="G835" s="8"/>
-      <c r="H835" s="8"/>
+      <c r="A835" s="8" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B835" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C835" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D835" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E835" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F835" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G835" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H835" s="8" t="s">
+        <v>1042</v>
+      </c>
       <c r="I835" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J835" s="8"/>
+        <v>746</v>
+      </c>
+      <c r="J835" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K835" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L835" s="8"/>
-      <c r="M835" s="8"/>
+        <v>747</v>
+      </c>
+      <c r="L835" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M835" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="8"/>
@@ -22834,11 +22669,11 @@
       <c r="G836" s="8"/>
       <c r="H836" s="8"/>
       <c r="I836" s="4" t="s">
-        <v>1052</v>
+        <v>748</v>
       </c>
       <c r="J836" s="8"/>
       <c r="K836" s="4" t="s">
-        <v>1053</v>
+        <v>749</v>
       </c>
       <c r="L836" s="8"/>
       <c r="M836" s="8"/>
@@ -22853,74 +22688,74 @@
       <c r="G837" s="8"/>
       <c r="H837" s="8"/>
       <c r="I837" s="4" t="s">
-        <v>1054</v>
+        <v>750</v>
       </c>
       <c r="J837" s="8"/>
       <c r="K837" s="4" t="s">
-        <v>1055</v>
+        <v>751</v>
       </c>
       <c r="L837" s="8"/>
       <c r="M837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="8" t="n">
-        <v>3003</v>
-      </c>
-      <c r="B838" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C838" s="8" t="s">
+      <c r="A838" s="8"/>
+      <c r="B838" s="8"/>
+      <c r="C838" s="8"/>
+      <c r="D838" s="8"/>
+      <c r="E838" s="8"/>
+      <c r="F838" s="8"/>
+      <c r="G838" s="8"/>
+      <c r="H838" s="8"/>
+      <c r="I838" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="J838" s="8"/>
+      <c r="K838" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="L838" s="8"/>
+      <c r="M838" s="8"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="8" t="n">
+        <v>3005</v>
+      </c>
+      <c r="B839" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C839" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D838" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E838" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F838" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G838" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H838" s="8" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I838" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="J838" s="8" t="s">
+      <c r="D839" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="E839" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F839" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G839" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H839" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I839" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J839" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K838" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="L838" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M838" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="8"/>
-      <c r="B839" s="8"/>
-      <c r="C839" s="8"/>
-      <c r="D839" s="8"/>
-      <c r="E839" s="8"/>
-      <c r="F839" s="8"/>
-      <c r="G839" s="8"/>
-      <c r="H839" s="8"/>
-      <c r="I839" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J839" s="8"/>
       <c r="K839" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L839" s="8"/>
-      <c r="M839" s="8"/>
+        <v>1048</v>
+      </c>
+      <c r="L839" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M839" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8"/>
@@ -22932,11 +22767,11 @@
       <c r="G840" s="8"/>
       <c r="H840" s="8"/>
       <c r="I840" s="4" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="J840" s="8"/>
       <c r="K840" s="4" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="L840" s="8"/>
       <c r="M840" s="8"/>
@@ -22951,74 +22786,74 @@
       <c r="G841" s="8"/>
       <c r="H841" s="8"/>
       <c r="I841" s="4" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="J841" s="8"/>
       <c r="K841" s="4" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="L841" s="8"/>
       <c r="M841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="8" t="n">
-        <v>3004</v>
-      </c>
-      <c r="B842" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C842" s="8" t="s">
+      <c r="A842" s="8"/>
+      <c r="B842" s="8"/>
+      <c r="C842" s="8"/>
+      <c r="D842" s="8"/>
+      <c r="E842" s="8"/>
+      <c r="F842" s="8"/>
+      <c r="G842" s="8"/>
+      <c r="H842" s="8"/>
+      <c r="I842" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J842" s="8"/>
+      <c r="K842" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L842" s="8"/>
+      <c r="M842" s="8"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B843" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C843" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D842" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="E842" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F842" s="8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G842" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H842" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I842" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="J842" s="8" t="s">
+      <c r="D843" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E843" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F843" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G843" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H843" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I843" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="J843" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K842" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="L842" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M842" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="8"/>
-      <c r="B843" s="8"/>
-      <c r="C843" s="8"/>
-      <c r="D843" s="8"/>
-      <c r="E843" s="8"/>
-      <c r="F843" s="8"/>
-      <c r="G843" s="8"/>
-      <c r="H843" s="8"/>
-      <c r="I843" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="J843" s="8"/>
       <c r="K843" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="L843" s="8"/>
-      <c r="M843" s="8"/>
+        <v>781</v>
+      </c>
+      <c r="L843" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M843" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="8"/>
@@ -23030,11 +22865,11 @@
       <c r="G844" s="8"/>
       <c r="H844" s="8"/>
       <c r="I844" s="4" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="J844" s="8"/>
       <c r="K844" s="4" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="L844" s="8"/>
       <c r="M844" s="8"/>
@@ -23049,55 +22884,33 @@
       <c r="G845" s="8"/>
       <c r="H845" s="8"/>
       <c r="I845" s="4" t="s">
-        <v>756</v>
+        <v>1057</v>
       </c>
       <c r="J845" s="8"/>
       <c r="K845" s="4" t="s">
-        <v>757</v>
+        <v>1058</v>
       </c>
       <c r="L845" s="8"/>
       <c r="M845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="8" t="n">
-        <v>3005</v>
-      </c>
-      <c r="B846" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C846" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D846" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="E846" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F846" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G846" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H846" s="8" t="s">
-        <v>1071</v>
-      </c>
+      <c r="A846" s="8"/>
+      <c r="B846" s="8"/>
+      <c r="C846" s="8"/>
+      <c r="D846" s="8"/>
+      <c r="E846" s="8"/>
+      <c r="F846" s="8"/>
+      <c r="G846" s="8"/>
+      <c r="H846" s="8"/>
       <c r="I846" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J846" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="J846" s="8"/>
       <c r="K846" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L846" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M846" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="L846" s="8"/>
+      <c r="M846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8"/>
@@ -23109,11 +22922,11 @@
       <c r="G847" s="8"/>
       <c r="H847" s="8"/>
       <c r="I847" s="4" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="J847" s="8"/>
       <c r="K847" s="4" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="L847" s="8"/>
       <c r="M847" s="8"/>
@@ -23128,11 +22941,11 @@
       <c r="G848" s="8"/>
       <c r="H848" s="8"/>
       <c r="I848" s="4" t="s">
-        <v>1074</v>
+        <v>796</v>
       </c>
       <c r="J848" s="8"/>
       <c r="K848" s="4" t="s">
-        <v>1075</v>
+        <v>797</v>
       </c>
       <c r="L848" s="8"/>
       <c r="M848" s="8"/>
@@ -23147,39 +22960,39 @@
       <c r="G849" s="8"/>
       <c r="H849" s="8"/>
       <c r="I849" s="4" t="s">
-        <v>1076</v>
+        <v>798</v>
       </c>
       <c r="J849" s="8"/>
       <c r="K849" s="4" t="s">
-        <v>1077</v>
+        <v>799</v>
       </c>
       <c r="L849" s="8"/>
       <c r="M849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="8" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="C850" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="E850" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F850" s="8" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="G850" s="8" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="H850" s="8" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="I850" s="4" t="s">
         <v>780</v>
@@ -23226,11 +23039,11 @@
       <c r="G852" s="8"/>
       <c r="H852" s="8"/>
       <c r="I852" s="4" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="J852" s="8"/>
       <c r="K852" s="4" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="L852" s="8"/>
       <c r="M852" s="8"/>
@@ -23312,64 +23125,86 @@
       <c r="M856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="8" t="n">
-        <v>3007</v>
-      </c>
-      <c r="B857" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C857" s="8" t="s">
+      <c r="A857" s="4" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C857" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D857" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E857" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F857" s="8" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G857" s="8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H857" s="8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I857" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="J857" s="8" t="s">
+      <c r="D857" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E857" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F857" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G857" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H857" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I857" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J857" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K857" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="L857" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M857" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L857" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M857" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="8"/>
-      <c r="B858" s="8"/>
-      <c r="C858" s="8"/>
-      <c r="D858" s="8"/>
-      <c r="E858" s="8"/>
-      <c r="F858" s="8"/>
-      <c r="G858" s="8"/>
-      <c r="H858" s="8"/>
+      <c r="A858" s="8" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B858" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C858" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D858" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E858" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F858" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G858" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H858" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="I858" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="J858" s="8"/>
+        <v>1072</v>
+      </c>
+      <c r="J858" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K858" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="L858" s="8"/>
-      <c r="M858" s="8"/>
+        <v>1073</v>
+      </c>
+      <c r="L858" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M858" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8"/>
@@ -23381,11 +23216,11 @@
       <c r="G859" s="8"/>
       <c r="H859" s="8"/>
       <c r="I859" s="4" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="J859" s="8"/>
       <c r="K859" s="4" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="L859" s="8"/>
       <c r="M859" s="8"/>
@@ -23400,11 +23235,11 @@
       <c r="G860" s="8"/>
       <c r="H860" s="8"/>
       <c r="I860" s="4" t="s">
-        <v>790</v>
+        <v>1076</v>
       </c>
       <c r="J860" s="8"/>
       <c r="K860" s="4" t="s">
-        <v>791</v>
+        <v>1077</v>
       </c>
       <c r="L860" s="8"/>
       <c r="M860" s="8"/>
@@ -23419,33 +23254,55 @@
       <c r="G861" s="8"/>
       <c r="H861" s="8"/>
       <c r="I861" s="4" t="s">
-        <v>792</v>
+        <v>1078</v>
       </c>
       <c r="J861" s="8"/>
       <c r="K861" s="4" t="s">
-        <v>793</v>
+        <v>1079</v>
       </c>
       <c r="L861" s="8"/>
       <c r="M861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="8"/>
-      <c r="B862" s="8"/>
-      <c r="C862" s="8"/>
-      <c r="D862" s="8"/>
-      <c r="E862" s="8"/>
-      <c r="F862" s="8"/>
-      <c r="G862" s="8"/>
-      <c r="H862" s="8"/>
+      <c r="A862" s="8" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B862" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C862" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D862" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E862" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F862" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G862" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H862" s="8" t="s">
+        <v>1082</v>
+      </c>
       <c r="I862" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="J862" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="J862" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K862" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="L862" s="8"/>
-      <c r="M862" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="L862" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M862" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="8"/>
@@ -23457,96 +23314,52 @@
       <c r="G863" s="8"/>
       <c r="H863" s="8"/>
       <c r="I863" s="4" t="s">
-        <v>798</v>
+        <v>182</v>
       </c>
       <c r="J863" s="8"/>
       <c r="K863" s="4" t="s">
-        <v>799</v>
+        <v>182</v>
       </c>
       <c r="L863" s="8"/>
       <c r="M863" s="8"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="4" t="n">
-        <v>3008</v>
-      </c>
-      <c r="B864" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C864" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D864" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E864" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F864" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G864" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H864" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I864" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J864" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A864" s="8"/>
+      <c r="B864" s="8"/>
+      <c r="C864" s="8"/>
+      <c r="D864" s="8"/>
+      <c r="E864" s="8"/>
+      <c r="F864" s="8"/>
+      <c r="G864" s="8"/>
+      <c r="H864" s="8"/>
+      <c r="I864" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J864" s="8"/>
       <c r="K864" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L864" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M864" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L864" s="8"/>
+      <c r="M864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="8" t="n">
-        <v>3009</v>
-      </c>
-      <c r="B865" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C865" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D865" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E865" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F865" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G865" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H865" s="8" t="s">
-        <v>1096</v>
-      </c>
+      <c r="A865" s="8"/>
+      <c r="B865" s="8"/>
+      <c r="C865" s="8"/>
+      <c r="D865" s="8"/>
+      <c r="E865" s="8"/>
+      <c r="F865" s="8"/>
+      <c r="G865" s="8"/>
+      <c r="H865" s="8"/>
       <c r="I865" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="J865" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J865" s="8"/>
       <c r="K865" s="4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="L865" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M865" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L865" s="8"/>
+      <c r="M865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="8"/>
@@ -23558,11 +23371,11 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="4" t="s">
-        <v>1099</v>
+        <v>189</v>
       </c>
       <c r="J866" s="8"/>
       <c r="K866" s="4" t="s">
-        <v>1100</v>
+        <v>189</v>
       </c>
       <c r="L866" s="8"/>
       <c r="M866" s="8"/>
@@ -23577,11 +23390,11 @@
       <c r="G867" s="8"/>
       <c r="H867" s="8"/>
       <c r="I867" s="4" t="s">
-        <v>1101</v>
+        <v>191</v>
       </c>
       <c r="J867" s="8"/>
       <c r="K867" s="4" t="s">
-        <v>1102</v>
+        <v>191</v>
       </c>
       <c r="L867" s="8"/>
       <c r="M867" s="8"/>
@@ -23596,55 +23409,33 @@
       <c r="G868" s="8"/>
       <c r="H868" s="8"/>
       <c r="I868" s="4" t="s">
-        <v>1103</v>
+        <v>193</v>
       </c>
       <c r="J868" s="8"/>
       <c r="K868" s="4" t="s">
-        <v>1104</v>
+        <v>193</v>
       </c>
       <c r="L868" s="8"/>
       <c r="M868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="8" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B869" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C869" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D869" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E869" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F869" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G869" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H869" s="8" t="s">
-        <v>1107</v>
-      </c>
+      <c r="A869" s="8"/>
+      <c r="B869" s="8"/>
+      <c r="C869" s="8"/>
+      <c r="D869" s="8"/>
+      <c r="E869" s="8"/>
+      <c r="F869" s="8"/>
+      <c r="G869" s="8"/>
+      <c r="H869" s="8"/>
       <c r="I869" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J869" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J869" s="8"/>
       <c r="K869" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L869" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M869" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="L869" s="8"/>
+      <c r="M869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="8"/>
@@ -23656,11 +23447,11 @@
       <c r="G870" s="8"/>
       <c r="H870" s="8"/>
       <c r="I870" s="4" t="s">
-        <v>182</v>
+        <v>756</v>
       </c>
       <c r="J870" s="8"/>
       <c r="K870" s="4" t="s">
-        <v>182</v>
+        <v>757</v>
       </c>
       <c r="L870" s="8"/>
       <c r="M870" s="8"/>
@@ -23675,11 +23466,11 @@
       <c r="G871" s="8"/>
       <c r="H871" s="8"/>
       <c r="I871" s="4" t="s">
-        <v>185</v>
+        <v>1083</v>
       </c>
       <c r="J871" s="8"/>
       <c r="K871" s="4" t="s">
-        <v>185</v>
+        <v>1084</v>
       </c>
       <c r="L871" s="8"/>
       <c r="M871" s="8"/>
@@ -23694,11 +23485,11 @@
       <c r="G872" s="8"/>
       <c r="H872" s="8"/>
       <c r="I872" s="4" t="s">
-        <v>187</v>
+        <v>1085</v>
       </c>
       <c r="J872" s="8"/>
       <c r="K872" s="4" t="s">
-        <v>187</v>
+        <v>1086</v>
       </c>
       <c r="L872" s="8"/>
       <c r="M872" s="8"/>
@@ -23713,11 +23504,11 @@
       <c r="G873" s="8"/>
       <c r="H873" s="8"/>
       <c r="I873" s="4" t="s">
-        <v>189</v>
+        <v>1087</v>
       </c>
       <c r="J873" s="8"/>
       <c r="K873" s="4" t="s">
-        <v>189</v>
+        <v>1088</v>
       </c>
       <c r="L873" s="8"/>
       <c r="M873" s="8"/>
@@ -23732,11 +23523,11 @@
       <c r="G874" s="8"/>
       <c r="H874" s="8"/>
       <c r="I874" s="4" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="J874" s="8"/>
       <c r="K874" s="4" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="L874" s="8"/>
       <c r="M874" s="8"/>
@@ -23751,33 +23542,55 @@
       <c r="G875" s="8"/>
       <c r="H875" s="8"/>
       <c r="I875" s="4" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="J875" s="8"/>
       <c r="K875" s="4" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="L875" s="8"/>
       <c r="M875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="8"/>
-      <c r="B876" s="8"/>
-      <c r="C876" s="8"/>
-      <c r="D876" s="8"/>
-      <c r="E876" s="8"/>
-      <c r="F876" s="8"/>
-      <c r="G876" s="8"/>
-      <c r="H876" s="8"/>
+      <c r="A876" s="8" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B876" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C876" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D876" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E876" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F876" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G876" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H876" s="8" t="s">
+        <v>1092</v>
+      </c>
       <c r="I876" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J876" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="J876" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K876" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L876" s="8"/>
-      <c r="M876" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="L876" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M876" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="8"/>
@@ -23789,11 +23602,11 @@
       <c r="G877" s="8"/>
       <c r="H877" s="8"/>
       <c r="I877" s="4" t="s">
-        <v>756</v>
+        <v>260</v>
       </c>
       <c r="J877" s="8"/>
       <c r="K877" s="4" t="s">
-        <v>757</v>
+        <v>261</v>
       </c>
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
@@ -23808,11 +23621,11 @@
       <c r="G878" s="8"/>
       <c r="H878" s="8"/>
       <c r="I878" s="4" t="s">
-        <v>1108</v>
+        <v>262</v>
       </c>
       <c r="J878" s="8"/>
       <c r="K878" s="4" t="s">
-        <v>1109</v>
+        <v>263</v>
       </c>
       <c r="L878" s="8"/>
       <c r="M878" s="8"/>
@@ -23827,11 +23640,11 @@
       <c r="G879" s="8"/>
       <c r="H879" s="8"/>
       <c r="I879" s="4" t="s">
-        <v>1110</v>
+        <v>264</v>
       </c>
       <c r="J879" s="8"/>
       <c r="K879" s="4" t="s">
-        <v>1111</v>
+        <v>265</v>
       </c>
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
@@ -23846,11 +23659,11 @@
       <c r="G880" s="8"/>
       <c r="H880" s="8"/>
       <c r="I880" s="4" t="s">
-        <v>1112</v>
+        <v>266</v>
       </c>
       <c r="J880" s="8"/>
       <c r="K880" s="4" t="s">
-        <v>1113</v>
+        <v>267</v>
       </c>
       <c r="L880" s="8"/>
       <c r="M880" s="8"/>
@@ -23865,11 +23678,11 @@
       <c r="G881" s="8"/>
       <c r="H881" s="8"/>
       <c r="I881" s="4" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="J881" s="8"/>
       <c r="K881" s="4" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="L881" s="8"/>
       <c r="M881" s="8"/>
@@ -23884,55 +23697,33 @@
       <c r="G882" s="8"/>
       <c r="H882" s="8"/>
       <c r="I882" s="4" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="J882" s="8"/>
       <c r="K882" s="4" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="L882" s="8"/>
       <c r="M882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="8" t="n">
-        <v>3011</v>
-      </c>
-      <c r="B883" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C883" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D883" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E883" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F883" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G883" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H883" s="8" t="s">
-        <v>1117</v>
-      </c>
+      <c r="A883" s="8"/>
+      <c r="B883" s="8"/>
+      <c r="C883" s="8"/>
+      <c r="D883" s="8"/>
+      <c r="E883" s="8"/>
+      <c r="F883" s="8"/>
+      <c r="G883" s="8"/>
+      <c r="H883" s="8"/>
       <c r="I883" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J883" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="J883" s="8"/>
       <c r="K883" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L883" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M883" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="L883" s="8"/>
+      <c r="M883" s="8"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="8"/>
@@ -23944,11 +23735,11 @@
       <c r="G884" s="8"/>
       <c r="H884" s="8"/>
       <c r="I884" s="4" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J884" s="8"/>
       <c r="K884" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L884" s="8"/>
       <c r="M884" s="8"/>
@@ -23963,11 +23754,11 @@
       <c r="G885" s="8"/>
       <c r="H885" s="8"/>
       <c r="I885" s="4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="J885" s="8"/>
       <c r="K885" s="4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L885" s="8"/>
       <c r="M885" s="8"/>
@@ -23982,11 +23773,11 @@
       <c r="G886" s="8"/>
       <c r="H886" s="8"/>
       <c r="I886" s="4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J886" s="8"/>
       <c r="K886" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L886" s="8"/>
       <c r="M886" s="8"/>
@@ -24001,11 +23792,11 @@
       <c r="G887" s="8"/>
       <c r="H887" s="8"/>
       <c r="I887" s="4" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J887" s="8"/>
       <c r="K887" s="4" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L887" s="8"/>
       <c r="M887" s="8"/>
@@ -24020,11 +23811,11 @@
       <c r="G888" s="8"/>
       <c r="H888" s="8"/>
       <c r="I888" s="4" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J888" s="8"/>
       <c r="K888" s="4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="L888" s="8"/>
       <c r="M888" s="8"/>
@@ -24039,11 +23830,11 @@
       <c r="G889" s="8"/>
       <c r="H889" s="8"/>
       <c r="I889" s="4" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J889" s="8"/>
       <c r="K889" s="4" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L889" s="8"/>
       <c r="M889" s="8"/>
@@ -24058,11 +23849,11 @@
       <c r="G890" s="8"/>
       <c r="H890" s="8"/>
       <c r="I890" s="4" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J890" s="8"/>
       <c r="K890" s="4" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="L890" s="8"/>
       <c r="M890" s="8"/>
@@ -24077,11 +23868,11 @@
       <c r="G891" s="8"/>
       <c r="H891" s="8"/>
       <c r="I891" s="4" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J891" s="8"/>
       <c r="K891" s="4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="L891" s="8"/>
       <c r="M891" s="8"/>
@@ -24096,11 +23887,11 @@
       <c r="G892" s="8"/>
       <c r="H892" s="8"/>
       <c r="I892" s="4" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J892" s="8"/>
       <c r="K892" s="4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="L892" s="8"/>
       <c r="M892" s="8"/>
@@ -24115,11 +23906,11 @@
       <c r="G893" s="8"/>
       <c r="H893" s="8"/>
       <c r="I893" s="4" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J893" s="8"/>
       <c r="K893" s="4" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="L893" s="8"/>
       <c r="M893" s="8"/>
@@ -24134,11 +23925,11 @@
       <c r="G894" s="8"/>
       <c r="H894" s="8"/>
       <c r="I894" s="4" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="J894" s="8"/>
       <c r="K894" s="4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="L894" s="8"/>
       <c r="M894" s="8"/>
@@ -24153,11 +23944,11 @@
       <c r="G895" s="8"/>
       <c r="H895" s="8"/>
       <c r="I895" s="4" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J895" s="8"/>
       <c r="K895" s="4" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L895" s="8"/>
       <c r="M895" s="8"/>
@@ -24172,11 +23963,11 @@
       <c r="G896" s="8"/>
       <c r="H896" s="8"/>
       <c r="I896" s="4" t="s">
-        <v>284</v>
+        <v>1093</v>
       </c>
       <c r="J896" s="8"/>
       <c r="K896" s="4" t="s">
-        <v>285</v>
+        <v>1094</v>
       </c>
       <c r="L896" s="8"/>
       <c r="M896" s="8"/>
@@ -24191,11 +23982,11 @@
       <c r="G897" s="8"/>
       <c r="H897" s="8"/>
       <c r="I897" s="4" t="s">
-        <v>286</v>
+        <v>1095</v>
       </c>
       <c r="J897" s="8"/>
       <c r="K897" s="4" t="s">
-        <v>287</v>
+        <v>757</v>
       </c>
       <c r="L897" s="8"/>
       <c r="M897" s="8"/>
@@ -24210,33 +24001,55 @@
       <c r="G898" s="8"/>
       <c r="H898" s="8"/>
       <c r="I898" s="4" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="J898" s="8"/>
       <c r="K898" s="4" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="L898" s="8"/>
       <c r="M898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="8"/>
-      <c r="B899" s="8"/>
-      <c r="C899" s="8"/>
-      <c r="D899" s="8"/>
-      <c r="E899" s="8"/>
-      <c r="F899" s="8"/>
-      <c r="G899" s="8"/>
-      <c r="H899" s="8"/>
+      <c r="A899" s="8" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B899" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C899" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D899" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E899" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F899" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G899" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H899" s="8" t="s">
+        <v>1099</v>
+      </c>
       <c r="I899" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J899" s="8"/>
+        <v>1100</v>
+      </c>
+      <c r="J899" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K899" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L899" s="8"/>
-      <c r="M899" s="8"/>
+        <v>1101</v>
+      </c>
+      <c r="L899" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M899" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="8"/>
@@ -24248,11 +24061,11 @@
       <c r="G900" s="8"/>
       <c r="H900" s="8"/>
       <c r="I900" s="4" t="s">
-        <v>292</v>
+        <v>1102</v>
       </c>
       <c r="J900" s="8"/>
       <c r="K900" s="4" t="s">
-        <v>293</v>
+        <v>1103</v>
       </c>
       <c r="L900" s="8"/>
       <c r="M900" s="8"/>
@@ -24267,11 +24080,11 @@
       <c r="G901" s="8"/>
       <c r="H901" s="8"/>
       <c r="I901" s="4" t="s">
-        <v>294</v>
+        <v>1104</v>
       </c>
       <c r="J901" s="8"/>
       <c r="K901" s="4" t="s">
-        <v>295</v>
+        <v>1105</v>
       </c>
       <c r="L901" s="8"/>
       <c r="M901" s="8"/>
@@ -24286,11 +24099,11 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="4" t="s">
-        <v>296</v>
+        <v>1106</v>
       </c>
       <c r="J902" s="8"/>
       <c r="K902" s="4" t="s">
-        <v>297</v>
+        <v>1107</v>
       </c>
       <c r="L902" s="8"/>
       <c r="M902" s="8"/>
@@ -24305,11 +24118,11 @@
       <c r="G903" s="8"/>
       <c r="H903" s="8"/>
       <c r="I903" s="4" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="J903" s="8"/>
       <c r="K903" s="4" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="L903" s="8"/>
       <c r="M903" s="8"/>
@@ -24324,74 +24137,74 @@
       <c r="G904" s="8"/>
       <c r="H904" s="8"/>
       <c r="I904" s="4" t="s">
-        <v>1120</v>
+        <v>98</v>
       </c>
       <c r="J904" s="8"/>
       <c r="K904" s="4" t="s">
-        <v>757</v>
+        <v>99</v>
       </c>
       <c r="L904" s="8"/>
       <c r="M904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="8"/>
-      <c r="B905" s="8"/>
-      <c r="C905" s="8"/>
-      <c r="D905" s="8"/>
-      <c r="E905" s="8"/>
-      <c r="F905" s="8"/>
-      <c r="G905" s="8"/>
-      <c r="H905" s="8"/>
+      <c r="A905" s="8" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B905" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C905" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D905" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E905" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F905" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G905" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H905" s="8" t="s">
+        <v>1113</v>
+      </c>
       <c r="I905" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J905" s="8"/>
+        <v>1114</v>
+      </c>
+      <c r="J905" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K905" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L905" s="8"/>
-      <c r="M905" s="8"/>
+        <v>1115</v>
+      </c>
+      <c r="L905" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M905" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="8" t="n">
-        <v>3012</v>
-      </c>
-      <c r="B906" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C906" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D906" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E906" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F906" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G906" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H906" s="8" t="s">
-        <v>1124</v>
-      </c>
+      <c r="A906" s="8"/>
+      <c r="B906" s="8"/>
+      <c r="C906" s="8"/>
+      <c r="D906" s="8"/>
+      <c r="E906" s="8"/>
+      <c r="F906" s="8"/>
+      <c r="G906" s="8"/>
+      <c r="H906" s="8"/>
       <c r="I906" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J906" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="J906" s="8"/>
       <c r="K906" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="L906" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M906" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="L906" s="8"/>
+      <c r="M906" s="8"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="8"/>
@@ -24403,11 +24216,11 @@
       <c r="G907" s="8"/>
       <c r="H907" s="8"/>
       <c r="I907" s="4" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="J907" s="8"/>
       <c r="K907" s="4" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="L907" s="8"/>
       <c r="M907" s="8"/>
@@ -24422,11 +24235,11 @@
       <c r="G908" s="8"/>
       <c r="H908" s="8"/>
       <c r="I908" s="4" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="J908" s="8"/>
       <c r="K908" s="4" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="L908" s="8"/>
       <c r="M908" s="8"/>
@@ -24441,11 +24254,11 @@
       <c r="G909" s="8"/>
       <c r="H909" s="8"/>
       <c r="I909" s="4" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="J909" s="8"/>
       <c r="K909" s="4" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="L909" s="8"/>
       <c r="M909" s="8"/>
@@ -24460,74 +24273,74 @@
       <c r="G910" s="8"/>
       <c r="H910" s="8"/>
       <c r="I910" s="4" t="s">
-        <v>1133</v>
+        <v>98</v>
       </c>
       <c r="J910" s="8"/>
       <c r="K910" s="4" t="s">
-        <v>1134</v>
+        <v>99</v>
       </c>
       <c r="L910" s="8"/>
       <c r="M910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="8"/>
-      <c r="B911" s="8"/>
-      <c r="C911" s="8"/>
-      <c r="D911" s="8"/>
-      <c r="E911" s="8"/>
-      <c r="F911" s="8"/>
-      <c r="G911" s="8"/>
-      <c r="H911" s="8"/>
+      <c r="A911" s="8" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B911" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C911" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D911" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E911" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F911" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G911" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H911" s="8" t="s">
+        <v>1127</v>
+      </c>
       <c r="I911" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J911" s="8"/>
+        <v>1114</v>
+      </c>
+      <c r="J911" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K911" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L911" s="8"/>
-      <c r="M911" s="8"/>
+        <v>1115</v>
+      </c>
+      <c r="L911" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M911" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="8" t="n">
-        <v>3013</v>
-      </c>
-      <c r="B912" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C912" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D912" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E912" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F912" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G912" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H912" s="8" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A912" s="8"/>
+      <c r="B912" s="8"/>
+      <c r="C912" s="8"/>
+      <c r="D912" s="8"/>
+      <c r="E912" s="8"/>
+      <c r="F912" s="8"/>
+      <c r="G912" s="8"/>
+      <c r="H912" s="8"/>
       <c r="I912" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="J912" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="J912" s="8"/>
       <c r="K912" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L912" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M912" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="L912" s="8"/>
+      <c r="M912" s="8"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="8"/>
@@ -24539,11 +24352,11 @@
       <c r="G913" s="8"/>
       <c r="H913" s="8"/>
       <c r="I913" s="4" t="s">
-        <v>1141</v>
+        <v>1118</v>
       </c>
       <c r="J913" s="8"/>
       <c r="K913" s="4" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="L913" s="8"/>
       <c r="M913" s="8"/>
@@ -24558,11 +24371,11 @@
       <c r="G914" s="8"/>
       <c r="H914" s="8"/>
       <c r="I914" s="4" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="J914" s="8"/>
       <c r="K914" s="4" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="L914" s="8"/>
       <c r="M914" s="8"/>
@@ -24577,11 +24390,11 @@
       <c r="G915" s="8"/>
       <c r="H915" s="8"/>
       <c r="I915" s="4" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="J915" s="8"/>
       <c r="K915" s="4" t="s">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="L915" s="8"/>
       <c r="M915" s="8"/>
@@ -24596,74 +24409,74 @@
       <c r="G916" s="8"/>
       <c r="H916" s="8"/>
       <c r="I916" s="4" t="s">
-        <v>1147</v>
+        <v>98</v>
       </c>
       <c r="J916" s="8"/>
       <c r="K916" s="4" t="s">
-        <v>1148</v>
+        <v>99</v>
       </c>
       <c r="L916" s="8"/>
       <c r="M916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="8"/>
-      <c r="B917" s="8"/>
-      <c r="C917" s="8"/>
-      <c r="D917" s="8"/>
-      <c r="E917" s="8"/>
-      <c r="F917" s="8"/>
-      <c r="G917" s="8"/>
-      <c r="H917" s="8"/>
+      <c r="A917" s="8" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B917" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C917" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D917" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E917" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F917" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G917" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H917" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="I917" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J917" s="8"/>
+        <v>1114</v>
+      </c>
+      <c r="J917" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K917" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L917" s="8"/>
-      <c r="M917" s="8"/>
+        <v>1115</v>
+      </c>
+      <c r="L917" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M917" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="8" t="n">
-        <v>3014</v>
-      </c>
-      <c r="B918" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C918" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D918" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="E918" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F918" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G918" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H918" s="8" t="s">
-        <v>1152</v>
-      </c>
+      <c r="A918" s="8"/>
+      <c r="B918" s="8"/>
+      <c r="C918" s="8"/>
+      <c r="D918" s="8"/>
+      <c r="E918" s="8"/>
+      <c r="F918" s="8"/>
+      <c r="G918" s="8"/>
+      <c r="H918" s="8"/>
       <c r="I918" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="J918" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="J918" s="8"/>
       <c r="K918" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L918" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M918" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="L918" s="8"/>
+      <c r="M918" s="8"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="8"/>
@@ -24675,11 +24488,11 @@
       <c r="G919" s="8"/>
       <c r="H919" s="8"/>
       <c r="I919" s="4" t="s">
-        <v>1141</v>
+        <v>1118</v>
       </c>
       <c r="J919" s="8"/>
       <c r="K919" s="4" t="s">
-        <v>1142</v>
+        <v>1119</v>
       </c>
       <c r="L919" s="8"/>
       <c r="M919" s="8"/>
@@ -24694,11 +24507,11 @@
       <c r="G920" s="8"/>
       <c r="H920" s="8"/>
       <c r="I920" s="4" t="s">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="J920" s="8"/>
       <c r="K920" s="4" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="L920" s="8"/>
       <c r="M920" s="8"/>
@@ -24713,11 +24526,11 @@
       <c r="G921" s="8"/>
       <c r="H921" s="8"/>
       <c r="I921" s="4" t="s">
-        <v>1145</v>
+        <v>1122</v>
       </c>
       <c r="J921" s="8"/>
       <c r="K921" s="4" t="s">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="L921" s="8"/>
       <c r="M921" s="8"/>
@@ -24732,93 +24545,115 @@
       <c r="G922" s="8"/>
       <c r="H922" s="8"/>
       <c r="I922" s="4" t="s">
-        <v>1147</v>
+        <v>98</v>
       </c>
       <c r="J922" s="8"/>
       <c r="K922" s="4" t="s">
-        <v>1148</v>
+        <v>99</v>
       </c>
       <c r="L922" s="8"/>
       <c r="M922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="8"/>
-      <c r="B923" s="8"/>
-      <c r="C923" s="8"/>
-      <c r="D923" s="8"/>
-      <c r="E923" s="8"/>
-      <c r="F923" s="8"/>
-      <c r="G923" s="8"/>
-      <c r="H923" s="8"/>
+      <c r="A923" s="8" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B923" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C923" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D923" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E923" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F923" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G923" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H923" s="8" t="s">
+        <v>1135</v>
+      </c>
       <c r="I923" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J923" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J923" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K923" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L923" s="8"/>
-      <c r="M923" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L923" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M923" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="8" t="n">
-        <v>3015</v>
-      </c>
-      <c r="B924" s="8" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C924" s="8" t="s">
+      <c r="A924" s="8"/>
+      <c r="B924" s="8"/>
+      <c r="C924" s="8"/>
+      <c r="D924" s="8"/>
+      <c r="E924" s="8"/>
+      <c r="F924" s="8"/>
+      <c r="G924" s="8"/>
+      <c r="H924" s="8"/>
+      <c r="I924" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J924" s="8"/>
+      <c r="K924" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L924" s="8"/>
+      <c r="M924" s="8"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="8" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B925" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C925" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D924" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E924" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F924" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G924" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H924" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I924" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="J924" s="8" t="s">
+      <c r="D925" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K924" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L924" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M924" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="8"/>
-      <c r="B925" s="8"/>
-      <c r="C925" s="8"/>
-      <c r="D925" s="8"/>
-      <c r="E925" s="8"/>
-      <c r="F925" s="8"/>
-      <c r="G925" s="8"/>
-      <c r="H925" s="8"/>
+      <c r="E925" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F925" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G925" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H925" s="8" t="s">
+        <v>1138</v>
+      </c>
       <c r="I925" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="J925" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J925" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K925" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L925" s="8"/>
-      <c r="M925" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L925" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M925" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="8"/>
@@ -24830,33 +24665,55 @@
       <c r="G926" s="8"/>
       <c r="H926" s="8"/>
       <c r="I926" s="4" t="s">
-        <v>1143</v>
+        <v>120</v>
       </c>
       <c r="J926" s="8"/>
       <c r="K926" s="4" t="s">
-        <v>1144</v>
+        <v>121</v>
       </c>
       <c r="L926" s="8"/>
       <c r="M926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="8"/>
-      <c r="B927" s="8"/>
-      <c r="C927" s="8"/>
-      <c r="D927" s="8"/>
-      <c r="E927" s="8"/>
-      <c r="F927" s="8"/>
-      <c r="G927" s="8"/>
-      <c r="H927" s="8"/>
+      <c r="A927" s="8" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B927" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C927" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D927" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E927" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F927" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G927" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H927" s="8" t="s">
+        <v>1142</v>
+      </c>
       <c r="I927" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J927" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J927" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K927" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L927" s="8"/>
-      <c r="M927" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L927" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M927" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="8"/>
@@ -24868,247 +24725,269 @@
       <c r="G928" s="8"/>
       <c r="H928" s="8"/>
       <c r="I928" s="4" t="s">
-        <v>1147</v>
+        <v>120</v>
       </c>
       <c r="J928" s="8"/>
       <c r="K928" s="4" t="s">
-        <v>1148</v>
+        <v>121</v>
       </c>
       <c r="L928" s="8"/>
       <c r="M928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="8"/>
-      <c r="B929" s="8"/>
-      <c r="C929" s="8"/>
-      <c r="D929" s="8"/>
-      <c r="E929" s="8"/>
-      <c r="F929" s="8"/>
-      <c r="G929" s="8"/>
-      <c r="H929" s="8"/>
+      <c r="A929" s="8" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B929" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C929" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D929" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E929" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F929" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G929" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H929" s="8" t="s">
+        <v>1146</v>
+      </c>
       <c r="I929" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J929" s="8"/>
+        <v>1147</v>
+      </c>
+      <c r="J929" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K929" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L929" s="8"/>
-      <c r="M929" s="8"/>
+        <v>1148</v>
+      </c>
+      <c r="L929" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M929" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="8" t="n">
-        <v>3016</v>
-      </c>
-      <c r="B930" s="8" t="s">
+      <c r="A930" s="8"/>
+      <c r="B930" s="8"/>
+      <c r="C930" s="8"/>
+      <c r="D930" s="8"/>
+      <c r="E930" s="8"/>
+      <c r="F930" s="8"/>
+      <c r="G930" s="8"/>
+      <c r="H930" s="8"/>
+      <c r="I930" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J930" s="8"/>
+      <c r="K930" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L930" s="8"/>
+      <c r="M930" s="8"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="8" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C931" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D931" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E931" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F931" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G931" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H931" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I931" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J931" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K931" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L931" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M931" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="8"/>
+      <c r="B932" s="8"/>
+      <c r="C932" s="8"/>
+      <c r="D932" s="8"/>
+      <c r="E932" s="8"/>
+      <c r="F932" s="8"/>
+      <c r="G932" s="8"/>
+      <c r="H932" s="8"/>
+      <c r="I932" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J932" s="8"/>
+      <c r="K932" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L932" s="8"/>
+      <c r="M932" s="8"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="8" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B933" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C933" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D933" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E933" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F933" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G933" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="C930" s="8" t="s">
+      <c r="H933" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I933" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J933" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K933" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L933" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M933" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="8"/>
+      <c r="B934" s="8"/>
+      <c r="C934" s="8"/>
+      <c r="D934" s="8"/>
+      <c r="E934" s="8"/>
+      <c r="F934" s="8"/>
+      <c r="G934" s="8"/>
+      <c r="H934" s="8"/>
+      <c r="I934" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J934" s="8"/>
+      <c r="K934" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L934" s="8"/>
+      <c r="M934" s="8"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="4" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C935" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D930" s="8" t="s">
+      <c r="D935" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E930" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F930" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G930" s="8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H930" s="8" t="s">
+      <c r="E935" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F935" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="I930" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J930" s="8" t="s">
+      <c r="G935" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H935" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I935" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J935" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K930" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L930" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M930" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="8"/>
-      <c r="B931" s="8"/>
-      <c r="C931" s="8"/>
-      <c r="D931" s="8"/>
-      <c r="E931" s="8"/>
-      <c r="F931" s="8"/>
-      <c r="G931" s="8"/>
-      <c r="H931" s="8"/>
-      <c r="I931" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J931" s="8"/>
-      <c r="K931" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L931" s="8"/>
-      <c r="M931" s="8"/>
-    </row>
-    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="8" t="n">
-        <v>3017</v>
-      </c>
-      <c r="B932" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C932" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D932" s="8" t="s">
+      <c r="K935" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E932" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F932" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G932" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H932" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I932" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J932" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K932" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L932" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M932" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="8"/>
-      <c r="B933" s="8"/>
-      <c r="C933" s="8"/>
-      <c r="D933" s="8"/>
-      <c r="E933" s="8"/>
-      <c r="F933" s="8"/>
-      <c r="G933" s="8"/>
-      <c r="H933" s="8"/>
-      <c r="I933" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J933" s="8"/>
-      <c r="K933" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L933" s="8"/>
-      <c r="M933" s="8"/>
-    </row>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="8" t="n">
-        <v>3018</v>
-      </c>
-      <c r="B934" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C934" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D934" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E934" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F934" s="8" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G934" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H934" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="I934" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J934" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K934" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L934" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M934" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="8"/>
-      <c r="B935" s="8"/>
-      <c r="C935" s="8"/>
-      <c r="D935" s="8"/>
-      <c r="E935" s="8"/>
-      <c r="F935" s="8"/>
-      <c r="G935" s="8"/>
-      <c r="H935" s="8"/>
-      <c r="I935" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J935" s="8"/>
-      <c r="K935" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L935" s="8"/>
-      <c r="M935" s="8"/>
+      <c r="L935" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M935" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="8" t="n">
-        <v>3019</v>
+        <v>3023</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C936" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D936" s="9" t="s">
-        <v>340</v>
+      <c r="D936" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E936" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F936" s="8" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="G936" s="8" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="H936" s="8" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="I936" s="4" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="J936" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K936" s="4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="L936" s="8" t="s">
         <v>58</v>
@@ -25127,55 +25006,33 @@
       <c r="G937" s="8"/>
       <c r="H937" s="8"/>
       <c r="I937" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="J937" s="8"/>
       <c r="K937" s="4" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="L937" s="8"/>
       <c r="M937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="8" t="n">
-        <v>3020</v>
-      </c>
-      <c r="B938" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C938" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D938" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E938" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F938" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G938" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H938" s="8" t="s">
-        <v>1179</v>
-      </c>
+      <c r="A938" s="8"/>
+      <c r="B938" s="8"/>
+      <c r="C938" s="8"/>
+      <c r="D938" s="8"/>
+      <c r="E938" s="8"/>
+      <c r="F938" s="8"/>
+      <c r="G938" s="8"/>
+      <c r="H938" s="8"/>
       <c r="I938" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J938" s="8"/>
+      <c r="K938" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="J938" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K938" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L938" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M938" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L938" s="8"/>
+      <c r="M938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="8"/>
@@ -25187,156 +25044,134 @@
       <c r="G939" s="8"/>
       <c r="H939" s="8"/>
       <c r="I939" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J939" s="8"/>
       <c r="K939" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L939" s="8"/>
       <c r="M939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="8" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B940" s="8" t="s">
+      <c r="A940" s="8"/>
+      <c r="B940" s="8"/>
+      <c r="C940" s="8"/>
+      <c r="D940" s="8"/>
+      <c r="E940" s="8"/>
+      <c r="F940" s="8"/>
+      <c r="G940" s="8"/>
+      <c r="H940" s="8"/>
+      <c r="I940" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J940" s="8"/>
+      <c r="K940" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L940" s="8"/>
+      <c r="M940" s="8"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="4" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C941" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D941" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E941" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F941" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G941" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H941" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I941" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J941" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K941" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L941" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M941" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="8" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B942" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="C940" s="8" t="s">
+      <c r="C942" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D940" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E940" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F940" s="8" t="s">
+      <c r="D942" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E942" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F942" s="8" t="s">
         <v>1181</v>
       </c>
-      <c r="G940" s="8" t="s">
+      <c r="G942" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H942" s="8" t="s">
         <v>1182</v>
       </c>
-      <c r="H940" s="8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I940" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J940" s="8" t="s">
+      <c r="I942" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J942" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K940" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L940" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M940" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="8"/>
-      <c r="B941" s="8"/>
-      <c r="C941" s="8"/>
-      <c r="D941" s="8"/>
-      <c r="E941" s="8"/>
-      <c r="F941" s="8"/>
-      <c r="G941" s="8"/>
-      <c r="H941" s="8"/>
-      <c r="I941" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J941" s="8"/>
-      <c r="K941" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L941" s="8"/>
-      <c r="M941" s="8"/>
-    </row>
-    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="4" t="n">
-        <v>3022</v>
-      </c>
-      <c r="B942" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C942" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D942" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E942" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F942" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G942" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H942" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I942" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J942" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="K942" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L942" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M942" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L942" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M942" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="8" t="n">
-        <v>3023</v>
-      </c>
-      <c r="B943" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C943" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D943" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E943" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F943" s="8" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G943" s="8" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H943" s="8" t="s">
-        <v>1191</v>
-      </c>
+      <c r="A943" s="8"/>
+      <c r="B943" s="8"/>
+      <c r="C943" s="8"/>
+      <c r="D943" s="8"/>
+      <c r="E943" s="8"/>
+      <c r="F943" s="8"/>
+      <c r="G943" s="8"/>
+      <c r="H943" s="8"/>
       <c r="I943" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J943" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1169</v>
+      </c>
+      <c r="J943" s="8"/>
       <c r="K943" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L943" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M943" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="L943" s="8"/>
+      <c r="M943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="8"/>
@@ -25348,11 +25183,11 @@
       <c r="G944" s="8"/>
       <c r="H944" s="8"/>
       <c r="I944" s="4" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="J944" s="8"/>
       <c r="K944" s="4" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="L944" s="8"/>
       <c r="M944" s="8"/>
@@ -25367,11 +25202,11 @@
       <c r="G945" s="8"/>
       <c r="H945" s="8"/>
       <c r="I945" s="4" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
       <c r="J945" s="8"/>
       <c r="K945" s="4" t="s">
-        <v>1197</v>
+        <v>1174</v>
       </c>
       <c r="L945" s="8"/>
       <c r="M945" s="8"/>
@@ -25386,84 +25221,84 @@
       <c r="G946" s="8"/>
       <c r="H946" s="8"/>
       <c r="I946" s="4" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
       <c r="J946" s="8"/>
       <c r="K946" s="4" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="L946" s="8"/>
       <c r="M946" s="8"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="8"/>
-      <c r="B947" s="8"/>
-      <c r="C947" s="8"/>
-      <c r="D947" s="8"/>
-      <c r="E947" s="8"/>
-      <c r="F947" s="8"/>
-      <c r="G947" s="8"/>
-      <c r="H947" s="8"/>
+      <c r="A947" s="8" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B947" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C947" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E947" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F947" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G947" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H947" s="8" t="s">
+        <v>1186</v>
+      </c>
       <c r="I947" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J947" s="8"/>
+        <v>1187</v>
+      </c>
+      <c r="J947" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K947" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="L947" s="8"/>
-      <c r="M947" s="8"/>
+        <v>1188</v>
+      </c>
+      <c r="L947" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M947" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="4" t="n">
-        <v>3024</v>
-      </c>
-      <c r="B948" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C948" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D948" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E948" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F948" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G948" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H948" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I948" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J948" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A948" s="8"/>
+      <c r="B948" s="8"/>
+      <c r="C948" s="8"/>
+      <c r="D948" s="8"/>
+      <c r="E948" s="8"/>
+      <c r="F948" s="8"/>
+      <c r="G948" s="8"/>
+      <c r="H948" s="8"/>
+      <c r="I948" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J948" s="8"/>
       <c r="K948" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L948" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M948" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="L948" s="8"/>
+      <c r="M948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="B949" s="8" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="C949" s="8" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="D949" s="8" t="s">
         <v>57</v>
@@ -25472,22 +25307,22 @@
         <v>58</v>
       </c>
       <c r="F949" s="8" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="G949" s="8" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="H949" s="8" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="I949" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="J949" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K949" s="4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="L949" s="8" t="s">
         <v>58</v>
@@ -25506,33 +25341,55 @@
       <c r="G950" s="8"/>
       <c r="H950" s="8"/>
       <c r="I950" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="J950" s="8"/>
       <c r="K950" s="4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="L950" s="8"/>
       <c r="M950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="8"/>
-      <c r="B951" s="8"/>
-      <c r="C951" s="8"/>
-      <c r="D951" s="8"/>
-      <c r="E951" s="8"/>
-      <c r="F951" s="8"/>
-      <c r="G951" s="8"/>
-      <c r="H951" s="8"/>
+      <c r="A951" s="8" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B951" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C951" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D951" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E951" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F951" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G951" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H951" s="8" t="s">
+        <v>1198</v>
+      </c>
       <c r="I951" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J951" s="8"/>
+        <v>1187</v>
+      </c>
+      <c r="J951" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K951" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L951" s="8"/>
-      <c r="M951" s="8"/>
+        <v>1188</v>
+      </c>
+      <c r="L951" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M951" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="8"/>
@@ -25544,2322 +25401,2123 @@
       <c r="G952" s="8"/>
       <c r="H952" s="8"/>
       <c r="I952" s="4" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="J952" s="8"/>
       <c r="K952" s="4" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="L952" s="8"/>
       <c r="M952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="8"/>
-      <c r="B953" s="8"/>
-      <c r="C953" s="8"/>
-      <c r="D953" s="8"/>
-      <c r="E953" s="8"/>
-      <c r="F953" s="8"/>
-      <c r="G953" s="8"/>
-      <c r="H953" s="8"/>
+      <c r="A953" s="8" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B953" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C953" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D953" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E953" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F953" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G953" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H953" s="8" t="s">
+        <v>1202</v>
+      </c>
       <c r="I953" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J953" s="8"/>
+        <v>1187</v>
+      </c>
+      <c r="J953" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K953" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="L953" s="8"/>
-      <c r="M953" s="8"/>
+        <v>1188</v>
+      </c>
+      <c r="L953" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M953" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="8" t="n">
-        <v>3026</v>
-      </c>
-      <c r="B954" s="8" t="s">
+      <c r="A954" s="8"/>
+      <c r="B954" s="8"/>
+      <c r="C954" s="8"/>
+      <c r="D954" s="8"/>
+      <c r="E954" s="8"/>
+      <c r="F954" s="8"/>
+      <c r="G954" s="8"/>
+      <c r="H954" s="8"/>
+      <c r="I954" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J954" s="8"/>
+      <c r="K954" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L954" s="8"/>
+      <c r="M954" s="8"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="8" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B955" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C955" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D955" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E955" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F955" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G955" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H955" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I955" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J955" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K955" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L955" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M955" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="8"/>
+      <c r="B956" s="8"/>
+      <c r="C956" s="8"/>
+      <c r="D956" s="8"/>
+      <c r="E956" s="8"/>
+      <c r="F956" s="8"/>
+      <c r="G956" s="8"/>
+      <c r="H956" s="8"/>
+      <c r="I956" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J956" s="8"/>
+      <c r="K956" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L956" s="8"/>
+      <c r="M956" s="8"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="8" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B957" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C957" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D957" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E957" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F957" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="C954" s="8" t="s">
+      <c r="G957" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H957" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I957" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J957" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K957" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L957" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M957" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="8"/>
+      <c r="B958" s="8"/>
+      <c r="C958" s="8"/>
+      <c r="D958" s="8"/>
+      <c r="E958" s="8"/>
+      <c r="F958" s="8"/>
+      <c r="G958" s="8"/>
+      <c r="H958" s="8"/>
+      <c r="I958" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J958" s="8"/>
+      <c r="K958" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L958" s="8"/>
+      <c r="M958" s="8"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="8" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B959" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C959" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D954" s="8" t="s">
+      <c r="D959" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E954" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F954" s="8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G954" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H954" s="8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I954" s="4" t="s">
+      <c r="E959" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F959" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="J954" s="8" t="s">
+      <c r="G959" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H959" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I959" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J959" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K954" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L954" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M954" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="8"/>
-      <c r="B955" s="8"/>
-      <c r="C955" s="8"/>
-      <c r="D955" s="8"/>
-      <c r="E955" s="8"/>
-      <c r="F955" s="8"/>
-      <c r="G955" s="8"/>
-      <c r="H955" s="8"/>
-      <c r="I955" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J955" s="8"/>
-      <c r="K955" s="4" t="s">
+      <c r="K959" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L959" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M959" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="8"/>
+      <c r="B960" s="8"/>
+      <c r="C960" s="8"/>
+      <c r="D960" s="8"/>
+      <c r="E960" s="8"/>
+      <c r="F960" s="8"/>
+      <c r="G960" s="8"/>
+      <c r="H960" s="8"/>
+      <c r="I960" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J960" s="8"/>
+      <c r="K960" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L960" s="8"/>
+      <c r="M960" s="8"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="8" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B961" s="8" t="s">
         <v>1215</v>
       </c>
-      <c r="L955" s="8"/>
-      <c r="M955" s="8"/>
-    </row>
-    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="8" t="n">
-        <v>3027</v>
-      </c>
-      <c r="B956" s="8" t="s">
+      <c r="C961" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D961" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E961" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F961" s="8" t="s">
         <v>1216</v>
       </c>
-      <c r="C956" s="8" t="s">
+      <c r="G961" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H961" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I961" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J961" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K961" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L961" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M961" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="8"/>
+      <c r="B962" s="8"/>
+      <c r="C962" s="8"/>
+      <c r="D962" s="8"/>
+      <c r="E962" s="8"/>
+      <c r="F962" s="8"/>
+      <c r="G962" s="8"/>
+      <c r="H962" s="8"/>
+      <c r="I962" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J962" s="8"/>
+      <c r="K962" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L962" s="8"/>
+      <c r="M962" s="8"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="8" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B963" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C963" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D956" s="8" t="s">
+      <c r="D963" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E956" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F956" s="8" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G956" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H956" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I956" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J956" s="8" t="s">
+      <c r="E963" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F963" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G963" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H963" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I963" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J963" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K956" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L956" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M956" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="8"/>
-      <c r="B957" s="8"/>
-      <c r="C957" s="8"/>
-      <c r="D957" s="8"/>
-      <c r="E957" s="8"/>
-      <c r="F957" s="8"/>
-      <c r="G957" s="8"/>
-      <c r="H957" s="8"/>
-      <c r="I957" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J957" s="8"/>
-      <c r="K957" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L957" s="8"/>
-      <c r="M957" s="8"/>
-    </row>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="8" t="n">
-        <v>3028</v>
-      </c>
-      <c r="B958" s="8" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C958" s="8" t="s">
+      <c r="K963" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L963" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M963" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="8"/>
+      <c r="B964" s="8"/>
+      <c r="C964" s="8"/>
+      <c r="D964" s="8"/>
+      <c r="E964" s="8"/>
+      <c r="F964" s="8"/>
+      <c r="G964" s="8"/>
+      <c r="H964" s="8"/>
+      <c r="I964" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J964" s="8"/>
+      <c r="K964" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L964" s="8"/>
+      <c r="M964" s="8"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="8" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B965" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C965" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D958" s="8" t="s">
+      <c r="D965" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E958" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F958" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G958" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H958" s="8" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I958" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J958" s="8" t="s">
+      <c r="E965" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F965" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G965" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H965" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I965" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J965" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K958" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L958" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M958" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="8"/>
-      <c r="B959" s="8"/>
-      <c r="C959" s="8"/>
-      <c r="D959" s="8"/>
-      <c r="E959" s="8"/>
-      <c r="F959" s="8"/>
-      <c r="G959" s="8"/>
-      <c r="H959" s="8"/>
-      <c r="I959" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J959" s="8"/>
-      <c r="K959" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L959" s="8"/>
-      <c r="M959" s="8"/>
-    </row>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="8" t="n">
-        <v>3029</v>
-      </c>
-      <c r="B960" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C960" s="8" t="s">
+      <c r="K965" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L965" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M965" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="8"/>
+      <c r="B966" s="8"/>
+      <c r="C966" s="8"/>
+      <c r="D966" s="8"/>
+      <c r="E966" s="8"/>
+      <c r="F966" s="8"/>
+      <c r="G966" s="8"/>
+      <c r="H966" s="8"/>
+      <c r="I966" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J966" s="8"/>
+      <c r="K966" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L966" s="8"/>
+      <c r="M966" s="8"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="8" t="n">
+        <v>3036</v>
+      </c>
+      <c r="B967" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C967" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D960" s="8" t="s">
+      <c r="D967" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E960" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F960" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G960" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H960" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I960" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J960" s="8" t="s">
+      <c r="E967" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F967" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G967" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H967" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I967" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J967" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K960" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L960" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M960" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="8"/>
-      <c r="B961" s="8"/>
-      <c r="C961" s="8"/>
-      <c r="D961" s="8"/>
-      <c r="E961" s="8"/>
-      <c r="F961" s="8"/>
-      <c r="G961" s="8"/>
-      <c r="H961" s="8"/>
-      <c r="I961" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J961" s="8"/>
-      <c r="K961" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L961" s="8"/>
-      <c r="M961" s="8"/>
-    </row>
-    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="8" t="n">
-        <v>3030</v>
-      </c>
-      <c r="B962" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C962" s="8" t="s">
+      <c r="K967" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L967" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M967" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="8"/>
+      <c r="B968" s="8"/>
+      <c r="C968" s="8"/>
+      <c r="D968" s="8"/>
+      <c r="E968" s="8"/>
+      <c r="F968" s="8"/>
+      <c r="G968" s="8"/>
+      <c r="H968" s="8"/>
+      <c r="I968" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J968" s="8"/>
+      <c r="K968" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L968" s="8"/>
+      <c r="M968" s="8"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="8" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B969" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C969" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D962" s="8" t="s">
+      <c r="D969" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E962" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F962" s="8" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G962" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H962" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I962" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J962" s="8" t="s">
+      <c r="E969" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F969" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G969" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H969" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I969" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J969" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K962" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L962" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M962" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="8"/>
-      <c r="B963" s="8"/>
-      <c r="C963" s="8"/>
-      <c r="D963" s="8"/>
-      <c r="E963" s="8"/>
-      <c r="F963" s="8"/>
-      <c r="G963" s="8"/>
-      <c r="H963" s="8"/>
-      <c r="I963" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J963" s="8"/>
-      <c r="K963" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L963" s="8"/>
-      <c r="M963" s="8"/>
-    </row>
-    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="8" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B964" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C964" s="8" t="s">
+      <c r="K969" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L969" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M969" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="8"/>
+      <c r="B970" s="8"/>
+      <c r="C970" s="8"/>
+      <c r="D970" s="8"/>
+      <c r="E970" s="8"/>
+      <c r="F970" s="8"/>
+      <c r="G970" s="8"/>
+      <c r="H970" s="8"/>
+      <c r="I970" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J970" s="8"/>
+      <c r="K970" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L970" s="8"/>
+      <c r="M970" s="8"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="8" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B971" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C971" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D964" s="8" t="s">
+      <c r="D971" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E964" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F964" s="8" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G964" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H964" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I964" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J964" s="8" t="s">
+      <c r="E971" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F971" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G971" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H971" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I971" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J971" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K964" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L964" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M964" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="8"/>
-      <c r="B965" s="8"/>
-      <c r="C965" s="8"/>
-      <c r="D965" s="8"/>
-      <c r="E965" s="8"/>
-      <c r="F965" s="8"/>
-      <c r="G965" s="8"/>
-      <c r="H965" s="8"/>
-      <c r="I965" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J965" s="8"/>
-      <c r="K965" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L965" s="8"/>
-      <c r="M965" s="8"/>
-    </row>
-    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="8" t="n">
-        <v>3032</v>
-      </c>
-      <c r="B966" s="8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C966" s="8" t="s">
+      <c r="K971" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L971" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M971" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="8"/>
+      <c r="B972" s="8"/>
+      <c r="C972" s="8"/>
+      <c r="D972" s="8"/>
+      <c r="E972" s="8"/>
+      <c r="F972" s="8"/>
+      <c r="G972" s="8"/>
+      <c r="H972" s="8"/>
+      <c r="I972" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J972" s="8"/>
+      <c r="K972" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L972" s="8"/>
+      <c r="M972" s="8"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="8" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B973" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C973" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D966" s="8" t="s">
+      <c r="D973" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E966" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F966" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G966" s="8" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H966" s="8" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I966" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J966" s="8" t="s">
+      <c r="E973" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F973" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G973" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H973" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I973" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J973" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K966" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L966" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M966" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="8"/>
-      <c r="B967" s="8"/>
-      <c r="C967" s="8"/>
-      <c r="D967" s="8"/>
-      <c r="E967" s="8"/>
-      <c r="F967" s="8"/>
-      <c r="G967" s="8"/>
-      <c r="H967" s="8"/>
-      <c r="I967" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J967" s="8"/>
-      <c r="K967" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L967" s="8"/>
-      <c r="M967" s="8"/>
-    </row>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="8" t="n">
-        <v>3033</v>
-      </c>
-      <c r="B968" s="8" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C968" s="8" t="s">
+      <c r="K973" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L973" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M973" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="8"/>
+      <c r="B974" s="8"/>
+      <c r="C974" s="8"/>
+      <c r="D974" s="8"/>
+      <c r="E974" s="8"/>
+      <c r="F974" s="8"/>
+      <c r="G974" s="8"/>
+      <c r="H974" s="8"/>
+      <c r="I974" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J974" s="8"/>
+      <c r="K974" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L974" s="8"/>
+      <c r="M974" s="8"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="8" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B975" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C975" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D968" s="8" t="s">
+      <c r="D975" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E968" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F968" s="8" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G968" s="8" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H968" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I968" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J968" s="8" t="s">
+      <c r="E975" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F975" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G975" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H975" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I975" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J975" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K968" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L968" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M968" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="8"/>
-      <c r="B969" s="8"/>
-      <c r="C969" s="8"/>
-      <c r="D969" s="8"/>
-      <c r="E969" s="8"/>
-      <c r="F969" s="8"/>
-      <c r="G969" s="8"/>
-      <c r="H969" s="8"/>
-      <c r="I969" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J969" s="8"/>
-      <c r="K969" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L969" s="8"/>
-      <c r="M969" s="8"/>
-    </row>
-    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="8" t="n">
-        <v>3034</v>
-      </c>
-      <c r="B970" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C970" s="8" t="s">
+      <c r="K975" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L975" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M975" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="8"/>
+      <c r="B976" s="8"/>
+      <c r="C976" s="8"/>
+      <c r="D976" s="8"/>
+      <c r="E976" s="8"/>
+      <c r="F976" s="8"/>
+      <c r="G976" s="8"/>
+      <c r="H976" s="8"/>
+      <c r="I976" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J976" s="8"/>
+      <c r="K976" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L976" s="8"/>
+      <c r="M976" s="8"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="8" t="n">
+        <v>3041</v>
+      </c>
+      <c r="B977" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C977" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D977" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E977" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F977" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G977" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H977" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I977" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J977" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K977" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L977" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M977" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="8"/>
+      <c r="B978" s="8"/>
+      <c r="C978" s="8"/>
+      <c r="D978" s="8"/>
+      <c r="E978" s="8"/>
+      <c r="F978" s="8"/>
+      <c r="G978" s="8"/>
+      <c r="H978" s="8"/>
+      <c r="I978" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J978" s="8"/>
+      <c r="K978" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L978" s="8"/>
+      <c r="M978" s="8"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="8" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B979" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C979" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D979" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E979" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F979" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G979" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H979" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I979" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J979" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K979" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L979" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M979" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="8"/>
+      <c r="B980" s="8"/>
+      <c r="C980" s="8"/>
+      <c r="D980" s="8"/>
+      <c r="E980" s="8"/>
+      <c r="F980" s="8"/>
+      <c r="G980" s="8"/>
+      <c r="H980" s="8"/>
+      <c r="I980" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J980" s="8"/>
+      <c r="K980" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L980" s="8"/>
+      <c r="M980" s="8"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="8" t="n">
+        <v>3043</v>
+      </c>
+      <c r="B981" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C981" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D981" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E981" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F981" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G981" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H981" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I981" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J981" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K981" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L981" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M981" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="8"/>
+      <c r="B982" s="8"/>
+      <c r="C982" s="8"/>
+      <c r="D982" s="8"/>
+      <c r="E982" s="8"/>
+      <c r="F982" s="8"/>
+      <c r="G982" s="8"/>
+      <c r="H982" s="8"/>
+      <c r="I982" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J982" s="8"/>
+      <c r="K982" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L982" s="8"/>
+      <c r="M982" s="8"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="8" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B983" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C983" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E983" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F983" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G983" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H983" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I983" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J983" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K983" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L983" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M983" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="8"/>
+      <c r="B984" s="8"/>
+      <c r="C984" s="8"/>
+      <c r="D984" s="8"/>
+      <c r="E984" s="8"/>
+      <c r="F984" s="8"/>
+      <c r="G984" s="8"/>
+      <c r="H984" s="8"/>
+      <c r="I984" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J984" s="8"/>
+      <c r="K984" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L984" s="8"/>
+      <c r="M984" s="8"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="8" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B985" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C985" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D985" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E985" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F985" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G985" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H985" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I985" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J985" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K985" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L985" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M985" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="8"/>
+      <c r="B986" s="8"/>
+      <c r="C986" s="8"/>
+      <c r="D986" s="8"/>
+      <c r="E986" s="8"/>
+      <c r="F986" s="8"/>
+      <c r="G986" s="8"/>
+      <c r="H986" s="8"/>
+      <c r="I986" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J986" s="8"/>
+      <c r="K986" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L986" s="8"/>
+      <c r="M986" s="8"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="8" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B987" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C987" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D987" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E987" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F987" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G987" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H987" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I987" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J987" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K987" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L987" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M987" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="8"/>
+      <c r="B988" s="8"/>
+      <c r="C988" s="8"/>
+      <c r="D988" s="8"/>
+      <c r="E988" s="8"/>
+      <c r="F988" s="8"/>
+      <c r="G988" s="8"/>
+      <c r="H988" s="8"/>
+      <c r="I988" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J988" s="8"/>
+      <c r="K988" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L988" s="8"/>
+      <c r="M988" s="8"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="8" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B989" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C989" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D989" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E989" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F989" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G989" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H989" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I989" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J989" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K989" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L989" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M989" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="8"/>
+      <c r="B990" s="8"/>
+      <c r="C990" s="8"/>
+      <c r="D990" s="8"/>
+      <c r="E990" s="8"/>
+      <c r="F990" s="8"/>
+      <c r="G990" s="8"/>
+      <c r="H990" s="8"/>
+      <c r="I990" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J990" s="8"/>
+      <c r="K990" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L990" s="8"/>
+      <c r="M990" s="8"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="8" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B991" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C991" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D991" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E991" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F991" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G991" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H991" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I991" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J991" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K991" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L991" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M991" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="8"/>
+      <c r="B992" s="8"/>
+      <c r="C992" s="8"/>
+      <c r="D992" s="8"/>
+      <c r="E992" s="8"/>
+      <c r="F992" s="8"/>
+      <c r="G992" s="8"/>
+      <c r="H992" s="8"/>
+      <c r="I992" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J992" s="8"/>
+      <c r="K992" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L992" s="8"/>
+      <c r="M992" s="8"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="8" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B993" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C993" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D993" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E993" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F993" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G993" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H993" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I993" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J993" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K993" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L993" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M993" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="8"/>
+      <c r="B994" s="8"/>
+      <c r="C994" s="8"/>
+      <c r="D994" s="8"/>
+      <c r="E994" s="8"/>
+      <c r="F994" s="8"/>
+      <c r="G994" s="8"/>
+      <c r="H994" s="8"/>
+      <c r="I994" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J994" s="8"/>
+      <c r="K994" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L994" s="8"/>
+      <c r="M994" s="8"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B995" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C995" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D995" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E995" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F995" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G995" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H995" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I995" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J995" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K995" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L995" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M995" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="8"/>
+      <c r="B996" s="8"/>
+      <c r="C996" s="8"/>
+      <c r="D996" s="8"/>
+      <c r="E996" s="8"/>
+      <c r="F996" s="8"/>
+      <c r="G996" s="8"/>
+      <c r="H996" s="8"/>
+      <c r="I996" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J996" s="8"/>
+      <c r="K996" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L996" s="8"/>
+      <c r="M996" s="8"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="8" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B997" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C997" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D997" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E997" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F997" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G997" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H997" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I997" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J997" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K997" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L997" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M997" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="8"/>
+      <c r="B998" s="8"/>
+      <c r="C998" s="8"/>
+      <c r="D998" s="8"/>
+      <c r="E998" s="8"/>
+      <c r="F998" s="8"/>
+      <c r="G998" s="8"/>
+      <c r="H998" s="8"/>
+      <c r="I998" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J998" s="8"/>
+      <c r="K998" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L998" s="8"/>
+      <c r="M998" s="8"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="8" t="n">
+        <v>3052</v>
+      </c>
+      <c r="B999" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C999" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D999" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E999" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F999" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G999" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H999" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I999" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J999" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K999" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L999" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M999" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="8"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="8"/>
+      <c r="F1000" s="8"/>
+      <c r="G1000" s="8"/>
+      <c r="H1000" s="8"/>
+      <c r="I1000" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J1000" s="8"/>
+      <c r="K1000" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L1000" s="8"/>
+      <c r="M1000" s="8"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="8" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B1001" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1001" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1001" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1001" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1001" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G1001" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H1001" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I1001" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J1001" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1001" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L1001" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1001" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="8"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="8"/>
+      <c r="F1002" s="8"/>
+      <c r="G1002" s="8"/>
+      <c r="H1002" s="8"/>
+      <c r="I1002" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J1002" s="8"/>
+      <c r="K1002" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L1002" s="8"/>
+      <c r="M1002" s="8"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="8" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B1003" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1003" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1003" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1003" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1003" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G1003" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H1003" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I1003" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J1003" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1003" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L1003" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1003" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="8"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="8"/>
+      <c r="F1004" s="8"/>
+      <c r="G1004" s="8"/>
+      <c r="H1004" s="8"/>
+      <c r="I1004" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J1004" s="8"/>
+      <c r="K1004" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L1004" s="8"/>
+      <c r="M1004" s="8"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="8" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B1005" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1005" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1005" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1005" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1005" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G1005" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H1005" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I1005" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J1005" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1005" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L1005" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1005" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="8"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="8"/>
+      <c r="F1006" s="8"/>
+      <c r="G1006" s="8"/>
+      <c r="H1006" s="8"/>
+      <c r="I1006" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J1006" s="8"/>
+      <c r="K1006" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L1006" s="8"/>
+      <c r="M1006" s="8"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="8" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B1007" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1007" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1007" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1007" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1007" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G1007" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H1007" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I1007" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J1007" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1007" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L1007" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1007" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="8"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="8"/>
+      <c r="F1008" s="8"/>
+      <c r="G1008" s="8"/>
+      <c r="H1008" s="8"/>
+      <c r="I1008" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J1008" s="8"/>
+      <c r="K1008" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L1008" s="8"/>
+      <c r="M1008" s="8"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="4" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1009" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1009" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G1009" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H1009" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I1009" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1009" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1009" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1009" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1009" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="4" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1010" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D970" s="8" t="s">
+      <c r="D1010" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E970" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F970" s="8" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G970" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H970" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I970" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J970" s="8" t="s">
+      <c r="E1010" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1010" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G1010" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H1010" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I1010" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1010" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K970" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L970" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M970" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="8"/>
-      <c r="B971" s="8"/>
-      <c r="C971" s="8"/>
-      <c r="D971" s="8"/>
-      <c r="E971" s="8"/>
-      <c r="F971" s="8"/>
-      <c r="G971" s="8"/>
-      <c r="H971" s="8"/>
-      <c r="I971" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J971" s="8"/>
-      <c r="K971" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L971" s="8"/>
-      <c r="M971" s="8"/>
-    </row>
-    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="8" t="n">
-        <v>3035</v>
-      </c>
-      <c r="B972" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C972" s="8" t="s">
+      <c r="K1010" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1010" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1010" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="4" t="n">
+        <v>3059</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C1011" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D972" s="8" t="s">
+      <c r="D1011" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E972" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F972" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G972" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H972" s="8" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I972" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J972" s="8" t="s">
+      <c r="E1011" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1011" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G1011" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H1011" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I1011" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1011" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K972" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L972" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M972" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="8"/>
-      <c r="B973" s="8"/>
-      <c r="C973" s="8"/>
-      <c r="D973" s="8"/>
-      <c r="E973" s="8"/>
-      <c r="F973" s="8"/>
-      <c r="G973" s="8"/>
-      <c r="H973" s="8"/>
-      <c r="I973" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J973" s="8"/>
-      <c r="K973" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L973" s="8"/>
-      <c r="M973" s="8"/>
-    </row>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="8" t="n">
-        <v>3036</v>
-      </c>
-      <c r="B974" s="8" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C974" s="8" t="s">
+      <c r="K1011" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1011" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1011" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="4" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1012" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D974" s="8" t="s">
+      <c r="D1012" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E974" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F974" s="8" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G974" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H974" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I974" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J974" s="8" t="s">
+      <c r="E1012" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1012" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G1012" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H1012" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I1012" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1012" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K974" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L974" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M974" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="8"/>
-      <c r="B975" s="8"/>
-      <c r="C975" s="8"/>
-      <c r="D975" s="8"/>
-      <c r="E975" s="8"/>
-      <c r="F975" s="8"/>
-      <c r="G975" s="8"/>
-      <c r="H975" s="8"/>
-      <c r="I975" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J975" s="8"/>
-      <c r="K975" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L975" s="8"/>
-      <c r="M975" s="8"/>
-    </row>
-    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="8" t="n">
-        <v>3037</v>
-      </c>
-      <c r="B976" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C976" s="8" t="s">
+      <c r="K1012" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1012" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1012" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="4" t="n">
+        <v>3061</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1013" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D976" s="8" t="s">
+      <c r="D1013" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E976" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F976" s="8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G976" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H976" s="8" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I976" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J976" s="8" t="s">
+      <c r="E1013" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1013" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G1013" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H1013" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I1013" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1013" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K976" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L976" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M976" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="8"/>
-      <c r="B977" s="8"/>
-      <c r="C977" s="8"/>
-      <c r="D977" s="8"/>
-      <c r="E977" s="8"/>
-      <c r="F977" s="8"/>
-      <c r="G977" s="8"/>
-      <c r="H977" s="8"/>
-      <c r="I977" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J977" s="8"/>
-      <c r="K977" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L977" s="8"/>
-      <c r="M977" s="8"/>
-    </row>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="8" t="n">
-        <v>3038</v>
-      </c>
-      <c r="B978" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C978" s="8" t="s">
+      <c r="K1013" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1013" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1013" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="4" t="n">
+        <v>3062</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1014" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D978" s="8" t="s">
+      <c r="D1014" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E978" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F978" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G978" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H978" s="8" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I978" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J978" s="8" t="s">
+      <c r="E1014" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1014" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G1014" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H1014" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I1014" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1014" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K978" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L978" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M978" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="8"/>
-      <c r="B979" s="8"/>
-      <c r="C979" s="8"/>
-      <c r="D979" s="8"/>
-      <c r="E979" s="8"/>
-      <c r="F979" s="8"/>
-      <c r="G979" s="8"/>
-      <c r="H979" s="8"/>
-      <c r="I979" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J979" s="8"/>
-      <c r="K979" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L979" s="8"/>
-      <c r="M979" s="8"/>
-    </row>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="8" t="n">
-        <v>3039</v>
-      </c>
-      <c r="B980" s="8" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C980" s="8" t="s">
+      <c r="K1014" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1014" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1014" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="4" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1015" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D980" s="8" t="s">
+      <c r="D1015" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E980" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F980" s="8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G980" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H980" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I980" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J980" s="8" t="s">
+      <c r="E1015" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1015" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G1015" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H1015" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I1015" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1015" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K980" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L980" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M980" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="8"/>
-      <c r="B981" s="8"/>
-      <c r="C981" s="8"/>
-      <c r="D981" s="8"/>
-      <c r="E981" s="8"/>
-      <c r="F981" s="8"/>
-      <c r="G981" s="8"/>
-      <c r="H981" s="8"/>
-      <c r="I981" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J981" s="8"/>
-      <c r="K981" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L981" s="8"/>
-      <c r="M981" s="8"/>
-    </row>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="8" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B982" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C982" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D982" s="8" t="s">
+      <c r="K1015" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E982" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F982" s="8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G982" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H982" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I982" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J982" s="8" t="s">
+      <c r="L1015" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1015" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1"/>
+    </row>
+    <row r="1017" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1"/>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1021" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1021" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1021" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1021" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1021" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1021" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1021" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1021" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1021" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1021" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1021" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="8" t="n">
+        <v>4001</v>
+      </c>
+      <c r="B1022" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1022" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1022" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K982" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L982" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M982" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="8"/>
-      <c r="B983" s="8"/>
-      <c r="C983" s="8"/>
-      <c r="D983" s="8"/>
-      <c r="E983" s="8"/>
-      <c r="F983" s="8"/>
-      <c r="G983" s="8"/>
-      <c r="H983" s="8"/>
-      <c r="I983" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J983" s="8"/>
-      <c r="K983" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L983" s="8"/>
-      <c r="M983" s="8"/>
-    </row>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="8" t="n">
-        <v>3041</v>
-      </c>
-      <c r="B984" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C984" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D984" s="8" t="s">
+      <c r="E1022" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1022" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G1022" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H1022" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I1022" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1022" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E984" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F984" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G984" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H984" s="8" t="s">
-        <v>1275</v>
-      </c>
-      <c r="I984" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J984" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K984" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L984" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M984" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="8"/>
-      <c r="B985" s="8"/>
-      <c r="C985" s="8"/>
-      <c r="D985" s="8"/>
-      <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="8"/>
-      <c r="H985" s="8"/>
-      <c r="I985" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J985" s="8"/>
-      <c r="K985" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L985" s="8"/>
-      <c r="M985" s="8"/>
-    </row>
-    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="8" t="n">
-        <v>3042</v>
-      </c>
-      <c r="B986" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C986" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D986" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E986" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F986" s="8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G986" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H986" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I986" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J986" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K986" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L986" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M986" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="8"/>
-      <c r="B987" s="8"/>
-      <c r="C987" s="8"/>
-      <c r="D987" s="8"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
-      <c r="G987" s="8"/>
-      <c r="H987" s="8"/>
-      <c r="I987" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J987" s="8"/>
-      <c r="K987" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L987" s="8"/>
-      <c r="M987" s="8"/>
-    </row>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="8" t="n">
-        <v>3043</v>
-      </c>
-      <c r="B988" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C988" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D988" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E988" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F988" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G988" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H988" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I988" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J988" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K988" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L988" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M988" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="8"/>
-      <c r="B989" s="8"/>
-      <c r="C989" s="8"/>
-      <c r="D989" s="8"/>
-      <c r="E989" s="8"/>
-      <c r="F989" s="8"/>
-      <c r="G989" s="8"/>
-      <c r="H989" s="8"/>
-      <c r="I989" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J989" s="8"/>
-      <c r="K989" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L989" s="8"/>
-      <c r="M989" s="8"/>
-    </row>
-    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="8" t="n">
-        <v>3044</v>
-      </c>
-      <c r="B990" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C990" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D990" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E990" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F990" s="8" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G990" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H990" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I990" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J990" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K990" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L990" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M990" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="8"/>
-      <c r="B991" s="8"/>
-      <c r="C991" s="8"/>
-      <c r="D991" s="8"/>
-      <c r="E991" s="8"/>
-      <c r="F991" s="8"/>
-      <c r="G991" s="8"/>
-      <c r="H991" s="8"/>
-      <c r="I991" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J991" s="8"/>
-      <c r="K991" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L991" s="8"/>
-      <c r="M991" s="8"/>
-    </row>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="8" t="n">
-        <v>3045</v>
-      </c>
-      <c r="B992" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C992" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D992" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E992" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F992" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G992" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H992" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I992" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J992" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K992" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L992" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M992" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="8"/>
-      <c r="B993" s="8"/>
-      <c r="C993" s="8"/>
-      <c r="D993" s="8"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
-      <c r="G993" s="8"/>
-      <c r="H993" s="8"/>
-      <c r="I993" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J993" s="8"/>
-      <c r="K993" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L993" s="8"/>
-      <c r="M993" s="8"/>
-    </row>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="8" t="n">
-        <v>3046</v>
-      </c>
-      <c r="B994" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C994" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D994" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E994" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F994" s="8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G994" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H994" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I994" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J994" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K994" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L994" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M994" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="8"/>
-      <c r="B995" s="8"/>
-      <c r="C995" s="8"/>
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
-      <c r="G995" s="8"/>
-      <c r="H995" s="8"/>
-      <c r="I995" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J995" s="8"/>
-      <c r="K995" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L995" s="8"/>
-      <c r="M995" s="8"/>
-    </row>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="8" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B996" s="8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C996" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D996" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E996" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F996" s="8" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G996" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H996" s="8" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I996" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J996" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K996" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L996" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M996" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="8"/>
-      <c r="B997" s="8"/>
-      <c r="C997" s="8"/>
-      <c r="D997" s="8"/>
-      <c r="E997" s="8"/>
-      <c r="F997" s="8"/>
-      <c r="G997" s="8"/>
-      <c r="H997" s="8"/>
-      <c r="I997" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J997" s="8"/>
-      <c r="K997" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L997" s="8"/>
-      <c r="M997" s="8"/>
-    </row>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="8" t="n">
-        <v>3048</v>
-      </c>
-      <c r="B998" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C998" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D998" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E998" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F998" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G998" s="8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H998" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I998" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J998" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K998" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L998" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M998" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="8"/>
-      <c r="B999" s="8"/>
-      <c r="C999" s="8"/>
-      <c r="D999" s="8"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
-      <c r="G999" s="8"/>
-      <c r="H999" s="8"/>
-      <c r="I999" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J999" s="8"/>
-      <c r="K999" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L999" s="8"/>
-      <c r="M999" s="8"/>
-    </row>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="8" t="n">
-        <v>3049</v>
-      </c>
-      <c r="B1000" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C1000" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1000" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1000" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1000" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G1000" s="8" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H1000" s="8" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I1000" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1000" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1000" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1000" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1000" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="8"/>
-      <c r="B1001" s="8"/>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="8"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="8"/>
-      <c r="H1001" s="8"/>
-      <c r="I1001" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1001" s="8"/>
-      <c r="K1001" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1001" s="8"/>
-      <c r="M1001" s="8"/>
-    </row>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="8" t="n">
-        <v>3050</v>
-      </c>
-      <c r="B1002" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C1002" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1002" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1002" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1002" s="8" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G1002" s="8" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H1002" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I1002" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1002" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1002" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1002" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1002" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="8"/>
-      <c r="B1003" s="8"/>
-      <c r="C1003" s="8"/>
-      <c r="D1003" s="8"/>
-      <c r="E1003" s="8"/>
-      <c r="F1003" s="8"/>
-      <c r="G1003" s="8"/>
-      <c r="H1003" s="8"/>
-      <c r="I1003" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1003" s="8"/>
-      <c r="K1003" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1003" s="8"/>
-      <c r="M1003" s="8"/>
-    </row>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="8" t="n">
-        <v>3051</v>
-      </c>
-      <c r="B1004" s="8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C1004" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1004" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1004" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1004" s="8" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G1004" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H1004" s="8" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I1004" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1004" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1004" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1004" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1004" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="8"/>
-      <c r="B1005" s="8"/>
-      <c r="C1005" s="8"/>
-      <c r="D1005" s="8"/>
-      <c r="E1005" s="8"/>
-      <c r="F1005" s="8"/>
-      <c r="G1005" s="8"/>
-      <c r="H1005" s="8"/>
-      <c r="I1005" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1005" s="8"/>
-      <c r="K1005" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1005" s="8"/>
-      <c r="M1005" s="8"/>
-    </row>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="8" t="n">
-        <v>3052</v>
-      </c>
-      <c r="B1006" s="8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C1006" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1006" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1006" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1006" s="8" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G1006" s="8" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H1006" s="8" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I1006" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1006" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1006" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1006" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1006" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="8"/>
-      <c r="B1007" s="8"/>
-      <c r="C1007" s="8"/>
-      <c r="D1007" s="8"/>
-      <c r="E1007" s="8"/>
-      <c r="F1007" s="8"/>
-      <c r="G1007" s="8"/>
-      <c r="H1007" s="8"/>
-      <c r="I1007" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1007" s="8"/>
-      <c r="K1007" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1007" s="8"/>
-      <c r="M1007" s="8"/>
-    </row>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="8" t="n">
-        <v>3053</v>
-      </c>
-      <c r="B1008" s="8" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C1008" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1008" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1008" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1008" s="8" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G1008" s="8" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H1008" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I1008" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1008" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1008" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1008" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1008" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="8"/>
-      <c r="B1009" s="8"/>
-      <c r="C1009" s="8"/>
-      <c r="D1009" s="8"/>
-      <c r="E1009" s="8"/>
-      <c r="F1009" s="8"/>
-      <c r="G1009" s="8"/>
-      <c r="H1009" s="8"/>
-      <c r="I1009" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1009" s="8"/>
-      <c r="K1009" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1009" s="8"/>
-      <c r="M1009" s="8"/>
-    </row>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="8" t="n">
-        <v>3054</v>
-      </c>
-      <c r="B1010" s="8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C1010" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1010" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1010" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1010" s="8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G1010" s="8" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H1010" s="8" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I1010" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1010" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1010" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1010" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1010" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="8"/>
-      <c r="B1011" s="8"/>
-      <c r="C1011" s="8"/>
-      <c r="D1011" s="8"/>
-      <c r="E1011" s="8"/>
-      <c r="F1011" s="8"/>
-      <c r="G1011" s="8"/>
-      <c r="H1011" s="8"/>
-      <c r="I1011" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1011" s="8"/>
-      <c r="K1011" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1011" s="8"/>
-      <c r="M1011" s="8"/>
-    </row>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="8" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B1012" s="8" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C1012" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1012" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1012" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1012" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G1012" s="8" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H1012" s="8" t="s">
-        <v>1331</v>
-      </c>
-      <c r="I1012" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J1012" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1012" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L1012" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1012" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="8"/>
-      <c r="B1013" s="8"/>
-      <c r="C1013" s="8"/>
-      <c r="D1013" s="8"/>
-      <c r="E1013" s="8"/>
-      <c r="F1013" s="8"/>
-      <c r="G1013" s="8"/>
-      <c r="H1013" s="8"/>
-      <c r="I1013" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1013" s="8"/>
-      <c r="K1013" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L1013" s="8"/>
-      <c r="M1013" s="8"/>
-    </row>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="8" t="n">
-        <v>3056</v>
-      </c>
-      <c r="B1014" s="8" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1014" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D1014" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1014" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1014" s="8" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G1014" s="8" t="s">
-        <v>1333</v>
-      </c>
-      <c r="H1014" s="8" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I1014" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J1014" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1014" s="4" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L1014" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1014" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="8"/>
-      <c r="B1015" s="8"/>
-      <c r="C1015" s="8"/>
-      <c r="D1015" s="8"/>
-      <c r="E1015" s="8"/>
-      <c r="F1015" s="8"/>
-      <c r="G1015" s="8"/>
-      <c r="H1015" s="8"/>
-      <c r="I1015" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J1015" s="8"/>
-      <c r="K1015" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L1015" s="8"/>
-      <c r="M1015" s="8"/>
-    </row>
-    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="4" t="n">
-        <v>3057</v>
-      </c>
-      <c r="B1016" s="4" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C1016" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1016" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1016" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1016" s="4" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G1016" s="4" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H1016" s="4" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I1016" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1016" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1016" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1016" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1016" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="4" t="n">
-        <v>3058</v>
-      </c>
-      <c r="B1017" s="4" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1017" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1017" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1017" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1017" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G1017" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H1017" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I1017" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1017" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1017" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1017" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1017" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="4" t="n">
-        <v>3059</v>
-      </c>
-      <c r="B1018" s="4" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C1018" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1018" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1018" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1018" s="4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G1018" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H1018" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I1018" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1018" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1018" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1018" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1018" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="4" t="n">
-        <v>3060</v>
-      </c>
-      <c r="B1019" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1019" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1019" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1019" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1019" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G1019" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H1019" s="4" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I1019" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1019" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1019" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1019" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1019" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="4" t="n">
-        <v>3061</v>
-      </c>
-      <c r="B1020" s="4" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C1020" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1020" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1020" s="4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G1020" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H1020" s="4" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I1020" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1020" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1020" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1020" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="4" t="n">
-        <v>3062</v>
-      </c>
-      <c r="B1021" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C1021" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1021" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1021" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G1021" s="4" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H1021" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I1021" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1021" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1021" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1021" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="4" t="n">
-        <v>3063</v>
-      </c>
-      <c r="B1022" s="4" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C1022" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1022" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1022" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1022" s="4" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G1022" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H1022" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I1022" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J1022" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="K1022" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1022" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1022" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1023" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="1"/>
-    </row>
-    <row r="1024" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="2" t="s">
-        <v>1367</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L1022" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1022" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="8"/>
+      <c r="B1023" s="8"/>
+      <c r="C1023" s="8"/>
+      <c r="D1023" s="8"/>
+      <c r="E1023" s="8"/>
+      <c r="F1023" s="8"/>
+      <c r="G1023" s="8"/>
+      <c r="H1023" s="8"/>
+      <c r="I1023" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1023" s="8"/>
+      <c r="K1023" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1023" s="8"/>
+      <c r="M1023" s="8"/>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="4"/>
     </row>
     <row r="1025" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1"/>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="4" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1"/>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1028" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1028" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1028" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1028" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1028" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1028" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1028" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1028" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1028" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1028" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1028" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1028" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="8" t="n">
-        <v>4001</v>
-      </c>
-      <c r="B1029" s="8" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C1029" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1029" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1029" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1029" s="8" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G1029" s="8" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H1029" s="8" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I1029" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1029" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1029" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1029" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1029" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="8"/>
-      <c r="B1030" s="8"/>
-      <c r="C1030" s="8"/>
-      <c r="D1030" s="8"/>
-      <c r="E1030" s="8"/>
-      <c r="F1030" s="8"/>
-      <c r="G1030" s="8"/>
-      <c r="H1030" s="8"/>
-      <c r="I1030" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1030" s="8"/>
-      <c r="K1030" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1030" s="8"/>
-      <c r="M1030" s="8"/>
-    </row>
-    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="4"/>
-    </row>
-    <row r="1032" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="1"/>
-    </row>
-    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="4" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1034" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="1"/>
-    </row>
-    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="4" t="s">
-        <v>1372</v>
+      <c r="A1028" s="4" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1562">
+  <mergeCells count="1552">
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="B95:B97"/>
     <mergeCell ref="C95:C97"/>
@@ -28829,60 +28487,61 @@
     <mergeCell ref="H812:H813"/>
     <mergeCell ref="L812:L813"/>
     <mergeCell ref="M812:M813"/>
-    <mergeCell ref="A814:A815"/>
-    <mergeCell ref="B814:B815"/>
-    <mergeCell ref="C814:C815"/>
-    <mergeCell ref="D814:D815"/>
-    <mergeCell ref="E814:E815"/>
-    <mergeCell ref="F814:F815"/>
-    <mergeCell ref="G814:G815"/>
-    <mergeCell ref="H814:H815"/>
-    <mergeCell ref="L814:L815"/>
-    <mergeCell ref="M814:M815"/>
-    <mergeCell ref="A832:A837"/>
-    <mergeCell ref="B832:B837"/>
-    <mergeCell ref="C832:C837"/>
-    <mergeCell ref="D832:D837"/>
-    <mergeCell ref="E832:E837"/>
-    <mergeCell ref="F832:F837"/>
-    <mergeCell ref="G832:G837"/>
-    <mergeCell ref="H832:H837"/>
-    <mergeCell ref="J832:J837"/>
-    <mergeCell ref="L832:L837"/>
-    <mergeCell ref="M832:M837"/>
-    <mergeCell ref="A838:A841"/>
-    <mergeCell ref="B838:B841"/>
-    <mergeCell ref="C838:C841"/>
-    <mergeCell ref="D838:D841"/>
-    <mergeCell ref="E838:E841"/>
-    <mergeCell ref="F838:F841"/>
-    <mergeCell ref="G838:G841"/>
-    <mergeCell ref="H838:H841"/>
-    <mergeCell ref="J838:J841"/>
-    <mergeCell ref="L838:L841"/>
-    <mergeCell ref="M838:M841"/>
-    <mergeCell ref="A842:A845"/>
-    <mergeCell ref="B842:B845"/>
-    <mergeCell ref="C842:C845"/>
-    <mergeCell ref="D842:D845"/>
-    <mergeCell ref="E842:E845"/>
-    <mergeCell ref="F842:F845"/>
-    <mergeCell ref="G842:G845"/>
-    <mergeCell ref="H842:H845"/>
-    <mergeCell ref="J842:J845"/>
-    <mergeCell ref="L842:L845"/>
-    <mergeCell ref="M842:M845"/>
-    <mergeCell ref="A846:A849"/>
-    <mergeCell ref="B846:B849"/>
-    <mergeCell ref="C846:C849"/>
-    <mergeCell ref="D846:D849"/>
-    <mergeCell ref="E846:E849"/>
-    <mergeCell ref="F846:F849"/>
-    <mergeCell ref="G846:G849"/>
-    <mergeCell ref="H846:H849"/>
-    <mergeCell ref="J846:J849"/>
-    <mergeCell ref="L846:L849"/>
-    <mergeCell ref="M846:M849"/>
+    <mergeCell ref="A825:A830"/>
+    <mergeCell ref="B825:B830"/>
+    <mergeCell ref="C825:C830"/>
+    <mergeCell ref="D825:D830"/>
+    <mergeCell ref="E825:E830"/>
+    <mergeCell ref="F825:F830"/>
+    <mergeCell ref="G825:G830"/>
+    <mergeCell ref="H825:H830"/>
+    <mergeCell ref="J825:J830"/>
+    <mergeCell ref="L825:L830"/>
+    <mergeCell ref="M825:M830"/>
+    <mergeCell ref="A831:A834"/>
+    <mergeCell ref="B831:B834"/>
+    <mergeCell ref="C831:C834"/>
+    <mergeCell ref="D831:D834"/>
+    <mergeCell ref="E831:E834"/>
+    <mergeCell ref="F831:F834"/>
+    <mergeCell ref="G831:G834"/>
+    <mergeCell ref="H831:H834"/>
+    <mergeCell ref="J831:J834"/>
+    <mergeCell ref="L831:L834"/>
+    <mergeCell ref="M831:M834"/>
+    <mergeCell ref="A835:A838"/>
+    <mergeCell ref="B835:B838"/>
+    <mergeCell ref="C835:C838"/>
+    <mergeCell ref="D835:D838"/>
+    <mergeCell ref="E835:E838"/>
+    <mergeCell ref="F835:F838"/>
+    <mergeCell ref="G835:G838"/>
+    <mergeCell ref="H835:H838"/>
+    <mergeCell ref="J835:J838"/>
+    <mergeCell ref="L835:L838"/>
+    <mergeCell ref="M835:M838"/>
+    <mergeCell ref="A839:A842"/>
+    <mergeCell ref="B839:B842"/>
+    <mergeCell ref="C839:C842"/>
+    <mergeCell ref="D839:D842"/>
+    <mergeCell ref="E839:E842"/>
+    <mergeCell ref="F839:F842"/>
+    <mergeCell ref="G839:G842"/>
+    <mergeCell ref="H839:H842"/>
+    <mergeCell ref="J839:J842"/>
+    <mergeCell ref="L839:L842"/>
+    <mergeCell ref="M839:M842"/>
+    <mergeCell ref="A843:A849"/>
+    <mergeCell ref="B843:B849"/>
+    <mergeCell ref="C843:C849"/>
+    <mergeCell ref="D843:D849"/>
+    <mergeCell ref="E843:E849"/>
+    <mergeCell ref="F843:F849"/>
+    <mergeCell ref="G843:G849"/>
+    <mergeCell ref="H843:H849"/>
+    <mergeCell ref="J843:J849"/>
+    <mergeCell ref="L843:L849"/>
+    <mergeCell ref="M843:M849"/>
     <mergeCell ref="A850:A856"/>
     <mergeCell ref="B850:B856"/>
     <mergeCell ref="C850:C856"/>
@@ -28894,534 +28553,523 @@
     <mergeCell ref="J850:J856"/>
     <mergeCell ref="L850:L856"/>
     <mergeCell ref="M850:M856"/>
-    <mergeCell ref="A857:A863"/>
-    <mergeCell ref="B857:B863"/>
-    <mergeCell ref="C857:C863"/>
-    <mergeCell ref="D857:D863"/>
-    <mergeCell ref="E857:E863"/>
-    <mergeCell ref="F857:F863"/>
-    <mergeCell ref="G857:G863"/>
-    <mergeCell ref="H857:H863"/>
-    <mergeCell ref="J857:J863"/>
-    <mergeCell ref="L857:L863"/>
-    <mergeCell ref="M857:M863"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="B865:B868"/>
-    <mergeCell ref="C865:C868"/>
-    <mergeCell ref="D865:D868"/>
-    <mergeCell ref="E865:E868"/>
-    <mergeCell ref="F865:F868"/>
-    <mergeCell ref="G865:G868"/>
-    <mergeCell ref="H865:H868"/>
-    <mergeCell ref="J865:J868"/>
-    <mergeCell ref="L865:L868"/>
-    <mergeCell ref="M865:M868"/>
-    <mergeCell ref="A869:A882"/>
-    <mergeCell ref="B869:B882"/>
-    <mergeCell ref="C869:C882"/>
-    <mergeCell ref="D869:D882"/>
-    <mergeCell ref="E869:E882"/>
-    <mergeCell ref="F869:F882"/>
-    <mergeCell ref="G869:G882"/>
-    <mergeCell ref="H869:H882"/>
-    <mergeCell ref="J869:J882"/>
-    <mergeCell ref="L869:L882"/>
-    <mergeCell ref="M869:M882"/>
-    <mergeCell ref="A883:A905"/>
-    <mergeCell ref="B883:B905"/>
-    <mergeCell ref="C883:C905"/>
-    <mergeCell ref="D883:D905"/>
-    <mergeCell ref="E883:E905"/>
-    <mergeCell ref="F883:F905"/>
-    <mergeCell ref="G883:G905"/>
-    <mergeCell ref="H883:H905"/>
-    <mergeCell ref="J883:J905"/>
-    <mergeCell ref="L883:L905"/>
-    <mergeCell ref="M883:M905"/>
-    <mergeCell ref="A906:A911"/>
-    <mergeCell ref="B906:B911"/>
-    <mergeCell ref="C906:C911"/>
-    <mergeCell ref="D906:D911"/>
-    <mergeCell ref="E906:E911"/>
-    <mergeCell ref="F906:F911"/>
-    <mergeCell ref="G906:G911"/>
-    <mergeCell ref="H906:H911"/>
-    <mergeCell ref="J906:J911"/>
-    <mergeCell ref="L906:L911"/>
-    <mergeCell ref="M906:M911"/>
-    <mergeCell ref="A912:A917"/>
-    <mergeCell ref="B912:B917"/>
-    <mergeCell ref="C912:C917"/>
-    <mergeCell ref="D912:D917"/>
-    <mergeCell ref="E912:E917"/>
-    <mergeCell ref="F912:F917"/>
-    <mergeCell ref="G912:G917"/>
-    <mergeCell ref="H912:H917"/>
-    <mergeCell ref="J912:J917"/>
-    <mergeCell ref="L912:L917"/>
-    <mergeCell ref="M912:M917"/>
-    <mergeCell ref="A918:A923"/>
-    <mergeCell ref="B918:B923"/>
-    <mergeCell ref="C918:C923"/>
-    <mergeCell ref="D918:D923"/>
-    <mergeCell ref="E918:E923"/>
-    <mergeCell ref="F918:F923"/>
-    <mergeCell ref="G918:G923"/>
-    <mergeCell ref="H918:H923"/>
-    <mergeCell ref="J918:J923"/>
-    <mergeCell ref="L918:L923"/>
-    <mergeCell ref="M918:M923"/>
-    <mergeCell ref="A924:A929"/>
-    <mergeCell ref="B924:B929"/>
-    <mergeCell ref="C924:C929"/>
-    <mergeCell ref="D924:D929"/>
-    <mergeCell ref="E924:E929"/>
-    <mergeCell ref="F924:F929"/>
-    <mergeCell ref="G924:G929"/>
-    <mergeCell ref="H924:H929"/>
-    <mergeCell ref="J924:J929"/>
-    <mergeCell ref="L924:L929"/>
-    <mergeCell ref="M924:M929"/>
-    <mergeCell ref="A930:A931"/>
-    <mergeCell ref="B930:B931"/>
-    <mergeCell ref="C930:C931"/>
-    <mergeCell ref="D930:D931"/>
-    <mergeCell ref="E930:E931"/>
-    <mergeCell ref="F930:F931"/>
-    <mergeCell ref="G930:G931"/>
-    <mergeCell ref="H930:H931"/>
-    <mergeCell ref="J930:J931"/>
-    <mergeCell ref="L930:L931"/>
-    <mergeCell ref="M930:M931"/>
-    <mergeCell ref="A932:A933"/>
-    <mergeCell ref="B932:B933"/>
-    <mergeCell ref="C932:C933"/>
-    <mergeCell ref="D932:D933"/>
-    <mergeCell ref="E932:E933"/>
-    <mergeCell ref="F932:F933"/>
-    <mergeCell ref="G932:G933"/>
-    <mergeCell ref="H932:H933"/>
-    <mergeCell ref="J932:J933"/>
-    <mergeCell ref="L932:L933"/>
-    <mergeCell ref="M932:M933"/>
-    <mergeCell ref="A934:A935"/>
-    <mergeCell ref="B934:B935"/>
-    <mergeCell ref="C934:C935"/>
-    <mergeCell ref="D934:D935"/>
-    <mergeCell ref="E934:E935"/>
-    <mergeCell ref="F934:F935"/>
-    <mergeCell ref="G934:G935"/>
-    <mergeCell ref="H934:H935"/>
-    <mergeCell ref="J934:J935"/>
-    <mergeCell ref="L934:L935"/>
-    <mergeCell ref="M934:M935"/>
-    <mergeCell ref="A936:A937"/>
-    <mergeCell ref="B936:B937"/>
-    <mergeCell ref="C936:C937"/>
-    <mergeCell ref="D936:D937"/>
-    <mergeCell ref="E936:E937"/>
-    <mergeCell ref="F936:F937"/>
-    <mergeCell ref="G936:G937"/>
-    <mergeCell ref="H936:H937"/>
-    <mergeCell ref="J936:J937"/>
-    <mergeCell ref="L936:L937"/>
-    <mergeCell ref="M936:M937"/>
-    <mergeCell ref="A938:A939"/>
-    <mergeCell ref="B938:B939"/>
-    <mergeCell ref="C938:C939"/>
-    <mergeCell ref="D938:D939"/>
-    <mergeCell ref="E938:E939"/>
-    <mergeCell ref="F938:F939"/>
-    <mergeCell ref="G938:G939"/>
-    <mergeCell ref="H938:H939"/>
-    <mergeCell ref="J938:J939"/>
-    <mergeCell ref="L938:L939"/>
-    <mergeCell ref="M938:M939"/>
-    <mergeCell ref="A940:A941"/>
-    <mergeCell ref="B940:B941"/>
-    <mergeCell ref="C940:C941"/>
-    <mergeCell ref="D940:D941"/>
-    <mergeCell ref="E940:E941"/>
-    <mergeCell ref="F940:F941"/>
-    <mergeCell ref="G940:G941"/>
-    <mergeCell ref="H940:H941"/>
-    <mergeCell ref="J940:J941"/>
-    <mergeCell ref="L940:L941"/>
-    <mergeCell ref="M940:M941"/>
-    <mergeCell ref="A943:A947"/>
-    <mergeCell ref="B943:B947"/>
-    <mergeCell ref="C943:C947"/>
-    <mergeCell ref="D943:D947"/>
-    <mergeCell ref="E943:E947"/>
-    <mergeCell ref="F943:F947"/>
-    <mergeCell ref="G943:G947"/>
-    <mergeCell ref="H943:H947"/>
-    <mergeCell ref="J943:J947"/>
-    <mergeCell ref="L943:L947"/>
-    <mergeCell ref="M943:M947"/>
-    <mergeCell ref="A949:A953"/>
-    <mergeCell ref="B949:B953"/>
-    <mergeCell ref="C949:C953"/>
-    <mergeCell ref="D949:D953"/>
-    <mergeCell ref="E949:E953"/>
-    <mergeCell ref="F949:F953"/>
-    <mergeCell ref="G949:G953"/>
-    <mergeCell ref="H949:H953"/>
-    <mergeCell ref="J949:J953"/>
-    <mergeCell ref="L949:L953"/>
-    <mergeCell ref="M949:M953"/>
-    <mergeCell ref="A954:A955"/>
-    <mergeCell ref="B954:B955"/>
-    <mergeCell ref="C954:C955"/>
-    <mergeCell ref="D954:D955"/>
-    <mergeCell ref="E954:E955"/>
-    <mergeCell ref="F954:F955"/>
-    <mergeCell ref="G954:G955"/>
-    <mergeCell ref="H954:H955"/>
-    <mergeCell ref="J954:J955"/>
-    <mergeCell ref="L954:L955"/>
-    <mergeCell ref="M954:M955"/>
-    <mergeCell ref="A956:A957"/>
-    <mergeCell ref="B956:B957"/>
-    <mergeCell ref="C956:C957"/>
-    <mergeCell ref="D956:D957"/>
-    <mergeCell ref="E956:E957"/>
-    <mergeCell ref="F956:F957"/>
-    <mergeCell ref="G956:G957"/>
-    <mergeCell ref="H956:H957"/>
-    <mergeCell ref="J956:J957"/>
-    <mergeCell ref="L956:L957"/>
-    <mergeCell ref="M956:M957"/>
-    <mergeCell ref="A958:A959"/>
-    <mergeCell ref="B958:B959"/>
-    <mergeCell ref="C958:C959"/>
-    <mergeCell ref="D958:D959"/>
-    <mergeCell ref="E958:E959"/>
-    <mergeCell ref="F958:F959"/>
-    <mergeCell ref="G958:G959"/>
-    <mergeCell ref="H958:H959"/>
-    <mergeCell ref="J958:J959"/>
-    <mergeCell ref="L958:L959"/>
-    <mergeCell ref="M958:M959"/>
-    <mergeCell ref="A960:A961"/>
-    <mergeCell ref="B960:B961"/>
-    <mergeCell ref="C960:C961"/>
-    <mergeCell ref="D960:D961"/>
-    <mergeCell ref="E960:E961"/>
-    <mergeCell ref="F960:F961"/>
-    <mergeCell ref="G960:G961"/>
-    <mergeCell ref="H960:H961"/>
-    <mergeCell ref="J960:J961"/>
-    <mergeCell ref="L960:L961"/>
-    <mergeCell ref="M960:M961"/>
-    <mergeCell ref="A962:A963"/>
-    <mergeCell ref="B962:B963"/>
-    <mergeCell ref="C962:C963"/>
-    <mergeCell ref="D962:D963"/>
-    <mergeCell ref="E962:E963"/>
-    <mergeCell ref="F962:F963"/>
-    <mergeCell ref="G962:G963"/>
-    <mergeCell ref="H962:H963"/>
-    <mergeCell ref="J962:J963"/>
-    <mergeCell ref="L962:L963"/>
-    <mergeCell ref="M962:M963"/>
-    <mergeCell ref="A964:A965"/>
-    <mergeCell ref="B964:B965"/>
-    <mergeCell ref="C964:C965"/>
-    <mergeCell ref="D964:D965"/>
-    <mergeCell ref="E964:E965"/>
-    <mergeCell ref="F964:F965"/>
-    <mergeCell ref="G964:G965"/>
-    <mergeCell ref="H964:H965"/>
-    <mergeCell ref="J964:J965"/>
-    <mergeCell ref="L964:L965"/>
-    <mergeCell ref="M964:M965"/>
-    <mergeCell ref="A966:A967"/>
-    <mergeCell ref="B966:B967"/>
-    <mergeCell ref="C966:C967"/>
-    <mergeCell ref="D966:D967"/>
-    <mergeCell ref="E966:E967"/>
-    <mergeCell ref="F966:F967"/>
-    <mergeCell ref="G966:G967"/>
-    <mergeCell ref="H966:H967"/>
-    <mergeCell ref="J966:J967"/>
-    <mergeCell ref="L966:L967"/>
-    <mergeCell ref="M966:M967"/>
-    <mergeCell ref="A968:A969"/>
-    <mergeCell ref="B968:B969"/>
-    <mergeCell ref="C968:C969"/>
-    <mergeCell ref="D968:D969"/>
-    <mergeCell ref="E968:E969"/>
-    <mergeCell ref="F968:F969"/>
-    <mergeCell ref="G968:G969"/>
-    <mergeCell ref="H968:H969"/>
-    <mergeCell ref="J968:J969"/>
-    <mergeCell ref="L968:L969"/>
-    <mergeCell ref="M968:M969"/>
-    <mergeCell ref="A970:A971"/>
-    <mergeCell ref="B970:B971"/>
-    <mergeCell ref="C970:C971"/>
-    <mergeCell ref="D970:D971"/>
-    <mergeCell ref="E970:E971"/>
-    <mergeCell ref="F970:F971"/>
-    <mergeCell ref="G970:G971"/>
-    <mergeCell ref="H970:H971"/>
-    <mergeCell ref="J970:J971"/>
-    <mergeCell ref="L970:L971"/>
-    <mergeCell ref="M970:M971"/>
-    <mergeCell ref="A972:A973"/>
-    <mergeCell ref="B972:B973"/>
-    <mergeCell ref="C972:C973"/>
-    <mergeCell ref="D972:D973"/>
-    <mergeCell ref="E972:E973"/>
-    <mergeCell ref="F972:F973"/>
-    <mergeCell ref="G972:G973"/>
-    <mergeCell ref="H972:H973"/>
-    <mergeCell ref="J972:J973"/>
-    <mergeCell ref="L972:L973"/>
-    <mergeCell ref="M972:M973"/>
-    <mergeCell ref="A974:A975"/>
-    <mergeCell ref="B974:B975"/>
-    <mergeCell ref="C974:C975"/>
-    <mergeCell ref="D974:D975"/>
-    <mergeCell ref="E974:E975"/>
-    <mergeCell ref="F974:F975"/>
-    <mergeCell ref="G974:G975"/>
-    <mergeCell ref="H974:H975"/>
-    <mergeCell ref="J974:J975"/>
-    <mergeCell ref="L974:L975"/>
-    <mergeCell ref="M974:M975"/>
-    <mergeCell ref="A976:A977"/>
-    <mergeCell ref="B976:B977"/>
-    <mergeCell ref="C976:C977"/>
-    <mergeCell ref="D976:D977"/>
-    <mergeCell ref="E976:E977"/>
-    <mergeCell ref="F976:F977"/>
-    <mergeCell ref="G976:G977"/>
-    <mergeCell ref="H976:H977"/>
-    <mergeCell ref="J976:J977"/>
-    <mergeCell ref="L976:L977"/>
-    <mergeCell ref="M976:M977"/>
-    <mergeCell ref="A978:A979"/>
-    <mergeCell ref="B978:B979"/>
-    <mergeCell ref="C978:C979"/>
-    <mergeCell ref="D978:D979"/>
-    <mergeCell ref="E978:E979"/>
-    <mergeCell ref="F978:F979"/>
-    <mergeCell ref="G978:G979"/>
-    <mergeCell ref="H978:H979"/>
-    <mergeCell ref="J978:J979"/>
-    <mergeCell ref="L978:L979"/>
-    <mergeCell ref="M978:M979"/>
-    <mergeCell ref="A980:A981"/>
-    <mergeCell ref="B980:B981"/>
-    <mergeCell ref="C980:C981"/>
-    <mergeCell ref="D980:D981"/>
-    <mergeCell ref="E980:E981"/>
-    <mergeCell ref="F980:F981"/>
-    <mergeCell ref="G980:G981"/>
-    <mergeCell ref="H980:H981"/>
-    <mergeCell ref="J980:J981"/>
-    <mergeCell ref="L980:L981"/>
-    <mergeCell ref="M980:M981"/>
-    <mergeCell ref="A982:A983"/>
-    <mergeCell ref="B982:B983"/>
-    <mergeCell ref="C982:C983"/>
-    <mergeCell ref="D982:D983"/>
-    <mergeCell ref="E982:E983"/>
-    <mergeCell ref="F982:F983"/>
-    <mergeCell ref="G982:G983"/>
-    <mergeCell ref="H982:H983"/>
-    <mergeCell ref="J982:J983"/>
-    <mergeCell ref="L982:L983"/>
-    <mergeCell ref="M982:M983"/>
-    <mergeCell ref="A984:A985"/>
-    <mergeCell ref="B984:B985"/>
-    <mergeCell ref="C984:C985"/>
-    <mergeCell ref="D984:D985"/>
-    <mergeCell ref="E984:E985"/>
-    <mergeCell ref="F984:F985"/>
-    <mergeCell ref="G984:G985"/>
-    <mergeCell ref="H984:H985"/>
-    <mergeCell ref="J984:J985"/>
-    <mergeCell ref="L984:L985"/>
-    <mergeCell ref="M984:M985"/>
-    <mergeCell ref="A986:A987"/>
-    <mergeCell ref="B986:B987"/>
-    <mergeCell ref="C986:C987"/>
-    <mergeCell ref="D986:D987"/>
-    <mergeCell ref="E986:E987"/>
-    <mergeCell ref="F986:F987"/>
-    <mergeCell ref="G986:G987"/>
-    <mergeCell ref="H986:H987"/>
-    <mergeCell ref="J986:J987"/>
-    <mergeCell ref="L986:L987"/>
-    <mergeCell ref="M986:M987"/>
-    <mergeCell ref="A988:A989"/>
-    <mergeCell ref="B988:B989"/>
-    <mergeCell ref="C988:C989"/>
-    <mergeCell ref="D988:D989"/>
-    <mergeCell ref="E988:E989"/>
-    <mergeCell ref="F988:F989"/>
-    <mergeCell ref="G988:G989"/>
-    <mergeCell ref="H988:H989"/>
-    <mergeCell ref="J988:J989"/>
-    <mergeCell ref="L988:L989"/>
-    <mergeCell ref="M988:M989"/>
-    <mergeCell ref="A990:A991"/>
-    <mergeCell ref="B990:B991"/>
-    <mergeCell ref="C990:C991"/>
-    <mergeCell ref="D990:D991"/>
-    <mergeCell ref="E990:E991"/>
-    <mergeCell ref="F990:F991"/>
-    <mergeCell ref="G990:G991"/>
-    <mergeCell ref="H990:H991"/>
-    <mergeCell ref="J990:J991"/>
-    <mergeCell ref="L990:L991"/>
-    <mergeCell ref="M990:M991"/>
-    <mergeCell ref="A992:A993"/>
-    <mergeCell ref="B992:B993"/>
-    <mergeCell ref="C992:C993"/>
-    <mergeCell ref="D992:D993"/>
-    <mergeCell ref="E992:E993"/>
-    <mergeCell ref="F992:F993"/>
-    <mergeCell ref="G992:G993"/>
-    <mergeCell ref="H992:H993"/>
-    <mergeCell ref="J992:J993"/>
-    <mergeCell ref="L992:L993"/>
-    <mergeCell ref="M992:M993"/>
-    <mergeCell ref="A994:A995"/>
-    <mergeCell ref="B994:B995"/>
-    <mergeCell ref="C994:C995"/>
-    <mergeCell ref="D994:D995"/>
-    <mergeCell ref="E994:E995"/>
-    <mergeCell ref="F994:F995"/>
-    <mergeCell ref="G994:G995"/>
-    <mergeCell ref="H994:H995"/>
-    <mergeCell ref="J994:J995"/>
-    <mergeCell ref="L994:L995"/>
-    <mergeCell ref="M994:M995"/>
-    <mergeCell ref="A996:A997"/>
-    <mergeCell ref="B996:B997"/>
-    <mergeCell ref="C996:C997"/>
-    <mergeCell ref="D996:D997"/>
-    <mergeCell ref="E996:E997"/>
-    <mergeCell ref="F996:F997"/>
-    <mergeCell ref="G996:G997"/>
-    <mergeCell ref="H996:H997"/>
-    <mergeCell ref="J996:J997"/>
-    <mergeCell ref="L996:L997"/>
-    <mergeCell ref="M996:M997"/>
-    <mergeCell ref="A998:A999"/>
-    <mergeCell ref="B998:B999"/>
-    <mergeCell ref="C998:C999"/>
-    <mergeCell ref="D998:D999"/>
-    <mergeCell ref="E998:E999"/>
-    <mergeCell ref="F998:F999"/>
-    <mergeCell ref="G998:G999"/>
-    <mergeCell ref="H998:H999"/>
-    <mergeCell ref="J998:J999"/>
-    <mergeCell ref="L998:L999"/>
-    <mergeCell ref="M998:M999"/>
-    <mergeCell ref="A1000:A1001"/>
-    <mergeCell ref="B1000:B1001"/>
-    <mergeCell ref="C1000:C1001"/>
-    <mergeCell ref="D1000:D1001"/>
-    <mergeCell ref="E1000:E1001"/>
-    <mergeCell ref="F1000:F1001"/>
-    <mergeCell ref="G1000:G1001"/>
-    <mergeCell ref="H1000:H1001"/>
-    <mergeCell ref="J1000:J1001"/>
-    <mergeCell ref="L1000:L1001"/>
-    <mergeCell ref="M1000:M1001"/>
-    <mergeCell ref="A1002:A1003"/>
-    <mergeCell ref="B1002:B1003"/>
-    <mergeCell ref="C1002:C1003"/>
-    <mergeCell ref="D1002:D1003"/>
-    <mergeCell ref="E1002:E1003"/>
-    <mergeCell ref="F1002:F1003"/>
-    <mergeCell ref="G1002:G1003"/>
-    <mergeCell ref="H1002:H1003"/>
-    <mergeCell ref="J1002:J1003"/>
-    <mergeCell ref="L1002:L1003"/>
-    <mergeCell ref="M1002:M1003"/>
-    <mergeCell ref="A1004:A1005"/>
-    <mergeCell ref="B1004:B1005"/>
-    <mergeCell ref="C1004:C1005"/>
-    <mergeCell ref="D1004:D1005"/>
-    <mergeCell ref="E1004:E1005"/>
-    <mergeCell ref="F1004:F1005"/>
-    <mergeCell ref="G1004:G1005"/>
-    <mergeCell ref="H1004:H1005"/>
-    <mergeCell ref="J1004:J1005"/>
-    <mergeCell ref="L1004:L1005"/>
-    <mergeCell ref="M1004:M1005"/>
-    <mergeCell ref="A1006:A1007"/>
-    <mergeCell ref="B1006:B1007"/>
-    <mergeCell ref="C1006:C1007"/>
-    <mergeCell ref="D1006:D1007"/>
-    <mergeCell ref="E1006:E1007"/>
-    <mergeCell ref="F1006:F1007"/>
-    <mergeCell ref="G1006:G1007"/>
-    <mergeCell ref="H1006:H1007"/>
-    <mergeCell ref="J1006:J1007"/>
-    <mergeCell ref="L1006:L1007"/>
-    <mergeCell ref="M1006:M1007"/>
-    <mergeCell ref="A1008:A1009"/>
-    <mergeCell ref="B1008:B1009"/>
-    <mergeCell ref="C1008:C1009"/>
-    <mergeCell ref="D1008:D1009"/>
-    <mergeCell ref="E1008:E1009"/>
-    <mergeCell ref="F1008:F1009"/>
-    <mergeCell ref="G1008:G1009"/>
-    <mergeCell ref="H1008:H1009"/>
-    <mergeCell ref="J1008:J1009"/>
-    <mergeCell ref="L1008:L1009"/>
-    <mergeCell ref="M1008:M1009"/>
-    <mergeCell ref="A1010:A1011"/>
-    <mergeCell ref="B1010:B1011"/>
-    <mergeCell ref="C1010:C1011"/>
-    <mergeCell ref="D1010:D1011"/>
-    <mergeCell ref="E1010:E1011"/>
-    <mergeCell ref="F1010:F1011"/>
-    <mergeCell ref="G1010:G1011"/>
-    <mergeCell ref="H1010:H1011"/>
-    <mergeCell ref="J1010:J1011"/>
-    <mergeCell ref="L1010:L1011"/>
-    <mergeCell ref="M1010:M1011"/>
-    <mergeCell ref="A1012:A1013"/>
-    <mergeCell ref="B1012:B1013"/>
-    <mergeCell ref="C1012:C1013"/>
-    <mergeCell ref="D1012:D1013"/>
-    <mergeCell ref="E1012:E1013"/>
-    <mergeCell ref="F1012:F1013"/>
-    <mergeCell ref="G1012:G1013"/>
-    <mergeCell ref="H1012:H1013"/>
-    <mergeCell ref="J1012:J1013"/>
-    <mergeCell ref="L1012:L1013"/>
-    <mergeCell ref="M1012:M1013"/>
-    <mergeCell ref="A1014:A1015"/>
-    <mergeCell ref="B1014:B1015"/>
-    <mergeCell ref="C1014:C1015"/>
-    <mergeCell ref="D1014:D1015"/>
-    <mergeCell ref="E1014:E1015"/>
-    <mergeCell ref="F1014:F1015"/>
-    <mergeCell ref="G1014:G1015"/>
-    <mergeCell ref="H1014:H1015"/>
-    <mergeCell ref="J1014:J1015"/>
-    <mergeCell ref="L1014:L1015"/>
-    <mergeCell ref="M1014:M1015"/>
-    <mergeCell ref="A1029:A1030"/>
-    <mergeCell ref="B1029:B1030"/>
-    <mergeCell ref="C1029:C1030"/>
-    <mergeCell ref="D1029:D1030"/>
-    <mergeCell ref="E1029:E1030"/>
-    <mergeCell ref="F1029:F1030"/>
-    <mergeCell ref="G1029:G1030"/>
-    <mergeCell ref="H1029:H1030"/>
-    <mergeCell ref="J1029:J1030"/>
-    <mergeCell ref="L1029:L1030"/>
-    <mergeCell ref="M1029:M1030"/>
+    <mergeCell ref="A858:A861"/>
+    <mergeCell ref="B858:B861"/>
+    <mergeCell ref="C858:C861"/>
+    <mergeCell ref="D858:D861"/>
+    <mergeCell ref="E858:E861"/>
+    <mergeCell ref="F858:F861"/>
+    <mergeCell ref="G858:G861"/>
+    <mergeCell ref="H858:H861"/>
+    <mergeCell ref="J858:J861"/>
+    <mergeCell ref="L858:L861"/>
+    <mergeCell ref="M858:M861"/>
+    <mergeCell ref="A862:A875"/>
+    <mergeCell ref="B862:B875"/>
+    <mergeCell ref="C862:C875"/>
+    <mergeCell ref="D862:D875"/>
+    <mergeCell ref="E862:E875"/>
+    <mergeCell ref="F862:F875"/>
+    <mergeCell ref="G862:G875"/>
+    <mergeCell ref="H862:H875"/>
+    <mergeCell ref="J862:J875"/>
+    <mergeCell ref="L862:L875"/>
+    <mergeCell ref="M862:M875"/>
+    <mergeCell ref="A876:A898"/>
+    <mergeCell ref="B876:B898"/>
+    <mergeCell ref="C876:C898"/>
+    <mergeCell ref="D876:D898"/>
+    <mergeCell ref="E876:E898"/>
+    <mergeCell ref="F876:F898"/>
+    <mergeCell ref="G876:G898"/>
+    <mergeCell ref="H876:H898"/>
+    <mergeCell ref="J876:J898"/>
+    <mergeCell ref="L876:L898"/>
+    <mergeCell ref="M876:M898"/>
+    <mergeCell ref="A899:A904"/>
+    <mergeCell ref="B899:B904"/>
+    <mergeCell ref="C899:C904"/>
+    <mergeCell ref="D899:D904"/>
+    <mergeCell ref="E899:E904"/>
+    <mergeCell ref="F899:F904"/>
+    <mergeCell ref="G899:G904"/>
+    <mergeCell ref="H899:H904"/>
+    <mergeCell ref="J899:J904"/>
+    <mergeCell ref="L899:L904"/>
+    <mergeCell ref="M899:M904"/>
+    <mergeCell ref="A905:A910"/>
+    <mergeCell ref="B905:B910"/>
+    <mergeCell ref="C905:C910"/>
+    <mergeCell ref="D905:D910"/>
+    <mergeCell ref="E905:E910"/>
+    <mergeCell ref="F905:F910"/>
+    <mergeCell ref="G905:G910"/>
+    <mergeCell ref="H905:H910"/>
+    <mergeCell ref="J905:J910"/>
+    <mergeCell ref="L905:L910"/>
+    <mergeCell ref="M905:M910"/>
+    <mergeCell ref="A911:A916"/>
+    <mergeCell ref="B911:B916"/>
+    <mergeCell ref="C911:C916"/>
+    <mergeCell ref="D911:D916"/>
+    <mergeCell ref="E911:E916"/>
+    <mergeCell ref="F911:F916"/>
+    <mergeCell ref="G911:G916"/>
+    <mergeCell ref="H911:H916"/>
+    <mergeCell ref="J911:J916"/>
+    <mergeCell ref="L911:L916"/>
+    <mergeCell ref="M911:M916"/>
+    <mergeCell ref="A917:A922"/>
+    <mergeCell ref="B917:B922"/>
+    <mergeCell ref="C917:C922"/>
+    <mergeCell ref="D917:D922"/>
+    <mergeCell ref="E917:E922"/>
+    <mergeCell ref="F917:F922"/>
+    <mergeCell ref="G917:G922"/>
+    <mergeCell ref="H917:H922"/>
+    <mergeCell ref="J917:J922"/>
+    <mergeCell ref="L917:L922"/>
+    <mergeCell ref="M917:M922"/>
+    <mergeCell ref="A923:A924"/>
+    <mergeCell ref="B923:B924"/>
+    <mergeCell ref="C923:C924"/>
+    <mergeCell ref="D923:D924"/>
+    <mergeCell ref="E923:E924"/>
+    <mergeCell ref="F923:F924"/>
+    <mergeCell ref="G923:G924"/>
+    <mergeCell ref="H923:H924"/>
+    <mergeCell ref="J923:J924"/>
+    <mergeCell ref="L923:L924"/>
+    <mergeCell ref="M923:M924"/>
+    <mergeCell ref="A925:A926"/>
+    <mergeCell ref="B925:B926"/>
+    <mergeCell ref="C925:C926"/>
+    <mergeCell ref="D925:D926"/>
+    <mergeCell ref="E925:E926"/>
+    <mergeCell ref="F925:F926"/>
+    <mergeCell ref="G925:G926"/>
+    <mergeCell ref="H925:H926"/>
+    <mergeCell ref="J925:J926"/>
+    <mergeCell ref="L925:L926"/>
+    <mergeCell ref="M925:M926"/>
+    <mergeCell ref="A927:A928"/>
+    <mergeCell ref="B927:B928"/>
+    <mergeCell ref="C927:C928"/>
+    <mergeCell ref="D927:D928"/>
+    <mergeCell ref="E927:E928"/>
+    <mergeCell ref="F927:F928"/>
+    <mergeCell ref="G927:G928"/>
+    <mergeCell ref="H927:H928"/>
+    <mergeCell ref="J927:J928"/>
+    <mergeCell ref="L927:L928"/>
+    <mergeCell ref="M927:M928"/>
+    <mergeCell ref="A929:A930"/>
+    <mergeCell ref="B929:B930"/>
+    <mergeCell ref="C929:C930"/>
+    <mergeCell ref="D929:D930"/>
+    <mergeCell ref="E929:E930"/>
+    <mergeCell ref="F929:F930"/>
+    <mergeCell ref="G929:G930"/>
+    <mergeCell ref="H929:H930"/>
+    <mergeCell ref="J929:J930"/>
+    <mergeCell ref="L929:L930"/>
+    <mergeCell ref="M929:M930"/>
+    <mergeCell ref="A931:A932"/>
+    <mergeCell ref="B931:B932"/>
+    <mergeCell ref="C931:C932"/>
+    <mergeCell ref="D931:D932"/>
+    <mergeCell ref="E931:E932"/>
+    <mergeCell ref="F931:F932"/>
+    <mergeCell ref="G931:G932"/>
+    <mergeCell ref="H931:H932"/>
+    <mergeCell ref="J931:J932"/>
+    <mergeCell ref="L931:L932"/>
+    <mergeCell ref="M931:M932"/>
+    <mergeCell ref="A933:A934"/>
+    <mergeCell ref="B933:B934"/>
+    <mergeCell ref="C933:C934"/>
+    <mergeCell ref="D933:D934"/>
+    <mergeCell ref="E933:E934"/>
+    <mergeCell ref="F933:F934"/>
+    <mergeCell ref="G933:G934"/>
+    <mergeCell ref="H933:H934"/>
+    <mergeCell ref="J933:J934"/>
+    <mergeCell ref="L933:L934"/>
+    <mergeCell ref="M933:M934"/>
+    <mergeCell ref="A936:A940"/>
+    <mergeCell ref="B936:B940"/>
+    <mergeCell ref="C936:C940"/>
+    <mergeCell ref="D936:D940"/>
+    <mergeCell ref="E936:E940"/>
+    <mergeCell ref="F936:F940"/>
+    <mergeCell ref="G936:G940"/>
+    <mergeCell ref="H936:H940"/>
+    <mergeCell ref="J936:J940"/>
+    <mergeCell ref="L936:L940"/>
+    <mergeCell ref="M936:M940"/>
+    <mergeCell ref="A942:A946"/>
+    <mergeCell ref="B942:B946"/>
+    <mergeCell ref="C942:C946"/>
+    <mergeCell ref="D942:D946"/>
+    <mergeCell ref="E942:E946"/>
+    <mergeCell ref="F942:F946"/>
+    <mergeCell ref="G942:G946"/>
+    <mergeCell ref="H942:H946"/>
+    <mergeCell ref="J942:J946"/>
+    <mergeCell ref="L942:L946"/>
+    <mergeCell ref="M942:M946"/>
+    <mergeCell ref="A947:A948"/>
+    <mergeCell ref="B947:B948"/>
+    <mergeCell ref="C947:C948"/>
+    <mergeCell ref="D947:D948"/>
+    <mergeCell ref="E947:E948"/>
+    <mergeCell ref="F947:F948"/>
+    <mergeCell ref="G947:G948"/>
+    <mergeCell ref="H947:H948"/>
+    <mergeCell ref="J947:J948"/>
+    <mergeCell ref="L947:L948"/>
+    <mergeCell ref="M947:M948"/>
+    <mergeCell ref="A949:A950"/>
+    <mergeCell ref="B949:B950"/>
+    <mergeCell ref="C949:C950"/>
+    <mergeCell ref="D949:D950"/>
+    <mergeCell ref="E949:E950"/>
+    <mergeCell ref="F949:F950"/>
+    <mergeCell ref="G949:G950"/>
+    <mergeCell ref="H949:H950"/>
+    <mergeCell ref="J949:J950"/>
+    <mergeCell ref="L949:L950"/>
+    <mergeCell ref="M949:M950"/>
+    <mergeCell ref="A951:A952"/>
+    <mergeCell ref="B951:B952"/>
+    <mergeCell ref="C951:C952"/>
+    <mergeCell ref="D951:D952"/>
+    <mergeCell ref="E951:E952"/>
+    <mergeCell ref="F951:F952"/>
+    <mergeCell ref="G951:G952"/>
+    <mergeCell ref="H951:H952"/>
+    <mergeCell ref="J951:J952"/>
+    <mergeCell ref="L951:L952"/>
+    <mergeCell ref="M951:M952"/>
+    <mergeCell ref="A953:A954"/>
+    <mergeCell ref="B953:B954"/>
+    <mergeCell ref="C953:C954"/>
+    <mergeCell ref="D953:D954"/>
+    <mergeCell ref="E953:E954"/>
+    <mergeCell ref="F953:F954"/>
+    <mergeCell ref="G953:G954"/>
+    <mergeCell ref="H953:H954"/>
+    <mergeCell ref="J953:J954"/>
+    <mergeCell ref="L953:L954"/>
+    <mergeCell ref="M953:M954"/>
+    <mergeCell ref="A955:A956"/>
+    <mergeCell ref="B955:B956"/>
+    <mergeCell ref="C955:C956"/>
+    <mergeCell ref="D955:D956"/>
+    <mergeCell ref="E955:E956"/>
+    <mergeCell ref="F955:F956"/>
+    <mergeCell ref="G955:G956"/>
+    <mergeCell ref="H955:H956"/>
+    <mergeCell ref="J955:J956"/>
+    <mergeCell ref="L955:L956"/>
+    <mergeCell ref="M955:M956"/>
+    <mergeCell ref="A957:A958"/>
+    <mergeCell ref="B957:B958"/>
+    <mergeCell ref="C957:C958"/>
+    <mergeCell ref="D957:D958"/>
+    <mergeCell ref="E957:E958"/>
+    <mergeCell ref="F957:F958"/>
+    <mergeCell ref="G957:G958"/>
+    <mergeCell ref="H957:H958"/>
+    <mergeCell ref="J957:J958"/>
+    <mergeCell ref="L957:L958"/>
+    <mergeCell ref="M957:M958"/>
+    <mergeCell ref="A959:A960"/>
+    <mergeCell ref="B959:B960"/>
+    <mergeCell ref="C959:C960"/>
+    <mergeCell ref="D959:D960"/>
+    <mergeCell ref="E959:E960"/>
+    <mergeCell ref="F959:F960"/>
+    <mergeCell ref="G959:G960"/>
+    <mergeCell ref="H959:H960"/>
+    <mergeCell ref="J959:J960"/>
+    <mergeCell ref="L959:L960"/>
+    <mergeCell ref="M959:M960"/>
+    <mergeCell ref="A961:A962"/>
+    <mergeCell ref="B961:B962"/>
+    <mergeCell ref="C961:C962"/>
+    <mergeCell ref="D961:D962"/>
+    <mergeCell ref="E961:E962"/>
+    <mergeCell ref="F961:F962"/>
+    <mergeCell ref="G961:G962"/>
+    <mergeCell ref="H961:H962"/>
+    <mergeCell ref="J961:J962"/>
+    <mergeCell ref="L961:L962"/>
+    <mergeCell ref="M961:M962"/>
+    <mergeCell ref="A963:A964"/>
+    <mergeCell ref="B963:B964"/>
+    <mergeCell ref="C963:C964"/>
+    <mergeCell ref="D963:D964"/>
+    <mergeCell ref="E963:E964"/>
+    <mergeCell ref="F963:F964"/>
+    <mergeCell ref="G963:G964"/>
+    <mergeCell ref="H963:H964"/>
+    <mergeCell ref="J963:J964"/>
+    <mergeCell ref="L963:L964"/>
+    <mergeCell ref="M963:M964"/>
+    <mergeCell ref="A965:A966"/>
+    <mergeCell ref="B965:B966"/>
+    <mergeCell ref="C965:C966"/>
+    <mergeCell ref="D965:D966"/>
+    <mergeCell ref="E965:E966"/>
+    <mergeCell ref="F965:F966"/>
+    <mergeCell ref="G965:G966"/>
+    <mergeCell ref="H965:H966"/>
+    <mergeCell ref="J965:J966"/>
+    <mergeCell ref="L965:L966"/>
+    <mergeCell ref="M965:M966"/>
+    <mergeCell ref="A967:A968"/>
+    <mergeCell ref="B967:B968"/>
+    <mergeCell ref="C967:C968"/>
+    <mergeCell ref="D967:D968"/>
+    <mergeCell ref="E967:E968"/>
+    <mergeCell ref="F967:F968"/>
+    <mergeCell ref="G967:G968"/>
+    <mergeCell ref="H967:H968"/>
+    <mergeCell ref="J967:J968"/>
+    <mergeCell ref="L967:L968"/>
+    <mergeCell ref="M967:M968"/>
+    <mergeCell ref="A969:A970"/>
+    <mergeCell ref="B969:B970"/>
+    <mergeCell ref="C969:C970"/>
+    <mergeCell ref="D969:D970"/>
+    <mergeCell ref="E969:E970"/>
+    <mergeCell ref="F969:F970"/>
+    <mergeCell ref="G969:G970"/>
+    <mergeCell ref="H969:H970"/>
+    <mergeCell ref="J969:J970"/>
+    <mergeCell ref="L969:L970"/>
+    <mergeCell ref="M969:M970"/>
+    <mergeCell ref="A971:A972"/>
+    <mergeCell ref="B971:B972"/>
+    <mergeCell ref="C971:C972"/>
+    <mergeCell ref="D971:D972"/>
+    <mergeCell ref="E971:E972"/>
+    <mergeCell ref="F971:F972"/>
+    <mergeCell ref="G971:G972"/>
+    <mergeCell ref="H971:H972"/>
+    <mergeCell ref="J971:J972"/>
+    <mergeCell ref="L971:L972"/>
+    <mergeCell ref="M971:M972"/>
+    <mergeCell ref="A973:A974"/>
+    <mergeCell ref="B973:B974"/>
+    <mergeCell ref="C973:C974"/>
+    <mergeCell ref="D973:D974"/>
+    <mergeCell ref="E973:E974"/>
+    <mergeCell ref="F973:F974"/>
+    <mergeCell ref="G973:G974"/>
+    <mergeCell ref="H973:H974"/>
+    <mergeCell ref="J973:J974"/>
+    <mergeCell ref="L973:L974"/>
+    <mergeCell ref="M973:M974"/>
+    <mergeCell ref="A975:A976"/>
+    <mergeCell ref="B975:B976"/>
+    <mergeCell ref="C975:C976"/>
+    <mergeCell ref="D975:D976"/>
+    <mergeCell ref="E975:E976"/>
+    <mergeCell ref="F975:F976"/>
+    <mergeCell ref="G975:G976"/>
+    <mergeCell ref="H975:H976"/>
+    <mergeCell ref="J975:J976"/>
+    <mergeCell ref="L975:L976"/>
+    <mergeCell ref="M975:M976"/>
+    <mergeCell ref="A977:A978"/>
+    <mergeCell ref="B977:B978"/>
+    <mergeCell ref="C977:C978"/>
+    <mergeCell ref="D977:D978"/>
+    <mergeCell ref="E977:E978"/>
+    <mergeCell ref="F977:F978"/>
+    <mergeCell ref="G977:G978"/>
+    <mergeCell ref="H977:H978"/>
+    <mergeCell ref="J977:J978"/>
+    <mergeCell ref="L977:L978"/>
+    <mergeCell ref="M977:M978"/>
+    <mergeCell ref="A979:A980"/>
+    <mergeCell ref="B979:B980"/>
+    <mergeCell ref="C979:C980"/>
+    <mergeCell ref="D979:D980"/>
+    <mergeCell ref="E979:E980"/>
+    <mergeCell ref="F979:F980"/>
+    <mergeCell ref="G979:G980"/>
+    <mergeCell ref="H979:H980"/>
+    <mergeCell ref="J979:J980"/>
+    <mergeCell ref="L979:L980"/>
+    <mergeCell ref="M979:M980"/>
+    <mergeCell ref="A981:A982"/>
+    <mergeCell ref="B981:B982"/>
+    <mergeCell ref="C981:C982"/>
+    <mergeCell ref="D981:D982"/>
+    <mergeCell ref="E981:E982"/>
+    <mergeCell ref="F981:F982"/>
+    <mergeCell ref="G981:G982"/>
+    <mergeCell ref="H981:H982"/>
+    <mergeCell ref="J981:J982"/>
+    <mergeCell ref="L981:L982"/>
+    <mergeCell ref="M981:M982"/>
+    <mergeCell ref="A983:A984"/>
+    <mergeCell ref="B983:B984"/>
+    <mergeCell ref="C983:C984"/>
+    <mergeCell ref="D983:D984"/>
+    <mergeCell ref="E983:E984"/>
+    <mergeCell ref="F983:F984"/>
+    <mergeCell ref="G983:G984"/>
+    <mergeCell ref="H983:H984"/>
+    <mergeCell ref="J983:J984"/>
+    <mergeCell ref="L983:L984"/>
+    <mergeCell ref="M983:M984"/>
+    <mergeCell ref="A985:A986"/>
+    <mergeCell ref="B985:B986"/>
+    <mergeCell ref="C985:C986"/>
+    <mergeCell ref="D985:D986"/>
+    <mergeCell ref="E985:E986"/>
+    <mergeCell ref="F985:F986"/>
+    <mergeCell ref="G985:G986"/>
+    <mergeCell ref="H985:H986"/>
+    <mergeCell ref="J985:J986"/>
+    <mergeCell ref="L985:L986"/>
+    <mergeCell ref="M985:M986"/>
+    <mergeCell ref="A987:A988"/>
+    <mergeCell ref="B987:B988"/>
+    <mergeCell ref="C987:C988"/>
+    <mergeCell ref="D987:D988"/>
+    <mergeCell ref="E987:E988"/>
+    <mergeCell ref="F987:F988"/>
+    <mergeCell ref="G987:G988"/>
+    <mergeCell ref="H987:H988"/>
+    <mergeCell ref="J987:J988"/>
+    <mergeCell ref="L987:L988"/>
+    <mergeCell ref="M987:M988"/>
+    <mergeCell ref="A989:A990"/>
+    <mergeCell ref="B989:B990"/>
+    <mergeCell ref="C989:C990"/>
+    <mergeCell ref="D989:D990"/>
+    <mergeCell ref="E989:E990"/>
+    <mergeCell ref="F989:F990"/>
+    <mergeCell ref="G989:G990"/>
+    <mergeCell ref="H989:H990"/>
+    <mergeCell ref="J989:J990"/>
+    <mergeCell ref="L989:L990"/>
+    <mergeCell ref="M989:M990"/>
+    <mergeCell ref="A991:A992"/>
+    <mergeCell ref="B991:B992"/>
+    <mergeCell ref="C991:C992"/>
+    <mergeCell ref="D991:D992"/>
+    <mergeCell ref="E991:E992"/>
+    <mergeCell ref="F991:F992"/>
+    <mergeCell ref="G991:G992"/>
+    <mergeCell ref="H991:H992"/>
+    <mergeCell ref="J991:J992"/>
+    <mergeCell ref="L991:L992"/>
+    <mergeCell ref="M991:M992"/>
+    <mergeCell ref="A993:A994"/>
+    <mergeCell ref="B993:B994"/>
+    <mergeCell ref="C993:C994"/>
+    <mergeCell ref="D993:D994"/>
+    <mergeCell ref="E993:E994"/>
+    <mergeCell ref="F993:F994"/>
+    <mergeCell ref="G993:G994"/>
+    <mergeCell ref="H993:H994"/>
+    <mergeCell ref="J993:J994"/>
+    <mergeCell ref="L993:L994"/>
+    <mergeCell ref="M993:M994"/>
+    <mergeCell ref="A995:A996"/>
+    <mergeCell ref="B995:B996"/>
+    <mergeCell ref="C995:C996"/>
+    <mergeCell ref="D995:D996"/>
+    <mergeCell ref="E995:E996"/>
+    <mergeCell ref="F995:F996"/>
+    <mergeCell ref="G995:G996"/>
+    <mergeCell ref="H995:H996"/>
+    <mergeCell ref="J995:J996"/>
+    <mergeCell ref="L995:L996"/>
+    <mergeCell ref="M995:M996"/>
+    <mergeCell ref="A997:A998"/>
+    <mergeCell ref="B997:B998"/>
+    <mergeCell ref="C997:C998"/>
+    <mergeCell ref="D997:D998"/>
+    <mergeCell ref="E997:E998"/>
+    <mergeCell ref="F997:F998"/>
+    <mergeCell ref="G997:G998"/>
+    <mergeCell ref="H997:H998"/>
+    <mergeCell ref="J997:J998"/>
+    <mergeCell ref="L997:L998"/>
+    <mergeCell ref="M997:M998"/>
+    <mergeCell ref="A999:A1000"/>
+    <mergeCell ref="B999:B1000"/>
+    <mergeCell ref="C999:C1000"/>
+    <mergeCell ref="D999:D1000"/>
+    <mergeCell ref="E999:E1000"/>
+    <mergeCell ref="F999:F1000"/>
+    <mergeCell ref="G999:G1000"/>
+    <mergeCell ref="H999:H1000"/>
+    <mergeCell ref="J999:J1000"/>
+    <mergeCell ref="L999:L1000"/>
+    <mergeCell ref="M999:M1000"/>
+    <mergeCell ref="A1001:A1002"/>
+    <mergeCell ref="B1001:B1002"/>
+    <mergeCell ref="C1001:C1002"/>
+    <mergeCell ref="D1001:D1002"/>
+    <mergeCell ref="E1001:E1002"/>
+    <mergeCell ref="F1001:F1002"/>
+    <mergeCell ref="G1001:G1002"/>
+    <mergeCell ref="H1001:H1002"/>
+    <mergeCell ref="J1001:J1002"/>
+    <mergeCell ref="L1001:L1002"/>
+    <mergeCell ref="M1001:M1002"/>
+    <mergeCell ref="A1003:A1004"/>
+    <mergeCell ref="B1003:B1004"/>
+    <mergeCell ref="C1003:C1004"/>
+    <mergeCell ref="D1003:D1004"/>
+    <mergeCell ref="E1003:E1004"/>
+    <mergeCell ref="F1003:F1004"/>
+    <mergeCell ref="G1003:G1004"/>
+    <mergeCell ref="H1003:H1004"/>
+    <mergeCell ref="J1003:J1004"/>
+    <mergeCell ref="L1003:L1004"/>
+    <mergeCell ref="M1003:M1004"/>
+    <mergeCell ref="A1005:A1006"/>
+    <mergeCell ref="B1005:B1006"/>
+    <mergeCell ref="C1005:C1006"/>
+    <mergeCell ref="D1005:D1006"/>
+    <mergeCell ref="E1005:E1006"/>
+    <mergeCell ref="F1005:F1006"/>
+    <mergeCell ref="G1005:G1006"/>
+    <mergeCell ref="H1005:H1006"/>
+    <mergeCell ref="J1005:J1006"/>
+    <mergeCell ref="L1005:L1006"/>
+    <mergeCell ref="M1005:M1006"/>
+    <mergeCell ref="A1007:A1008"/>
+    <mergeCell ref="B1007:B1008"/>
+    <mergeCell ref="C1007:C1008"/>
+    <mergeCell ref="D1007:D1008"/>
+    <mergeCell ref="E1007:E1008"/>
+    <mergeCell ref="F1007:F1008"/>
+    <mergeCell ref="G1007:G1008"/>
+    <mergeCell ref="H1007:H1008"/>
+    <mergeCell ref="J1007:J1008"/>
+    <mergeCell ref="L1007:L1008"/>
+    <mergeCell ref="M1007:M1008"/>
+    <mergeCell ref="A1022:A1023"/>
+    <mergeCell ref="B1022:B1023"/>
+    <mergeCell ref="C1022:C1023"/>
+    <mergeCell ref="D1022:D1023"/>
+    <mergeCell ref="E1022:E1023"/>
+    <mergeCell ref="F1022:F1023"/>
+    <mergeCell ref="G1022:G1023"/>
+    <mergeCell ref="H1022:H1023"/>
+    <mergeCell ref="J1022:J1023"/>
+    <mergeCell ref="L1022:L1023"/>
+    <mergeCell ref="M1022:M1023"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A53" location="freitextfelder" display="Freitextfeld"/>
@@ -29432,22 +29080,21 @@
     <hyperlink ref="B343" r:id="rId4" display="Telegram"/>
     <hyperlink ref="H343" r:id="rId5" display="Telegram"/>
     <hyperlink ref="B355" r:id="rId6" display="easyvote-Wahlbroschüre"/>
-    <hyperlink ref="I818" r:id="rId7" display="ISO 8601"/>
-    <hyperlink ref="I819" r:id="rId8" display="ISO 8601"/>
-    <hyperlink ref="A828" r:id="rId9" display="factor"/>
-    <hyperlink ref="B864" r:id="rId10" display="OECD-Quadratwurzel-Skala"/>
-    <hyperlink ref="H883" r:id="rId11" display="“Credit Suisse Sorgenbarometer”"/>
-    <hyperlink ref="H1016" r:id="rId12" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1017" r:id="rId13" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1018" r:id="rId14" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1019" r:id="rId15" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1020" r:id="rId16" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1021" r:id="rId17" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1022" r:id="rId18" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="I814" r:id="rId7" display="ISO 8601"/>
+    <hyperlink ref="A821" r:id="rId8" display="factor"/>
+    <hyperlink ref="B857" r:id="rId9" display="OECD-Quadratwurzel-Skala"/>
+    <hyperlink ref="H876" r:id="rId10" display="“Credit Suisse Sorgenbarometer”"/>
+    <hyperlink ref="H1009" r:id="rId11" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1010" r:id="rId12" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1011" r:id="rId13" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1012" r:id="rId14" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1013" r:id="rId15" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1014" r:id="rId16" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1015" r:id="rId17" display="iterative proportional fitting procedure"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/output/questionnaires/2024-10-20_aargau.xlsx
+++ b/output/questionnaires/2024-10-20_aargau.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$93:$M$97</definedName>
-    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$802:$M$815</definedName>
-    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$823:$M$1015</definedName>
-    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1021:$M$1023</definedName>
+    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$802:$M$826</definedName>
+    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$834:$M$1026</definedName>
+    <definedName function="false" hidden="false" name="HTML_12" vbProcedure="false">Sheet1!$A$1032:$M$1034</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$103:$M$113</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$117:$M$247</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$251:$M$378</definedName>
@@ -23,8 +23,8 @@
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$591:$M$640</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$646:$M$676</definedName>
     <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$682:$M$796</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1028</definedName>
-    <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1039</definedName>
+    <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="1362">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Wahltermin vom 20. Oktober 2024</t>
   </si>
@@ -3306,6 +3306,48 @@
   </si>
   <si>
     <t xml:space="preserve">received reminder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezirk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s district of residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremgarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brugg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinfelden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zofingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurzach</t>
   </si>
   <si>
     <t xml:space="preserve">Interviewstartzeitpunkt</t>
@@ -5018,10 +5060,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1028"/>
+  <dimension ref="A1:M1039"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22194,489 +22236,487 @@
       <c r="M813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="4" t="n">
+      <c r="A814" s="8" t="n">
         <v>2006</v>
       </c>
-      <c r="B814" s="4" t="s">
+      <c r="B814" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="C814" s="4" t="s">
+      <c r="C814" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D814" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E814" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F814" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="D814" s="4" t="s">
+      <c r="G814" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H814" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I814" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J814" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K814" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L814" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M814" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="8"/>
+      <c r="B815" s="8"/>
+      <c r="C815" s="8"/>
+      <c r="D815" s="8"/>
+      <c r="E815" s="8"/>
+      <c r="F815" s="8"/>
+      <c r="G815" s="8"/>
+      <c r="H815" s="8"/>
+      <c r="I815" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J815" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K815" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L815" s="8"/>
+      <c r="M815" s="8"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="8"/>
+      <c r="B816" s="8"/>
+      <c r="C816" s="8"/>
+      <c r="D816" s="8"/>
+      <c r="E816" s="8"/>
+      <c r="F816" s="8"/>
+      <c r="G816" s="8"/>
+      <c r="H816" s="8"/>
+      <c r="I816" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J816" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K816" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L816" s="8"/>
+      <c r="M816" s="8"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="8"/>
+      <c r="B817" s="8"/>
+      <c r="C817" s="8"/>
+      <c r="D817" s="8"/>
+      <c r="E817" s="8"/>
+      <c r="F817" s="8"/>
+      <c r="G817" s="8"/>
+      <c r="H817" s="8"/>
+      <c r="I817" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J817" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K817" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L817" s="8"/>
+      <c r="M817" s="8"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="8"/>
+      <c r="B818" s="8"/>
+      <c r="C818" s="8"/>
+      <c r="D818" s="8"/>
+      <c r="E818" s="8"/>
+      <c r="F818" s="8"/>
+      <c r="G818" s="8"/>
+      <c r="H818" s="8"/>
+      <c r="I818" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J818" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K818" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L818" s="8"/>
+      <c r="M818" s="8"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="8"/>
+      <c r="B819" s="8"/>
+      <c r="C819" s="8"/>
+      <c r="D819" s="8"/>
+      <c r="E819" s="8"/>
+      <c r="F819" s="8"/>
+      <c r="G819" s="8"/>
+      <c r="H819" s="8"/>
+      <c r="I819" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J819" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K819" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L819" s="8"/>
+      <c r="M819" s="8"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="8"/>
+      <c r="B820" s="8"/>
+      <c r="C820" s="8"/>
+      <c r="D820" s="8"/>
+      <c r="E820" s="8"/>
+      <c r="F820" s="8"/>
+      <c r="G820" s="8"/>
+      <c r="H820" s="8"/>
+      <c r="I820" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J820" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K820" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L820" s="8"/>
+      <c r="M820" s="8"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="8"/>
+      <c r="B821" s="8"/>
+      <c r="C821" s="8"/>
+      <c r="D821" s="8"/>
+      <c r="E821" s="8"/>
+      <c r="F821" s="8"/>
+      <c r="G821" s="8"/>
+      <c r="H821" s="8"/>
+      <c r="I821" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J821" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K821" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L821" s="8"/>
+      <c r="M821" s="8"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="8"/>
+      <c r="B822" s="8"/>
+      <c r="C822" s="8"/>
+      <c r="D822" s="8"/>
+      <c r="E822" s="8"/>
+      <c r="F822" s="8"/>
+      <c r="G822" s="8"/>
+      <c r="H822" s="8"/>
+      <c r="I822" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J822" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K822" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L822" s="8"/>
+      <c r="M822" s="8"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="8"/>
+      <c r="B823" s="8"/>
+      <c r="C823" s="8"/>
+      <c r="D823" s="8"/>
+      <c r="E823" s="8"/>
+      <c r="F823" s="8"/>
+      <c r="G823" s="8"/>
+      <c r="H823" s="8"/>
+      <c r="I823" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J823" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K823" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L823" s="8"/>
+      <c r="M823" s="8"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="8"/>
+      <c r="B824" s="8"/>
+      <c r="C824" s="8"/>
+      <c r="D824" s="8"/>
+      <c r="E824" s="8"/>
+      <c r="F824" s="8"/>
+      <c r="G824" s="8"/>
+      <c r="H824" s="8"/>
+      <c r="I824" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J824" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K824" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L824" s="8"/>
+      <c r="M824" s="8"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C825" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D825" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E814" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F814" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G814" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H814" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I814" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J814" s="4" t="s">
+      <c r="E825" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F825" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G825" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H825" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I825" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J825" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K814" s="4" t="s">
+      <c r="K825" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L814" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M814" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="4" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B815" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C815" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D815" s="4" t="s">
+      <c r="L825" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M825" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C826" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D826" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E815" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F815" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G815" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H815" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I815" s="7" t="s">
+      <c r="E826" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F826" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G826" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H826" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I826" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="J815" s="4" t="s">
+      <c r="J826" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K815" s="4" t="s">
+      <c r="K826" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L815" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M815" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="816" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="1"/>
-    </row>
-    <row r="817" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="818" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="1"/>
-    </row>
-    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="820" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="1"/>
-    </row>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="822" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="1"/>
-    </row>
-    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="6" t="s">
+      <c r="L826" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M826" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="1"/>
+    </row>
+    <row r="828" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="1"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="1"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="1"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B823" s="6" t="s">
+      <c r="B834" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C823" s="6" t="s">
+      <c r="C834" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D823" s="6" t="s">
+      <c r="D834" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E823" s="6" t="s">
+      <c r="E834" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F823" s="6" t="s">
+      <c r="F834" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G823" s="6" t="s">
+      <c r="G834" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H823" s="6" t="s">
+      <c r="H834" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I823" s="6" t="s">
+      <c r="I834" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J823" s="6" t="s">
+      <c r="J834" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K823" s="6" t="s">
+      <c r="K834" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L823" s="6" t="s">
+      <c r="L834" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M823" s="6" t="s">
+      <c r="M834" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="4" t="n">
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="4" t="n">
         <v>3001</v>
       </c>
-      <c r="B824" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C824" s="4" t="s">
+      <c r="B835" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C835" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D824" s="4" t="s">
+      <c r="D835" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E824" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F824" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G824" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H824" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I824" s="7" t="s">
+      <c r="E835" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F835" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G835" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H835" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I835" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="J824" s="4" t="s">
+      <c r="J835" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K824" s="4" t="s">
+      <c r="K835" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L824" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M824" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="8" t="n">
+      <c r="L835" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M835" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="8" t="n">
         <v>3002</v>
       </c>
-      <c r="B825" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C825" s="8" t="s">
+      <c r="B836" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C836" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D825" s="8" t="s">
+      <c r="D836" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E825" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F825" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G825" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H825" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I825" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J825" s="8" t="s">
+      <c r="E836" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F836" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G836" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H836" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I836" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J836" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K825" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L825" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M825" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="8"/>
-      <c r="B826" s="8"/>
-      <c r="C826" s="8"/>
-      <c r="D826" s="8"/>
-      <c r="E826" s="8"/>
-      <c r="F826" s="8"/>
-      <c r="G826" s="8"/>
-      <c r="H826" s="8"/>
-      <c r="I826" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J826" s="8"/>
-      <c r="K826" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L826" s="8"/>
-      <c r="M826" s="8"/>
-    </row>
-    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="8"/>
-      <c r="B827" s="8"/>
-      <c r="C827" s="8"/>
-      <c r="D827" s="8"/>
-      <c r="E827" s="8"/>
-      <c r="F827" s="8"/>
-      <c r="G827" s="8"/>
-      <c r="H827" s="8"/>
-      <c r="I827" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J827" s="8"/>
-      <c r="K827" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L827" s="8"/>
-      <c r="M827" s="8"/>
-    </row>
-    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="8"/>
-      <c r="B828" s="8"/>
-      <c r="C828" s="8"/>
-      <c r="D828" s="8"/>
-      <c r="E828" s="8"/>
-      <c r="F828" s="8"/>
-      <c r="G828" s="8"/>
-      <c r="H828" s="8"/>
-      <c r="I828" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J828" s="8"/>
-      <c r="K828" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L828" s="8"/>
-      <c r="M828" s="8"/>
-    </row>
-    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="8"/>
-      <c r="B829" s="8"/>
-      <c r="C829" s="8"/>
-      <c r="D829" s="8"/>
-      <c r="E829" s="8"/>
-      <c r="F829" s="8"/>
-      <c r="G829" s="8"/>
-      <c r="H829" s="8"/>
-      <c r="I829" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J829" s="8"/>
-      <c r="K829" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L829" s="8"/>
-      <c r="M829" s="8"/>
-    </row>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="8"/>
-      <c r="B830" s="8"/>
-      <c r="C830" s="8"/>
-      <c r="D830" s="8"/>
-      <c r="E830" s="8"/>
-      <c r="F830" s="8"/>
-      <c r="G830" s="8"/>
-      <c r="H830" s="8"/>
-      <c r="I830" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J830" s="8"/>
-      <c r="K830" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="L830" s="8"/>
-      <c r="M830" s="8"/>
-    </row>
-    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="8" t="n">
-        <v>3003</v>
-      </c>
-      <c r="B831" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C831" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D831" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E831" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F831" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G831" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H831" s="8" t="s">
+      <c r="K836" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="I831" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="J831" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K831" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="L831" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M831" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="8"/>
-      <c r="B832" s="8"/>
-      <c r="C832" s="8"/>
-      <c r="D832" s="8"/>
-      <c r="E832" s="8"/>
-      <c r="F832" s="8"/>
-      <c r="G832" s="8"/>
-      <c r="H832" s="8"/>
-      <c r="I832" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J832" s="8"/>
-      <c r="K832" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L832" s="8"/>
-      <c r="M832" s="8"/>
-    </row>
-    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="8"/>
-      <c r="B833" s="8"/>
-      <c r="C833" s="8"/>
-      <c r="D833" s="8"/>
-      <c r="E833" s="8"/>
-      <c r="F833" s="8"/>
-      <c r="G833" s="8"/>
-      <c r="H833" s="8"/>
-      <c r="I833" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="J833" s="8"/>
-      <c r="K833" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="L833" s="8"/>
-      <c r="M833" s="8"/>
-    </row>
-    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="8"/>
-      <c r="B834" s="8"/>
-      <c r="C834" s="8"/>
-      <c r="D834" s="8"/>
-      <c r="E834" s="8"/>
-      <c r="F834" s="8"/>
-      <c r="G834" s="8"/>
-      <c r="H834" s="8"/>
-      <c r="I834" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J834" s="8"/>
-      <c r="K834" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L834" s="8"/>
-      <c r="M834" s="8"/>
-    </row>
-    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="8" t="n">
-        <v>3004</v>
-      </c>
-      <c r="B835" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C835" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D835" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="E835" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F835" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G835" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H835" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I835" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="J835" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K835" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="L835" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M835" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="8"/>
-      <c r="B836" s="8"/>
-      <c r="C836" s="8"/>
-      <c r="D836" s="8"/>
-      <c r="E836" s="8"/>
-      <c r="F836" s="8"/>
-      <c r="G836" s="8"/>
-      <c r="H836" s="8"/>
-      <c r="I836" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="J836" s="8"/>
-      <c r="K836" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="L836" s="8"/>
-      <c r="M836" s="8"/>
+      <c r="L836" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M836" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="8"/>
@@ -22688,11 +22728,11 @@
       <c r="G837" s="8"/>
       <c r="H837" s="8"/>
       <c r="I837" s="4" t="s">
-        <v>750</v>
+        <v>1035</v>
       </c>
       <c r="J837" s="8"/>
       <c r="K837" s="4" t="s">
-        <v>751</v>
+        <v>1036</v>
       </c>
       <c r="L837" s="8"/>
       <c r="M837" s="8"/>
@@ -22707,55 +22747,33 @@
       <c r="G838" s="8"/>
       <c r="H838" s="8"/>
       <c r="I838" s="4" t="s">
-        <v>756</v>
+        <v>1037</v>
       </c>
       <c r="J838" s="8"/>
       <c r="K838" s="4" t="s">
-        <v>757</v>
+        <v>1038</v>
       </c>
       <c r="L838" s="8"/>
       <c r="M838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="8" t="n">
-        <v>3005</v>
-      </c>
-      <c r="B839" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C839" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D839" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="E839" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F839" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G839" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H839" s="8" t="s">
-        <v>1046</v>
-      </c>
+      <c r="A839" s="8"/>
+      <c r="B839" s="8"/>
+      <c r="C839" s="8"/>
+      <c r="D839" s="8"/>
+      <c r="E839" s="8"/>
+      <c r="F839" s="8"/>
+      <c r="G839" s="8"/>
+      <c r="H839" s="8"/>
       <c r="I839" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J839" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="J839" s="8"/>
       <c r="K839" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L839" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M839" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="L839" s="8"/>
+      <c r="M839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8"/>
@@ -22767,11 +22785,11 @@
       <c r="G840" s="8"/>
       <c r="H840" s="8"/>
       <c r="I840" s="4" t="s">
-        <v>766</v>
+        <v>1041</v>
       </c>
       <c r="J840" s="8"/>
       <c r="K840" s="4" t="s">
-        <v>767</v>
+        <v>1042</v>
       </c>
       <c r="L840" s="8"/>
       <c r="M840" s="8"/>
@@ -22786,74 +22804,74 @@
       <c r="G841" s="8"/>
       <c r="H841" s="8"/>
       <c r="I841" s="4" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="J841" s="8"/>
       <c r="K841" s="4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="L841" s="8"/>
       <c r="M841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="8"/>
-      <c r="B842" s="8"/>
-      <c r="C842" s="8"/>
-      <c r="D842" s="8"/>
-      <c r="E842" s="8"/>
-      <c r="F842" s="8"/>
-      <c r="G842" s="8"/>
-      <c r="H842" s="8"/>
+      <c r="A842" s="8" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B842" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D842" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E842" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F842" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G842" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H842" s="8" t="s">
+        <v>1048</v>
+      </c>
       <c r="I842" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J842" s="8"/>
+        <v>730</v>
+      </c>
+      <c r="J842" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K842" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L842" s="8"/>
-      <c r="M842" s="8"/>
+        <v>731</v>
+      </c>
+      <c r="L842" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M842" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="8" t="n">
-        <v>3006</v>
-      </c>
-      <c r="B843" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C843" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D843" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="E843" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F843" s="8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G843" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H843" s="8" t="s">
-        <v>1056</v>
-      </c>
+      <c r="A843" s="8"/>
+      <c r="B843" s="8"/>
+      <c r="C843" s="8"/>
+      <c r="D843" s="8"/>
+      <c r="E843" s="8"/>
+      <c r="F843" s="8"/>
+      <c r="G843" s="8"/>
+      <c r="H843" s="8"/>
       <c r="I843" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="J843" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="J843" s="8"/>
       <c r="K843" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="L843" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M843" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="L843" s="8"/>
+      <c r="M843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="8"/>
@@ -22865,11 +22883,11 @@
       <c r="G844" s="8"/>
       <c r="H844" s="8"/>
       <c r="I844" s="4" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
       <c r="J844" s="8"/>
       <c r="K844" s="4" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="L844" s="8"/>
       <c r="M844" s="8"/>
@@ -22884,33 +22902,55 @@
       <c r="G845" s="8"/>
       <c r="H845" s="8"/>
       <c r="I845" s="4" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="J845" s="8"/>
       <c r="K845" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="L845" s="8"/>
       <c r="M845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="8"/>
-      <c r="B846" s="8"/>
-      <c r="C846" s="8"/>
-      <c r="D846" s="8"/>
-      <c r="E846" s="8"/>
-      <c r="F846" s="8"/>
-      <c r="G846" s="8"/>
-      <c r="H846" s="8"/>
+      <c r="A846" s="8" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B846" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D846" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E846" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F846" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G846" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H846" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="I846" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="J846" s="8"/>
+        <v>746</v>
+      </c>
+      <c r="J846" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K846" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="L846" s="8"/>
-      <c r="M846" s="8"/>
+        <v>747</v>
+      </c>
+      <c r="L846" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M846" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8"/>
@@ -22922,11 +22962,11 @@
       <c r="G847" s="8"/>
       <c r="H847" s="8"/>
       <c r="I847" s="4" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="J847" s="8"/>
       <c r="K847" s="4" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="L847" s="8"/>
       <c r="M847" s="8"/>
@@ -22941,11 +22981,11 @@
       <c r="G848" s="8"/>
       <c r="H848" s="8"/>
       <c r="I848" s="4" t="s">
-        <v>796</v>
+        <v>750</v>
       </c>
       <c r="J848" s="8"/>
       <c r="K848" s="4" t="s">
-        <v>797</v>
+        <v>751</v>
       </c>
       <c r="L848" s="8"/>
       <c r="M848" s="8"/>
@@ -22960,48 +23000,48 @@
       <c r="G849" s="8"/>
       <c r="H849" s="8"/>
       <c r="I849" s="4" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="J849" s="8"/>
       <c r="K849" s="4" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="L849" s="8"/>
       <c r="M849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="8" t="n">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B850" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C850" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>802</v>
+        <v>759</v>
       </c>
       <c r="E850" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F850" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G850" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H850" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="G850" s="8" t="s">
+      <c r="I850" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="H850" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I850" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="J850" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K850" s="4" t="s">
-        <v>781</v>
+        <v>1062</v>
       </c>
       <c r="L850" s="8" t="s">
         <v>58</v>
@@ -23020,11 +23060,11 @@
       <c r="G851" s="8"/>
       <c r="H851" s="8"/>
       <c r="I851" s="4" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="J851" s="8"/>
       <c r="K851" s="4" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="L851" s="8"/>
       <c r="M851" s="8"/>
@@ -23039,11 +23079,11 @@
       <c r="G852" s="8"/>
       <c r="H852" s="8"/>
       <c r="I852" s="4" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="J852" s="8"/>
       <c r="K852" s="4" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="L852" s="8"/>
       <c r="M852" s="8"/>
@@ -23058,33 +23098,55 @@
       <c r="G853" s="8"/>
       <c r="H853" s="8"/>
       <c r="I853" s="4" t="s">
-        <v>790</v>
+        <v>1065</v>
       </c>
       <c r="J853" s="8"/>
       <c r="K853" s="4" t="s">
-        <v>791</v>
+        <v>1066</v>
       </c>
       <c r="L853" s="8"/>
       <c r="M853" s="8"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="8"/>
-      <c r="B854" s="8"/>
-      <c r="C854" s="8"/>
-      <c r="D854" s="8"/>
-      <c r="E854" s="8"/>
-      <c r="F854" s="8"/>
-      <c r="G854" s="8"/>
-      <c r="H854" s="8"/>
+      <c r="A854" s="8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B854" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C854" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D854" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E854" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F854" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G854" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H854" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="I854" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="J854" s="8"/>
+        <v>780</v>
+      </c>
+      <c r="J854" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K854" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="L854" s="8"/>
-      <c r="M854" s="8"/>
+        <v>781</v>
+      </c>
+      <c r="L854" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M854" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="8"/>
@@ -23096,11 +23158,11 @@
       <c r="G855" s="8"/>
       <c r="H855" s="8"/>
       <c r="I855" s="4" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="J855" s="8"/>
       <c r="K855" s="4" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="L855" s="8"/>
       <c r="M855" s="8"/>
@@ -23115,96 +23177,52 @@
       <c r="G856" s="8"/>
       <c r="H856" s="8"/>
       <c r="I856" s="4" t="s">
-        <v>798</v>
+        <v>1071</v>
       </c>
       <c r="J856" s="8"/>
       <c r="K856" s="4" t="s">
-        <v>799</v>
+        <v>1072</v>
       </c>
       <c r="L856" s="8"/>
       <c r="M856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="4" t="n">
-        <v>3008</v>
-      </c>
-      <c r="B857" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C857" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D857" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E857" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F857" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G857" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H857" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I857" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J857" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
+      <c r="C857" s="8"/>
+      <c r="D857" s="8"/>
+      <c r="E857" s="8"/>
+      <c r="F857" s="8"/>
+      <c r="G857" s="8"/>
+      <c r="H857" s="8"/>
+      <c r="I857" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="J857" s="8"/>
       <c r="K857" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L857" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M857" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="L857" s="8"/>
+      <c r="M857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="8" t="n">
-        <v>3009</v>
-      </c>
-      <c r="B858" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C858" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D858" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E858" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F858" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G858" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H858" s="8" t="s">
-        <v>1071</v>
-      </c>
+      <c r="A858" s="8"/>
+      <c r="B858" s="8"/>
+      <c r="C858" s="8"/>
+      <c r="D858" s="8"/>
+      <c r="E858" s="8"/>
+      <c r="F858" s="8"/>
+      <c r="G858" s="8"/>
+      <c r="H858" s="8"/>
       <c r="I858" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J858" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="J858" s="8"/>
       <c r="K858" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L858" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M858" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="L858" s="8"/>
+      <c r="M858" s="8"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8"/>
@@ -23216,11 +23234,11 @@
       <c r="G859" s="8"/>
       <c r="H859" s="8"/>
       <c r="I859" s="4" t="s">
-        <v>1074</v>
+        <v>796</v>
       </c>
       <c r="J859" s="8"/>
       <c r="K859" s="4" t="s">
-        <v>1075</v>
+        <v>797</v>
       </c>
       <c r="L859" s="8"/>
       <c r="M859" s="8"/>
@@ -23235,74 +23253,74 @@
       <c r="G860" s="8"/>
       <c r="H860" s="8"/>
       <c r="I860" s="4" t="s">
-        <v>1076</v>
+        <v>798</v>
       </c>
       <c r="J860" s="8"/>
       <c r="K860" s="4" t="s">
-        <v>1077</v>
+        <v>799</v>
       </c>
       <c r="L860" s="8"/>
       <c r="M860" s="8"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="8"/>
-      <c r="B861" s="8"/>
-      <c r="C861" s="8"/>
-      <c r="D861" s="8"/>
-      <c r="E861" s="8"/>
-      <c r="F861" s="8"/>
-      <c r="G861" s="8"/>
-      <c r="H861" s="8"/>
+      <c r="A861" s="8" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B861" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C861" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D861" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E861" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F861" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G861" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H861" s="8" t="s">
+        <v>1076</v>
+      </c>
       <c r="I861" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J861" s="8"/>
+        <v>780</v>
+      </c>
+      <c r="J861" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K861" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L861" s="8"/>
-      <c r="M861" s="8"/>
+        <v>781</v>
+      </c>
+      <c r="L861" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M861" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="8" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B862" s="8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C862" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D862" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E862" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F862" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G862" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H862" s="8" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A862" s="8"/>
+      <c r="B862" s="8"/>
+      <c r="C862" s="8"/>
+      <c r="D862" s="8"/>
+      <c r="E862" s="8"/>
+      <c r="F862" s="8"/>
+      <c r="G862" s="8"/>
+      <c r="H862" s="8"/>
       <c r="I862" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J862" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="J862" s="8"/>
       <c r="K862" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L862" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M862" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="L862" s="8"/>
+      <c r="M862" s="8"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="8"/>
@@ -23314,11 +23332,11 @@
       <c r="G863" s="8"/>
       <c r="H863" s="8"/>
       <c r="I863" s="4" t="s">
-        <v>182</v>
+        <v>1071</v>
       </c>
       <c r="J863" s="8"/>
       <c r="K863" s="4" t="s">
-        <v>182</v>
+        <v>1072</v>
       </c>
       <c r="L863" s="8"/>
       <c r="M863" s="8"/>
@@ -23333,11 +23351,11 @@
       <c r="G864" s="8"/>
       <c r="H864" s="8"/>
       <c r="I864" s="4" t="s">
-        <v>185</v>
+        <v>790</v>
       </c>
       <c r="J864" s="8"/>
       <c r="K864" s="4" t="s">
-        <v>185</v>
+        <v>791</v>
       </c>
       <c r="L864" s="8"/>
       <c r="M864" s="8"/>
@@ -23352,11 +23370,11 @@
       <c r="G865" s="8"/>
       <c r="H865" s="8"/>
       <c r="I865" s="4" t="s">
-        <v>187</v>
+        <v>792</v>
       </c>
       <c r="J865" s="8"/>
       <c r="K865" s="4" t="s">
-        <v>187</v>
+        <v>793</v>
       </c>
       <c r="L865" s="8"/>
       <c r="M865" s="8"/>
@@ -23371,11 +23389,11 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="4" t="s">
-        <v>189</v>
+        <v>796</v>
       </c>
       <c r="J866" s="8"/>
       <c r="K866" s="4" t="s">
-        <v>189</v>
+        <v>797</v>
       </c>
       <c r="L866" s="8"/>
       <c r="M866" s="8"/>
@@ -23390,52 +23408,96 @@
       <c r="G867" s="8"/>
       <c r="H867" s="8"/>
       <c r="I867" s="4" t="s">
-        <v>191</v>
+        <v>798</v>
       </c>
       <c r="J867" s="8"/>
       <c r="K867" s="4" t="s">
-        <v>191</v>
+        <v>799</v>
       </c>
       <c r="L867" s="8"/>
       <c r="M867" s="8"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="8"/>
-      <c r="B868" s="8"/>
-      <c r="C868" s="8"/>
-      <c r="D868" s="8"/>
-      <c r="E868" s="8"/>
-      <c r="F868" s="8"/>
-      <c r="G868" s="8"/>
-      <c r="H868" s="8"/>
-      <c r="I868" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J868" s="8"/>
+      <c r="A868" s="4" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C868" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E868" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F868" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G868" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H868" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I868" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J868" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K868" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L868" s="8"/>
-      <c r="M868" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L868" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M868" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="8"/>
-      <c r="B869" s="8"/>
-      <c r="C869" s="8"/>
-      <c r="D869" s="8"/>
-      <c r="E869" s="8"/>
-      <c r="F869" s="8"/>
-      <c r="G869" s="8"/>
-      <c r="H869" s="8"/>
+      <c r="A869" s="8" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B869" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C869" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D869" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E869" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F869" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G869" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H869" s="8" t="s">
+        <v>1085</v>
+      </c>
       <c r="I869" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J869" s="8"/>
+        <v>1086</v>
+      </c>
+      <c r="J869" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K869" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L869" s="8"/>
-      <c r="M869" s="8"/>
+        <v>1087</v>
+      </c>
+      <c r="L869" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M869" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="8"/>
@@ -23447,11 +23509,11 @@
       <c r="G870" s="8"/>
       <c r="H870" s="8"/>
       <c r="I870" s="4" t="s">
-        <v>756</v>
+        <v>1088</v>
       </c>
       <c r="J870" s="8"/>
       <c r="K870" s="4" t="s">
-        <v>757</v>
+        <v>1089</v>
       </c>
       <c r="L870" s="8"/>
       <c r="M870" s="8"/>
@@ -23466,11 +23528,11 @@
       <c r="G871" s="8"/>
       <c r="H871" s="8"/>
       <c r="I871" s="4" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="J871" s="8"/>
       <c r="K871" s="4" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="L871" s="8"/>
       <c r="M871" s="8"/>
@@ -23485,33 +23547,55 @@
       <c r="G872" s="8"/>
       <c r="H872" s="8"/>
       <c r="I872" s="4" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="J872" s="8"/>
       <c r="K872" s="4" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="L872" s="8"/>
       <c r="M872" s="8"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="8"/>
-      <c r="B873" s="8"/>
-      <c r="C873" s="8"/>
-      <c r="D873" s="8"/>
-      <c r="E873" s="8"/>
-      <c r="F873" s="8"/>
-      <c r="G873" s="8"/>
-      <c r="H873" s="8"/>
+      <c r="A873" s="8" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B873" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C873" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D873" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E873" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F873" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G873" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H873" s="8" t="s">
+        <v>1096</v>
+      </c>
       <c r="I873" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J873" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="J873" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K873" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L873" s="8"/>
-      <c r="M873" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="L873" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M873" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="8"/>
@@ -23523,11 +23607,11 @@
       <c r="G874" s="8"/>
       <c r="H874" s="8"/>
       <c r="I874" s="4" t="s">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="J874" s="8"/>
       <c r="K874" s="4" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="L874" s="8"/>
       <c r="M874" s="8"/>
@@ -23542,55 +23626,33 @@
       <c r="G875" s="8"/>
       <c r="H875" s="8"/>
       <c r="I875" s="4" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="J875" s="8"/>
       <c r="K875" s="4" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="L875" s="8"/>
       <c r="M875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="8" t="n">
-        <v>3011</v>
-      </c>
-      <c r="B876" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C876" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D876" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E876" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F876" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G876" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H876" s="8" t="s">
-        <v>1092</v>
-      </c>
+      <c r="A876" s="8"/>
+      <c r="B876" s="8"/>
+      <c r="C876" s="8"/>
+      <c r="D876" s="8"/>
+      <c r="E876" s="8"/>
+      <c r="F876" s="8"/>
+      <c r="G876" s="8"/>
+      <c r="H876" s="8"/>
       <c r="I876" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J876" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J876" s="8"/>
       <c r="K876" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L876" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M876" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L876" s="8"/>
+      <c r="M876" s="8"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="8"/>
@@ -23602,11 +23664,11 @@
       <c r="G877" s="8"/>
       <c r="H877" s="8"/>
       <c r="I877" s="4" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="J877" s="8"/>
       <c r="K877" s="4" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
@@ -23621,11 +23683,11 @@
       <c r="G878" s="8"/>
       <c r="H878" s="8"/>
       <c r="I878" s="4" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="J878" s="8"/>
       <c r="K878" s="4" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="L878" s="8"/>
       <c r="M878" s="8"/>
@@ -23640,11 +23702,11 @@
       <c r="G879" s="8"/>
       <c r="H879" s="8"/>
       <c r="I879" s="4" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="J879" s="8"/>
       <c r="K879" s="4" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
@@ -23659,11 +23721,11 @@
       <c r="G880" s="8"/>
       <c r="H880" s="8"/>
       <c r="I880" s="4" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="J880" s="8"/>
       <c r="K880" s="4" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="L880" s="8"/>
       <c r="M880" s="8"/>
@@ -23678,11 +23740,11 @@
       <c r="G881" s="8"/>
       <c r="H881" s="8"/>
       <c r="I881" s="4" t="s">
-        <v>268</v>
+        <v>756</v>
       </c>
       <c r="J881" s="8"/>
       <c r="K881" s="4" t="s">
-        <v>269</v>
+        <v>757</v>
       </c>
       <c r="L881" s="8"/>
       <c r="M881" s="8"/>
@@ -23697,11 +23759,11 @@
       <c r="G882" s="8"/>
       <c r="H882" s="8"/>
       <c r="I882" s="4" t="s">
-        <v>270</v>
+        <v>1097</v>
       </c>
       <c r="J882" s="8"/>
       <c r="K882" s="4" t="s">
-        <v>271</v>
+        <v>1098</v>
       </c>
       <c r="L882" s="8"/>
       <c r="M882" s="8"/>
@@ -23716,11 +23778,11 @@
       <c r="G883" s="8"/>
       <c r="H883" s="8"/>
       <c r="I883" s="4" t="s">
-        <v>272</v>
+        <v>1099</v>
       </c>
       <c r="J883" s="8"/>
       <c r="K883" s="4" t="s">
-        <v>273</v>
+        <v>1100</v>
       </c>
       <c r="L883" s="8"/>
       <c r="M883" s="8"/>
@@ -23735,11 +23797,11 @@
       <c r="G884" s="8"/>
       <c r="H884" s="8"/>
       <c r="I884" s="4" t="s">
-        <v>274</v>
+        <v>1101</v>
       </c>
       <c r="J884" s="8"/>
       <c r="K884" s="4" t="s">
-        <v>275</v>
+        <v>1102</v>
       </c>
       <c r="L884" s="8"/>
       <c r="M884" s="8"/>
@@ -23754,11 +23816,11 @@
       <c r="G885" s="8"/>
       <c r="H885" s="8"/>
       <c r="I885" s="4" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J885" s="8"/>
       <c r="K885" s="4" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L885" s="8"/>
       <c r="M885" s="8"/>
@@ -23773,33 +23835,55 @@
       <c r="G886" s="8"/>
       <c r="H886" s="8"/>
       <c r="I886" s="4" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="J886" s="8"/>
       <c r="K886" s="4" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="L886" s="8"/>
       <c r="M886" s="8"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="8"/>
-      <c r="B887" s="8"/>
-      <c r="C887" s="8"/>
-      <c r="D887" s="8"/>
-      <c r="E887" s="8"/>
-      <c r="F887" s="8"/>
-      <c r="G887" s="8"/>
-      <c r="H887" s="8"/>
+      <c r="A887" s="8" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B887" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C887" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D887" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E887" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F887" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G887" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H887" s="8" t="s">
+        <v>1106</v>
+      </c>
       <c r="I887" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J887" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="J887" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K887" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L887" s="8"/>
-      <c r="M887" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="L887" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M887" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="8"/>
@@ -23811,11 +23895,11 @@
       <c r="G888" s="8"/>
       <c r="H888" s="8"/>
       <c r="I888" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="J888" s="8"/>
       <c r="K888" s="4" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="L888" s="8"/>
       <c r="M888" s="8"/>
@@ -23830,11 +23914,11 @@
       <c r="G889" s="8"/>
       <c r="H889" s="8"/>
       <c r="I889" s="4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="J889" s="8"/>
       <c r="K889" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="L889" s="8"/>
       <c r="M889" s="8"/>
@@ -23849,11 +23933,11 @@
       <c r="G890" s="8"/>
       <c r="H890" s="8"/>
       <c r="I890" s="4" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="J890" s="8"/>
       <c r="K890" s="4" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="L890" s="8"/>
       <c r="M890" s="8"/>
@@ -23868,11 +23952,11 @@
       <c r="G891" s="8"/>
       <c r="H891" s="8"/>
       <c r="I891" s="4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="J891" s="8"/>
       <c r="K891" s="4" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="L891" s="8"/>
       <c r="M891" s="8"/>
@@ -23887,11 +23971,11 @@
       <c r="G892" s="8"/>
       <c r="H892" s="8"/>
       <c r="I892" s="4" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="J892" s="8"/>
       <c r="K892" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="L892" s="8"/>
       <c r="M892" s="8"/>
@@ -23906,11 +23990,11 @@
       <c r="G893" s="8"/>
       <c r="H893" s="8"/>
       <c r="I893" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="J893" s="8"/>
       <c r="K893" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="L893" s="8"/>
       <c r="M893" s="8"/>
@@ -23925,11 +24009,11 @@
       <c r="G894" s="8"/>
       <c r="H894" s="8"/>
       <c r="I894" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="J894" s="8"/>
       <c r="K894" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="L894" s="8"/>
       <c r="M894" s="8"/>
@@ -23944,11 +24028,11 @@
       <c r="G895" s="8"/>
       <c r="H895" s="8"/>
       <c r="I895" s="4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="J895" s="8"/>
       <c r="K895" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="L895" s="8"/>
       <c r="M895" s="8"/>
@@ -23963,11 +24047,11 @@
       <c r="G896" s="8"/>
       <c r="H896" s="8"/>
       <c r="I896" s="4" t="s">
-        <v>1093</v>
+        <v>276</v>
       </c>
       <c r="J896" s="8"/>
       <c r="K896" s="4" t="s">
-        <v>1094</v>
+        <v>277</v>
       </c>
       <c r="L896" s="8"/>
       <c r="M896" s="8"/>
@@ -23982,11 +24066,11 @@
       <c r="G897" s="8"/>
       <c r="H897" s="8"/>
       <c r="I897" s="4" t="s">
-        <v>1095</v>
+        <v>278</v>
       </c>
       <c r="J897" s="8"/>
       <c r="K897" s="4" t="s">
-        <v>757</v>
+        <v>279</v>
       </c>
       <c r="L897" s="8"/>
       <c r="M897" s="8"/>
@@ -24001,55 +24085,33 @@
       <c r="G898" s="8"/>
       <c r="H898" s="8"/>
       <c r="I898" s="4" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="J898" s="8"/>
       <c r="K898" s="4" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="L898" s="8"/>
       <c r="M898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="8" t="n">
-        <v>3012</v>
-      </c>
-      <c r="B899" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C899" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D899" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E899" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F899" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G899" s="8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H899" s="8" t="s">
-        <v>1099</v>
-      </c>
+      <c r="A899" s="8"/>
+      <c r="B899" s="8"/>
+      <c r="C899" s="8"/>
+      <c r="D899" s="8"/>
+      <c r="E899" s="8"/>
+      <c r="F899" s="8"/>
+      <c r="G899" s="8"/>
+      <c r="H899" s="8"/>
       <c r="I899" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J899" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="J899" s="8"/>
       <c r="K899" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L899" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M899" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="L899" s="8"/>
+      <c r="M899" s="8"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="8"/>
@@ -24061,11 +24123,11 @@
       <c r="G900" s="8"/>
       <c r="H900" s="8"/>
       <c r="I900" s="4" t="s">
-        <v>1102</v>
+        <v>284</v>
       </c>
       <c r="J900" s="8"/>
       <c r="K900" s="4" t="s">
-        <v>1103</v>
+        <v>285</v>
       </c>
       <c r="L900" s="8"/>
       <c r="M900" s="8"/>
@@ -24080,11 +24142,11 @@
       <c r="G901" s="8"/>
       <c r="H901" s="8"/>
       <c r="I901" s="4" t="s">
-        <v>1104</v>
+        <v>286</v>
       </c>
       <c r="J901" s="8"/>
       <c r="K901" s="4" t="s">
-        <v>1105</v>
+        <v>287</v>
       </c>
       <c r="L901" s="8"/>
       <c r="M901" s="8"/>
@@ -24099,11 +24161,11 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="4" t="s">
-        <v>1106</v>
+        <v>288</v>
       </c>
       <c r="J902" s="8"/>
       <c r="K902" s="4" t="s">
-        <v>1107</v>
+        <v>289</v>
       </c>
       <c r="L902" s="8"/>
       <c r="M902" s="8"/>
@@ -24118,11 +24180,11 @@
       <c r="G903" s="8"/>
       <c r="H903" s="8"/>
       <c r="I903" s="4" t="s">
-        <v>1108</v>
+        <v>290</v>
       </c>
       <c r="J903" s="8"/>
       <c r="K903" s="4" t="s">
-        <v>1109</v>
+        <v>291</v>
       </c>
       <c r="L903" s="8"/>
       <c r="M903" s="8"/>
@@ -24137,55 +24199,33 @@
       <c r="G904" s="8"/>
       <c r="H904" s="8"/>
       <c r="I904" s="4" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="J904" s="8"/>
       <c r="K904" s="4" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="L904" s="8"/>
       <c r="M904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="8" t="n">
-        <v>3013</v>
-      </c>
-      <c r="B905" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C905" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D905" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E905" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F905" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G905" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H905" s="8" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A905" s="8"/>
+      <c r="B905" s="8"/>
+      <c r="C905" s="8"/>
+      <c r="D905" s="8"/>
+      <c r="E905" s="8"/>
+      <c r="F905" s="8"/>
+      <c r="G905" s="8"/>
+      <c r="H905" s="8"/>
       <c r="I905" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J905" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J905" s="8"/>
       <c r="K905" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L905" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M905" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="L905" s="8"/>
+      <c r="M905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="8"/>
@@ -24197,11 +24237,11 @@
       <c r="G906" s="8"/>
       <c r="H906" s="8"/>
       <c r="I906" s="4" t="s">
-        <v>1116</v>
+        <v>296</v>
       </c>
       <c r="J906" s="8"/>
       <c r="K906" s="4" t="s">
-        <v>1117</v>
+        <v>297</v>
       </c>
       <c r="L906" s="8"/>
       <c r="M906" s="8"/>
@@ -24216,11 +24256,11 @@
       <c r="G907" s="8"/>
       <c r="H907" s="8"/>
       <c r="I907" s="4" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="J907" s="8"/>
       <c r="K907" s="4" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="L907" s="8"/>
       <c r="M907" s="8"/>
@@ -24235,11 +24275,11 @@
       <c r="G908" s="8"/>
       <c r="H908" s="8"/>
       <c r="I908" s="4" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="J908" s="8"/>
       <c r="K908" s="4" t="s">
-        <v>1121</v>
+        <v>757</v>
       </c>
       <c r="L908" s="8"/>
       <c r="M908" s="8"/>
@@ -24254,74 +24294,74 @@
       <c r="G909" s="8"/>
       <c r="H909" s="8"/>
       <c r="I909" s="4" t="s">
-        <v>1122</v>
+        <v>98</v>
       </c>
       <c r="J909" s="8"/>
       <c r="K909" s="4" t="s">
-        <v>1123</v>
+        <v>99</v>
       </c>
       <c r="L909" s="8"/>
       <c r="M909" s="8"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="8"/>
-      <c r="B910" s="8"/>
-      <c r="C910" s="8"/>
-      <c r="D910" s="8"/>
-      <c r="E910" s="8"/>
-      <c r="F910" s="8"/>
-      <c r="G910" s="8"/>
-      <c r="H910" s="8"/>
+      <c r="A910" s="8" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B910" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C910" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D910" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E910" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F910" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G910" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H910" s="8" t="s">
+        <v>1113</v>
+      </c>
       <c r="I910" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J910" s="8"/>
+        <v>1114</v>
+      </c>
+      <c r="J910" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K910" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L910" s="8"/>
-      <c r="M910" s="8"/>
+        <v>1115</v>
+      </c>
+      <c r="L910" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M910" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="8" t="n">
-        <v>3014</v>
-      </c>
-      <c r="B911" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C911" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D911" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="E911" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F911" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G911" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H911" s="8" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A911" s="8"/>
+      <c r="B911" s="8"/>
+      <c r="C911" s="8"/>
+      <c r="D911" s="8"/>
+      <c r="E911" s="8"/>
+      <c r="F911" s="8"/>
+      <c r="G911" s="8"/>
+      <c r="H911" s="8"/>
       <c r="I911" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J911" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="J911" s="8"/>
       <c r="K911" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L911" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M911" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="L911" s="8"/>
+      <c r="M911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="8"/>
@@ -24333,11 +24373,11 @@
       <c r="G912" s="8"/>
       <c r="H912" s="8"/>
       <c r="I912" s="4" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="J912" s="8"/>
       <c r="K912" s="4" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="L912" s="8"/>
       <c r="M912" s="8"/>
@@ -24352,11 +24392,11 @@
       <c r="G913" s="8"/>
       <c r="H913" s="8"/>
       <c r="I913" s="4" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="J913" s="8"/>
       <c r="K913" s="4" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="L913" s="8"/>
       <c r="M913" s="8"/>
@@ -24371,11 +24411,11 @@
       <c r="G914" s="8"/>
       <c r="H914" s="8"/>
       <c r="I914" s="4" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="J914" s="8"/>
       <c r="K914" s="4" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="L914" s="8"/>
       <c r="M914" s="8"/>
@@ -24390,74 +24430,74 @@
       <c r="G915" s="8"/>
       <c r="H915" s="8"/>
       <c r="I915" s="4" t="s">
-        <v>1122</v>
+        <v>98</v>
       </c>
       <c r="J915" s="8"/>
       <c r="K915" s="4" t="s">
-        <v>1123</v>
+        <v>99</v>
       </c>
       <c r="L915" s="8"/>
       <c r="M915" s="8"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="8"/>
-      <c r="B916" s="8"/>
-      <c r="C916" s="8"/>
-      <c r="D916" s="8"/>
-      <c r="E916" s="8"/>
-      <c r="F916" s="8"/>
-      <c r="G916" s="8"/>
-      <c r="H916" s="8"/>
+      <c r="A916" s="8" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B916" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C916" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D916" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="E916" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F916" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G916" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H916" s="8" t="s">
+        <v>1127</v>
+      </c>
       <c r="I916" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J916" s="8"/>
+        <v>1128</v>
+      </c>
+      <c r="J916" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K916" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L916" s="8"/>
-      <c r="M916" s="8"/>
+        <v>1129</v>
+      </c>
+      <c r="L916" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M916" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="8" t="n">
-        <v>3015</v>
-      </c>
-      <c r="B917" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C917" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D917" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E917" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F917" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G917" s="8" t="s">
+      <c r="A917" s="8"/>
+      <c r="B917" s="8"/>
+      <c r="C917" s="8"/>
+      <c r="D917" s="8"/>
+      <c r="E917" s="8"/>
+      <c r="F917" s="8"/>
+      <c r="G917" s="8"/>
+      <c r="H917" s="8"/>
+      <c r="I917" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="H917" s="8" t="s">
+      <c r="J917" s="8"/>
+      <c r="K917" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="I917" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J917" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K917" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L917" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M917" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="L917" s="8"/>
+      <c r="M917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="8"/>
@@ -24469,11 +24509,11 @@
       <c r="G918" s="8"/>
       <c r="H918" s="8"/>
       <c r="I918" s="4" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="J918" s="8"/>
       <c r="K918" s="4" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="L918" s="8"/>
       <c r="M918" s="8"/>
@@ -24488,11 +24528,11 @@
       <c r="G919" s="8"/>
       <c r="H919" s="8"/>
       <c r="I919" s="4" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="J919" s="8"/>
       <c r="K919" s="4" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="L919" s="8"/>
       <c r="M919" s="8"/>
@@ -24507,11 +24547,11 @@
       <c r="G920" s="8"/>
       <c r="H920" s="8"/>
       <c r="I920" s="4" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="J920" s="8"/>
       <c r="K920" s="4" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="L920" s="8"/>
       <c r="M920" s="8"/>
@@ -24526,74 +24566,74 @@
       <c r="G921" s="8"/>
       <c r="H921" s="8"/>
       <c r="I921" s="4" t="s">
-        <v>1122</v>
+        <v>98</v>
       </c>
       <c r="J921" s="8"/>
       <c r="K921" s="4" t="s">
-        <v>1123</v>
+        <v>99</v>
       </c>
       <c r="L921" s="8"/>
       <c r="M921" s="8"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="8"/>
-      <c r="B922" s="8"/>
-      <c r="C922" s="8"/>
-      <c r="D922" s="8"/>
-      <c r="E922" s="8"/>
-      <c r="F922" s="8"/>
-      <c r="G922" s="8"/>
-      <c r="H922" s="8"/>
+      <c r="A922" s="8" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B922" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C922" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D922" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E922" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F922" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G922" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H922" s="8" t="s">
+        <v>1141</v>
+      </c>
       <c r="I922" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J922" s="8"/>
+        <v>1128</v>
+      </c>
+      <c r="J922" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K922" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L922" s="8"/>
-      <c r="M922" s="8"/>
+        <v>1129</v>
+      </c>
+      <c r="L922" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M922" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="8" t="n">
-        <v>3016</v>
-      </c>
-      <c r="B923" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C923" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D923" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E923" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F923" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G923" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H923" s="8" t="s">
-        <v>1135</v>
-      </c>
+      <c r="A923" s="8"/>
+      <c r="B923" s="8"/>
+      <c r="C923" s="8"/>
+      <c r="D923" s="8"/>
+      <c r="E923" s="8"/>
+      <c r="F923" s="8"/>
+      <c r="G923" s="8"/>
+      <c r="H923" s="8"/>
       <c r="I923" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J923" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="J923" s="8"/>
       <c r="K923" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L923" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M923" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="L923" s="8"/>
+      <c r="M923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="8"/>
@@ -24605,55 +24645,33 @@
       <c r="G924" s="8"/>
       <c r="H924" s="8"/>
       <c r="I924" s="4" t="s">
-        <v>120</v>
+        <v>1132</v>
       </c>
       <c r="J924" s="8"/>
       <c r="K924" s="4" t="s">
-        <v>121</v>
+        <v>1133</v>
       </c>
       <c r="L924" s="8"/>
       <c r="M924" s="8"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="8" t="n">
-        <v>3017</v>
-      </c>
-      <c r="B925" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C925" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D925" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E925" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F925" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G925" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H925" s="8" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A925" s="8"/>
+      <c r="B925" s="8"/>
+      <c r="C925" s="8"/>
+      <c r="D925" s="8"/>
+      <c r="E925" s="8"/>
+      <c r="F925" s="8"/>
+      <c r="G925" s="8"/>
+      <c r="H925" s="8"/>
       <c r="I925" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J925" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="J925" s="8"/>
       <c r="K925" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L925" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M925" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="L925" s="8"/>
+      <c r="M925" s="8"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="8"/>
@@ -24665,115 +24683,93 @@
       <c r="G926" s="8"/>
       <c r="H926" s="8"/>
       <c r="I926" s="4" t="s">
-        <v>120</v>
+        <v>1136</v>
       </c>
       <c r="J926" s="8"/>
       <c r="K926" s="4" t="s">
-        <v>121</v>
+        <v>1137</v>
       </c>
       <c r="L926" s="8"/>
       <c r="M926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="8" t="n">
-        <v>3018</v>
-      </c>
-      <c r="B927" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C927" s="8" t="s">
+      <c r="A927" s="8"/>
+      <c r="B927" s="8"/>
+      <c r="C927" s="8"/>
+      <c r="D927" s="8"/>
+      <c r="E927" s="8"/>
+      <c r="F927" s="8"/>
+      <c r="G927" s="8"/>
+      <c r="H927" s="8"/>
+      <c r="I927" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J927" s="8"/>
+      <c r="K927" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L927" s="8"/>
+      <c r="M927" s="8"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="8" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B928" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C928" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D927" s="8" t="s">
+      <c r="D928" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E928" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F928" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G928" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H928" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I928" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J928" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E927" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F927" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G927" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H927" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I927" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J927" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K927" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L927" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M927" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="8"/>
-      <c r="B928" s="8"/>
-      <c r="C928" s="8"/>
-      <c r="D928" s="8"/>
-      <c r="E928" s="8"/>
-      <c r="F928" s="8"/>
-      <c r="G928" s="8"/>
-      <c r="H928" s="8"/>
-      <c r="I928" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J928" s="8"/>
       <c r="K928" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L928" s="8"/>
-      <c r="M928" s="8"/>
+        <v>1129</v>
+      </c>
+      <c r="L928" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M928" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="8" t="n">
-        <v>3019</v>
-      </c>
-      <c r="B929" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C929" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D929" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E929" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F929" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G929" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H929" s="8" t="s">
-        <v>1146</v>
-      </c>
+      <c r="A929" s="8"/>
+      <c r="B929" s="8"/>
+      <c r="C929" s="8"/>
+      <c r="D929" s="8"/>
+      <c r="E929" s="8"/>
+      <c r="F929" s="8"/>
+      <c r="G929" s="8"/>
+      <c r="H929" s="8"/>
       <c r="I929" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J929" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="J929" s="8"/>
       <c r="K929" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="L929" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M929" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="L929" s="8"/>
+      <c r="M929" s="8"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="8"/>
@@ -24785,55 +24781,33 @@
       <c r="G930" s="8"/>
       <c r="H930" s="8"/>
       <c r="I930" s="4" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="J930" s="8"/>
       <c r="K930" s="4" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="L930" s="8"/>
       <c r="M930" s="8"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="8" t="n">
-        <v>3020</v>
-      </c>
-      <c r="B931" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C931" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D931" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E931" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F931" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G931" s="8" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H931" s="8" t="s">
-        <v>1154</v>
-      </c>
+      <c r="A931" s="8"/>
+      <c r="B931" s="8"/>
+      <c r="C931" s="8"/>
+      <c r="D931" s="8"/>
+      <c r="E931" s="8"/>
+      <c r="F931" s="8"/>
+      <c r="G931" s="8"/>
+      <c r="H931" s="8"/>
       <c r="I931" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J931" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="J931" s="8"/>
       <c r="K931" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="L931" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M931" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="L931" s="8"/>
+      <c r="M931" s="8"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="8"/>
@@ -24845,122 +24819,100 @@
       <c r="G932" s="8"/>
       <c r="H932" s="8"/>
       <c r="I932" s="4" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="J932" s="8"/>
       <c r="K932" s="4" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="L932" s="8"/>
       <c r="M932" s="8"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="8" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B933" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C933" s="8" t="s">
+      <c r="A933" s="8"/>
+      <c r="B933" s="8"/>
+      <c r="C933" s="8"/>
+      <c r="D933" s="8"/>
+      <c r="E933" s="8"/>
+      <c r="F933" s="8"/>
+      <c r="G933" s="8"/>
+      <c r="H933" s="8"/>
+      <c r="I933" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J933" s="8"/>
+      <c r="K933" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L933" s="8"/>
+      <c r="M933" s="8"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="8" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B934" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C934" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D933" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E933" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F933" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G933" s="8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H933" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I933" s="4" t="s">
+      <c r="D934" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E934" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F934" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="J933" s="8" t="s">
+      <c r="G934" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H934" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I934" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J934" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K933" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="L933" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M933" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="8"/>
-      <c r="B934" s="8"/>
-      <c r="C934" s="8"/>
-      <c r="D934" s="8"/>
-      <c r="E934" s="8"/>
-      <c r="F934" s="8"/>
-      <c r="G934" s="8"/>
-      <c r="H934" s="8"/>
-      <c r="I934" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="J934" s="8"/>
       <c r="K934" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="L934" s="8"/>
-      <c r="M934" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L934" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M934" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="4" t="n">
-        <v>3022</v>
-      </c>
-      <c r="B935" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C935" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D935" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E935" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F935" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G935" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H935" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I935" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J935" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A935" s="8"/>
+      <c r="B935" s="8"/>
+      <c r="C935" s="8"/>
+      <c r="D935" s="8"/>
+      <c r="E935" s="8"/>
+      <c r="F935" s="8"/>
+      <c r="G935" s="8"/>
+      <c r="H935" s="8"/>
+      <c r="I935" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J935" s="8"/>
       <c r="K935" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L935" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M935" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L935" s="8"/>
+      <c r="M935" s="8"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="8" t="n">
-        <v>3023</v>
+        <v>3017</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="C936" s="8" t="s">
         <v>56</v>
@@ -24972,22 +24924,22 @@
         <v>58</v>
       </c>
       <c r="F936" s="8" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="G936" s="8" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="H936" s="8" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="I936" s="4" t="s">
-        <v>1167</v>
+        <v>118</v>
       </c>
       <c r="J936" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K936" s="4" t="s">
-        <v>1168</v>
+        <v>119</v>
       </c>
       <c r="L936" s="8" t="s">
         <v>58</v>
@@ -25006,33 +24958,55 @@
       <c r="G937" s="8"/>
       <c r="H937" s="8"/>
       <c r="I937" s="4" t="s">
-        <v>1169</v>
+        <v>120</v>
       </c>
       <c r="J937" s="8"/>
       <c r="K937" s="4" t="s">
-        <v>1170</v>
+        <v>121</v>
       </c>
       <c r="L937" s="8"/>
       <c r="M937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="8"/>
-      <c r="B938" s="8"/>
-      <c r="C938" s="8"/>
-      <c r="D938" s="8"/>
-      <c r="E938" s="8"/>
-      <c r="F938" s="8"/>
-      <c r="G938" s="8"/>
-      <c r="H938" s="8"/>
+      <c r="A938" s="8" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B938" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D938" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E938" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F938" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G938" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H938" s="8" t="s">
+        <v>1156</v>
+      </c>
       <c r="I938" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J938" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J938" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K938" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="L938" s="8"/>
-      <c r="M938" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="L938" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M938" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="8"/>
@@ -25044,108 +25018,108 @@
       <c r="G939" s="8"/>
       <c r="H939" s="8"/>
       <c r="I939" s="4" t="s">
-        <v>1173</v>
+        <v>120</v>
       </c>
       <c r="J939" s="8"/>
       <c r="K939" s="4" t="s">
-        <v>1174</v>
+        <v>121</v>
       </c>
       <c r="L939" s="8"/>
       <c r="M939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="8"/>
-      <c r="B940" s="8"/>
-      <c r="C940" s="8"/>
-      <c r="D940" s="8"/>
-      <c r="E940" s="8"/>
-      <c r="F940" s="8"/>
-      <c r="G940" s="8"/>
-      <c r="H940" s="8"/>
+      <c r="A940" s="8" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B940" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C940" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D940" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E940" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F940" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G940" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H940" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="I940" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J940" s="8"/>
+        <v>1161</v>
+      </c>
+      <c r="J940" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K940" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="L940" s="8"/>
-      <c r="M940" s="8"/>
+        <v>1162</v>
+      </c>
+      <c r="L940" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M940" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="4" t="n">
-        <v>3024</v>
-      </c>
-      <c r="B941" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C941" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D941" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E941" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F941" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G941" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H941" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I941" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J941" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A941" s="8"/>
+      <c r="B941" s="8"/>
+      <c r="C941" s="8"/>
+      <c r="D941" s="8"/>
+      <c r="E941" s="8"/>
+      <c r="F941" s="8"/>
+      <c r="G941" s="8"/>
+      <c r="H941" s="8"/>
+      <c r="I941" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J941" s="8"/>
       <c r="K941" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L941" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M941" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="L941" s="8"/>
+      <c r="M941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="8" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="B942" s="8" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="C942" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D942" s="8" t="s">
-        <v>57</v>
+      <c r="D942" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="E942" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F942" s="8" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="G942" s="8" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="H942" s="8" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="I942" s="4" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="J942" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K942" s="4" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="L942" s="8" t="s">
         <v>58</v>
@@ -25164,33 +25138,55 @@
       <c r="G943" s="8"/>
       <c r="H943" s="8"/>
       <c r="I943" s="4" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="J943" s="8"/>
       <c r="K943" s="4" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="L943" s="8"/>
       <c r="M943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="8"/>
-      <c r="B944" s="8"/>
-      <c r="C944" s="8"/>
-      <c r="D944" s="8"/>
-      <c r="E944" s="8"/>
-      <c r="F944" s="8"/>
-      <c r="G944" s="8"/>
-      <c r="H944" s="8"/>
+      <c r="A944" s="8" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B944" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C944" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D944" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E944" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F944" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G944" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H944" s="8" t="s">
+        <v>1172</v>
+      </c>
       <c r="I944" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J944" s="8"/>
+        <v>1161</v>
+      </c>
+      <c r="J944" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="K944" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="L944" s="8"/>
-      <c r="M944" s="8"/>
+        <v>1162</v>
+      </c>
+      <c r="L944" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M944" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="8"/>
@@ -25202,43 +25198,65 @@
       <c r="G945" s="8"/>
       <c r="H945" s="8"/>
       <c r="I945" s="4" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="J945" s="8"/>
       <c r="K945" s="4" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="L945" s="8"/>
       <c r="M945" s="8"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="8"/>
-      <c r="B946" s="8"/>
-      <c r="C946" s="8"/>
-      <c r="D946" s="8"/>
-      <c r="E946" s="8"/>
-      <c r="F946" s="8"/>
-      <c r="G946" s="8"/>
-      <c r="H946" s="8"/>
-      <c r="I946" s="4" t="s">
+      <c r="A946" s="4" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C946" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D946" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E946" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F946" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G946" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="J946" s="8"/>
+      <c r="H946" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I946" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J946" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K946" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="L946" s="8"/>
-      <c r="M946" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L946" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M946" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="8" t="n">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C947" s="8" t="s">
-        <v>372</v>
+        <v>56</v>
       </c>
       <c r="D947" s="8" t="s">
         <v>57</v>
@@ -25247,22 +25265,22 @@
         <v>58</v>
       </c>
       <c r="F947" s="8" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G947" s="8" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="H947" s="8" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="I947" s="4" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="J947" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K947" s="4" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="L947" s="8" t="s">
         <v>58</v>
@@ -25281,55 +25299,33 @@
       <c r="G948" s="8"/>
       <c r="H948" s="8"/>
       <c r="I948" s="4" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="J948" s="8"/>
       <c r="K948" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="L948" s="8"/>
       <c r="M948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="8" t="n">
-        <v>3027</v>
-      </c>
-      <c r="B949" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C949" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D949" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E949" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F949" s="8" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G949" s="8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H949" s="8" t="s">
-        <v>1194</v>
-      </c>
+      <c r="A949" s="8"/>
+      <c r="B949" s="8"/>
+      <c r="C949" s="8"/>
+      <c r="D949" s="8"/>
+      <c r="E949" s="8"/>
+      <c r="F949" s="8"/>
+      <c r="G949" s="8"/>
+      <c r="H949" s="8"/>
       <c r="I949" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J949" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="J949" s="8"/>
       <c r="K949" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L949" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M949" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1186</v>
+      </c>
+      <c r="L949" s="8"/>
+      <c r="M949" s="8"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="8"/>
@@ -25341,84 +25337,84 @@
       <c r="G950" s="8"/>
       <c r="H950" s="8"/>
       <c r="I950" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J950" s="8"/>
       <c r="K950" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L950" s="8"/>
       <c r="M950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="8" t="n">
-        <v>3028</v>
-      </c>
-      <c r="B951" s="8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C951" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D951" s="8" t="s">
+      <c r="A951" s="8"/>
+      <c r="B951" s="8"/>
+      <c r="C951" s="8"/>
+      <c r="D951" s="8"/>
+      <c r="E951" s="8"/>
+      <c r="F951" s="8"/>
+      <c r="G951" s="8"/>
+      <c r="H951" s="8"/>
+      <c r="I951" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J951" s="8"/>
+      <c r="K951" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L951" s="8"/>
+      <c r="M951" s="8"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="4" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C952" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D952" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E951" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F951" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G951" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H951" s="8" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I951" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J951" s="8" t="s">
+      <c r="E952" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F952" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G952" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H952" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I952" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J952" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K951" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L951" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M951" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="8"/>
-      <c r="B952" s="8"/>
-      <c r="C952" s="8"/>
-      <c r="D952" s="8"/>
-      <c r="E952" s="8"/>
-      <c r="F952" s="8"/>
-      <c r="G952" s="8"/>
-      <c r="H952" s="8"/>
-      <c r="I952" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J952" s="8"/>
       <c r="K952" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L952" s="8"/>
-      <c r="M952" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="L952" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M952" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="8" t="n">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C953" s="8" t="s">
-        <v>372</v>
+        <v>56</v>
       </c>
       <c r="D953" s="8" t="s">
         <v>57</v>
@@ -25427,22 +25423,22 @@
         <v>58</v>
       </c>
       <c r="F953" s="8" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="G953" s="8" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="H953" s="8" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I953" s="4" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="J953" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K953" s="4" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="L953" s="8" t="s">
         <v>58</v>
@@ -25461,55 +25457,33 @@
       <c r="G954" s="8"/>
       <c r="H954" s="8"/>
       <c r="I954" s="4" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="J954" s="8"/>
       <c r="K954" s="4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="L954" s="8"/>
       <c r="M954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="8" t="n">
-        <v>3030</v>
-      </c>
-      <c r="B955" s="8" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C955" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D955" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E955" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F955" s="8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G955" s="8" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H955" s="8" t="s">
-        <v>1206</v>
-      </c>
+      <c r="A955" s="8"/>
+      <c r="B955" s="8"/>
+      <c r="C955" s="8"/>
+      <c r="D955" s="8"/>
+      <c r="E955" s="8"/>
+      <c r="F955" s="8"/>
+      <c r="G955" s="8"/>
+      <c r="H955" s="8"/>
       <c r="I955" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J955" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="J955" s="8"/>
       <c r="K955" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L955" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M955" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>1186</v>
+      </c>
+      <c r="L955" s="8"/>
+      <c r="M955" s="8"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="8"/>
@@ -25521,2003 +25495,2322 @@
       <c r="G956" s="8"/>
       <c r="H956" s="8"/>
       <c r="I956" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J956" s="8"/>
       <c r="K956" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L956" s="8"/>
       <c r="M956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="8" t="n">
+      <c r="A957" s="8"/>
+      <c r="B957" s="8"/>
+      <c r="C957" s="8"/>
+      <c r="D957" s="8"/>
+      <c r="E957" s="8"/>
+      <c r="F957" s="8"/>
+      <c r="G957" s="8"/>
+      <c r="H957" s="8"/>
+      <c r="I957" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J957" s="8"/>
+      <c r="K957" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L957" s="8"/>
+      <c r="M957" s="8"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="8" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B958" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C958" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E958" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F958" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G958" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H958" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I958" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J958" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K958" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L958" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M958" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="8"/>
+      <c r="B959" s="8"/>
+      <c r="C959" s="8"/>
+      <c r="D959" s="8"/>
+      <c r="E959" s="8"/>
+      <c r="F959" s="8"/>
+      <c r="G959" s="8"/>
+      <c r="H959" s="8"/>
+      <c r="I959" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J959" s="8"/>
+      <c r="K959" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L959" s="8"/>
+      <c r="M959" s="8"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="8" t="n">
+        <v>3027</v>
+      </c>
+      <c r="B960" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C960" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D960" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E960" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F960" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G960" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H960" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I960" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J960" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K960" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L960" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M960" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="8"/>
+      <c r="B961" s="8"/>
+      <c r="C961" s="8"/>
+      <c r="D961" s="8"/>
+      <c r="E961" s="8"/>
+      <c r="F961" s="8"/>
+      <c r="G961" s="8"/>
+      <c r="H961" s="8"/>
+      <c r="I961" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J961" s="8"/>
+      <c r="K961" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L961" s="8"/>
+      <c r="M961" s="8"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="8" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B962" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C962" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D962" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E962" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F962" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G962" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H962" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I962" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J962" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K962" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L962" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M962" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="8"/>
+      <c r="B963" s="8"/>
+      <c r="C963" s="8"/>
+      <c r="D963" s="8"/>
+      <c r="E963" s="8"/>
+      <c r="F963" s="8"/>
+      <c r="G963" s="8"/>
+      <c r="H963" s="8"/>
+      <c r="I963" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J963" s="8"/>
+      <c r="K963" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L963" s="8"/>
+      <c r="M963" s="8"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="8" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B964" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C964" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D964" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E964" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F964" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G964" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H964" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I964" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J964" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K964" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L964" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M964" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="8"/>
+      <c r="B965" s="8"/>
+      <c r="C965" s="8"/>
+      <c r="D965" s="8"/>
+      <c r="E965" s="8"/>
+      <c r="F965" s="8"/>
+      <c r="G965" s="8"/>
+      <c r="H965" s="8"/>
+      <c r="I965" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J965" s="8"/>
+      <c r="K965" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L965" s="8"/>
+      <c r="M965" s="8"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="8" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B966" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C966" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E966" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F966" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G966" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H966" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I966" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J966" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K966" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L966" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M966" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="8"/>
+      <c r="B967" s="8"/>
+      <c r="C967" s="8"/>
+      <c r="D967" s="8"/>
+      <c r="E967" s="8"/>
+      <c r="F967" s="8"/>
+      <c r="G967" s="8"/>
+      <c r="H967" s="8"/>
+      <c r="I967" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J967" s="8"/>
+      <c r="K967" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L967" s="8"/>
+      <c r="M967" s="8"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="8" t="n">
         <v>3031</v>
       </c>
-      <c r="B957" s="8" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C957" s="8" t="s">
+      <c r="B968" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C968" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D957" s="8" t="s">
+      <c r="D968" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E957" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F957" s="8" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G957" s="8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H957" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I957" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J957" s="8" t="s">
+      <c r="E968" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F968" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G968" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H968" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I968" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J968" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K957" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L957" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M957" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="8"/>
-      <c r="B958" s="8"/>
-      <c r="C958" s="8"/>
-      <c r="D958" s="8"/>
-      <c r="E958" s="8"/>
-      <c r="F958" s="8"/>
-      <c r="G958" s="8"/>
-      <c r="H958" s="8"/>
-      <c r="I958" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J958" s="8"/>
-      <c r="K958" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L958" s="8"/>
-      <c r="M958" s="8"/>
-    </row>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="8" t="n">
+      <c r="K968" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L968" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M968" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="8"/>
+      <c r="B969" s="8"/>
+      <c r="C969" s="8"/>
+      <c r="D969" s="8"/>
+      <c r="E969" s="8"/>
+      <c r="F969" s="8"/>
+      <c r="G969" s="8"/>
+      <c r="H969" s="8"/>
+      <c r="I969" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J969" s="8"/>
+      <c r="K969" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L969" s="8"/>
+      <c r="M969" s="8"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="8" t="n">
         <v>3032</v>
       </c>
-      <c r="B959" s="8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C959" s="8" t="s">
+      <c r="B970" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C970" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D959" s="8" t="s">
+      <c r="D970" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E959" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F959" s="8" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G959" s="8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H959" s="8" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I959" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J959" s="8" t="s">
+      <c r="E970" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F970" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G970" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H970" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I970" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J970" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K959" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L959" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M959" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="8"/>
-      <c r="B960" s="8"/>
-      <c r="C960" s="8"/>
-      <c r="D960" s="8"/>
-      <c r="E960" s="8"/>
-      <c r="F960" s="8"/>
-      <c r="G960" s="8"/>
-      <c r="H960" s="8"/>
-      <c r="I960" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J960" s="8"/>
-      <c r="K960" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L960" s="8"/>
-      <c r="M960" s="8"/>
-    </row>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="8" t="n">
+      <c r="K970" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L970" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M970" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="8"/>
+      <c r="B971" s="8"/>
+      <c r="C971" s="8"/>
+      <c r="D971" s="8"/>
+      <c r="E971" s="8"/>
+      <c r="F971" s="8"/>
+      <c r="G971" s="8"/>
+      <c r="H971" s="8"/>
+      <c r="I971" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J971" s="8"/>
+      <c r="K971" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L971" s="8"/>
+      <c r="M971" s="8"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="8" t="n">
         <v>3033</v>
       </c>
-      <c r="B961" s="8" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C961" s="8" t="s">
+      <c r="B972" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C972" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D961" s="8" t="s">
+      <c r="D972" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E961" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F961" s="8" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G961" s="8" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H961" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I961" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J961" s="8" t="s">
+      <c r="E972" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F972" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G972" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H972" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I972" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J972" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K961" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L961" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M961" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="8"/>
-      <c r="B962" s="8"/>
-      <c r="C962" s="8"/>
-      <c r="D962" s="8"/>
-      <c r="E962" s="8"/>
-      <c r="F962" s="8"/>
-      <c r="G962" s="8"/>
-      <c r="H962" s="8"/>
-      <c r="I962" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J962" s="8"/>
-      <c r="K962" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L962" s="8"/>
-      <c r="M962" s="8"/>
-    </row>
-    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="8" t="n">
+      <c r="K972" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L972" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M972" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="8"/>
+      <c r="B973" s="8"/>
+      <c r="C973" s="8"/>
+      <c r="D973" s="8"/>
+      <c r="E973" s="8"/>
+      <c r="F973" s="8"/>
+      <c r="G973" s="8"/>
+      <c r="H973" s="8"/>
+      <c r="I973" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J973" s="8"/>
+      <c r="K973" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L973" s="8"/>
+      <c r="M973" s="8"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="8" t="n">
         <v>3034</v>
       </c>
-      <c r="B963" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C963" s="8" t="s">
+      <c r="B974" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C974" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D963" s="8" t="s">
+      <c r="D974" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E963" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F963" s="8" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G963" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H963" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I963" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J963" s="8" t="s">
+      <c r="E974" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F974" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G974" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H974" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I974" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J974" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K963" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L963" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M963" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="8"/>
-      <c r="B964" s="8"/>
-      <c r="C964" s="8"/>
-      <c r="D964" s="8"/>
-      <c r="E964" s="8"/>
-      <c r="F964" s="8"/>
-      <c r="G964" s="8"/>
-      <c r="H964" s="8"/>
-      <c r="I964" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J964" s="8"/>
-      <c r="K964" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L964" s="8"/>
-      <c r="M964" s="8"/>
-    </row>
-    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="8" t="n">
+      <c r="K974" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L974" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M974" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="8"/>
+      <c r="B975" s="8"/>
+      <c r="C975" s="8"/>
+      <c r="D975" s="8"/>
+      <c r="E975" s="8"/>
+      <c r="F975" s="8"/>
+      <c r="G975" s="8"/>
+      <c r="H975" s="8"/>
+      <c r="I975" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J975" s="8"/>
+      <c r="K975" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L975" s="8"/>
+      <c r="M975" s="8"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="8" t="n">
         <v>3035</v>
       </c>
-      <c r="B965" s="8" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C965" s="8" t="s">
+      <c r="B976" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C976" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D965" s="8" t="s">
+      <c r="D976" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E965" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F965" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G965" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H965" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I965" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J965" s="8" t="s">
+      <c r="E976" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F976" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G976" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H976" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I976" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J976" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K965" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L965" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M965" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="8"/>
-      <c r="B966" s="8"/>
-      <c r="C966" s="8"/>
-      <c r="D966" s="8"/>
-      <c r="E966" s="8"/>
-      <c r="F966" s="8"/>
-      <c r="G966" s="8"/>
-      <c r="H966" s="8"/>
-      <c r="I966" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J966" s="8"/>
-      <c r="K966" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L966" s="8"/>
-      <c r="M966" s="8"/>
-    </row>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="8" t="n">
+      <c r="K976" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L976" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M976" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="8"/>
+      <c r="B977" s="8"/>
+      <c r="C977" s="8"/>
+      <c r="D977" s="8"/>
+      <c r="E977" s="8"/>
+      <c r="F977" s="8"/>
+      <c r="G977" s="8"/>
+      <c r="H977" s="8"/>
+      <c r="I977" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J977" s="8"/>
+      <c r="K977" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L977" s="8"/>
+      <c r="M977" s="8"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="8" t="n">
         <v>3036</v>
       </c>
-      <c r="B967" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C967" s="8" t="s">
+      <c r="B978" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C978" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D967" s="8" t="s">
+      <c r="D978" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E967" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F967" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G967" s="8" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H967" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I967" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J967" s="8" t="s">
+      <c r="E978" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F978" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G978" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H978" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I978" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J978" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K967" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L967" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M967" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="8"/>
-      <c r="B968" s="8"/>
-      <c r="C968" s="8"/>
-      <c r="D968" s="8"/>
-      <c r="E968" s="8"/>
-      <c r="F968" s="8"/>
-      <c r="G968" s="8"/>
-      <c r="H968" s="8"/>
-      <c r="I968" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J968" s="8"/>
-      <c r="K968" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L968" s="8"/>
-      <c r="M968" s="8"/>
-    </row>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="8" t="n">
+      <c r="K978" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L978" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M978" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="8"/>
+      <c r="B979" s="8"/>
+      <c r="C979" s="8"/>
+      <c r="D979" s="8"/>
+      <c r="E979" s="8"/>
+      <c r="F979" s="8"/>
+      <c r="G979" s="8"/>
+      <c r="H979" s="8"/>
+      <c r="I979" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J979" s="8"/>
+      <c r="K979" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L979" s="8"/>
+      <c r="M979" s="8"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="8" t="n">
         <v>3037</v>
       </c>
-      <c r="B969" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C969" s="8" t="s">
+      <c r="B980" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C980" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D969" s="8" t="s">
+      <c r="D980" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E969" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F969" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G969" s="8" t="s">
-        <v>1233</v>
-      </c>
-      <c r="H969" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I969" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J969" s="8" t="s">
+      <c r="E980" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F980" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G980" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H980" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I980" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J980" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K969" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L969" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M969" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="8"/>
-      <c r="B970" s="8"/>
-      <c r="C970" s="8"/>
-      <c r="D970" s="8"/>
-      <c r="E970" s="8"/>
-      <c r="F970" s="8"/>
-      <c r="G970" s="8"/>
-      <c r="H970" s="8"/>
-      <c r="I970" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J970" s="8"/>
-      <c r="K970" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L970" s="8"/>
-      <c r="M970" s="8"/>
-    </row>
-    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="8" t="n">
+      <c r="K980" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L980" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M980" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="8"/>
+      <c r="B981" s="8"/>
+      <c r="C981" s="8"/>
+      <c r="D981" s="8"/>
+      <c r="E981" s="8"/>
+      <c r="F981" s="8"/>
+      <c r="G981" s="8"/>
+      <c r="H981" s="8"/>
+      <c r="I981" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J981" s="8"/>
+      <c r="K981" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L981" s="8"/>
+      <c r="M981" s="8"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="8" t="n">
         <v>3038</v>
       </c>
-      <c r="B971" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C971" s="8" t="s">
+      <c r="B982" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C982" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D971" s="8" t="s">
+      <c r="D982" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E971" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F971" s="8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G971" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H971" s="8" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I971" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J971" s="8" t="s">
+      <c r="E982" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F982" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G982" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H982" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I982" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J982" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K971" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L971" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M971" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="8"/>
-      <c r="B972" s="8"/>
-      <c r="C972" s="8"/>
-      <c r="D972" s="8"/>
-      <c r="E972" s="8"/>
-      <c r="F972" s="8"/>
-      <c r="G972" s="8"/>
-      <c r="H972" s="8"/>
-      <c r="I972" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J972" s="8"/>
-      <c r="K972" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L972" s="8"/>
-      <c r="M972" s="8"/>
-    </row>
-    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="8" t="n">
+      <c r="K982" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L982" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M982" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="8"/>
+      <c r="B983" s="8"/>
+      <c r="C983" s="8"/>
+      <c r="D983" s="8"/>
+      <c r="E983" s="8"/>
+      <c r="F983" s="8"/>
+      <c r="G983" s="8"/>
+      <c r="H983" s="8"/>
+      <c r="I983" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J983" s="8"/>
+      <c r="K983" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L983" s="8"/>
+      <c r="M983" s="8"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="8" t="n">
         <v>3039</v>
       </c>
-      <c r="B973" s="8" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C973" s="8" t="s">
+      <c r="B984" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C984" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D973" s="8" t="s">
+      <c r="D984" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E973" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F973" s="8" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G973" s="8" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H973" s="8" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I973" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J973" s="8" t="s">
+      <c r="E984" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F984" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G984" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H984" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I984" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J984" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K973" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L973" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M973" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="8"/>
-      <c r="B974" s="8"/>
-      <c r="C974" s="8"/>
-      <c r="D974" s="8"/>
-      <c r="E974" s="8"/>
-      <c r="F974" s="8"/>
-      <c r="G974" s="8"/>
-      <c r="H974" s="8"/>
-      <c r="I974" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J974" s="8"/>
-      <c r="K974" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L974" s="8"/>
-      <c r="M974" s="8"/>
-    </row>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="8" t="n">
+      <c r="K984" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L984" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M984" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="8"/>
+      <c r="B985" s="8"/>
+      <c r="C985" s="8"/>
+      <c r="D985" s="8"/>
+      <c r="E985" s="8"/>
+      <c r="F985" s="8"/>
+      <c r="G985" s="8"/>
+      <c r="H985" s="8"/>
+      <c r="I985" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J985" s="8"/>
+      <c r="K985" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L985" s="8"/>
+      <c r="M985" s="8"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="8" t="n">
         <v>3040</v>
       </c>
-      <c r="B975" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C975" s="8" t="s">
+      <c r="B986" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C986" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D975" s="8" t="s">
+      <c r="D986" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E975" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F975" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G975" s="8" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H975" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I975" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J975" s="8" t="s">
+      <c r="E986" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F986" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G986" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H986" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I986" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J986" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K975" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L975" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M975" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="8"/>
-      <c r="B976" s="8"/>
-      <c r="C976" s="8"/>
-      <c r="D976" s="8"/>
-      <c r="E976" s="8"/>
-      <c r="F976" s="8"/>
-      <c r="G976" s="8"/>
-      <c r="H976" s="8"/>
-      <c r="I976" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J976" s="8"/>
-      <c r="K976" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L976" s="8"/>
-      <c r="M976" s="8"/>
-    </row>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="8" t="n">
+      <c r="K986" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L986" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M986" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="8"/>
+      <c r="B987" s="8"/>
+      <c r="C987" s="8"/>
+      <c r="D987" s="8"/>
+      <c r="E987" s="8"/>
+      <c r="F987" s="8"/>
+      <c r="G987" s="8"/>
+      <c r="H987" s="8"/>
+      <c r="I987" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J987" s="8"/>
+      <c r="K987" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L987" s="8"/>
+      <c r="M987" s="8"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="8" t="n">
         <v>3041</v>
       </c>
-      <c r="B977" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C977" s="8" t="s">
+      <c r="B988" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C988" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D977" s="8" t="s">
+      <c r="D988" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E977" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F977" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G977" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H977" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I977" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J977" s="8" t="s">
+      <c r="E988" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F988" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G988" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H988" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I988" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J988" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K977" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L977" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M977" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="8"/>
-      <c r="B978" s="8"/>
-      <c r="C978" s="8"/>
-      <c r="D978" s="8"/>
-      <c r="E978" s="8"/>
-      <c r="F978" s="8"/>
-      <c r="G978" s="8"/>
-      <c r="H978" s="8"/>
-      <c r="I978" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J978" s="8"/>
-      <c r="K978" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L978" s="8"/>
-      <c r="M978" s="8"/>
-    </row>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="8" t="n">
+      <c r="K988" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L988" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M988" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="8"/>
+      <c r="B989" s="8"/>
+      <c r="C989" s="8"/>
+      <c r="D989" s="8"/>
+      <c r="E989" s="8"/>
+      <c r="F989" s="8"/>
+      <c r="G989" s="8"/>
+      <c r="H989" s="8"/>
+      <c r="I989" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J989" s="8"/>
+      <c r="K989" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L989" s="8"/>
+      <c r="M989" s="8"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="8" t="n">
         <v>3042</v>
       </c>
-      <c r="B979" s="8" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C979" s="8" t="s">
+      <c r="B990" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C990" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D979" s="8" t="s">
+      <c r="D990" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E979" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F979" s="8" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G979" s="8" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H979" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I979" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J979" s="8" t="s">
+      <c r="E990" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F990" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G990" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H990" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I990" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J990" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K979" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L979" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M979" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="8"/>
-      <c r="B980" s="8"/>
-      <c r="C980" s="8"/>
-      <c r="D980" s="8"/>
-      <c r="E980" s="8"/>
-      <c r="F980" s="8"/>
-      <c r="G980" s="8"/>
-      <c r="H980" s="8"/>
-      <c r="I980" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J980" s="8"/>
-      <c r="K980" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L980" s="8"/>
-      <c r="M980" s="8"/>
-    </row>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="8" t="n">
+      <c r="K990" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L990" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M990" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="8"/>
+      <c r="B991" s="8"/>
+      <c r="C991" s="8"/>
+      <c r="D991" s="8"/>
+      <c r="E991" s="8"/>
+      <c r="F991" s="8"/>
+      <c r="G991" s="8"/>
+      <c r="H991" s="8"/>
+      <c r="I991" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J991" s="8"/>
+      <c r="K991" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L991" s="8"/>
+      <c r="M991" s="8"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="8" t="n">
         <v>3043</v>
       </c>
-      <c r="B981" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C981" s="8" t="s">
+      <c r="B992" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C992" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D981" s="8" t="s">
+      <c r="D992" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E981" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F981" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G981" s="8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H981" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="I981" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J981" s="8" t="s">
+      <c r="E992" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F992" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G992" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H992" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I992" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J992" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K981" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L981" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M981" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="8"/>
-      <c r="B982" s="8"/>
-      <c r="C982" s="8"/>
-      <c r="D982" s="8"/>
-      <c r="E982" s="8"/>
-      <c r="F982" s="8"/>
-      <c r="G982" s="8"/>
-      <c r="H982" s="8"/>
-      <c r="I982" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J982" s="8"/>
-      <c r="K982" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L982" s="8"/>
-      <c r="M982" s="8"/>
-    </row>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="8" t="n">
+      <c r="K992" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L992" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M992" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="8"/>
+      <c r="B993" s="8"/>
+      <c r="C993" s="8"/>
+      <c r="D993" s="8"/>
+      <c r="E993" s="8"/>
+      <c r="F993" s="8"/>
+      <c r="G993" s="8"/>
+      <c r="H993" s="8"/>
+      <c r="I993" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J993" s="8"/>
+      <c r="K993" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L993" s="8"/>
+      <c r="M993" s="8"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="8" t="n">
         <v>3044</v>
       </c>
-      <c r="B983" s="8" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C983" s="8" t="s">
+      <c r="B994" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C994" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D983" s="8" t="s">
+      <c r="D994" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E983" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F983" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G983" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H983" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I983" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J983" s="8" t="s">
+      <c r="E994" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F994" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G994" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H994" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I994" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J994" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K983" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L983" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M983" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="8"/>
-      <c r="B984" s="8"/>
-      <c r="C984" s="8"/>
-      <c r="D984" s="8"/>
-      <c r="E984" s="8"/>
-      <c r="F984" s="8"/>
-      <c r="G984" s="8"/>
-      <c r="H984" s="8"/>
-      <c r="I984" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J984" s="8"/>
-      <c r="K984" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L984" s="8"/>
-      <c r="M984" s="8"/>
-    </row>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="8" t="n">
+      <c r="K994" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L994" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M994" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="8"/>
+      <c r="B995" s="8"/>
+      <c r="C995" s="8"/>
+      <c r="D995" s="8"/>
+      <c r="E995" s="8"/>
+      <c r="F995" s="8"/>
+      <c r="G995" s="8"/>
+      <c r="H995" s="8"/>
+      <c r="I995" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J995" s="8"/>
+      <c r="K995" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L995" s="8"/>
+      <c r="M995" s="8"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="8" t="n">
         <v>3045</v>
       </c>
-      <c r="B985" s="8" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C985" s="8" t="s">
+      <c r="B996" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C996" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D985" s="8" t="s">
+      <c r="D996" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E985" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F985" s="8" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G985" s="8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H985" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I985" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J985" s="8" t="s">
+      <c r="E996" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F996" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G996" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H996" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I996" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J996" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K985" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L985" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M985" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="8"/>
-      <c r="B986" s="8"/>
-      <c r="C986" s="8"/>
-      <c r="D986" s="8"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="8"/>
-      <c r="H986" s="8"/>
-      <c r="I986" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J986" s="8"/>
-      <c r="K986" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L986" s="8"/>
-      <c r="M986" s="8"/>
-    </row>
-    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="8" t="n">
+      <c r="K996" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L996" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M996" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="8"/>
+      <c r="B997" s="8"/>
+      <c r="C997" s="8"/>
+      <c r="D997" s="8"/>
+      <c r="E997" s="8"/>
+      <c r="F997" s="8"/>
+      <c r="G997" s="8"/>
+      <c r="H997" s="8"/>
+      <c r="I997" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J997" s="8"/>
+      <c r="K997" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L997" s="8"/>
+      <c r="M997" s="8"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="8" t="n">
         <v>3046</v>
       </c>
-      <c r="B987" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C987" s="8" t="s">
+      <c r="B998" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C998" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D987" s="8" t="s">
+      <c r="D998" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E987" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F987" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G987" s="8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H987" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I987" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J987" s="8" t="s">
+      <c r="E998" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F998" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G998" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H998" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I998" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J998" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K987" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L987" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M987" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="8"/>
-      <c r="B988" s="8"/>
-      <c r="C988" s="8"/>
-      <c r="D988" s="8"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
-      <c r="G988" s="8"/>
-      <c r="H988" s="8"/>
-      <c r="I988" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J988" s="8"/>
-      <c r="K988" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L988" s="8"/>
-      <c r="M988" s="8"/>
-    </row>
-    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="8" t="n">
+      <c r="K998" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L998" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M998" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="8"/>
+      <c r="D999" s="8"/>
+      <c r="E999" s="8"/>
+      <c r="F999" s="8"/>
+      <c r="G999" s="8"/>
+      <c r="H999" s="8"/>
+      <c r="I999" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J999" s="8"/>
+      <c r="K999" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L999" s="8"/>
+      <c r="M999" s="8"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="8" t="n">
         <v>3047</v>
       </c>
-      <c r="B989" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C989" s="8" t="s">
+      <c r="B1000" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1000" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D989" s="8" t="s">
+      <c r="D1000" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E989" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F989" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G989" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H989" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I989" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J989" s="8" t="s">
+      <c r="E1000" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1000" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G1000" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H1000" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I1000" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1000" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K989" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L989" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M989" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="8"/>
-      <c r="B990" s="8"/>
-      <c r="C990" s="8"/>
-      <c r="D990" s="8"/>
-      <c r="E990" s="8"/>
-      <c r="F990" s="8"/>
-      <c r="G990" s="8"/>
-      <c r="H990" s="8"/>
-      <c r="I990" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J990" s="8"/>
-      <c r="K990" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L990" s="8"/>
-      <c r="M990" s="8"/>
-    </row>
-    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="8" t="n">
+      <c r="K1000" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1000" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1000" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="8"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="8"/>
+      <c r="F1001" s="8"/>
+      <c r="G1001" s="8"/>
+      <c r="H1001" s="8"/>
+      <c r="I1001" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1001" s="8"/>
+      <c r="K1001" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1001" s="8"/>
+      <c r="M1001" s="8"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="8" t="n">
         <v>3048</v>
       </c>
-      <c r="B991" s="8" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C991" s="8" t="s">
+      <c r="B1002" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1002" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D991" s="8" t="s">
+      <c r="D1002" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E991" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F991" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G991" s="8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H991" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I991" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J991" s="8" t="s">
+      <c r="E1002" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1002" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G1002" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H1002" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1002" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1002" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K991" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L991" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M991" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="8"/>
-      <c r="B992" s="8"/>
-      <c r="C992" s="8"/>
-      <c r="D992" s="8"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
-      <c r="G992" s="8"/>
-      <c r="H992" s="8"/>
-      <c r="I992" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J992" s="8"/>
-      <c r="K992" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L992" s="8"/>
-      <c r="M992" s="8"/>
-    </row>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="8" t="n">
+      <c r="K1002" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1002" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1002" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="8"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="8"/>
+      <c r="F1003" s="8"/>
+      <c r="G1003" s="8"/>
+      <c r="H1003" s="8"/>
+      <c r="I1003" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1003" s="8"/>
+      <c r="K1003" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1003" s="8"/>
+      <c r="M1003" s="8"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="8" t="n">
         <v>3049</v>
       </c>
-      <c r="B993" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C993" s="8" t="s">
+      <c r="B1004" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1004" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D993" s="8" t="s">
+      <c r="D1004" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E993" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F993" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G993" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H993" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I993" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J993" s="8" t="s">
+      <c r="E1004" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1004" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G1004" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H1004" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I1004" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1004" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K993" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L993" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M993" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="8"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="8"/>
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
-      <c r="G994" s="8"/>
-      <c r="H994" s="8"/>
-      <c r="I994" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J994" s="8"/>
-      <c r="K994" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L994" s="8"/>
-      <c r="M994" s="8"/>
-    </row>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="8" t="n">
+      <c r="K1004" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1004" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1004" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="8"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="8"/>
+      <c r="F1005" s="8"/>
+      <c r="G1005" s="8"/>
+      <c r="H1005" s="8"/>
+      <c r="I1005" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1005" s="8"/>
+      <c r="K1005" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1005" s="8"/>
+      <c r="M1005" s="8"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="8" t="n">
         <v>3050</v>
       </c>
-      <c r="B995" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C995" s="8" t="s">
+      <c r="B1006" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1006" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D995" s="8" t="s">
+      <c r="D1006" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E995" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F995" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G995" s="8" t="s">
-        <v>1285</v>
-      </c>
-      <c r="H995" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I995" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J995" s="8" t="s">
+      <c r="E1006" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1006" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1006" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1006" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I1006" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1006" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K995" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L995" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M995" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="8"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="8"/>
-      <c r="D996" s="8"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
-      <c r="G996" s="8"/>
-      <c r="H996" s="8"/>
-      <c r="I996" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J996" s="8"/>
-      <c r="K996" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L996" s="8"/>
-      <c r="M996" s="8"/>
-    </row>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="8" t="n">
+      <c r="K1006" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1006" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1006" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="8"/>
+      <c r="D1007" s="8"/>
+      <c r="E1007" s="8"/>
+      <c r="F1007" s="8"/>
+      <c r="G1007" s="8"/>
+      <c r="H1007" s="8"/>
+      <c r="I1007" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1007" s="8"/>
+      <c r="K1007" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1007" s="8"/>
+      <c r="M1007" s="8"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="8" t="n">
         <v>3051</v>
       </c>
-      <c r="B997" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C997" s="8" t="s">
+      <c r="B1008" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1008" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D997" s="8" t="s">
+      <c r="D1008" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E997" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F997" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G997" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H997" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I997" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J997" s="8" t="s">
+      <c r="E1008" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1008" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G1008" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H1008" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I1008" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1008" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K997" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L997" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M997" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="8"/>
-      <c r="B998" s="8"/>
-      <c r="C998" s="8"/>
-      <c r="D998" s="8"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
-      <c r="G998" s="8"/>
-      <c r="H998" s="8"/>
-      <c r="I998" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J998" s="8"/>
-      <c r="K998" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L998" s="8"/>
-      <c r="M998" s="8"/>
-    </row>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="8" t="n">
+      <c r="K1008" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1008" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1008" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="8"/>
+      <c r="C1009" s="8"/>
+      <c r="D1009" s="8"/>
+      <c r="E1009" s="8"/>
+      <c r="F1009" s="8"/>
+      <c r="G1009" s="8"/>
+      <c r="H1009" s="8"/>
+      <c r="I1009" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1009" s="8"/>
+      <c r="K1009" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1009" s="8"/>
+      <c r="M1009" s="8"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="8" t="n">
         <v>3052</v>
       </c>
-      <c r="B999" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C999" s="8" t="s">
+      <c r="B1010" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1010" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D999" s="8" t="s">
+      <c r="D1010" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E999" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F999" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G999" s="8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="H999" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I999" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J999" s="8" t="s">
+      <c r="E1010" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1010" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G1010" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H1010" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I1010" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1010" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K999" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L999" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M999" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="8"/>
-      <c r="D1000" s="8"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
-      <c r="G1000" s="8"/>
-      <c r="H1000" s="8"/>
-      <c r="I1000" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J1000" s="8"/>
-      <c r="K1000" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L1000" s="8"/>
-      <c r="M1000" s="8"/>
-    </row>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="8" t="n">
+      <c r="K1010" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1010" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1010" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="8"/>
+      <c r="C1011" s="8"/>
+      <c r="D1011" s="8"/>
+      <c r="E1011" s="8"/>
+      <c r="F1011" s="8"/>
+      <c r="G1011" s="8"/>
+      <c r="H1011" s="8"/>
+      <c r="I1011" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1011" s="8"/>
+      <c r="K1011" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1011" s="8"/>
+      <c r="M1011" s="8"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="8" t="n">
         <v>3053</v>
       </c>
-      <c r="B1001" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C1001" s="8" t="s">
+      <c r="B1012" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1012" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D1001" s="8" t="s">
+      <c r="D1012" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E1001" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1001" s="8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G1001" s="8" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H1001" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I1001" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J1001" s="8" t="s">
+      <c r="E1012" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1012" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G1012" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H1012" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I1012" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1012" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K1001" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L1001" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1001" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="8"/>
-      <c r="B1002" s="8"/>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="8"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-      <c r="H1002" s="8"/>
-      <c r="I1002" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J1002" s="8"/>
-      <c r="K1002" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L1002" s="8"/>
-      <c r="M1002" s="8"/>
-    </row>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="8" t="n">
+      <c r="K1012" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1012" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1012" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="8"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="8"/>
+      <c r="F1013" s="8"/>
+      <c r="G1013" s="8"/>
+      <c r="H1013" s="8"/>
+      <c r="I1013" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1013" s="8"/>
+      <c r="K1013" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1013" s="8"/>
+      <c r="M1013" s="8"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="8" t="n">
         <v>3054</v>
       </c>
-      <c r="B1003" s="8" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1003" s="8" t="s">
+      <c r="B1014" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1014" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D1003" s="8" t="s">
+      <c r="D1014" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E1003" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1003" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G1003" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H1003" s="8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I1003" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J1003" s="8" t="s">
+      <c r="E1014" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1014" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G1014" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H1014" s="8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I1014" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1014" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K1003" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L1003" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1003" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="8"/>
-      <c r="B1004" s="8"/>
-      <c r="C1004" s="8"/>
-      <c r="D1004" s="8"/>
-      <c r="E1004" s="8"/>
-      <c r="F1004" s="8"/>
-      <c r="G1004" s="8"/>
-      <c r="H1004" s="8"/>
-      <c r="I1004" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J1004" s="8"/>
-      <c r="K1004" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L1004" s="8"/>
-      <c r="M1004" s="8"/>
-    </row>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="8" t="n">
+      <c r="K1014" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1014" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1014" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="8"/>
+      <c r="B1015" s="8"/>
+      <c r="C1015" s="8"/>
+      <c r="D1015" s="8"/>
+      <c r="E1015" s="8"/>
+      <c r="F1015" s="8"/>
+      <c r="G1015" s="8"/>
+      <c r="H1015" s="8"/>
+      <c r="I1015" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1015" s="8"/>
+      <c r="K1015" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1015" s="8"/>
+      <c r="M1015" s="8"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="8" t="n">
         <v>3055</v>
       </c>
-      <c r="B1005" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C1005" s="8" t="s">
+      <c r="B1016" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1016" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D1005" s="8" t="s">
+      <c r="D1016" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E1005" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1005" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G1005" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H1005" s="8" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I1005" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J1005" s="8" t="s">
+      <c r="E1016" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1016" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G1016" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H1016" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I1016" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J1016" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K1005" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L1005" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1005" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="8"/>
-      <c r="B1006" s="8"/>
-      <c r="C1006" s="8"/>
-      <c r="D1006" s="8"/>
-      <c r="E1006" s="8"/>
-      <c r="F1006" s="8"/>
-      <c r="G1006" s="8"/>
-      <c r="H1006" s="8"/>
-      <c r="I1006" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J1006" s="8"/>
-      <c r="K1006" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L1006" s="8"/>
-      <c r="M1006" s="8"/>
-    </row>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="8" t="n">
+      <c r="K1016" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L1016" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1016" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="8"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="8"/>
+      <c r="F1017" s="8"/>
+      <c r="G1017" s="8"/>
+      <c r="H1017" s="8"/>
+      <c r="I1017" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J1017" s="8"/>
+      <c r="K1017" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1017" s="8"/>
+      <c r="M1017" s="8"/>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="8" t="n">
         <v>3056</v>
       </c>
-      <c r="B1007" s="8" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C1007" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D1007" s="8" t="s">
+      <c r="B1018" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1018" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1018" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E1007" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1007" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G1007" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H1007" s="8" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I1007" s="4" t="s">
-        <v>1310</v>
-      </c>
-      <c r="J1007" s="8" t="s">
+      <c r="E1018" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1018" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G1018" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H1018" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I1018" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J1018" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K1007" s="4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="L1007" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1007" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="8"/>
-      <c r="B1008" s="8"/>
-      <c r="C1008" s="8"/>
-      <c r="D1008" s="8"/>
-      <c r="E1008" s="8"/>
-      <c r="F1008" s="8"/>
-      <c r="G1008" s="8"/>
-      <c r="H1008" s="8"/>
-      <c r="I1008" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="J1008" s="8"/>
-      <c r="K1008" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L1008" s="8"/>
-      <c r="M1008" s="8"/>
-    </row>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="4" t="n">
+      <c r="K1018" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L1018" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1018" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="8"/>
+      <c r="D1019" s="8"/>
+      <c r="E1019" s="8"/>
+      <c r="F1019" s="8"/>
+      <c r="G1019" s="8"/>
+      <c r="H1019" s="8"/>
+      <c r="I1019" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J1019" s="8"/>
+      <c r="K1019" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L1019" s="8"/>
+      <c r="M1019" s="8"/>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="4" t="n">
         <v>3057</v>
       </c>
-      <c r="B1009" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1009" s="4" t="s">
+      <c r="B1020" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1020" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D1009" s="4" t="s">
+      <c r="D1020" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1009" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1009" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G1009" s="4" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H1009" s="4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I1009" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1009" s="4" t="s">
+      <c r="E1020" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1020" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G1020" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1020" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I1020" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1020" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1009" s="4" t="s">
+      <c r="K1020" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1009" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1009" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="4" t="n">
+      <c r="L1020" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1020" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="4" t="n">
         <v>3058</v>
       </c>
-      <c r="B1010" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C1010" s="4" t="s">
+      <c r="B1021" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1021" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1010" s="4" t="s">
+      <c r="D1021" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1010" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1010" s="4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G1010" s="4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H1010" s="4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I1010" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1010" s="4" t="s">
+      <c r="E1021" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1021" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G1021" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1021" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1021" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1021" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1010" s="4" t="s">
+      <c r="K1021" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1010" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1010" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="4" t="n">
+      <c r="L1021" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1021" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="4" t="n">
         <v>3059</v>
       </c>
-      <c r="B1011" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C1011" s="4" t="s">
+      <c r="B1022" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1022" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1011" s="4" t="s">
+      <c r="D1022" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1011" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1011" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G1011" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H1011" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I1011" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1011" s="4" t="s">
+      <c r="E1022" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1022" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G1022" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1022" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I1022" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1022" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1011" s="4" t="s">
+      <c r="K1022" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1011" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1011" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="4" t="n">
+      <c r="L1022" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1022" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="4" t="n">
         <v>3060</v>
       </c>
-      <c r="B1012" s="4" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C1012" s="4" t="s">
+      <c r="B1023" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1023" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1012" s="4" t="s">
+      <c r="D1023" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1012" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1012" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G1012" s="4" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H1012" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I1012" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1012" s="4" t="s">
+      <c r="E1023" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1023" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G1023" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H1023" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I1023" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1023" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1012" s="4" t="s">
+      <c r="K1023" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1012" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1012" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="4" t="n">
+      <c r="L1023" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1023" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="4" t="n">
         <v>3061</v>
       </c>
-      <c r="B1013" s="4" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C1013" s="4" t="s">
+      <c r="B1024" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1024" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1013" s="4" t="s">
+      <c r="D1024" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1013" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1013" s="4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G1013" s="4" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H1013" s="4" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I1013" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1013" s="4" t="s">
+      <c r="E1024" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1024" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G1024" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1024" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I1024" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1024" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1013" s="4" t="s">
+      <c r="K1024" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1013" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1013" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="4" t="n">
+      <c r="L1024" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1024" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="4" t="n">
         <v>3062</v>
       </c>
-      <c r="B1014" s="4" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1014" s="4" t="s">
+      <c r="B1025" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1025" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1014" s="4" t="s">
+      <c r="D1025" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1014" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1014" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G1014" s="4" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H1014" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I1014" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1014" s="4" t="s">
+      <c r="E1025" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1025" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G1025" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H1025" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I1025" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1025" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1014" s="4" t="s">
+      <c r="K1025" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1014" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1014" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="4" t="n">
+      <c r="L1025" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1025" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="4" t="n">
         <v>3063</v>
       </c>
-      <c r="B1015" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1015" s="4" t="s">
+      <c r="B1026" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1026" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D1015" s="4" t="s">
+      <c r="D1026" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1015" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1015" s="4" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G1015" s="4" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H1015" s="4" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I1015" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J1015" s="4" t="s">
+      <c r="E1026" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1026" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G1026" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H1026" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I1026" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1026" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1015" s="4" t="s">
+      <c r="K1026" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1015" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1015" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1016" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="1"/>
-    </row>
-    <row r="1017" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="2" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1018" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="1"/>
-    </row>
-    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="4" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="1020" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="1"/>
-    </row>
-    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1021" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1021" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1021" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1021" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1021" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1021" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1021" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1021" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1021" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1021" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1021" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1021" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="8" t="n">
-        <v>4001</v>
-      </c>
-      <c r="B1022" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C1022" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1022" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1022" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1022" s="8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G1022" s="8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H1022" s="8" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I1022" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1022" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1022" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1022" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1022" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="8"/>
-      <c r="B1023" s="8"/>
-      <c r="C1023" s="8"/>
-      <c r="D1023" s="8"/>
-      <c r="E1023" s="8"/>
-      <c r="F1023" s="8"/>
-      <c r="G1023" s="8"/>
-      <c r="H1023" s="8"/>
-      <c r="I1023" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1023" s="8"/>
-      <c r="K1023" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1023" s="8"/>
-      <c r="M1023" s="8"/>
-    </row>
-    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="4"/>
-    </row>
-    <row r="1025" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="1"/>
-    </row>
-    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="4" t="s">
-        <v>1347</v>
+      <c r="L1026" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1026" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1"/>
     </row>
-    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="4" t="s">
-        <v>1347</v>
+    <row r="1028" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1"/>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="1"/>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1032" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1032" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1032" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1032" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1032" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1032" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1032" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1032" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1032" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1032" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1032" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="8" t="n">
+        <v>4001</v>
+      </c>
+      <c r="B1033" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1033" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1033" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1033" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1033" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G1033" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H1033" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1033" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1033" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1033" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1033" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1033" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="8"/>
+      <c r="B1034" s="8"/>
+      <c r="C1034" s="8"/>
+      <c r="D1034" s="8"/>
+      <c r="E1034" s="8"/>
+      <c r="F1034" s="8"/>
+      <c r="G1034" s="8"/>
+      <c r="H1034" s="8"/>
+      <c r="I1034" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1034" s="8"/>
+      <c r="K1034" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1034" s="8"/>
+      <c r="M1034" s="8"/>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="4"/>
+    </row>
+    <row r="1036" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="1"/>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="4" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="1"/>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="4" t="s">
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1552">
+  <mergeCells count="1562">
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="B95:B97"/>
     <mergeCell ref="C95:C97"/>
@@ -28487,589 +28780,599 @@
     <mergeCell ref="H812:H813"/>
     <mergeCell ref="L812:L813"/>
     <mergeCell ref="M812:M813"/>
-    <mergeCell ref="A825:A830"/>
-    <mergeCell ref="B825:B830"/>
-    <mergeCell ref="C825:C830"/>
-    <mergeCell ref="D825:D830"/>
-    <mergeCell ref="E825:E830"/>
-    <mergeCell ref="F825:F830"/>
-    <mergeCell ref="G825:G830"/>
-    <mergeCell ref="H825:H830"/>
-    <mergeCell ref="J825:J830"/>
-    <mergeCell ref="L825:L830"/>
-    <mergeCell ref="M825:M830"/>
-    <mergeCell ref="A831:A834"/>
-    <mergeCell ref="B831:B834"/>
-    <mergeCell ref="C831:C834"/>
-    <mergeCell ref="D831:D834"/>
-    <mergeCell ref="E831:E834"/>
-    <mergeCell ref="F831:F834"/>
-    <mergeCell ref="G831:G834"/>
-    <mergeCell ref="H831:H834"/>
-    <mergeCell ref="J831:J834"/>
-    <mergeCell ref="L831:L834"/>
-    <mergeCell ref="M831:M834"/>
-    <mergeCell ref="A835:A838"/>
-    <mergeCell ref="B835:B838"/>
-    <mergeCell ref="C835:C838"/>
-    <mergeCell ref="D835:D838"/>
-    <mergeCell ref="E835:E838"/>
-    <mergeCell ref="F835:F838"/>
-    <mergeCell ref="G835:G838"/>
-    <mergeCell ref="H835:H838"/>
-    <mergeCell ref="J835:J838"/>
-    <mergeCell ref="L835:L838"/>
-    <mergeCell ref="M835:M838"/>
-    <mergeCell ref="A839:A842"/>
-    <mergeCell ref="B839:B842"/>
-    <mergeCell ref="C839:C842"/>
-    <mergeCell ref="D839:D842"/>
-    <mergeCell ref="E839:E842"/>
-    <mergeCell ref="F839:F842"/>
-    <mergeCell ref="G839:G842"/>
-    <mergeCell ref="H839:H842"/>
-    <mergeCell ref="J839:J842"/>
-    <mergeCell ref="L839:L842"/>
-    <mergeCell ref="M839:M842"/>
-    <mergeCell ref="A843:A849"/>
-    <mergeCell ref="B843:B849"/>
-    <mergeCell ref="C843:C849"/>
-    <mergeCell ref="D843:D849"/>
-    <mergeCell ref="E843:E849"/>
-    <mergeCell ref="F843:F849"/>
-    <mergeCell ref="G843:G849"/>
-    <mergeCell ref="H843:H849"/>
-    <mergeCell ref="J843:J849"/>
-    <mergeCell ref="L843:L849"/>
-    <mergeCell ref="M843:M849"/>
-    <mergeCell ref="A850:A856"/>
-    <mergeCell ref="B850:B856"/>
-    <mergeCell ref="C850:C856"/>
-    <mergeCell ref="D850:D856"/>
-    <mergeCell ref="E850:E856"/>
-    <mergeCell ref="F850:F856"/>
-    <mergeCell ref="G850:G856"/>
-    <mergeCell ref="H850:H856"/>
-    <mergeCell ref="J850:J856"/>
-    <mergeCell ref="L850:L856"/>
-    <mergeCell ref="M850:M856"/>
-    <mergeCell ref="A858:A861"/>
-    <mergeCell ref="B858:B861"/>
-    <mergeCell ref="C858:C861"/>
-    <mergeCell ref="D858:D861"/>
-    <mergeCell ref="E858:E861"/>
-    <mergeCell ref="F858:F861"/>
-    <mergeCell ref="G858:G861"/>
-    <mergeCell ref="H858:H861"/>
-    <mergeCell ref="J858:J861"/>
-    <mergeCell ref="L858:L861"/>
-    <mergeCell ref="M858:M861"/>
-    <mergeCell ref="A862:A875"/>
-    <mergeCell ref="B862:B875"/>
-    <mergeCell ref="C862:C875"/>
-    <mergeCell ref="D862:D875"/>
-    <mergeCell ref="E862:E875"/>
-    <mergeCell ref="F862:F875"/>
-    <mergeCell ref="G862:G875"/>
-    <mergeCell ref="H862:H875"/>
-    <mergeCell ref="J862:J875"/>
-    <mergeCell ref="L862:L875"/>
-    <mergeCell ref="M862:M875"/>
-    <mergeCell ref="A876:A898"/>
-    <mergeCell ref="B876:B898"/>
-    <mergeCell ref="C876:C898"/>
-    <mergeCell ref="D876:D898"/>
-    <mergeCell ref="E876:E898"/>
-    <mergeCell ref="F876:F898"/>
-    <mergeCell ref="G876:G898"/>
-    <mergeCell ref="H876:H898"/>
-    <mergeCell ref="J876:J898"/>
-    <mergeCell ref="L876:L898"/>
-    <mergeCell ref="M876:M898"/>
-    <mergeCell ref="A899:A904"/>
-    <mergeCell ref="B899:B904"/>
-    <mergeCell ref="C899:C904"/>
-    <mergeCell ref="D899:D904"/>
-    <mergeCell ref="E899:E904"/>
-    <mergeCell ref="F899:F904"/>
-    <mergeCell ref="G899:G904"/>
-    <mergeCell ref="H899:H904"/>
-    <mergeCell ref="J899:J904"/>
-    <mergeCell ref="L899:L904"/>
-    <mergeCell ref="M899:M904"/>
-    <mergeCell ref="A905:A910"/>
-    <mergeCell ref="B905:B910"/>
-    <mergeCell ref="C905:C910"/>
-    <mergeCell ref="D905:D910"/>
-    <mergeCell ref="E905:E910"/>
-    <mergeCell ref="F905:F910"/>
-    <mergeCell ref="G905:G910"/>
-    <mergeCell ref="H905:H910"/>
-    <mergeCell ref="J905:J910"/>
-    <mergeCell ref="L905:L910"/>
-    <mergeCell ref="M905:M910"/>
-    <mergeCell ref="A911:A916"/>
-    <mergeCell ref="B911:B916"/>
-    <mergeCell ref="C911:C916"/>
-    <mergeCell ref="D911:D916"/>
-    <mergeCell ref="E911:E916"/>
-    <mergeCell ref="F911:F916"/>
-    <mergeCell ref="G911:G916"/>
-    <mergeCell ref="H911:H916"/>
-    <mergeCell ref="J911:J916"/>
-    <mergeCell ref="L911:L916"/>
-    <mergeCell ref="M911:M916"/>
-    <mergeCell ref="A917:A922"/>
-    <mergeCell ref="B917:B922"/>
-    <mergeCell ref="C917:C922"/>
-    <mergeCell ref="D917:D922"/>
-    <mergeCell ref="E917:E922"/>
-    <mergeCell ref="F917:F922"/>
-    <mergeCell ref="G917:G922"/>
-    <mergeCell ref="H917:H922"/>
-    <mergeCell ref="J917:J922"/>
-    <mergeCell ref="L917:L922"/>
-    <mergeCell ref="M917:M922"/>
-    <mergeCell ref="A923:A924"/>
-    <mergeCell ref="B923:B924"/>
-    <mergeCell ref="C923:C924"/>
-    <mergeCell ref="D923:D924"/>
-    <mergeCell ref="E923:E924"/>
-    <mergeCell ref="F923:F924"/>
-    <mergeCell ref="G923:G924"/>
-    <mergeCell ref="H923:H924"/>
-    <mergeCell ref="J923:J924"/>
-    <mergeCell ref="L923:L924"/>
-    <mergeCell ref="M923:M924"/>
-    <mergeCell ref="A925:A926"/>
-    <mergeCell ref="B925:B926"/>
-    <mergeCell ref="C925:C926"/>
-    <mergeCell ref="D925:D926"/>
-    <mergeCell ref="E925:E926"/>
-    <mergeCell ref="F925:F926"/>
-    <mergeCell ref="G925:G926"/>
-    <mergeCell ref="H925:H926"/>
-    <mergeCell ref="J925:J926"/>
-    <mergeCell ref="L925:L926"/>
-    <mergeCell ref="M925:M926"/>
-    <mergeCell ref="A927:A928"/>
-    <mergeCell ref="B927:B928"/>
-    <mergeCell ref="C927:C928"/>
-    <mergeCell ref="D927:D928"/>
-    <mergeCell ref="E927:E928"/>
-    <mergeCell ref="F927:F928"/>
-    <mergeCell ref="G927:G928"/>
-    <mergeCell ref="H927:H928"/>
-    <mergeCell ref="J927:J928"/>
-    <mergeCell ref="L927:L928"/>
-    <mergeCell ref="M927:M928"/>
-    <mergeCell ref="A929:A930"/>
-    <mergeCell ref="B929:B930"/>
-    <mergeCell ref="C929:C930"/>
-    <mergeCell ref="D929:D930"/>
-    <mergeCell ref="E929:E930"/>
-    <mergeCell ref="F929:F930"/>
-    <mergeCell ref="G929:G930"/>
-    <mergeCell ref="H929:H930"/>
-    <mergeCell ref="J929:J930"/>
-    <mergeCell ref="L929:L930"/>
-    <mergeCell ref="M929:M930"/>
-    <mergeCell ref="A931:A932"/>
-    <mergeCell ref="B931:B932"/>
-    <mergeCell ref="C931:C932"/>
-    <mergeCell ref="D931:D932"/>
-    <mergeCell ref="E931:E932"/>
-    <mergeCell ref="F931:F932"/>
-    <mergeCell ref="G931:G932"/>
-    <mergeCell ref="H931:H932"/>
-    <mergeCell ref="J931:J932"/>
-    <mergeCell ref="L931:L932"/>
-    <mergeCell ref="M931:M932"/>
-    <mergeCell ref="A933:A934"/>
-    <mergeCell ref="B933:B934"/>
-    <mergeCell ref="C933:C934"/>
-    <mergeCell ref="D933:D934"/>
-    <mergeCell ref="E933:E934"/>
-    <mergeCell ref="F933:F934"/>
-    <mergeCell ref="G933:G934"/>
-    <mergeCell ref="H933:H934"/>
-    <mergeCell ref="J933:J934"/>
-    <mergeCell ref="L933:L934"/>
-    <mergeCell ref="M933:M934"/>
-    <mergeCell ref="A936:A940"/>
-    <mergeCell ref="B936:B940"/>
-    <mergeCell ref="C936:C940"/>
-    <mergeCell ref="D936:D940"/>
-    <mergeCell ref="E936:E940"/>
-    <mergeCell ref="F936:F940"/>
-    <mergeCell ref="G936:G940"/>
-    <mergeCell ref="H936:H940"/>
-    <mergeCell ref="J936:J940"/>
-    <mergeCell ref="L936:L940"/>
-    <mergeCell ref="M936:M940"/>
-    <mergeCell ref="A942:A946"/>
-    <mergeCell ref="B942:B946"/>
-    <mergeCell ref="C942:C946"/>
-    <mergeCell ref="D942:D946"/>
-    <mergeCell ref="E942:E946"/>
-    <mergeCell ref="F942:F946"/>
-    <mergeCell ref="G942:G946"/>
-    <mergeCell ref="H942:H946"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="L942:L946"/>
-    <mergeCell ref="M942:M946"/>
-    <mergeCell ref="A947:A948"/>
-    <mergeCell ref="B947:B948"/>
-    <mergeCell ref="C947:C948"/>
-    <mergeCell ref="D947:D948"/>
-    <mergeCell ref="E947:E948"/>
-    <mergeCell ref="F947:F948"/>
-    <mergeCell ref="G947:G948"/>
-    <mergeCell ref="H947:H948"/>
-    <mergeCell ref="J947:J948"/>
-    <mergeCell ref="L947:L948"/>
-    <mergeCell ref="M947:M948"/>
-    <mergeCell ref="A949:A950"/>
-    <mergeCell ref="B949:B950"/>
-    <mergeCell ref="C949:C950"/>
-    <mergeCell ref="D949:D950"/>
-    <mergeCell ref="E949:E950"/>
-    <mergeCell ref="F949:F950"/>
-    <mergeCell ref="G949:G950"/>
-    <mergeCell ref="H949:H950"/>
-    <mergeCell ref="J949:J950"/>
-    <mergeCell ref="L949:L950"/>
-    <mergeCell ref="M949:M950"/>
-    <mergeCell ref="A951:A952"/>
-    <mergeCell ref="B951:B952"/>
-    <mergeCell ref="C951:C952"/>
-    <mergeCell ref="D951:D952"/>
-    <mergeCell ref="E951:E952"/>
-    <mergeCell ref="F951:F952"/>
-    <mergeCell ref="G951:G952"/>
-    <mergeCell ref="H951:H952"/>
-    <mergeCell ref="J951:J952"/>
-    <mergeCell ref="L951:L952"/>
-    <mergeCell ref="M951:M952"/>
-    <mergeCell ref="A953:A954"/>
-    <mergeCell ref="B953:B954"/>
-    <mergeCell ref="C953:C954"/>
-    <mergeCell ref="D953:D954"/>
-    <mergeCell ref="E953:E954"/>
-    <mergeCell ref="F953:F954"/>
-    <mergeCell ref="G953:G954"/>
-    <mergeCell ref="H953:H954"/>
-    <mergeCell ref="J953:J954"/>
-    <mergeCell ref="L953:L954"/>
-    <mergeCell ref="M953:M954"/>
-    <mergeCell ref="A955:A956"/>
-    <mergeCell ref="B955:B956"/>
-    <mergeCell ref="C955:C956"/>
-    <mergeCell ref="D955:D956"/>
-    <mergeCell ref="E955:E956"/>
-    <mergeCell ref="F955:F956"/>
-    <mergeCell ref="G955:G956"/>
-    <mergeCell ref="H955:H956"/>
-    <mergeCell ref="J955:J956"/>
-    <mergeCell ref="L955:L956"/>
-    <mergeCell ref="M955:M956"/>
-    <mergeCell ref="A957:A958"/>
-    <mergeCell ref="B957:B958"/>
-    <mergeCell ref="C957:C958"/>
-    <mergeCell ref="D957:D958"/>
-    <mergeCell ref="E957:E958"/>
-    <mergeCell ref="F957:F958"/>
-    <mergeCell ref="G957:G958"/>
-    <mergeCell ref="H957:H958"/>
-    <mergeCell ref="J957:J958"/>
-    <mergeCell ref="L957:L958"/>
-    <mergeCell ref="M957:M958"/>
-    <mergeCell ref="A959:A960"/>
-    <mergeCell ref="B959:B960"/>
-    <mergeCell ref="C959:C960"/>
-    <mergeCell ref="D959:D960"/>
-    <mergeCell ref="E959:E960"/>
-    <mergeCell ref="F959:F960"/>
-    <mergeCell ref="G959:G960"/>
-    <mergeCell ref="H959:H960"/>
-    <mergeCell ref="J959:J960"/>
-    <mergeCell ref="L959:L960"/>
-    <mergeCell ref="M959:M960"/>
-    <mergeCell ref="A961:A962"/>
-    <mergeCell ref="B961:B962"/>
-    <mergeCell ref="C961:C962"/>
-    <mergeCell ref="D961:D962"/>
-    <mergeCell ref="E961:E962"/>
-    <mergeCell ref="F961:F962"/>
-    <mergeCell ref="G961:G962"/>
-    <mergeCell ref="H961:H962"/>
-    <mergeCell ref="J961:J962"/>
-    <mergeCell ref="L961:L962"/>
-    <mergeCell ref="M961:M962"/>
-    <mergeCell ref="A963:A964"/>
-    <mergeCell ref="B963:B964"/>
-    <mergeCell ref="C963:C964"/>
-    <mergeCell ref="D963:D964"/>
-    <mergeCell ref="E963:E964"/>
-    <mergeCell ref="F963:F964"/>
-    <mergeCell ref="G963:G964"/>
-    <mergeCell ref="H963:H964"/>
-    <mergeCell ref="J963:J964"/>
-    <mergeCell ref="L963:L964"/>
-    <mergeCell ref="M963:M964"/>
-    <mergeCell ref="A965:A966"/>
-    <mergeCell ref="B965:B966"/>
-    <mergeCell ref="C965:C966"/>
-    <mergeCell ref="D965:D966"/>
-    <mergeCell ref="E965:E966"/>
-    <mergeCell ref="F965:F966"/>
-    <mergeCell ref="G965:G966"/>
-    <mergeCell ref="H965:H966"/>
-    <mergeCell ref="J965:J966"/>
-    <mergeCell ref="L965:L966"/>
-    <mergeCell ref="M965:M966"/>
-    <mergeCell ref="A967:A968"/>
-    <mergeCell ref="B967:B968"/>
-    <mergeCell ref="C967:C968"/>
-    <mergeCell ref="D967:D968"/>
-    <mergeCell ref="E967:E968"/>
-    <mergeCell ref="F967:F968"/>
-    <mergeCell ref="G967:G968"/>
-    <mergeCell ref="H967:H968"/>
-    <mergeCell ref="J967:J968"/>
-    <mergeCell ref="L967:L968"/>
-    <mergeCell ref="M967:M968"/>
-    <mergeCell ref="A969:A970"/>
-    <mergeCell ref="B969:B970"/>
-    <mergeCell ref="C969:C970"/>
-    <mergeCell ref="D969:D970"/>
-    <mergeCell ref="E969:E970"/>
-    <mergeCell ref="F969:F970"/>
-    <mergeCell ref="G969:G970"/>
-    <mergeCell ref="H969:H970"/>
-    <mergeCell ref="J969:J970"/>
-    <mergeCell ref="L969:L970"/>
-    <mergeCell ref="M969:M970"/>
-    <mergeCell ref="A971:A972"/>
-    <mergeCell ref="B971:B972"/>
-    <mergeCell ref="C971:C972"/>
-    <mergeCell ref="D971:D972"/>
-    <mergeCell ref="E971:E972"/>
-    <mergeCell ref="F971:F972"/>
-    <mergeCell ref="G971:G972"/>
-    <mergeCell ref="H971:H972"/>
-    <mergeCell ref="J971:J972"/>
-    <mergeCell ref="L971:L972"/>
-    <mergeCell ref="M971:M972"/>
-    <mergeCell ref="A973:A974"/>
-    <mergeCell ref="B973:B974"/>
-    <mergeCell ref="C973:C974"/>
-    <mergeCell ref="D973:D974"/>
-    <mergeCell ref="E973:E974"/>
-    <mergeCell ref="F973:F974"/>
-    <mergeCell ref="G973:G974"/>
-    <mergeCell ref="H973:H974"/>
-    <mergeCell ref="J973:J974"/>
-    <mergeCell ref="L973:L974"/>
-    <mergeCell ref="M973:M974"/>
-    <mergeCell ref="A975:A976"/>
-    <mergeCell ref="B975:B976"/>
-    <mergeCell ref="C975:C976"/>
-    <mergeCell ref="D975:D976"/>
-    <mergeCell ref="E975:E976"/>
-    <mergeCell ref="F975:F976"/>
-    <mergeCell ref="G975:G976"/>
-    <mergeCell ref="H975:H976"/>
-    <mergeCell ref="J975:J976"/>
-    <mergeCell ref="L975:L976"/>
-    <mergeCell ref="M975:M976"/>
-    <mergeCell ref="A977:A978"/>
-    <mergeCell ref="B977:B978"/>
-    <mergeCell ref="C977:C978"/>
-    <mergeCell ref="D977:D978"/>
-    <mergeCell ref="E977:E978"/>
-    <mergeCell ref="F977:F978"/>
-    <mergeCell ref="G977:G978"/>
-    <mergeCell ref="H977:H978"/>
-    <mergeCell ref="J977:J978"/>
-    <mergeCell ref="L977:L978"/>
-    <mergeCell ref="M977:M978"/>
-    <mergeCell ref="A979:A980"/>
-    <mergeCell ref="B979:B980"/>
-    <mergeCell ref="C979:C980"/>
-    <mergeCell ref="D979:D980"/>
-    <mergeCell ref="E979:E980"/>
-    <mergeCell ref="F979:F980"/>
-    <mergeCell ref="G979:G980"/>
-    <mergeCell ref="H979:H980"/>
-    <mergeCell ref="J979:J980"/>
-    <mergeCell ref="L979:L980"/>
-    <mergeCell ref="M979:M980"/>
-    <mergeCell ref="A981:A982"/>
-    <mergeCell ref="B981:B982"/>
-    <mergeCell ref="C981:C982"/>
-    <mergeCell ref="D981:D982"/>
-    <mergeCell ref="E981:E982"/>
-    <mergeCell ref="F981:F982"/>
-    <mergeCell ref="G981:G982"/>
-    <mergeCell ref="H981:H982"/>
-    <mergeCell ref="J981:J982"/>
-    <mergeCell ref="L981:L982"/>
-    <mergeCell ref="M981:M982"/>
-    <mergeCell ref="A983:A984"/>
-    <mergeCell ref="B983:B984"/>
-    <mergeCell ref="C983:C984"/>
-    <mergeCell ref="D983:D984"/>
-    <mergeCell ref="E983:E984"/>
-    <mergeCell ref="F983:F984"/>
-    <mergeCell ref="G983:G984"/>
-    <mergeCell ref="H983:H984"/>
-    <mergeCell ref="J983:J984"/>
-    <mergeCell ref="L983:L984"/>
-    <mergeCell ref="M983:M984"/>
-    <mergeCell ref="A985:A986"/>
-    <mergeCell ref="B985:B986"/>
-    <mergeCell ref="C985:C986"/>
-    <mergeCell ref="D985:D986"/>
-    <mergeCell ref="E985:E986"/>
-    <mergeCell ref="F985:F986"/>
-    <mergeCell ref="G985:G986"/>
-    <mergeCell ref="H985:H986"/>
-    <mergeCell ref="J985:J986"/>
-    <mergeCell ref="L985:L986"/>
-    <mergeCell ref="M985:M986"/>
-    <mergeCell ref="A987:A988"/>
-    <mergeCell ref="B987:B988"/>
-    <mergeCell ref="C987:C988"/>
-    <mergeCell ref="D987:D988"/>
-    <mergeCell ref="E987:E988"/>
-    <mergeCell ref="F987:F988"/>
-    <mergeCell ref="G987:G988"/>
-    <mergeCell ref="H987:H988"/>
-    <mergeCell ref="J987:J988"/>
-    <mergeCell ref="L987:L988"/>
-    <mergeCell ref="M987:M988"/>
-    <mergeCell ref="A989:A990"/>
-    <mergeCell ref="B989:B990"/>
-    <mergeCell ref="C989:C990"/>
-    <mergeCell ref="D989:D990"/>
-    <mergeCell ref="E989:E990"/>
-    <mergeCell ref="F989:F990"/>
-    <mergeCell ref="G989:G990"/>
-    <mergeCell ref="H989:H990"/>
-    <mergeCell ref="J989:J990"/>
-    <mergeCell ref="L989:L990"/>
-    <mergeCell ref="M989:M990"/>
-    <mergeCell ref="A991:A992"/>
-    <mergeCell ref="B991:B992"/>
-    <mergeCell ref="C991:C992"/>
-    <mergeCell ref="D991:D992"/>
-    <mergeCell ref="E991:E992"/>
-    <mergeCell ref="F991:F992"/>
-    <mergeCell ref="G991:G992"/>
-    <mergeCell ref="H991:H992"/>
-    <mergeCell ref="J991:J992"/>
-    <mergeCell ref="L991:L992"/>
-    <mergeCell ref="M991:M992"/>
-    <mergeCell ref="A993:A994"/>
-    <mergeCell ref="B993:B994"/>
-    <mergeCell ref="C993:C994"/>
-    <mergeCell ref="D993:D994"/>
-    <mergeCell ref="E993:E994"/>
-    <mergeCell ref="F993:F994"/>
-    <mergeCell ref="G993:G994"/>
-    <mergeCell ref="H993:H994"/>
-    <mergeCell ref="J993:J994"/>
-    <mergeCell ref="L993:L994"/>
-    <mergeCell ref="M993:M994"/>
-    <mergeCell ref="A995:A996"/>
-    <mergeCell ref="B995:B996"/>
-    <mergeCell ref="C995:C996"/>
-    <mergeCell ref="D995:D996"/>
-    <mergeCell ref="E995:E996"/>
-    <mergeCell ref="F995:F996"/>
-    <mergeCell ref="G995:G996"/>
-    <mergeCell ref="H995:H996"/>
-    <mergeCell ref="J995:J996"/>
-    <mergeCell ref="L995:L996"/>
-    <mergeCell ref="M995:M996"/>
-    <mergeCell ref="A997:A998"/>
-    <mergeCell ref="B997:B998"/>
-    <mergeCell ref="C997:C998"/>
-    <mergeCell ref="D997:D998"/>
-    <mergeCell ref="E997:E998"/>
-    <mergeCell ref="F997:F998"/>
-    <mergeCell ref="G997:G998"/>
-    <mergeCell ref="H997:H998"/>
-    <mergeCell ref="J997:J998"/>
-    <mergeCell ref="L997:L998"/>
-    <mergeCell ref="M997:M998"/>
-    <mergeCell ref="A999:A1000"/>
-    <mergeCell ref="B999:B1000"/>
-    <mergeCell ref="C999:C1000"/>
-    <mergeCell ref="D999:D1000"/>
-    <mergeCell ref="E999:E1000"/>
-    <mergeCell ref="F999:F1000"/>
-    <mergeCell ref="G999:G1000"/>
-    <mergeCell ref="H999:H1000"/>
-    <mergeCell ref="J999:J1000"/>
-    <mergeCell ref="L999:L1000"/>
-    <mergeCell ref="M999:M1000"/>
-    <mergeCell ref="A1001:A1002"/>
-    <mergeCell ref="B1001:B1002"/>
-    <mergeCell ref="C1001:C1002"/>
-    <mergeCell ref="D1001:D1002"/>
-    <mergeCell ref="E1001:E1002"/>
-    <mergeCell ref="F1001:F1002"/>
-    <mergeCell ref="G1001:G1002"/>
-    <mergeCell ref="H1001:H1002"/>
-    <mergeCell ref="J1001:J1002"/>
-    <mergeCell ref="L1001:L1002"/>
-    <mergeCell ref="M1001:M1002"/>
-    <mergeCell ref="A1003:A1004"/>
-    <mergeCell ref="B1003:B1004"/>
-    <mergeCell ref="C1003:C1004"/>
-    <mergeCell ref="D1003:D1004"/>
-    <mergeCell ref="E1003:E1004"/>
-    <mergeCell ref="F1003:F1004"/>
-    <mergeCell ref="G1003:G1004"/>
-    <mergeCell ref="H1003:H1004"/>
-    <mergeCell ref="J1003:J1004"/>
-    <mergeCell ref="L1003:L1004"/>
-    <mergeCell ref="M1003:M1004"/>
-    <mergeCell ref="A1005:A1006"/>
-    <mergeCell ref="B1005:B1006"/>
-    <mergeCell ref="C1005:C1006"/>
-    <mergeCell ref="D1005:D1006"/>
-    <mergeCell ref="E1005:E1006"/>
-    <mergeCell ref="F1005:F1006"/>
-    <mergeCell ref="G1005:G1006"/>
-    <mergeCell ref="H1005:H1006"/>
-    <mergeCell ref="J1005:J1006"/>
-    <mergeCell ref="L1005:L1006"/>
-    <mergeCell ref="M1005:M1006"/>
-    <mergeCell ref="A1007:A1008"/>
-    <mergeCell ref="B1007:B1008"/>
-    <mergeCell ref="C1007:C1008"/>
-    <mergeCell ref="D1007:D1008"/>
-    <mergeCell ref="E1007:E1008"/>
-    <mergeCell ref="F1007:F1008"/>
-    <mergeCell ref="G1007:G1008"/>
-    <mergeCell ref="H1007:H1008"/>
-    <mergeCell ref="J1007:J1008"/>
-    <mergeCell ref="L1007:L1008"/>
-    <mergeCell ref="M1007:M1008"/>
-    <mergeCell ref="A1022:A1023"/>
-    <mergeCell ref="B1022:B1023"/>
-    <mergeCell ref="C1022:C1023"/>
-    <mergeCell ref="D1022:D1023"/>
-    <mergeCell ref="E1022:E1023"/>
-    <mergeCell ref="F1022:F1023"/>
-    <mergeCell ref="G1022:G1023"/>
-    <mergeCell ref="H1022:H1023"/>
-    <mergeCell ref="J1022:J1023"/>
-    <mergeCell ref="L1022:L1023"/>
-    <mergeCell ref="M1022:M1023"/>
+    <mergeCell ref="A814:A824"/>
+    <mergeCell ref="B814:B824"/>
+    <mergeCell ref="C814:C824"/>
+    <mergeCell ref="D814:D824"/>
+    <mergeCell ref="E814:E824"/>
+    <mergeCell ref="F814:F824"/>
+    <mergeCell ref="G814:G824"/>
+    <mergeCell ref="H814:H824"/>
+    <mergeCell ref="L814:L824"/>
+    <mergeCell ref="M814:M824"/>
+    <mergeCell ref="A836:A841"/>
+    <mergeCell ref="B836:B841"/>
+    <mergeCell ref="C836:C841"/>
+    <mergeCell ref="D836:D841"/>
+    <mergeCell ref="E836:E841"/>
+    <mergeCell ref="F836:F841"/>
+    <mergeCell ref="G836:G841"/>
+    <mergeCell ref="H836:H841"/>
+    <mergeCell ref="J836:J841"/>
+    <mergeCell ref="L836:L841"/>
+    <mergeCell ref="M836:M841"/>
+    <mergeCell ref="A842:A845"/>
+    <mergeCell ref="B842:B845"/>
+    <mergeCell ref="C842:C845"/>
+    <mergeCell ref="D842:D845"/>
+    <mergeCell ref="E842:E845"/>
+    <mergeCell ref="F842:F845"/>
+    <mergeCell ref="G842:G845"/>
+    <mergeCell ref="H842:H845"/>
+    <mergeCell ref="J842:J845"/>
+    <mergeCell ref="L842:L845"/>
+    <mergeCell ref="M842:M845"/>
+    <mergeCell ref="A846:A849"/>
+    <mergeCell ref="B846:B849"/>
+    <mergeCell ref="C846:C849"/>
+    <mergeCell ref="D846:D849"/>
+    <mergeCell ref="E846:E849"/>
+    <mergeCell ref="F846:F849"/>
+    <mergeCell ref="G846:G849"/>
+    <mergeCell ref="H846:H849"/>
+    <mergeCell ref="J846:J849"/>
+    <mergeCell ref="L846:L849"/>
+    <mergeCell ref="M846:M849"/>
+    <mergeCell ref="A850:A853"/>
+    <mergeCell ref="B850:B853"/>
+    <mergeCell ref="C850:C853"/>
+    <mergeCell ref="D850:D853"/>
+    <mergeCell ref="E850:E853"/>
+    <mergeCell ref="F850:F853"/>
+    <mergeCell ref="G850:G853"/>
+    <mergeCell ref="H850:H853"/>
+    <mergeCell ref="J850:J853"/>
+    <mergeCell ref="L850:L853"/>
+    <mergeCell ref="M850:M853"/>
+    <mergeCell ref="A854:A860"/>
+    <mergeCell ref="B854:B860"/>
+    <mergeCell ref="C854:C860"/>
+    <mergeCell ref="D854:D860"/>
+    <mergeCell ref="E854:E860"/>
+    <mergeCell ref="F854:F860"/>
+    <mergeCell ref="G854:G860"/>
+    <mergeCell ref="H854:H860"/>
+    <mergeCell ref="J854:J860"/>
+    <mergeCell ref="L854:L860"/>
+    <mergeCell ref="M854:M860"/>
+    <mergeCell ref="A861:A867"/>
+    <mergeCell ref="B861:B867"/>
+    <mergeCell ref="C861:C867"/>
+    <mergeCell ref="D861:D867"/>
+    <mergeCell ref="E861:E867"/>
+    <mergeCell ref="F861:F867"/>
+    <mergeCell ref="G861:G867"/>
+    <mergeCell ref="H861:H867"/>
+    <mergeCell ref="J861:J867"/>
+    <mergeCell ref="L861:L867"/>
+    <mergeCell ref="M861:M867"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="B869:B872"/>
+    <mergeCell ref="C869:C872"/>
+    <mergeCell ref="D869:D872"/>
+    <mergeCell ref="E869:E872"/>
+    <mergeCell ref="F869:F872"/>
+    <mergeCell ref="G869:G872"/>
+    <mergeCell ref="H869:H872"/>
+    <mergeCell ref="J869:J872"/>
+    <mergeCell ref="L869:L872"/>
+    <mergeCell ref="M869:M872"/>
+    <mergeCell ref="A873:A886"/>
+    <mergeCell ref="B873:B886"/>
+    <mergeCell ref="C873:C886"/>
+    <mergeCell ref="D873:D886"/>
+    <mergeCell ref="E873:E886"/>
+    <mergeCell ref="F873:F886"/>
+    <mergeCell ref="G873:G886"/>
+    <mergeCell ref="H873:H886"/>
+    <mergeCell ref="J873:J886"/>
+    <mergeCell ref="L873:L886"/>
+    <mergeCell ref="M873:M886"/>
+    <mergeCell ref="A887:A909"/>
+    <mergeCell ref="B887:B909"/>
+    <mergeCell ref="C887:C909"/>
+    <mergeCell ref="D887:D909"/>
+    <mergeCell ref="E887:E909"/>
+    <mergeCell ref="F887:F909"/>
+    <mergeCell ref="G887:G909"/>
+    <mergeCell ref="H887:H909"/>
+    <mergeCell ref="J887:J909"/>
+    <mergeCell ref="L887:L909"/>
+    <mergeCell ref="M887:M909"/>
+    <mergeCell ref="A910:A915"/>
+    <mergeCell ref="B910:B915"/>
+    <mergeCell ref="C910:C915"/>
+    <mergeCell ref="D910:D915"/>
+    <mergeCell ref="E910:E915"/>
+    <mergeCell ref="F910:F915"/>
+    <mergeCell ref="G910:G915"/>
+    <mergeCell ref="H910:H915"/>
+    <mergeCell ref="J910:J915"/>
+    <mergeCell ref="L910:L915"/>
+    <mergeCell ref="M910:M915"/>
+    <mergeCell ref="A916:A921"/>
+    <mergeCell ref="B916:B921"/>
+    <mergeCell ref="C916:C921"/>
+    <mergeCell ref="D916:D921"/>
+    <mergeCell ref="E916:E921"/>
+    <mergeCell ref="F916:F921"/>
+    <mergeCell ref="G916:G921"/>
+    <mergeCell ref="H916:H921"/>
+    <mergeCell ref="J916:J921"/>
+    <mergeCell ref="L916:L921"/>
+    <mergeCell ref="M916:M921"/>
+    <mergeCell ref="A922:A927"/>
+    <mergeCell ref="B922:B927"/>
+    <mergeCell ref="C922:C927"/>
+    <mergeCell ref="D922:D927"/>
+    <mergeCell ref="E922:E927"/>
+    <mergeCell ref="F922:F927"/>
+    <mergeCell ref="G922:G927"/>
+    <mergeCell ref="H922:H927"/>
+    <mergeCell ref="J922:J927"/>
+    <mergeCell ref="L922:L927"/>
+    <mergeCell ref="M922:M927"/>
+    <mergeCell ref="A928:A933"/>
+    <mergeCell ref="B928:B933"/>
+    <mergeCell ref="C928:C933"/>
+    <mergeCell ref="D928:D933"/>
+    <mergeCell ref="E928:E933"/>
+    <mergeCell ref="F928:F933"/>
+    <mergeCell ref="G928:G933"/>
+    <mergeCell ref="H928:H933"/>
+    <mergeCell ref="J928:J933"/>
+    <mergeCell ref="L928:L933"/>
+    <mergeCell ref="M928:M933"/>
+    <mergeCell ref="A934:A935"/>
+    <mergeCell ref="B934:B935"/>
+    <mergeCell ref="C934:C935"/>
+    <mergeCell ref="D934:D935"/>
+    <mergeCell ref="E934:E935"/>
+    <mergeCell ref="F934:F935"/>
+    <mergeCell ref="G934:G935"/>
+    <mergeCell ref="H934:H935"/>
+    <mergeCell ref="J934:J935"/>
+    <mergeCell ref="L934:L935"/>
+    <mergeCell ref="M934:M935"/>
+    <mergeCell ref="A936:A937"/>
+    <mergeCell ref="B936:B937"/>
+    <mergeCell ref="C936:C937"/>
+    <mergeCell ref="D936:D937"/>
+    <mergeCell ref="E936:E937"/>
+    <mergeCell ref="F936:F937"/>
+    <mergeCell ref="G936:G937"/>
+    <mergeCell ref="H936:H937"/>
+    <mergeCell ref="J936:J937"/>
+    <mergeCell ref="L936:L937"/>
+    <mergeCell ref="M936:M937"/>
+    <mergeCell ref="A938:A939"/>
+    <mergeCell ref="B938:B939"/>
+    <mergeCell ref="C938:C939"/>
+    <mergeCell ref="D938:D939"/>
+    <mergeCell ref="E938:E939"/>
+    <mergeCell ref="F938:F939"/>
+    <mergeCell ref="G938:G939"/>
+    <mergeCell ref="H938:H939"/>
+    <mergeCell ref="J938:J939"/>
+    <mergeCell ref="L938:L939"/>
+    <mergeCell ref="M938:M939"/>
+    <mergeCell ref="A940:A941"/>
+    <mergeCell ref="B940:B941"/>
+    <mergeCell ref="C940:C941"/>
+    <mergeCell ref="D940:D941"/>
+    <mergeCell ref="E940:E941"/>
+    <mergeCell ref="F940:F941"/>
+    <mergeCell ref="G940:G941"/>
+    <mergeCell ref="H940:H941"/>
+    <mergeCell ref="J940:J941"/>
+    <mergeCell ref="L940:L941"/>
+    <mergeCell ref="M940:M941"/>
+    <mergeCell ref="A942:A943"/>
+    <mergeCell ref="B942:B943"/>
+    <mergeCell ref="C942:C943"/>
+    <mergeCell ref="D942:D943"/>
+    <mergeCell ref="E942:E943"/>
+    <mergeCell ref="F942:F943"/>
+    <mergeCell ref="G942:G943"/>
+    <mergeCell ref="H942:H943"/>
+    <mergeCell ref="J942:J943"/>
+    <mergeCell ref="L942:L943"/>
+    <mergeCell ref="M942:M943"/>
+    <mergeCell ref="A944:A945"/>
+    <mergeCell ref="B944:B945"/>
+    <mergeCell ref="C944:C945"/>
+    <mergeCell ref="D944:D945"/>
+    <mergeCell ref="E944:E945"/>
+    <mergeCell ref="F944:F945"/>
+    <mergeCell ref="G944:G945"/>
+    <mergeCell ref="H944:H945"/>
+    <mergeCell ref="J944:J945"/>
+    <mergeCell ref="L944:L945"/>
+    <mergeCell ref="M944:M945"/>
+    <mergeCell ref="A947:A951"/>
+    <mergeCell ref="B947:B951"/>
+    <mergeCell ref="C947:C951"/>
+    <mergeCell ref="D947:D951"/>
+    <mergeCell ref="E947:E951"/>
+    <mergeCell ref="F947:F951"/>
+    <mergeCell ref="G947:G951"/>
+    <mergeCell ref="H947:H951"/>
+    <mergeCell ref="J947:J951"/>
+    <mergeCell ref="L947:L951"/>
+    <mergeCell ref="M947:M951"/>
+    <mergeCell ref="A953:A957"/>
+    <mergeCell ref="B953:B957"/>
+    <mergeCell ref="C953:C957"/>
+    <mergeCell ref="D953:D957"/>
+    <mergeCell ref="E953:E957"/>
+    <mergeCell ref="F953:F957"/>
+    <mergeCell ref="G953:G957"/>
+    <mergeCell ref="H953:H957"/>
+    <mergeCell ref="J953:J957"/>
+    <mergeCell ref="L953:L957"/>
+    <mergeCell ref="M953:M957"/>
+    <mergeCell ref="A958:A959"/>
+    <mergeCell ref="B958:B959"/>
+    <mergeCell ref="C958:C959"/>
+    <mergeCell ref="D958:D959"/>
+    <mergeCell ref="E958:E959"/>
+    <mergeCell ref="F958:F959"/>
+    <mergeCell ref="G958:G959"/>
+    <mergeCell ref="H958:H959"/>
+    <mergeCell ref="J958:J959"/>
+    <mergeCell ref="L958:L959"/>
+    <mergeCell ref="M958:M959"/>
+    <mergeCell ref="A960:A961"/>
+    <mergeCell ref="B960:B961"/>
+    <mergeCell ref="C960:C961"/>
+    <mergeCell ref="D960:D961"/>
+    <mergeCell ref="E960:E961"/>
+    <mergeCell ref="F960:F961"/>
+    <mergeCell ref="G960:G961"/>
+    <mergeCell ref="H960:H961"/>
+    <mergeCell ref="J960:J961"/>
+    <mergeCell ref="L960:L961"/>
+    <mergeCell ref="M960:M961"/>
+    <mergeCell ref="A962:A963"/>
+    <mergeCell ref="B962:B963"/>
+    <mergeCell ref="C962:C963"/>
+    <mergeCell ref="D962:D963"/>
+    <mergeCell ref="E962:E963"/>
+    <mergeCell ref="F962:F963"/>
+    <mergeCell ref="G962:G963"/>
+    <mergeCell ref="H962:H963"/>
+    <mergeCell ref="J962:J963"/>
+    <mergeCell ref="L962:L963"/>
+    <mergeCell ref="M962:M963"/>
+    <mergeCell ref="A964:A965"/>
+    <mergeCell ref="B964:B965"/>
+    <mergeCell ref="C964:C965"/>
+    <mergeCell ref="D964:D965"/>
+    <mergeCell ref="E964:E965"/>
+    <mergeCell ref="F964:F965"/>
+    <mergeCell ref="G964:G965"/>
+    <mergeCell ref="H964:H965"/>
+    <mergeCell ref="J964:J965"/>
+    <mergeCell ref="L964:L965"/>
+    <mergeCell ref="M964:M965"/>
+    <mergeCell ref="A966:A967"/>
+    <mergeCell ref="B966:B967"/>
+    <mergeCell ref="C966:C967"/>
+    <mergeCell ref="D966:D967"/>
+    <mergeCell ref="E966:E967"/>
+    <mergeCell ref="F966:F967"/>
+    <mergeCell ref="G966:G967"/>
+    <mergeCell ref="H966:H967"/>
+    <mergeCell ref="J966:J967"/>
+    <mergeCell ref="L966:L967"/>
+    <mergeCell ref="M966:M967"/>
+    <mergeCell ref="A968:A969"/>
+    <mergeCell ref="B968:B969"/>
+    <mergeCell ref="C968:C969"/>
+    <mergeCell ref="D968:D969"/>
+    <mergeCell ref="E968:E969"/>
+    <mergeCell ref="F968:F969"/>
+    <mergeCell ref="G968:G969"/>
+    <mergeCell ref="H968:H969"/>
+    <mergeCell ref="J968:J969"/>
+    <mergeCell ref="L968:L969"/>
+    <mergeCell ref="M968:M969"/>
+    <mergeCell ref="A970:A971"/>
+    <mergeCell ref="B970:B971"/>
+    <mergeCell ref="C970:C971"/>
+    <mergeCell ref="D970:D971"/>
+    <mergeCell ref="E970:E971"/>
+    <mergeCell ref="F970:F971"/>
+    <mergeCell ref="G970:G971"/>
+    <mergeCell ref="H970:H971"/>
+    <mergeCell ref="J970:J971"/>
+    <mergeCell ref="L970:L971"/>
+    <mergeCell ref="M970:M971"/>
+    <mergeCell ref="A972:A973"/>
+    <mergeCell ref="B972:B973"/>
+    <mergeCell ref="C972:C973"/>
+    <mergeCell ref="D972:D973"/>
+    <mergeCell ref="E972:E973"/>
+    <mergeCell ref="F972:F973"/>
+    <mergeCell ref="G972:G973"/>
+    <mergeCell ref="H972:H973"/>
+    <mergeCell ref="J972:J973"/>
+    <mergeCell ref="L972:L973"/>
+    <mergeCell ref="M972:M973"/>
+    <mergeCell ref="A974:A975"/>
+    <mergeCell ref="B974:B975"/>
+    <mergeCell ref="C974:C975"/>
+    <mergeCell ref="D974:D975"/>
+    <mergeCell ref="E974:E975"/>
+    <mergeCell ref="F974:F975"/>
+    <mergeCell ref="G974:G975"/>
+    <mergeCell ref="H974:H975"/>
+    <mergeCell ref="J974:J975"/>
+    <mergeCell ref="L974:L975"/>
+    <mergeCell ref="M974:M975"/>
+    <mergeCell ref="A976:A977"/>
+    <mergeCell ref="B976:B977"/>
+    <mergeCell ref="C976:C977"/>
+    <mergeCell ref="D976:D977"/>
+    <mergeCell ref="E976:E977"/>
+    <mergeCell ref="F976:F977"/>
+    <mergeCell ref="G976:G977"/>
+    <mergeCell ref="H976:H977"/>
+    <mergeCell ref="J976:J977"/>
+    <mergeCell ref="L976:L977"/>
+    <mergeCell ref="M976:M977"/>
+    <mergeCell ref="A978:A979"/>
+    <mergeCell ref="B978:B979"/>
+    <mergeCell ref="C978:C979"/>
+    <mergeCell ref="D978:D979"/>
+    <mergeCell ref="E978:E979"/>
+    <mergeCell ref="F978:F979"/>
+    <mergeCell ref="G978:G979"/>
+    <mergeCell ref="H978:H979"/>
+    <mergeCell ref="J978:J979"/>
+    <mergeCell ref="L978:L979"/>
+    <mergeCell ref="M978:M979"/>
+    <mergeCell ref="A980:A981"/>
+    <mergeCell ref="B980:B981"/>
+    <mergeCell ref="C980:C981"/>
+    <mergeCell ref="D980:D981"/>
+    <mergeCell ref="E980:E981"/>
+    <mergeCell ref="F980:F981"/>
+    <mergeCell ref="G980:G981"/>
+    <mergeCell ref="H980:H981"/>
+    <mergeCell ref="J980:J981"/>
+    <mergeCell ref="L980:L981"/>
+    <mergeCell ref="M980:M981"/>
+    <mergeCell ref="A982:A983"/>
+    <mergeCell ref="B982:B983"/>
+    <mergeCell ref="C982:C983"/>
+    <mergeCell ref="D982:D983"/>
+    <mergeCell ref="E982:E983"/>
+    <mergeCell ref="F982:F983"/>
+    <mergeCell ref="G982:G983"/>
+    <mergeCell ref="H982:H983"/>
+    <mergeCell ref="J982:J983"/>
+    <mergeCell ref="L982:L983"/>
+    <mergeCell ref="M982:M983"/>
+    <mergeCell ref="A984:A985"/>
+    <mergeCell ref="B984:B985"/>
+    <mergeCell ref="C984:C985"/>
+    <mergeCell ref="D984:D985"/>
+    <mergeCell ref="E984:E985"/>
+    <mergeCell ref="F984:F985"/>
+    <mergeCell ref="G984:G985"/>
+    <mergeCell ref="H984:H985"/>
+    <mergeCell ref="J984:J985"/>
+    <mergeCell ref="L984:L985"/>
+    <mergeCell ref="M984:M985"/>
+    <mergeCell ref="A986:A987"/>
+    <mergeCell ref="B986:B987"/>
+    <mergeCell ref="C986:C987"/>
+    <mergeCell ref="D986:D987"/>
+    <mergeCell ref="E986:E987"/>
+    <mergeCell ref="F986:F987"/>
+    <mergeCell ref="G986:G987"/>
+    <mergeCell ref="H986:H987"/>
+    <mergeCell ref="J986:J987"/>
+    <mergeCell ref="L986:L987"/>
+    <mergeCell ref="M986:M987"/>
+    <mergeCell ref="A988:A989"/>
+    <mergeCell ref="B988:B989"/>
+    <mergeCell ref="C988:C989"/>
+    <mergeCell ref="D988:D989"/>
+    <mergeCell ref="E988:E989"/>
+    <mergeCell ref="F988:F989"/>
+    <mergeCell ref="G988:G989"/>
+    <mergeCell ref="H988:H989"/>
+    <mergeCell ref="J988:J989"/>
+    <mergeCell ref="L988:L989"/>
+    <mergeCell ref="M988:M989"/>
+    <mergeCell ref="A990:A991"/>
+    <mergeCell ref="B990:B991"/>
+    <mergeCell ref="C990:C991"/>
+    <mergeCell ref="D990:D991"/>
+    <mergeCell ref="E990:E991"/>
+    <mergeCell ref="F990:F991"/>
+    <mergeCell ref="G990:G991"/>
+    <mergeCell ref="H990:H991"/>
+    <mergeCell ref="J990:J991"/>
+    <mergeCell ref="L990:L991"/>
+    <mergeCell ref="M990:M991"/>
+    <mergeCell ref="A992:A993"/>
+    <mergeCell ref="B992:B993"/>
+    <mergeCell ref="C992:C993"/>
+    <mergeCell ref="D992:D993"/>
+    <mergeCell ref="E992:E993"/>
+    <mergeCell ref="F992:F993"/>
+    <mergeCell ref="G992:G993"/>
+    <mergeCell ref="H992:H993"/>
+    <mergeCell ref="J992:J993"/>
+    <mergeCell ref="L992:L993"/>
+    <mergeCell ref="M992:M993"/>
+    <mergeCell ref="A994:A995"/>
+    <mergeCell ref="B994:B995"/>
+    <mergeCell ref="C994:C995"/>
+    <mergeCell ref="D994:D995"/>
+    <mergeCell ref="E994:E995"/>
+    <mergeCell ref="F994:F995"/>
+    <mergeCell ref="G994:G995"/>
+    <mergeCell ref="H994:H995"/>
+    <mergeCell ref="J994:J995"/>
+    <mergeCell ref="L994:L995"/>
+    <mergeCell ref="M994:M995"/>
+    <mergeCell ref="A996:A997"/>
+    <mergeCell ref="B996:B997"/>
+    <mergeCell ref="C996:C997"/>
+    <mergeCell ref="D996:D997"/>
+    <mergeCell ref="E996:E997"/>
+    <mergeCell ref="F996:F997"/>
+    <mergeCell ref="G996:G997"/>
+    <mergeCell ref="H996:H997"/>
+    <mergeCell ref="J996:J997"/>
+    <mergeCell ref="L996:L997"/>
+    <mergeCell ref="M996:M997"/>
+    <mergeCell ref="A998:A999"/>
+    <mergeCell ref="B998:B999"/>
+    <mergeCell ref="C998:C999"/>
+    <mergeCell ref="D998:D999"/>
+    <mergeCell ref="E998:E999"/>
+    <mergeCell ref="F998:F999"/>
+    <mergeCell ref="G998:G999"/>
+    <mergeCell ref="H998:H999"/>
+    <mergeCell ref="J998:J999"/>
+    <mergeCell ref="L998:L999"/>
+    <mergeCell ref="M998:M999"/>
+    <mergeCell ref="A1000:A1001"/>
+    <mergeCell ref="B1000:B1001"/>
+    <mergeCell ref="C1000:C1001"/>
+    <mergeCell ref="D1000:D1001"/>
+    <mergeCell ref="E1000:E1001"/>
+    <mergeCell ref="F1000:F1001"/>
+    <mergeCell ref="G1000:G1001"/>
+    <mergeCell ref="H1000:H1001"/>
+    <mergeCell ref="J1000:J1001"/>
+    <mergeCell ref="L1000:L1001"/>
+    <mergeCell ref="M1000:M1001"/>
+    <mergeCell ref="A1002:A1003"/>
+    <mergeCell ref="B1002:B1003"/>
+    <mergeCell ref="C1002:C1003"/>
+    <mergeCell ref="D1002:D1003"/>
+    <mergeCell ref="E1002:E1003"/>
+    <mergeCell ref="F1002:F1003"/>
+    <mergeCell ref="G1002:G1003"/>
+    <mergeCell ref="H1002:H1003"/>
+    <mergeCell ref="J1002:J1003"/>
+    <mergeCell ref="L1002:L1003"/>
+    <mergeCell ref="M1002:M1003"/>
+    <mergeCell ref="A1004:A1005"/>
+    <mergeCell ref="B1004:B1005"/>
+    <mergeCell ref="C1004:C1005"/>
+    <mergeCell ref="D1004:D1005"/>
+    <mergeCell ref="E1004:E1005"/>
+    <mergeCell ref="F1004:F1005"/>
+    <mergeCell ref="G1004:G1005"/>
+    <mergeCell ref="H1004:H1005"/>
+    <mergeCell ref="J1004:J1005"/>
+    <mergeCell ref="L1004:L1005"/>
+    <mergeCell ref="M1004:M1005"/>
+    <mergeCell ref="A1006:A1007"/>
+    <mergeCell ref="B1006:B1007"/>
+    <mergeCell ref="C1006:C1007"/>
+    <mergeCell ref="D1006:D1007"/>
+    <mergeCell ref="E1006:E1007"/>
+    <mergeCell ref="F1006:F1007"/>
+    <mergeCell ref="G1006:G1007"/>
+    <mergeCell ref="H1006:H1007"/>
+    <mergeCell ref="J1006:J1007"/>
+    <mergeCell ref="L1006:L1007"/>
+    <mergeCell ref="M1006:M1007"/>
+    <mergeCell ref="A1008:A1009"/>
+    <mergeCell ref="B1008:B1009"/>
+    <mergeCell ref="C1008:C1009"/>
+    <mergeCell ref="D1008:D1009"/>
+    <mergeCell ref="E1008:E1009"/>
+    <mergeCell ref="F1008:F1009"/>
+    <mergeCell ref="G1008:G1009"/>
+    <mergeCell ref="H1008:H1009"/>
+    <mergeCell ref="J1008:J1009"/>
+    <mergeCell ref="L1008:L1009"/>
+    <mergeCell ref="M1008:M1009"/>
+    <mergeCell ref="A1010:A1011"/>
+    <mergeCell ref="B1010:B1011"/>
+    <mergeCell ref="C1010:C1011"/>
+    <mergeCell ref="D1010:D1011"/>
+    <mergeCell ref="E1010:E1011"/>
+    <mergeCell ref="F1010:F1011"/>
+    <mergeCell ref="G1010:G1011"/>
+    <mergeCell ref="H1010:H1011"/>
+    <mergeCell ref="J1010:J1011"/>
+    <mergeCell ref="L1010:L1011"/>
+    <mergeCell ref="M1010:M1011"/>
+    <mergeCell ref="A1012:A1013"/>
+    <mergeCell ref="B1012:B1013"/>
+    <mergeCell ref="C1012:C1013"/>
+    <mergeCell ref="D1012:D1013"/>
+    <mergeCell ref="E1012:E1013"/>
+    <mergeCell ref="F1012:F1013"/>
+    <mergeCell ref="G1012:G1013"/>
+    <mergeCell ref="H1012:H1013"/>
+    <mergeCell ref="J1012:J1013"/>
+    <mergeCell ref="L1012:L1013"/>
+    <mergeCell ref="M1012:M1013"/>
+    <mergeCell ref="A1014:A1015"/>
+    <mergeCell ref="B1014:B1015"/>
+    <mergeCell ref="C1014:C1015"/>
+    <mergeCell ref="D1014:D1015"/>
+    <mergeCell ref="E1014:E1015"/>
+    <mergeCell ref="F1014:F1015"/>
+    <mergeCell ref="G1014:G1015"/>
+    <mergeCell ref="H1014:H1015"/>
+    <mergeCell ref="J1014:J1015"/>
+    <mergeCell ref="L1014:L1015"/>
+    <mergeCell ref="M1014:M1015"/>
+    <mergeCell ref="A1016:A1017"/>
+    <mergeCell ref="B1016:B1017"/>
+    <mergeCell ref="C1016:C1017"/>
+    <mergeCell ref="D1016:D1017"/>
+    <mergeCell ref="E1016:E1017"/>
+    <mergeCell ref="F1016:F1017"/>
+    <mergeCell ref="G1016:G1017"/>
+    <mergeCell ref="H1016:H1017"/>
+    <mergeCell ref="J1016:J1017"/>
+    <mergeCell ref="L1016:L1017"/>
+    <mergeCell ref="M1016:M1017"/>
+    <mergeCell ref="A1018:A1019"/>
+    <mergeCell ref="B1018:B1019"/>
+    <mergeCell ref="C1018:C1019"/>
+    <mergeCell ref="D1018:D1019"/>
+    <mergeCell ref="E1018:E1019"/>
+    <mergeCell ref="F1018:F1019"/>
+    <mergeCell ref="G1018:G1019"/>
+    <mergeCell ref="H1018:H1019"/>
+    <mergeCell ref="J1018:J1019"/>
+    <mergeCell ref="L1018:L1019"/>
+    <mergeCell ref="M1018:M1019"/>
+    <mergeCell ref="A1033:A1034"/>
+    <mergeCell ref="B1033:B1034"/>
+    <mergeCell ref="C1033:C1034"/>
+    <mergeCell ref="D1033:D1034"/>
+    <mergeCell ref="E1033:E1034"/>
+    <mergeCell ref="F1033:F1034"/>
+    <mergeCell ref="G1033:G1034"/>
+    <mergeCell ref="H1033:H1034"/>
+    <mergeCell ref="J1033:J1034"/>
+    <mergeCell ref="L1033:L1034"/>
+    <mergeCell ref="M1033:M1034"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A53" location="freitextfelder" display="Freitextfeld"/>
@@ -29080,17 +29383,17 @@
     <hyperlink ref="B343" r:id="rId4" display="Telegram"/>
     <hyperlink ref="H343" r:id="rId5" display="Telegram"/>
     <hyperlink ref="B355" r:id="rId6" display="easyvote-Wahlbroschüre"/>
-    <hyperlink ref="I814" r:id="rId7" display="ISO 8601"/>
-    <hyperlink ref="A821" r:id="rId8" display="factor"/>
-    <hyperlink ref="B857" r:id="rId9" display="OECD-Quadratwurzel-Skala"/>
-    <hyperlink ref="H876" r:id="rId10" display="“Credit Suisse Sorgenbarometer”"/>
-    <hyperlink ref="H1009" r:id="rId11" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1010" r:id="rId12" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1011" r:id="rId13" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1012" r:id="rId14" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1013" r:id="rId15" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1014" r:id="rId16" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1015" r:id="rId17" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="I825" r:id="rId7" display="ISO 8601"/>
+    <hyperlink ref="A832" r:id="rId8" display="factor"/>
+    <hyperlink ref="B868" r:id="rId9" display="OECD-Quadratwurzel-Skala"/>
+    <hyperlink ref="H887" r:id="rId10" display="“Credit Suisse Sorgenbarometer”"/>
+    <hyperlink ref="H1020" r:id="rId11" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1021" r:id="rId12" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1022" r:id="rId13" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1023" r:id="rId14" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1024" r:id="rId15" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1025" r:id="rId16" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1026" r:id="rId17" display="iterative proportional fitting procedure"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/output/questionnaires/2024-10-20_aargau.xlsx
+++ b/output/questionnaires/2024-10-20_aargau.xlsx
@@ -707,7 +707,7 @@
     <t xml:space="preserve">FDP.Die Liberalen und Jungfreisinnige</t>
   </si>
   <si>
-    <t xml:space="preserve">FDP / Jungfreisinn</t>
+    <t xml:space="preserve">FDP / Jungfreisinnige</t>
   </si>
   <si>
     <t xml:space="preserve">Die Mitte.Miteinander.Für den Aargau.</t>
